--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna.palmer/Documents/GitHub/covasim-australia/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna.palmer/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B166517-943D-AD44-9363-737BEE7CB166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{218098B0-849A-2D4F-87F8-C814B4F01D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="3100" windowWidth="28040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22780" yWindow="13600" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
     <sheet name="contact matrices-home" sheetId="2" r:id="rId2"/>
     <sheet name="age_sex" sheetId="3" r:id="rId3"/>
     <sheet name="households" sheetId="4" r:id="rId4"/>
+    <sheet name="layers" sheetId="5" r:id="rId5"/>
+    <sheet name="other_par" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="209">
   <si>
     <t>date</t>
   </si>
@@ -522,6 +524,144 @@
   </si>
   <si>
     <t>6+ persons</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>beta_layer</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quar_eff</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>age_lb</t>
+  </si>
+  <si>
+    <t>age_ub</t>
+  </si>
+  <si>
+    <t>cluster_type</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>pSport</t>
+  </si>
+  <si>
+    <t>beach_goer</t>
+  </si>
+  <si>
+    <t>beach goers</t>
+  </si>
+  <si>
+    <t>professional sports players</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>general community</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>pop_size</t>
+  </si>
+  <si>
+    <t>pop_scale</t>
+  </si>
+  <si>
+    <t>rescale</t>
+  </si>
+  <si>
+    <t>rescale_threshold</t>
+  </si>
+  <si>
+    <t>pop_infected</t>
+  </si>
+  <si>
+    <t>population size (this will be scaled)</t>
+  </si>
+  <si>
+    <t>scale factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of susceptible population that will trigger rescaling </t>
+  </si>
+  <si>
+    <t>Number of initial infections</t>
+  </si>
+  <si>
+    <t>rescale_factor</t>
+  </si>
+  <si>
+    <t>start_day</t>
+  </si>
+  <si>
+    <t>end_day</t>
+  </si>
+  <si>
+    <t>start date of simulation</t>
+  </si>
+  <si>
+    <t>end date of simulation</t>
+  </si>
+  <si>
+    <t>n_runs</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>trace_probs</t>
+  </si>
+  <si>
+    <t>trace_time</t>
+  </si>
+  <si>
+    <t>undiag</t>
+  </si>
+  <si>
+    <t>Proportion of cases that are undiagnosed</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1268,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1164,6 +1304,9 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1525,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
@@ -6007,4 +6150,434 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>110</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>110</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>110</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>110</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="24">
+        <v>43891</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="24">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5">
+        <v>20000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna.palmer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218098B0-849A-2D4F-87F8-C814B4F01D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32F95F-01B9-43F7-94E1-D4351697260A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22780" yWindow="13600" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,12 @@
     <sheet name="layers" sheetId="5" r:id="rId5"/>
     <sheet name="other_par" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="214">
   <si>
     <t>date</t>
   </si>
@@ -583,9 +581,6 @@
     <t>beach_goer</t>
   </si>
   <si>
-    <t>beach goers</t>
-  </si>
-  <si>
     <t>professional sports players</t>
   </si>
   <si>
@@ -662,6 +657,24 @@
   </si>
   <si>
     <t>Proportion of cases that are undiagnosed</t>
+  </si>
+  <si>
+    <t>cinema_goers</t>
+  </si>
+  <si>
+    <t>pub_cafe_goers</t>
+  </si>
+  <si>
+    <t>people who go to pubs and cafes</t>
+  </si>
+  <si>
+    <t>people who go to the beach</t>
+  </si>
+  <si>
+    <t>people who go to cinemas</t>
+  </si>
+  <si>
+    <t>partition</t>
   </si>
 </sst>
 </file>
@@ -1673,24 +1686,24 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="10.796875" style="22"/>
     <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="7" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="14" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="7" customWidth="1"/>
     <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="7"/>
+    <col min="13" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>43891</v>
       </c>
@@ -1748,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>43892</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>43893</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>43894</v>
       </c>
@@ -1808,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>43895</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>43896</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>43897</v>
       </c>
@@ -1868,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>43898</v>
       </c>
@@ -1888,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>43899</v>
       </c>
@@ -1908,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>43900</v>
       </c>
@@ -1928,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>43901</v>
       </c>
@@ -1948,7 +1961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>43902</v>
       </c>
@@ -1968,7 +1981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>43903</v>
       </c>
@@ -1988,7 +2001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>43904</v>
       </c>
@@ -2008,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>43905</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>43906</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>43907</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>43908</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>43909</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>43910</v>
       </c>
@@ -2170,7 +2183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>43911</v>
       </c>
@@ -2199,7 +2212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>43912</v>
       </c>
@@ -2228,7 +2241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>43913</v>
       </c>
@@ -2263,7 +2276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>43914</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>43915</v>
       </c>
@@ -2327,7 +2340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>43916</v>
       </c>
@@ -2359,7 +2372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>43917</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>43918</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>43919</v>
       </c>
@@ -2461,7 +2474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>43920</v>
       </c>
@@ -2496,7 +2509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>43921</v>
       </c>
@@ -2534,7 +2547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>43922</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>43923</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>43924</v>
       </c>
@@ -2648,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>43925</v>
       </c>
@@ -2686,7 +2699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>43926</v>
       </c>
@@ -2724,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>43927</v>
       </c>
@@ -2762,7 +2775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>43928</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>43929</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>43930</v>
       </c>
@@ -2876,7 +2889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>43931</v>
       </c>
@@ -2914,7 +2927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>43932</v>
       </c>
@@ -2952,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>43933</v>
       </c>
@@ -2990,7 +3003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>43934</v>
       </c>
@@ -3028,7 +3041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>43935</v>
       </c>
@@ -3066,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>43936</v>
       </c>
@@ -3104,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>43937</v>
       </c>
@@ -3142,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>43938</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>43939</v>
       </c>
@@ -3218,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>43940</v>
       </c>
@@ -3256,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>43941</v>
       </c>
@@ -3294,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>43942</v>
       </c>
@@ -3345,9 +3358,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3403,7 +3416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3512,7 +3525,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3565,7 +3578,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3618,7 +3631,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3671,7 +3684,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3724,7 +3737,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3777,7 +3790,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3830,7 +3843,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3883,7 +3896,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3936,7 +3949,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3989,7 +4002,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4042,7 +4055,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4095,7 +4108,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4148,7 +4161,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -4201,7 +4214,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -4289,12 +4302,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="16384" width="10.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>153</v>
       </c>
@@ -4311,7 +4324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -4347,7 +4360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -4362,7 +4375,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -4377,7 +4390,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -4407,7 +4420,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -4422,7 +4435,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -4437,7 +4450,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -4452,7 +4465,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -4467,7 +4480,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -4482,7 +4495,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -4497,7 +4510,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -4512,7 +4525,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
@@ -4542,7 +4555,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -4557,7 +4570,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -4572,7 +4585,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -4587,7 +4600,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -4602,7 +4615,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -4617,7 +4630,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -4632,7 +4645,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -4647,7 +4660,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -4662,7 +4675,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -4677,7 +4690,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -4692,7 +4705,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -4707,7 +4720,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -4722,7 +4735,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -4737,7 +4750,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -4767,7 +4780,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -4782,7 +4795,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -4797,7 +4810,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -4812,7 +4825,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>69</v>
       </c>
@@ -4827,7 +4840,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -4842,7 +4855,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
@@ -4857,7 +4870,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>72</v>
       </c>
@@ -4872,7 +4885,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>73</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
@@ -4902,7 +4915,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>75</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>76</v>
       </c>
@@ -4932,7 +4945,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>77</v>
       </c>
@@ -4947,7 +4960,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>78</v>
       </c>
@@ -4962,7 +4975,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>79</v>
       </c>
@@ -4977,7 +4990,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>80</v>
       </c>
@@ -4992,7 +5005,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>82</v>
       </c>
@@ -5022,7 +5035,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -5037,7 +5050,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>84</v>
       </c>
@@ -5052,7 +5065,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>85</v>
       </c>
@@ -5067,7 +5080,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
@@ -5082,7 +5095,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>87</v>
       </c>
@@ -5097,7 +5110,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
@@ -5112,7 +5125,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>89</v>
       </c>
@@ -5127,7 +5140,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
@@ -5142,7 +5155,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>91</v>
       </c>
@@ -5157,7 +5170,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
@@ -5172,7 +5185,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
@@ -5187,7 +5200,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
@@ -5202,7 +5215,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>95</v>
       </c>
@@ -5217,7 +5230,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
@@ -5232,7 +5245,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>97</v>
       </c>
@@ -5247,7 +5260,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
@@ -5262,7 +5275,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>99</v>
       </c>
@@ -5277,7 +5290,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
@@ -5292,7 +5305,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>101</v>
       </c>
@@ -5307,7 +5320,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -5322,7 +5335,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>103</v>
       </c>
@@ -5337,7 +5350,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
@@ -5352,7 +5365,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>105</v>
       </c>
@@ -5367,7 +5380,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
@@ -5382,7 +5395,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>107</v>
       </c>
@@ -5397,7 +5410,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
@@ -5412,7 +5425,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>109</v>
       </c>
@@ -5427,7 +5440,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
@@ -5442,7 +5455,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>111</v>
       </c>
@@ -5457,7 +5470,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
@@ -5472,7 +5485,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>113</v>
       </c>
@@ -5487,7 +5500,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
@@ -5502,7 +5515,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>115</v>
       </c>
@@ -5517,7 +5530,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>116</v>
       </c>
@@ -5532,7 +5545,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>117</v>
       </c>
@@ -5547,7 +5560,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -5562,7 +5575,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>119</v>
       </c>
@@ -5577,7 +5590,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>120</v>
       </c>
@@ -5592,7 +5605,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
@@ -5607,7 +5620,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>122</v>
       </c>
@@ -5622,7 +5635,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>123</v>
       </c>
@@ -5637,7 +5650,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>124</v>
       </c>
@@ -5652,7 +5665,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>125</v>
       </c>
@@ -5667,7 +5680,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>126</v>
       </c>
@@ -5682,7 +5695,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>127</v>
       </c>
@@ -5697,7 +5710,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>128</v>
       </c>
@@ -5712,7 +5725,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>129</v>
       </c>
@@ -5727,7 +5740,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>130</v>
       </c>
@@ -5742,7 +5755,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>131</v>
       </c>
@@ -5757,7 +5770,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>132</v>
       </c>
@@ -5772,7 +5785,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -5787,7 +5800,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>134</v>
       </c>
@@ -5802,7 +5815,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>135</v>
       </c>
@@ -5817,7 +5830,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>136</v>
       </c>
@@ -5832,7 +5845,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>137</v>
       </c>
@@ -5847,7 +5860,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>138</v>
       </c>
@@ -5862,7 +5875,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
@@ -5877,7 +5890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
@@ -5892,7 +5905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>141</v>
       </c>
@@ -5907,7 +5920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>142</v>
       </c>
@@ -5922,7 +5935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>143</v>
       </c>
@@ -5937,7 +5950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>144</v>
       </c>
@@ -5952,7 +5965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>145</v>
       </c>
@@ -5967,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>146</v>
       </c>
@@ -5982,7 +5995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>147</v>
       </c>
@@ -5997,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>148</v>
       </c>
@@ -6012,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>149</v>
       </c>
@@ -6027,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>150</v>
       </c>
@@ -6042,7 +6055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>151</v>
       </c>
@@ -6071,13 +6084,13 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>154</v>
       </c>
@@ -6088,7 +6101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>156</v>
       </c>
@@ -6099,7 +6112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>158</v>
       </c>
@@ -6108,7 +6121,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>159</v>
       </c>
@@ -6117,7 +6130,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>160</v>
       </c>
@@ -6126,7 +6139,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>161</v>
       </c>
@@ -6135,7 +6148,7 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>162</v>
       </c>
@@ -6154,23 +6167,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
@@ -6199,13 +6212,13 @@
         <v>171</v>
       </c>
       <c r="J1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -6237,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -6269,7 +6282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -6301,12 +6314,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
         <v>184</v>
-      </c>
-      <c r="B5" t="s">
-        <v>185</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -6333,7 +6346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -6359,7 +6372,7 @@
         <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6">
         <v>0.05</v>
@@ -6368,12 +6381,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -6394,7 +6407,7 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -6403,15 +6416,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0.1</v>
@@ -6420,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6429,12 +6442,82 @@
         <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.25</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>110</v>
+      </c>
+      <c r="I10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
         <v>20</v>
       </c>
     </row>
@@ -6447,134 +6530,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="24">
         <v>43891</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="24">
         <v>44105</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>203</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>20000</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>0.3</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32F95F-01B9-43F7-94E1-D4351697260A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FE0F0-0E60-4679-9C0F-EEACF52334D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="age_sex" sheetId="3" r:id="rId3"/>
     <sheet name="households" sheetId="4" r:id="rId4"/>
     <sheet name="layers" sheetId="5" r:id="rId5"/>
-    <sheet name="other_par" sheetId="6" r:id="rId6"/>
+    <sheet name="policies" sheetId="7" r:id="rId6"/>
+    <sheet name="other_par" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,8 +33,799 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nick Scott</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D561F7A2-357E-496B-B382-4BEF6B89E43E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Percentage of the age-specific population who attend</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2A91CE8D-720A-4384-A02D-24A5679F176C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Averge number of contacts per person per day in setting.
+Note: needs to be average for places people might attend only once per week (e.g. beach)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AA4B11FF-86D4-4EDD-93A2-F663AC6576CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Relative risk of infection compared to a household contatct (note: this is not the absolute risk per contact)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4655FE26-74AF-45D7-9C7C-B6B951786616}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Complete = everyone connected to everyone;
+Random = each person has a randomly selected set of contacts;
+partition = population divided into two parts, with people in each part randomly conntected to contacts with their own partition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{318DF597-64CF-49CA-B323-DFEFC649F8E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 means that someone being quarantined has no impact on network, 0 means that someone who is quarantined is completely removed from network (perfect quarantine).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4C7ABF5D-93DB-4281-8715-0447B00F6A55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Probability of finding a contact who is infected through each network</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{DFFFB394-BE7D-4300-9F6C-B0FAF16BEFCC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The number of days to detect a contact through the network</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5EC887FD-5B9D-4939-A428-8D21AE858425}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not required, filled with Australian household structure data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{5509F734-D3C4-447F-A7D1-235BF1C36C03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Reference evel for transmissability</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{CB6DD2BA-EF11-487B-AA65-01A06CA36038}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Age-weighted Australian estimate from Prem et al.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{055940BE-5EEC-499B-8EAE-C32D9E819F8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Age-weighted Australian estimates from Prem et al.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{121A0053-68AB-44AA-A0A1-FDFF1238196D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Scott:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is means to capture all community transmission / spaces not explicitly modelled below (i.e. the remainder)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{1D447AD8-1EAB-48B9-BFEA-9976D5B8B277}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From Prem et al. age-weighted average community contacts is 5 for Victoria. Therefore when specific community locations are modelled, the "remaining" should be reduced</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{38932014-14A3-4F04-99D4-4C5AC3658D8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+58% of the population participates in sport-related activities. Assume this occurs in average once a week (i.e. divide by 7)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{1D1E9CF7-57FE-4A9F-984D-416DEEAED694}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assuming a sport contact is equal to a house contact, but only occurs once per wek so divide by 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E38A1F18-29FB-4B23-9538-545A3F75C7C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed same as community transmission but divided by 7 as likely only once per week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{3165AF40-A273-447D-9A2E-AB9B1172C73B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed same as community transmission but divided by 7 as likely only once per week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{A0940E50-BCDF-4389-A08A-ACBC31720A58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed same as community transmission but divided by 7 as likely only once per week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{228AFDF0-550A-474C-82CE-D6026B4F01BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed same as community transmission but divided by 7 as likely only once per week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{2A4B0066-29E3-40CB-A1E4-27AD21709C47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+picnics, gatherings</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nick Scott</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DBC75FE4-35A6-460A-9904-321F2B604C0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3511250F-3C45-40CC-B688-3AFC76922A59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Any overall change in transmission risk per contact (e.g. reduction from generall better hand washing)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{0404623C-04A3-4599-9225-3F7526227C57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each row is the change in the risk of transmission on the associated network, relative to pre-COVID. 0 means that there is no risk, 1 means that the risk is the same as pre-any intervention.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{252AC982-FF60-45FD-A4CF-8D34C1662215}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed daily number of infections imported per day, from other states or internationally</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{759E43AC-0F82-42CB-A657-8CF03780CEEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+remove this percentage of contacts from the network layer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{FFF4F60E-3D97-4538-B09E-7948829E6AF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of people unaffected - the remainder are removed from the network layer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{F8DCCDC1-7AFA-44E8-98BE-190C2DB098AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Reduce beach contacts from current number to 2?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{1570F270-F09B-4033-AFC6-75F3A894A7AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Reduce beacn contacts from current number to 10?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S17" authorId="0" shapeId="0" xr:uid="{07D5BAC1-2FF9-4941-B4B5-CDB663778A63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+E.g. 0.1 here means that 90% of children are removed from the school netowrk layer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{98FD616D-BB7F-4E7D-88CA-B1DBC5F89873}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google mobility data shows 33% reduction when non-essential work closed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S20" authorId="0" shapeId="0" xr:uid="{F5046FB0-4544-4B28-ADF0-BA19ADD0DAC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of workers who are essential</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S21" authorId="0" shapeId="0" xr:uid="{E148481E-245F-4C18-BABD-3CD8F6A1812F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of workers who are non-COVID-19 health workers</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="269">
   <si>
     <t>date</t>
   </si>
@@ -566,9 +1358,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>Church</t>
   </si>
   <si>
@@ -578,18 +1367,12 @@
     <t>pSport</t>
   </si>
   <si>
-    <t>beach_goer</t>
-  </si>
-  <si>
     <t>professional sports players</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>general community</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -656,25 +1439,199 @@
     <t>undiag</t>
   </si>
   <si>
-    <t>Proportion of cases that are undiagnosed</t>
-  </si>
-  <si>
-    <t>cinema_goers</t>
-  </si>
-  <si>
-    <t>pub_cafe_goers</t>
-  </si>
-  <si>
     <t>people who go to pubs and cafes</t>
   </si>
   <si>
     <t>people who go to the beach</t>
   </si>
   <si>
-    <t>people who go to cinemas</t>
-  </si>
-  <si>
     <t>partition</t>
+  </si>
+  <si>
+    <t>Travel across state borders allowed and increased domestic travel</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>pub_cafe</t>
+  </si>
+  <si>
+    <t>national_parks</t>
+  </si>
+  <si>
+    <t>national and state parks</t>
+  </si>
+  <si>
+    <t>public_parks</t>
+  </si>
+  <si>
+    <t>general community transmission</t>
+  </si>
+  <si>
+    <t>Physical distancing communcation and enforcement</t>
+  </si>
+  <si>
+    <t>cSport</t>
+  </si>
+  <si>
+    <t>community sports</t>
+  </si>
+  <si>
+    <t>people who go to cinemas, performing arts venues etc</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>beach2</t>
+  </si>
+  <si>
+    <t>beach10</t>
+  </si>
+  <si>
+    <t>church_4sqm</t>
+  </si>
+  <si>
+    <t>bar_cafe_4sqm</t>
+  </si>
+  <si>
+    <t>outdoor10</t>
+  </si>
+  <si>
+    <t>pSports</t>
+  </si>
+  <si>
+    <t>cSports</t>
+  </si>
+  <si>
+    <t>schools</t>
+  </si>
+  <si>
+    <t>outdoor200</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>Beaches closed</t>
+  </si>
+  <si>
+    <t>nat_parks0</t>
+  </si>
+  <si>
+    <t>beach0</t>
+  </si>
+  <si>
+    <t>National and state parks closed</t>
+  </si>
+  <si>
+    <t>church0</t>
+  </si>
+  <si>
+    <t>bar_cafe0</t>
+  </si>
+  <si>
+    <t>Restaurants/cafes/bars closed</t>
+  </si>
+  <si>
+    <t>Community sports cancelled</t>
+  </si>
+  <si>
+    <t>Childcare/schools closed</t>
+  </si>
+  <si>
+    <t>general park activities</t>
+  </si>
+  <si>
+    <t>clip_edges</t>
+  </si>
+  <si>
+    <t>clip_edges_layer</t>
+  </si>
+  <si>
+    <t>Non-essential work closed</t>
+  </si>
+  <si>
+    <t>NE_health</t>
+  </si>
+  <si>
+    <t>People removed from network</t>
+  </si>
+  <si>
+    <t>imported_infections</t>
+  </si>
+  <si>
+    <t>Beaches restricted to groups of &lt;10</t>
+  </si>
+  <si>
+    <t>Beaches restricted to groups of 2</t>
+  </si>
+  <si>
+    <t>Churches / places of worship closed</t>
+  </si>
+  <si>
+    <t>Churches / places of worship implementing 4 sq m rule</t>
+  </si>
+  <si>
+    <t>Restaurants/cafes/bars implementing 4 sq m physical distancing rule</t>
+  </si>
+  <si>
+    <t>Professional sports cancelled for players (crowds are different policy)</t>
+  </si>
+  <si>
+    <t>Outdoor settings restricted to &lt;200 people</t>
+  </si>
+  <si>
+    <t>Non-essential retail outlets, including shopping centres closed</t>
+  </si>
+  <si>
+    <t>Cinemas, performing arts venues etc. closed</t>
+  </si>
+  <si>
+    <t>NE_work</t>
+  </si>
+  <si>
+    <t>travel_dom</t>
+  </si>
+  <si>
+    <t>outdoor2</t>
+  </si>
+  <si>
+    <t>Outdoor settings restricted to &lt;10 people</t>
+  </si>
+  <si>
+    <t>Outdoor settings restricted to &lt;2 people</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>partitioned for public transport vs no publiuc trasnport</t>
+  </si>
+  <si>
+    <t>Proportion of cases that are asymptomatic</t>
+  </si>
+  <si>
+    <t>Non-COVID-19 health services closed</t>
+  </si>
+  <si>
+    <t>Date implemented (implicitly or explicitly)</t>
+  </si>
+  <si>
+    <t>Change in baseline transmission risk for each network, relative to baseline</t>
   </si>
 </sst>
 </file>
@@ -684,7 +1641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -866,8 +1823,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,8 +2090,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1224,6 +2249,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1281,7 +2344,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1320,6 +2383,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1369,7 +2553,50 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6166,372 +7393,2172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.796875" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="7" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" customWidth="1"/>
+    <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>4</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>110</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29">
+        <v>1</v>
+      </c>
+      <c r="J2" s="29">
+        <v>1</v>
+      </c>
+      <c r="K2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>110</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>5</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>110</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <f>MAX(0,5-SUMPRODUCT((C7:C14)*(D7:D14)*(E7:E14))/E5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>110</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>110</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="29">
+        <v>10</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>18</v>
+      </c>
+      <c r="G7" s="29">
+        <v>40</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D8" s="29">
+        <v>5</v>
+      </c>
+      <c r="E8" s="48">
+        <f>E2/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F8" s="29">
+        <v>10</v>
+      </c>
+      <c r="G8" s="29">
+        <v>65</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5</v>
+      </c>
+      <c r="E9" s="48">
+        <f>E$5/7</f>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>110</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="48">
+        <f>E$5/7</f>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>15</v>
+      </c>
+      <c r="G10" s="29">
+        <v>110</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="C11" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
+      <c r="E11" s="48">
+        <f>E$5/7</f>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="F11" s="29">
+        <v>18</v>
+      </c>
+      <c r="G11" s="29">
         <v>110</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="H11" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>15</v>
+      </c>
+      <c r="G12" s="29">
         <v>110</v>
       </c>
-      <c r="J3">
-        <v>0.8</v>
-      </c>
-      <c r="K3">
+      <c r="H12" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="K12" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4">
+      <c r="E13" s="48">
+        <f>E$5/7</f>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>110</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="K13" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="29">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="E14" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
         <v>110</v>
       </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H14" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>110</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="I14" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="K14" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>110</v>
-      </c>
-      <c r="I6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J6">
-        <v>0.05</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J7">
-        <v>0.1</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>110</v>
-      </c>
-      <c r="I8" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.25</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>110</v>
-      </c>
-      <c r="I10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
+  <dimension ref="A1:X31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.09765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="50.69921875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="4.09765625" style="59" customWidth="1"/>
+    <col min="5" max="7" width="4.09765625" style="31" customWidth="1"/>
+    <col min="8" max="16" width="7.3984375" style="31" customWidth="1"/>
+    <col min="17" max="17" width="7.796875" style="59" customWidth="1"/>
+    <col min="18" max="18" width="11.69921875" style="67" customWidth="1"/>
+    <col min="19" max="19" width="10.3984375" style="46" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" style="54" customWidth="1"/>
+    <col min="21" max="21" width="18.3984375" style="30" customWidth="1"/>
+    <col min="22" max="22" width="56.09765625" style="30" customWidth="1"/>
+    <col min="23" max="24" width="8.796875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D1" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="S1" s="71"/>
+    </row>
+    <row r="2" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="60" t="str">
+        <f ca="1">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <v>H</v>
+      </c>
+      <c r="E2" s="51" t="str">
+        <f t="shared" ref="E2:P2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <v>S</v>
+      </c>
+      <c r="F2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="G2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="H2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Church</v>
+      </c>
+      <c r="I2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>pSport</v>
+      </c>
+      <c r="J2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cSport</v>
+      </c>
+      <c r="K2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>beach</v>
+      </c>
+      <c r="L2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>entertainment</v>
+      </c>
+      <c r="M2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>pub_cafe</v>
+      </c>
+      <c r="N2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>transport</v>
+      </c>
+      <c r="O2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>national_parks</v>
+      </c>
+      <c r="P2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>public_parks</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="R2" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="U2" s="51"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+    </row>
+    <row r="3" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="57">
+        <v>1</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38">
+        <v>1</v>
+      </c>
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38">
+        <v>1</v>
+      </c>
+      <c r="K3" s="38">
+        <v>1</v>
+      </c>
+      <c r="L3" s="38">
+        <v>1</v>
+      </c>
+      <c r="M3" s="38">
+        <v>1</v>
+      </c>
+      <c r="N3" s="38">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38">
+        <v>1</v>
+      </c>
+      <c r="P3" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="65">
+        <v>0</v>
+      </c>
+      <c r="R3" s="63"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="72">
+        <v>43905</v>
+      </c>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+    </row>
+    <row r="4" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="57">
+        <v>1</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1</v>
+      </c>
+      <c r="F4" s="38">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38">
+        <v>1</v>
+      </c>
+      <c r="H4" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" s="38">
+        <v>1</v>
+      </c>
+      <c r="J4" s="38">
+        <v>1</v>
+      </c>
+      <c r="K4" s="38">
+        <v>0</v>
+      </c>
+      <c r="L4" s="38">
+        <v>1</v>
+      </c>
+      <c r="M4" s="38">
+        <v>1</v>
+      </c>
+      <c r="N4" s="38">
+        <v>1</v>
+      </c>
+      <c r="O4" s="38">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="65">
+        <v>0</v>
+      </c>
+      <c r="R4" s="63"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="72">
+        <v>43919</v>
+      </c>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+    </row>
+    <row r="5" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="57">
+        <v>1</v>
+      </c>
+      <c r="D5" s="57">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1</v>
+      </c>
+      <c r="I5" s="38">
+        <v>1</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+      <c r="K5" s="40">
+        <f>MIN(1,2/layers!D8)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="38">
+        <v>1</v>
+      </c>
+      <c r="M5" s="38">
+        <v>1</v>
+      </c>
+      <c r="N5" s="38">
+        <v>1</v>
+      </c>
+      <c r="O5" s="38">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="65">
+        <v>0</v>
+      </c>
+      <c r="R5" s="63"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+    </row>
+    <row r="6" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="57">
+        <v>1</v>
+      </c>
+      <c r="D6" s="57">
+        <v>1</v>
+      </c>
+      <c r="E6" s="38">
+        <v>1</v>
+      </c>
+      <c r="F6" s="38">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38">
+        <v>1</v>
+      </c>
+      <c r="H6" s="38">
+        <v>1</v>
+      </c>
+      <c r="I6" s="38">
+        <v>1</v>
+      </c>
+      <c r="J6" s="38">
+        <v>1</v>
+      </c>
+      <c r="K6" s="40">
+        <f>MIN(1,10/layers!D9)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="38">
+        <v>1</v>
+      </c>
+      <c r="M6" s="38">
+        <v>1</v>
+      </c>
+      <c r="N6" s="38">
+        <v>1</v>
+      </c>
+      <c r="O6" s="38">
+        <v>1</v>
+      </c>
+      <c r="P6" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="65">
+        <v>0</v>
+      </c>
+      <c r="R6" s="63"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+    </row>
+    <row r="7" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1</v>
+      </c>
+      <c r="I7" s="38">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="41">
+        <v>1</v>
+      </c>
+      <c r="L7" s="38">
+        <v>1</v>
+      </c>
+      <c r="M7" s="38">
+        <v>1</v>
+      </c>
+      <c r="N7" s="38">
+        <v>1</v>
+      </c>
+      <c r="O7" s="38">
+        <v>0</v>
+      </c>
+      <c r="P7" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="65">
+        <v>0</v>
+      </c>
+      <c r="R7" s="63"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="72">
+        <v>43919</v>
+      </c>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+    </row>
+    <row r="8" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="57">
+        <v>1</v>
+      </c>
+      <c r="D8" s="57">
+        <v>1</v>
+      </c>
+      <c r="E8" s="38">
+        <v>1</v>
+      </c>
+      <c r="F8" s="38">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <v>1</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1</v>
+      </c>
+      <c r="L8" s="38">
+        <v>1</v>
+      </c>
+      <c r="M8" s="38">
+        <v>1</v>
+      </c>
+      <c r="N8" s="38">
+        <v>1</v>
+      </c>
+      <c r="O8" s="38">
+        <v>1</v>
+      </c>
+      <c r="P8" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="65">
+        <v>0</v>
+      </c>
+      <c r="R8" s="63"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="72">
+        <v>43912</v>
+      </c>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+    </row>
+    <row r="9" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="57">
+        <v>1</v>
+      </c>
+      <c r="D9" s="57">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39">
+        <v>1</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+      <c r="K9" s="38">
+        <v>1</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38">
+        <v>1</v>
+      </c>
+      <c r="N9" s="38">
+        <v>1</v>
+      </c>
+      <c r="O9" s="38">
+        <v>1</v>
+      </c>
+      <c r="P9" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="65">
+        <v>0</v>
+      </c>
+      <c r="R9" s="63"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="72">
+        <v>43909</v>
+      </c>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+    </row>
+    <row r="10" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1.05</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38">
+        <v>1</v>
+      </c>
+      <c r="H10" s="38">
+        <v>1</v>
+      </c>
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38">
+        <v>1</v>
+      </c>
+      <c r="O10" s="38">
+        <v>1</v>
+      </c>
+      <c r="P10" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="65">
+        <v>0</v>
+      </c>
+      <c r="R10" s="63"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="72">
+        <v>43912</v>
+      </c>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+    </row>
+    <row r="11" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="57">
+        <v>1</v>
+      </c>
+      <c r="D11" s="57">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38">
+        <v>1</v>
+      </c>
+      <c r="H11" s="38">
+        <v>1</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1</v>
+      </c>
+      <c r="K11" s="38">
+        <v>1</v>
+      </c>
+      <c r="L11" s="38">
+        <v>1</v>
+      </c>
+      <c r="M11" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="38">
+        <v>1</v>
+      </c>
+      <c r="O11" s="38">
+        <v>1</v>
+      </c>
+      <c r="P11" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="65">
+        <v>0</v>
+      </c>
+      <c r="R11" s="63"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="72">
+        <v>43909</v>
+      </c>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+    </row>
+    <row r="12" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="57">
+        <v>1</v>
+      </c>
+      <c r="D12" s="57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1</v>
+      </c>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="38">
+        <v>1</v>
+      </c>
+      <c r="I12" s="38">
+        <v>1</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1</v>
+      </c>
+      <c r="K12" s="38">
+        <v>1</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0</v>
+      </c>
+      <c r="M12" s="38">
+        <v>1</v>
+      </c>
+      <c r="N12" s="38">
+        <v>1</v>
+      </c>
+      <c r="O12" s="38">
+        <v>1</v>
+      </c>
+      <c r="P12" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="65">
+        <v>0</v>
+      </c>
+      <c r="R12" s="63"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="72">
+        <v>43919</v>
+      </c>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+    </row>
+    <row r="13" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="57">
+        <v>1</v>
+      </c>
+      <c r="D13" s="57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40">
+        <v>0.86</v>
+      </c>
+      <c r="H13" s="38">
+        <v>1</v>
+      </c>
+      <c r="I13" s="38">
+        <v>1</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1</v>
+      </c>
+      <c r="K13" s="38">
+        <v>1</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0</v>
+      </c>
+      <c r="M13" s="38">
+        <v>1</v>
+      </c>
+      <c r="N13" s="38">
+        <v>1</v>
+      </c>
+      <c r="O13" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="P13" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" s="65">
+        <v>0</v>
+      </c>
+      <c r="R13" s="63"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+    </row>
+    <row r="14" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="57">
+        <v>1</v>
+      </c>
+      <c r="D14" s="57">
+        <v>1.05</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1</v>
+      </c>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0.95</v>
+      </c>
+      <c r="H14" s="38">
+        <v>1</v>
+      </c>
+      <c r="I14" s="38">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1</v>
+      </c>
+      <c r="K14" s="38">
+        <v>1</v>
+      </c>
+      <c r="L14" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="38">
+        <v>1</v>
+      </c>
+      <c r="N14" s="38">
+        <v>1</v>
+      </c>
+      <c r="O14" s="38">
+        <v>1</v>
+      </c>
+      <c r="P14" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="Q14" s="65">
+        <v>0</v>
+      </c>
+      <c r="R14" s="63"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="72">
+        <v>43909</v>
+      </c>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+    </row>
+    <row r="15" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="57">
+        <v>1</v>
+      </c>
+      <c r="D15" s="57">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1</v>
+      </c>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
+        <v>1</v>
+      </c>
+      <c r="L15" s="38">
+        <v>1</v>
+      </c>
+      <c r="M15" s="38">
+        <v>1</v>
+      </c>
+      <c r="N15" s="38">
+        <v>1</v>
+      </c>
+      <c r="O15" s="38">
+        <v>1</v>
+      </c>
+      <c r="P15" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="65">
+        <v>0</v>
+      </c>
+      <c r="R15" s="63"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="72">
+        <v>43912</v>
+      </c>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+    </row>
+    <row r="16" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1</v>
+      </c>
+      <c r="D16" s="57">
+        <v>1</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1</v>
+      </c>
+      <c r="F16" s="38">
+        <v>1</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.92</v>
+      </c>
+      <c r="H16" s="38">
+        <v>1</v>
+      </c>
+      <c r="I16" s="38">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38">
+        <v>1</v>
+      </c>
+      <c r="L16" s="38">
+        <v>1</v>
+      </c>
+      <c r="M16" s="38">
+        <v>1</v>
+      </c>
+      <c r="N16" s="38">
+        <v>1</v>
+      </c>
+      <c r="O16" s="38">
+        <v>1</v>
+      </c>
+      <c r="P16" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="65">
+        <v>0</v>
+      </c>
+      <c r="R16" s="63"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="72">
+        <v>43912</v>
+      </c>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+    </row>
+    <row r="17" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="57">
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="L17" s="38">
+        <v>1</v>
+      </c>
+      <c r="M17" s="38">
+        <v>1</v>
+      </c>
+      <c r="N17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="38">
+        <v>1</v>
+      </c>
+      <c r="P17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="65">
+        <v>0</v>
+      </c>
+      <c r="R17" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="T17" s="72">
+        <v>43915</v>
+      </c>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+    </row>
+    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="57">
+        <v>1</v>
+      </c>
+      <c r="D18" s="57">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38">
+        <v>0.73</v>
+      </c>
+      <c r="H18" s="38">
+        <v>1</v>
+      </c>
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+      <c r="J18" s="38">
+        <v>1</v>
+      </c>
+      <c r="K18" s="38">
+        <v>1</v>
+      </c>
+      <c r="L18" s="38">
+        <v>1</v>
+      </c>
+      <c r="M18" s="38">
+        <v>1</v>
+      </c>
+      <c r="N18" s="38">
+        <v>1</v>
+      </c>
+      <c r="O18" s="38">
+        <v>1</v>
+      </c>
+      <c r="P18" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="65">
+        <v>0</v>
+      </c>
+      <c r="R18" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="S18" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="T18" s="72">
+        <v>43919</v>
+      </c>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+    </row>
+    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="57">
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
+      <c r="I19" s="38">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+      <c r="K19" s="38">
+        <v>1</v>
+      </c>
+      <c r="L19" s="40">
+        <v>0</v>
+      </c>
+      <c r="M19" s="38">
+        <v>1</v>
+      </c>
+      <c r="N19" s="38">
+        <v>1</v>
+      </c>
+      <c r="O19" s="38">
+        <v>1</v>
+      </c>
+      <c r="P19" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="65">
+        <v>0</v>
+      </c>
+      <c r="R19" s="63"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="72">
+        <v>43912</v>
+      </c>
+      <c r="U19" s="37"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+    </row>
+    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="57">
+        <v>1</v>
+      </c>
+      <c r="D20" s="57">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1</v>
+      </c>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="38">
+        <v>1</v>
+      </c>
+      <c r="M20" s="38">
+        <v>1</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
+        <v>1</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="65">
+        <v>0</v>
+      </c>
+      <c r="R20" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="S20" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="T20" s="72">
+        <v>43919</v>
+      </c>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+    </row>
+    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="38">
+        <v>1</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="38">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1</v>
+      </c>
+      <c r="K21" s="38">
+        <v>1</v>
+      </c>
+      <c r="L21" s="38">
+        <v>1</v>
+      </c>
+      <c r="M21" s="38">
+        <v>1</v>
+      </c>
+      <c r="N21" s="38">
+        <v>1</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1</v>
+      </c>
+      <c r="P21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="65">
+        <v>0</v>
+      </c>
+      <c r="R21" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="S21" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="T21" s="72">
+        <v>43919</v>
+      </c>
+      <c r="U21" s="37"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+    </row>
+    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="57">
+        <v>1</v>
+      </c>
+      <c r="D22" s="57">
+        <v>1</v>
+      </c>
+      <c r="E22" s="38">
+        <v>1</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38">
+        <v>1</v>
+      </c>
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="38">
+        <v>1</v>
+      </c>
+      <c r="J22" s="38">
+        <v>1</v>
+      </c>
+      <c r="K22" s="38">
+        <v>1</v>
+      </c>
+      <c r="L22" s="38">
+        <v>1</v>
+      </c>
+      <c r="M22" s="38">
+        <v>1</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1</v>
+      </c>
+      <c r="O22" s="38">
+        <v>1</v>
+      </c>
+      <c r="P22" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="65">
+        <v>5</v>
+      </c>
+      <c r="R22" s="63"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="72">
+        <v>43919</v>
+      </c>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+    </row>
+    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+    </row>
+    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+    </row>
+    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+    </row>
+    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+    </row>
+    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+    </row>
+    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+    </row>
+    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+    </row>
+    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+    </row>
+    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:P20">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:P22">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:P22">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6545,7 +9572,7 @@
         <v>166</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>163</v>
@@ -6553,29 +9580,29 @@
     </row>
     <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="24">
         <v>43891</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B3" s="24">
         <v>44105</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
@@ -6583,48 +9610,48 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5">
         <v>20000</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6632,18 +9659,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B11">
         <v>1.5E-3</v>
@@ -6651,13 +9678,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B12">
         <v>0.3</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FE0F0-0E60-4679-9C0F-EEACF52334D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61153C6-91AA-439A-9B63-165CC34A430A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,14 @@
     <sheet name="policies" sheetId="7" r:id="rId6"/>
     <sheet name="other_par" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -825,7 +827,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="270">
   <si>
     <t>date</t>
   </si>
@@ -1632,14 +1634,18 @@
   </si>
   <si>
     <t>Change in baseline transmission risk for each network, relative to baseline</t>
+  </si>
+  <si>
+    <t>Date ended/replaced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2344,7 +2350,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2492,6 +2498,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2501,7 +2510,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2553,28 +2565,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -2913,24 +2904,24 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="22"/>
+    <col min="1" max="1" width="10.83203125" style="22"/>
     <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="14" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.69921875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="7" customWidth="1"/>
     <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="7"/>
+    <col min="13" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="21">
         <v>43891</v>
       </c>
@@ -2988,7 +2979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>43892</v>
       </c>
@@ -3008,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>43893</v>
       </c>
@@ -3028,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>43894</v>
       </c>
@@ -3048,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>43895</v>
       </c>
@@ -3068,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>43896</v>
       </c>
@@ -3088,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>43897</v>
       </c>
@@ -3108,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>43898</v>
       </c>
@@ -3128,7 +3119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>43899</v>
       </c>
@@ -3148,7 +3139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>43900</v>
       </c>
@@ -3168,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>43901</v>
       </c>
@@ -3188,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>43902</v>
       </c>
@@ -3208,7 +3199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>43903</v>
       </c>
@@ -3228,7 +3219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>43904</v>
       </c>
@@ -3248,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>43905</v>
       </c>
@@ -3268,7 +3259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>43906</v>
       </c>
@@ -3294,7 +3285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
         <v>43907</v>
       </c>
@@ -3323,7 +3314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
         <v>43908</v>
       </c>
@@ -3352,7 +3343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>43909</v>
       </c>
@@ -3381,7 +3372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>43910</v>
       </c>
@@ -3410,7 +3401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
         <v>43911</v>
       </c>
@@ -3439,7 +3430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
         <v>43912</v>
       </c>
@@ -3468,7 +3459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
         <v>43913</v>
       </c>
@@ -3503,7 +3494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
         <v>43914</v>
       </c>
@@ -3535,7 +3526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
         <v>43915</v>
       </c>
@@ -3567,7 +3558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
         <v>43916</v>
       </c>
@@ -3599,7 +3590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="21">
         <v>43917</v>
       </c>
@@ -3631,7 +3622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="21">
         <v>43918</v>
       </c>
@@ -3663,7 +3654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="21">
         <v>43919</v>
       </c>
@@ -3701,7 +3692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="21">
         <v>43920</v>
       </c>
@@ -3736,7 +3727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="21">
         <v>43921</v>
       </c>
@@ -3774,7 +3765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="21">
         <v>43922</v>
       </c>
@@ -3812,7 +3803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
         <v>43923</v>
       </c>
@@ -3850,7 +3841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="21">
         <v>43924</v>
       </c>
@@ -3888,7 +3879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="21">
         <v>43925</v>
       </c>
@@ -3926,7 +3917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="21">
         <v>43926</v>
       </c>
@@ -3964,7 +3955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
         <v>43927</v>
       </c>
@@ -4002,7 +3993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="21">
         <v>43928</v>
       </c>
@@ -4040,7 +4031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="21">
         <v>43929</v>
       </c>
@@ -4078,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="21">
         <v>43930</v>
       </c>
@@ -4116,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="21">
         <v>43931</v>
       </c>
@@ -4154,7 +4145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="21">
         <v>43932</v>
       </c>
@@ -4192,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="21">
         <v>43933</v>
       </c>
@@ -4230,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="21">
         <v>43934</v>
       </c>
@@ -4268,7 +4259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="21">
         <v>43935</v>
       </c>
@@ -4306,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="21">
         <v>43936</v>
       </c>
@@ -4344,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="21">
         <v>43937</v>
       </c>
@@ -4382,7 +4373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="21">
         <v>43938</v>
       </c>
@@ -4420,7 +4411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="21">
         <v>43939</v>
       </c>
@@ -4458,7 +4449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="21">
         <v>43940</v>
       </c>
@@ -4496,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="21">
         <v>43941</v>
       </c>
@@ -4534,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="21">
         <v>43942</v>
       </c>
@@ -4585,9 +4576,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4643,7 +4634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4699,7 +4690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4752,7 +4743,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4805,7 +4796,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4858,7 +4849,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4911,7 +4902,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4964,7 +4955,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5017,7 +5008,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5070,7 +5061,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5123,7 +5114,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5176,7 +5167,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -5229,7 +5220,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5282,7 +5273,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5335,7 +5326,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5388,7 +5379,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5441,7 +5432,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -5529,12 +5520,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.796875" style="8"/>
+    <col min="1" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>153</v>
       </c>
@@ -5551,7 +5542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -5569,7 +5560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -5587,7 +5578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -5602,7 +5593,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -5617,7 +5608,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -5632,7 +5623,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -5647,7 +5638,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -5662,7 +5653,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -5677,7 +5668,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -5692,7 +5683,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -5707,7 +5698,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -5722,7 +5713,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -5737,7 +5728,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -5752,7 +5743,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
@@ -5767,7 +5758,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
@@ -5782,7 +5773,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -5797,7 +5788,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -5812,7 +5803,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -5827,7 +5818,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -5842,7 +5833,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -5857,7 +5848,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -5872,7 +5863,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -5887,7 +5878,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -5902,7 +5893,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -5917,7 +5908,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -5932,7 +5923,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -5947,7 +5938,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -5962,7 +5953,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -5977,7 +5968,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -5992,7 +5983,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -6007,7 +5998,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -6022,7 +6013,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -6037,7 +6028,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -6052,7 +6043,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>69</v>
       </c>
@@ -6067,7 +6058,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -6082,7 +6073,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
@@ -6097,7 +6088,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>72</v>
       </c>
@@ -6112,7 +6103,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>73</v>
       </c>
@@ -6127,7 +6118,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
@@ -6142,7 +6133,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>75</v>
       </c>
@@ -6157,7 +6148,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>76</v>
       </c>
@@ -6172,7 +6163,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>77</v>
       </c>
@@ -6187,7 +6178,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>78</v>
       </c>
@@ -6202,7 +6193,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>79</v>
       </c>
@@ -6217,7 +6208,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>80</v>
       </c>
@@ -6232,7 +6223,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
@@ -6247,7 +6238,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>82</v>
       </c>
@@ -6262,7 +6253,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -6277,7 +6268,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>84</v>
       </c>
@@ -6292,7 +6283,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>85</v>
       </c>
@@ -6307,7 +6298,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
@@ -6322,7 +6313,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>87</v>
       </c>
@@ -6337,7 +6328,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
@@ -6352,7 +6343,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>89</v>
       </c>
@@ -6367,7 +6358,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
@@ -6382,7 +6373,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>91</v>
       </c>
@@ -6397,7 +6388,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
@@ -6412,7 +6403,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
@@ -6427,7 +6418,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
@@ -6442,7 +6433,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>95</v>
       </c>
@@ -6457,7 +6448,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
@@ -6472,7 +6463,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>97</v>
       </c>
@@ -6487,7 +6478,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
@@ -6502,7 +6493,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>99</v>
       </c>
@@ -6517,7 +6508,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
@@ -6532,7 +6523,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>101</v>
       </c>
@@ -6547,7 +6538,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -6562,7 +6553,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>103</v>
       </c>
@@ -6577,7 +6568,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
@@ -6592,7 +6583,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>105</v>
       </c>
@@ -6607,7 +6598,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
@@ -6622,7 +6613,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>107</v>
       </c>
@@ -6637,7 +6628,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
@@ -6652,7 +6643,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>109</v>
       </c>
@@ -6667,7 +6658,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
@@ -6682,7 +6673,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>111</v>
       </c>
@@ -6697,7 +6688,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
@@ -6712,7 +6703,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>113</v>
       </c>
@@ -6727,7 +6718,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
@@ -6742,7 +6733,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>115</v>
       </c>
@@ -6757,7 +6748,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>116</v>
       </c>
@@ -6772,7 +6763,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>117</v>
       </c>
@@ -6787,7 +6778,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -6802,7 +6793,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>119</v>
       </c>
@@ -6817,7 +6808,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>120</v>
       </c>
@@ -6832,7 +6823,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
@@ -6847,7 +6838,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>122</v>
       </c>
@@ -6862,7 +6853,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>123</v>
       </c>
@@ -6877,7 +6868,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>124</v>
       </c>
@@ -6892,7 +6883,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>125</v>
       </c>
@@ -6907,7 +6898,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>126</v>
       </c>
@@ -6922,7 +6913,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>127</v>
       </c>
@@ -6937,7 +6928,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>128</v>
       </c>
@@ -6952,7 +6943,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>129</v>
       </c>
@@ -6967,7 +6958,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>130</v>
       </c>
@@ -6982,7 +6973,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>131</v>
       </c>
@@ -6997,7 +6988,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>132</v>
       </c>
@@ -7012,7 +7003,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -7027,7 +7018,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>134</v>
       </c>
@@ -7042,7 +7033,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>135</v>
       </c>
@@ -7057,7 +7048,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>136</v>
       </c>
@@ -7072,7 +7063,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>137</v>
       </c>
@@ -7087,7 +7078,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>138</v>
       </c>
@@ -7102,7 +7093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
@@ -7117,7 +7108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
@@ -7132,7 +7123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>141</v>
       </c>
@@ -7147,7 +7138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>142</v>
       </c>
@@ -7162,7 +7153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>143</v>
       </c>
@@ -7177,7 +7168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>144</v>
       </c>
@@ -7192,7 +7183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>145</v>
       </c>
@@ -7207,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>146</v>
       </c>
@@ -7222,7 +7213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>147</v>
       </c>
@@ -7237,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>148</v>
       </c>
@@ -7252,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>149</v>
       </c>
@@ -7267,7 +7258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>150</v>
       </c>
@@ -7282,7 +7273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>151</v>
       </c>
@@ -7311,13 +7302,13 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>154</v>
       </c>
@@ -7328,7 +7319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>156</v>
       </c>
@@ -7339,7 +7330,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>158</v>
       </c>
@@ -7348,7 +7339,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>159</v>
       </c>
@@ -7357,7 +7348,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>160</v>
       </c>
@@ -7366,7 +7357,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>161</v>
       </c>
@@ -7375,7 +7366,7 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>162</v>
       </c>
@@ -7396,24 +7387,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" customWidth="1"/>
-    <col min="6" max="7" width="7.19921875" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" customWidth="1"/>
-    <col min="9" max="11" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="11" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
@@ -7448,7 +7439,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
@@ -7481,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>174</v>
       </c>
@@ -7514,7 +7505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
@@ -7547,7 +7538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>181</v>
       </c>
@@ -7581,7 +7572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>177</v>
       </c>
@@ -7616,7 +7607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>179</v>
       </c>
@@ -7651,7 +7642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>218</v>
       </c>
@@ -7687,7 +7678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>211</v>
       </c>
@@ -7723,7 +7714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>221</v>
       </c>
@@ -7759,7 +7750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>212</v>
       </c>
@@ -7795,7 +7786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>210</v>
       </c>
@@ -7830,7 +7821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>213</v>
       </c>
@@ -7866,7 +7857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>215</v>
       </c>
@@ -7901,7 +7892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -7921,50 +7912,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="4.09765625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="4.09765625" style="59" customWidth="1"/>
-    <col min="5" max="7" width="4.09765625" style="31" customWidth="1"/>
-    <col min="8" max="16" width="7.3984375" style="31" customWidth="1"/>
-    <col min="17" max="17" width="7.796875" style="59" customWidth="1"/>
-    <col min="18" max="18" width="11.69921875" style="67" customWidth="1"/>
-    <col min="19" max="19" width="10.3984375" style="46" customWidth="1"/>
-    <col min="20" max="20" width="18.3984375" style="54" customWidth="1"/>
-    <col min="21" max="21" width="18.3984375" style="30" customWidth="1"/>
-    <col min="22" max="22" width="56.09765625" style="30" customWidth="1"/>
-    <col min="23" max="24" width="8.796875" style="31"/>
+    <col min="1" max="1" width="12.08203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="4.08203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="4.08203125" style="59" customWidth="1"/>
+    <col min="5" max="7" width="4.08203125" style="31" customWidth="1"/>
+    <col min="8" max="16" width="7.4140625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" style="59" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="67" customWidth="1"/>
+    <col min="19" max="19" width="10.4140625" style="46" customWidth="1"/>
+    <col min="20" max="20" width="18.4140625" style="54" customWidth="1"/>
+    <col min="21" max="21" width="18.4140625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="56.08203125" style="30" customWidth="1"/>
+    <col min="23" max="24" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D1" s="69" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D1" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72"/>
       <c r="Q1" s="64"/>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="S1" s="71"/>
-    </row>
-    <row r="2" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="72"/>
+    </row>
+    <row r="2" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>208</v>
       </c>
@@ -8038,12 +8029,14 @@
       <c r="T2" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="U2" s="51"/>
+      <c r="U2" s="51" t="s">
+        <v>269</v>
+      </c>
       <c r="V2" s="50"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
     </row>
-    <row r="3" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>263</v>
       </c>
@@ -8097,15 +8090,15 @@
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="47"/>
-      <c r="T3" s="72">
+      <c r="T3" s="69">
         <v>43905</v>
       </c>
-      <c r="U3" s="43"/>
+      <c r="U3" s="73"/>
       <c r="V3" s="43"/>
       <c r="W3" s="42"/>
       <c r="X3" s="42"/>
     </row>
-    <row r="4" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>235</v>
       </c>
@@ -8159,7 +8152,7 @@
       </c>
       <c r="R4" s="63"/>
       <c r="S4" s="47"/>
-      <c r="T4" s="72">
+      <c r="T4" s="69">
         <v>43919</v>
       </c>
       <c r="U4" s="43"/>
@@ -8167,7 +8160,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
     </row>
-    <row r="5" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>223</v>
       </c>
@@ -8222,13 +8215,13 @@
       </c>
       <c r="R5" s="63"/>
       <c r="S5" s="47"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="43"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="73"/>
       <c r="V5" s="43"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
     </row>
-    <row r="6" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8283,13 +8276,13 @@
       </c>
       <c r="R6" s="63"/>
       <c r="S6" s="47"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="43"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="73"/>
       <c r="V6" s="43"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>234</v>
       </c>
@@ -8343,7 +8336,7 @@
       </c>
       <c r="R7" s="63"/>
       <c r="S7" s="47"/>
-      <c r="T7" s="72">
+      <c r="T7" s="69">
         <v>43919</v>
       </c>
       <c r="U7" s="43"/>
@@ -8351,7 +8344,7 @@
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
     </row>
-    <row r="8" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>237</v>
       </c>
@@ -8405,7 +8398,7 @@
       </c>
       <c r="R8" s="63"/>
       <c r="S8" s="47"/>
-      <c r="T8" s="72">
+      <c r="T8" s="69">
         <v>43912</v>
       </c>
       <c r="U8" s="43"/>
@@ -8413,7 +8406,7 @@
       <c r="W8" s="42"/>
       <c r="X8" s="42"/>
     </row>
-    <row r="9" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
         <v>225</v>
       </c>
@@ -8467,15 +8460,18 @@
       </c>
       <c r="R9" s="63"/>
       <c r="S9" s="47"/>
-      <c r="T9" s="72">
+      <c r="T9" s="69">
         <v>43909</v>
       </c>
-      <c r="U9" s="43"/>
+      <c r="U9" s="73">
+        <f>T8</f>
+        <v>43912</v>
+      </c>
       <c r="V9" s="43"/>
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
     </row>
-    <row r="10" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>238</v>
       </c>
@@ -8529,7 +8525,7 @@
       </c>
       <c r="R10" s="63"/>
       <c r="S10" s="47"/>
-      <c r="T10" s="72">
+      <c r="T10" s="69">
         <v>43912</v>
       </c>
       <c r="U10" s="43"/>
@@ -8537,7 +8533,7 @@
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
     </row>
-    <row r="11" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>226</v>
       </c>
@@ -8591,15 +8587,18 @@
       </c>
       <c r="R11" s="63"/>
       <c r="S11" s="47"/>
-      <c r="T11" s="72">
+      <c r="T11" s="69">
         <v>43909</v>
       </c>
-      <c r="U11" s="43"/>
+      <c r="U11" s="73">
+        <f>T10</f>
+        <v>43912</v>
+      </c>
       <c r="V11" s="43"/>
       <c r="W11" s="42"/>
       <c r="X11" s="42"/>
     </row>
-    <row r="12" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>260</v>
       </c>
@@ -8653,7 +8652,7 @@
       </c>
       <c r="R12" s="63"/>
       <c r="S12" s="47"/>
-      <c r="T12" s="72">
+      <c r="T12" s="69">
         <v>43919</v>
       </c>
       <c r="U12" s="43"/>
@@ -8661,7 +8660,7 @@
       <c r="W12" s="42"/>
       <c r="X12" s="42"/>
     </row>
-    <row r="13" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
         <v>227</v>
       </c>
@@ -8715,13 +8714,13 @@
       </c>
       <c r="R13" s="63"/>
       <c r="S13" s="47"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="43"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="43"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
     </row>
-    <row r="14" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="42" t="s">
         <v>231</v>
       </c>
@@ -8775,15 +8774,18 @@
       </c>
       <c r="R14" s="63"/>
       <c r="S14" s="47"/>
-      <c r="T14" s="72">
+      <c r="T14" s="69">
         <v>43909</v>
       </c>
-      <c r="U14" s="43"/>
+      <c r="U14" s="73">
+        <f>T12</f>
+        <v>43919</v>
+      </c>
       <c r="V14" s="43"/>
       <c r="W14" s="42"/>
       <c r="X14" s="42"/>
     </row>
-    <row r="15" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="42" t="s">
         <v>228</v>
       </c>
@@ -8837,7 +8839,7 @@
       </c>
       <c r="R15" s="63"/>
       <c r="S15" s="47"/>
-      <c r="T15" s="72">
+      <c r="T15" s="69">
         <v>43912</v>
       </c>
       <c r="U15" s="43"/>
@@ -8845,7 +8847,7 @@
       <c r="W15" s="42"/>
       <c r="X15" s="42"/>
     </row>
-    <row r="16" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>229</v>
       </c>
@@ -8899,7 +8901,7 @@
       </c>
       <c r="R16" s="63"/>
       <c r="S16" s="47"/>
-      <c r="T16" s="72">
+      <c r="T16" s="69">
         <v>43912</v>
       </c>
       <c r="U16" s="43"/>
@@ -8907,7 +8909,7 @@
       <c r="W16" s="42"/>
       <c r="X16" s="42"/>
     </row>
-    <row r="17" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42" t="s">
         <v>230</v>
       </c>
@@ -8965,7 +8967,7 @@
       <c r="S17" s="47">
         <v>0.1</v>
       </c>
-      <c r="T17" s="72">
+      <c r="T17" s="69">
         <v>43915</v>
       </c>
       <c r="U17" s="43"/>
@@ -8973,7 +8975,7 @@
       <c r="W17" s="42"/>
       <c r="X17" s="42"/>
     </row>
-    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45" t="s">
         <v>232</v>
       </c>
@@ -9031,7 +9033,7 @@
       <c r="S18" s="33">
         <v>0.95</v>
       </c>
-      <c r="T18" s="72">
+      <c r="T18" s="69">
         <v>43919</v>
       </c>
       <c r="U18" s="37"/>
@@ -9039,7 +9041,7 @@
       <c r="W18" s="45"/>
       <c r="X18" s="45"/>
     </row>
-    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
         <v>221</v>
       </c>
@@ -9093,7 +9095,7 @@
       </c>
       <c r="R19" s="63"/>
       <c r="S19" s="33"/>
-      <c r="T19" s="72">
+      <c r="T19" s="69">
         <v>43912</v>
       </c>
       <c r="U19" s="37"/>
@@ -9101,7 +9103,7 @@
       <c r="W19" s="45"/>
       <c r="X19" s="45"/>
     </row>
-    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
         <v>258</v>
       </c>
@@ -9159,7 +9161,7 @@
       <c r="S20" s="33">
         <v>0.5</v>
       </c>
-      <c r="T20" s="72">
+      <c r="T20" s="69">
         <v>43919</v>
       </c>
       <c r="U20" s="37"/>
@@ -9167,7 +9169,7 @@
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
-    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>246</v>
       </c>
@@ -9225,7 +9227,7 @@
       <c r="S21" s="33">
         <v>0.95</v>
       </c>
-      <c r="T21" s="72">
+      <c r="T21" s="69">
         <v>43919</v>
       </c>
       <c r="U21" s="37"/>
@@ -9233,7 +9235,7 @@
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
-    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
         <v>259</v>
       </c>
@@ -9287,7 +9289,7 @@
       </c>
       <c r="R22" s="63"/>
       <c r="S22" s="33"/>
-      <c r="T22" s="72">
+      <c r="T22" s="69">
         <v>43919</v>
       </c>
       <c r="U22" s="37"/>
@@ -9295,7 +9297,7 @@
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
-    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="32"/>
       <c r="C23" s="59"/>
@@ -9321,7 +9323,7 @@
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
-    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -9346,7 +9348,7 @@
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
     </row>
-    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="32"/>
       <c r="C25" s="59"/>
@@ -9372,7 +9374,7 @@
       <c r="W25" s="36"/>
       <c r="X25" s="36"/>
     </row>
-    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="32"/>
       <c r="C26" s="58"/>
@@ -9398,7 +9400,7 @@
       <c r="W26" s="36"/>
       <c r="X26" s="36"/>
     </row>
-    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="58"/>
@@ -9424,7 +9426,7 @@
       <c r="W27" s="36"/>
       <c r="X27" s="36"/>
     </row>
-    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
       <c r="B28" s="32"/>
       <c r="C28" s="58"/>
@@ -9450,7 +9452,7 @@
       <c r="W28" s="36"/>
       <c r="X28" s="36"/>
     </row>
-    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="59"/>
@@ -9476,7 +9478,7 @@
       <c r="W29" s="36"/>
       <c r="X29" s="36"/>
     </row>
-    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="36"/>
       <c r="B30" s="32"/>
       <c r="C30" s="58"/>
@@ -9502,7 +9504,7 @@
       <c r="W30" s="36"/>
       <c r="X30" s="36"/>
     </row>
-    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="C31" s="58"/>
       <c r="D31" s="61"/>
@@ -9533,17 +9535,17 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P20">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:P22">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:P22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9561,13 +9563,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="51.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>195</v>
       </c>
@@ -9589,7 +9591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>196</v>
       </c>
@@ -9600,7 +9602,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>199</v>
       </c>
@@ -9608,7 +9610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -9619,7 +9621,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -9630,7 +9632,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -9657,7 +9659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -9668,7 +9670,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>203</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FE0F0-0E60-4679-9C0F-EEACF52334D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1135763E-A9F9-44B3-9328-EB0EBBD6F30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -351,6 +351,31 @@
           </rPr>
           <t xml:space="preserve">
 From Prem et al. age-weighted average community contacts is 5 for Victoria. Therefore when specific community locations are modelled, the "remaining" should be reduced</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{B5FF3F83-13AE-4712-9F02-E910F0981BAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11% of the population visit church weekly:
+http://www.2016ncls.org.au/resources/downloads/Local%20Churches%20in%20Australia-Research%20Findings%20from%20NCLS%20Research(2017).pdf</t>
         </r>
       </text>
     </comment>
@@ -825,7 +850,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="270">
   <si>
     <t>date</t>
   </si>
@@ -1632,6 +1657,9 @@
   </si>
   <si>
     <t>Change in baseline transmission risk for each network, relative to baseline</t>
+  </si>
+  <si>
+    <t>clusters</t>
   </si>
 </sst>
 </file>
@@ -2492,6 +2520,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2500,9 +2531,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2553,28 +2581,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -7396,9 +7403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7589,10 +7596,10 @@
         <v>178</v>
       </c>
       <c r="C6" s="29">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="29">
         <v>0.5</v>
@@ -7604,7 +7611,7 @@
         <v>110</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="I6" s="29">
         <v>0</v>
@@ -7675,7 +7682,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="I8" s="29">
         <v>0</v>
@@ -7921,8 +7928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7943,26 +7950,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72"/>
       <c r="Q1" s="64"/>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="S1" s="71"/>
+      <c r="S1" s="72"/>
     </row>
     <row r="2" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
@@ -8097,7 +8104,7 @@
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="47"/>
-      <c r="T3" s="72">
+      <c r="T3" s="69">
         <v>43905</v>
       </c>
       <c r="U3" s="43"/>
@@ -8159,7 +8166,7 @@
       </c>
       <c r="R4" s="63"/>
       <c r="S4" s="47"/>
-      <c r="T4" s="72">
+      <c r="T4" s="69">
         <v>43919</v>
       </c>
       <c r="U4" s="43"/>
@@ -8343,7 +8350,7 @@
       </c>
       <c r="R7" s="63"/>
       <c r="S7" s="47"/>
-      <c r="T7" s="72">
+      <c r="T7" s="69">
         <v>43919</v>
       </c>
       <c r="U7" s="43"/>
@@ -8405,7 +8412,7 @@
       </c>
       <c r="R8" s="63"/>
       <c r="S8" s="47"/>
-      <c r="T8" s="72">
+      <c r="T8" s="69">
         <v>43912</v>
       </c>
       <c r="U8" s="43"/>
@@ -8467,7 +8474,7 @@
       </c>
       <c r="R9" s="63"/>
       <c r="S9" s="47"/>
-      <c r="T9" s="72">
+      <c r="T9" s="69">
         <v>43909</v>
       </c>
       <c r="U9" s="43"/>
@@ -8529,7 +8536,7 @@
       </c>
       <c r="R10" s="63"/>
       <c r="S10" s="47"/>
-      <c r="T10" s="72">
+      <c r="T10" s="69">
         <v>43912</v>
       </c>
       <c r="U10" s="43"/>
@@ -8591,7 +8598,7 @@
       </c>
       <c r="R11" s="63"/>
       <c r="S11" s="47"/>
-      <c r="T11" s="72">
+      <c r="T11" s="69">
         <v>43909</v>
       </c>
       <c r="U11" s="43"/>
@@ -8653,7 +8660,7 @@
       </c>
       <c r="R12" s="63"/>
       <c r="S12" s="47"/>
-      <c r="T12" s="72">
+      <c r="T12" s="69">
         <v>43919</v>
       </c>
       <c r="U12" s="43"/>
@@ -8715,7 +8722,7 @@
       </c>
       <c r="R13" s="63"/>
       <c r="S13" s="47"/>
-      <c r="T13" s="72"/>
+      <c r="T13" s="69"/>
       <c r="U13" s="43"/>
       <c r="V13" s="43"/>
       <c r="W13" s="42"/>
@@ -8775,7 +8782,7 @@
       </c>
       <c r="R14" s="63"/>
       <c r="S14" s="47"/>
-      <c r="T14" s="72">
+      <c r="T14" s="69">
         <v>43909</v>
       </c>
       <c r="U14" s="43"/>
@@ -8837,7 +8844,7 @@
       </c>
       <c r="R15" s="63"/>
       <c r="S15" s="47"/>
-      <c r="T15" s="72">
+      <c r="T15" s="69">
         <v>43912</v>
       </c>
       <c r="U15" s="43"/>
@@ -8899,7 +8906,7 @@
       </c>
       <c r="R16" s="63"/>
       <c r="S16" s="47"/>
-      <c r="T16" s="72">
+      <c r="T16" s="69">
         <v>43912</v>
       </c>
       <c r="U16" s="43"/>
@@ -8965,7 +8972,7 @@
       <c r="S17" s="47">
         <v>0.1</v>
       </c>
-      <c r="T17" s="72">
+      <c r="T17" s="69">
         <v>43915</v>
       </c>
       <c r="U17" s="43"/>
@@ -9031,7 +9038,7 @@
       <c r="S18" s="33">
         <v>0.95</v>
       </c>
-      <c r="T18" s="72">
+      <c r="T18" s="69">
         <v>43919</v>
       </c>
       <c r="U18" s="37"/>
@@ -9093,7 +9100,7 @@
       </c>
       <c r="R19" s="63"/>
       <c r="S19" s="33"/>
-      <c r="T19" s="72">
+      <c r="T19" s="69">
         <v>43912</v>
       </c>
       <c r="U19" s="37"/>
@@ -9142,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O20" s="38">
         <v>1</v>
@@ -9159,7 +9166,7 @@
       <c r="S20" s="33">
         <v>0.5</v>
       </c>
-      <c r="T20" s="72">
+      <c r="T20" s="69">
         <v>43919</v>
       </c>
       <c r="U20" s="37"/>
@@ -9225,7 +9232,7 @@
       <c r="S21" s="33">
         <v>0.95</v>
       </c>
-      <c r="T21" s="72">
+      <c r="T21" s="69">
         <v>43919</v>
       </c>
       <c r="U21" s="37"/>
@@ -9287,7 +9294,7 @@
       </c>
       <c r="R22" s="63"/>
       <c r="S22" s="33"/>
-      <c r="T22" s="72">
+      <c r="T22" s="69">
         <v>43919</v>
       </c>
       <c r="U22" s="37"/>
@@ -9533,17 +9540,17 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P20">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:P22">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:P22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9557,8 +9564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61153C6-91AA-439A-9B63-165CC34A430A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2A951-B1D4-4D6B-858E-482C5732A4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,12 @@
     <sheet name="policies" sheetId="7" r:id="rId6"/>
     <sheet name="other_par" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -827,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
   <si>
     <t>date</t>
   </si>
@@ -1637,6 +1635,9 @@
   </si>
   <si>
     <t>Date ended/replaced</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
 </sst>
 </file>
@@ -1645,9 +1646,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2501,6 +2502,12 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2509,12 +2516,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2904,24 +2905,24 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="10.796875" style="22"/>
     <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="7" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="14" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="7" customWidth="1"/>
     <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="7"/>
+    <col min="13" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="21">
         <v>43891</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3" s="21">
         <v>43892</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="21">
         <v>43893</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="21">
         <v>43894</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="21">
         <v>43895</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="21">
         <v>43896</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="21">
         <v>43897</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="21">
         <v>43898</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="21">
         <v>43899</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="21">
         <v>43900</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="21">
         <v>43901</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" s="21">
         <v>43902</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14" s="21">
         <v>43903</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15" s="21">
         <v>43904</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="21">
         <v>43905</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="21">
         <v>43906</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="21">
         <v>43907</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="21">
         <v>43908</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="21">
         <v>43909</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="21">
         <v>43910</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="21">
         <v>43911</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" s="21">
         <v>43912</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12">
       <c r="A24" s="21">
         <v>43913</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12">
       <c r="A25" s="21">
         <v>43914</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12">
       <c r="A26" s="21">
         <v>43915</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" s="21">
         <v>43916</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12">
       <c r="A28" s="21">
         <v>43917</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12">
       <c r="A29" s="21">
         <v>43918</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12">
       <c r="A30" s="21">
         <v>43919</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12">
       <c r="A31" s="21">
         <v>43920</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12">
       <c r="A32" s="21">
         <v>43921</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12">
       <c r="A33" s="21">
         <v>43922</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" s="21">
         <v>43923</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" s="21">
         <v>43924</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12">
       <c r="A36" s="21">
         <v>43925</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12">
       <c r="A37" s="21">
         <v>43926</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="A38" s="21">
         <v>43927</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" s="21">
         <v>43928</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" s="21">
         <v>43929</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" s="21">
         <v>43930</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" s="21">
         <v>43931</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" s="21">
         <v>43932</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" s="21">
         <v>43933</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" s="21">
         <v>43934</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" s="21">
         <v>43935</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" s="21">
         <v>43936</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" s="21">
         <v>43937</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" s="21">
         <v>43938</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12">
       <c r="A50" s="21">
         <v>43939</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12">
       <c r="A51" s="21">
         <v>43940</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="A52" s="21">
         <v>43941</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" s="21">
         <v>43942</v>
       </c>
@@ -4576,9 +4577,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4902,7 +4903,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -5520,12 +5521,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="16384" width="10.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="17" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>153</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>69</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>72</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>73</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
         <v>75</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
         <v>76</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
         <v>77</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>78</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>79</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>80</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>82</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
         <v>84</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
         <v>85</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
         <v>87</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>89</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>91</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4">
       <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>95</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>97</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>99</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>101</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>103</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>105</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>107</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>109</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>111</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>113</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4">
       <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4">
       <c r="A81" s="9" t="s">
         <v>115</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4">
       <c r="A82" s="9" t="s">
         <v>116</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>117</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>119</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>120</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>122</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4">
       <c r="A89" s="9" t="s">
         <v>123</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4">
       <c r="A90" s="9" t="s">
         <v>124</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>125</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
         <v>126</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4">
       <c r="A93" s="9" t="s">
         <v>127</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>128</v>
       </c>
@@ -6943,7 +6944,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4">
       <c r="A95" s="9" t="s">
         <v>129</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4">
       <c r="A96" s="9" t="s">
         <v>130</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4">
       <c r="A97" s="9" t="s">
         <v>131</v>
       </c>
@@ -6988,7 +6989,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4">
       <c r="A98" s="9" t="s">
         <v>132</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4">
       <c r="A100" s="9" t="s">
         <v>134</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>135</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>136</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>137</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>138</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4">
       <c r="A107" s="9" t="s">
         <v>141</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>142</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>143</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>144</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>145</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4">
       <c r="A112" s="9" t="s">
         <v>146</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
         <v>147</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>148</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>149</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>150</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>151</v>
       </c>
@@ -7302,13 +7303,13 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="20" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>154</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
         <v>156</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
         <v>158</v>
       </c>
@@ -7339,7 +7340,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>159</v>
       </c>
@@ -7348,7 +7349,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
         <v>160</v>
       </c>
@@ -7357,7 +7358,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
         <v>161</v>
       </c>
@@ -7366,7 +7367,7 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
         <v>162</v>
       </c>
@@ -7387,24 +7388,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="9.9140625" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" customWidth="1"/>
-    <col min="5" max="5" width="9.9140625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="11" width="7.58203125" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="7" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" customWidth="1"/>
+    <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="19" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" s="29" t="s">
         <v>174</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="29" t="s">
         <v>181</v>
       </c>
@@ -7572,7 +7573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="29" t="s">
         <v>177</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>110</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="I6" s="29">
         <v>0</v>
@@ -7607,7 +7608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" s="29" t="s">
         <v>179</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="29" t="s">
         <v>218</v>
       </c>
@@ -7666,7 +7667,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="I8" s="29">
         <v>0</v>
@@ -7678,7 +7679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="29" t="s">
         <v>211</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" s="29" t="s">
         <v>221</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" s="29" t="s">
         <v>212</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="29" t="s">
         <v>210</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="29" t="s">
         <v>213</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="29" t="s">
         <v>215</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -7912,50 +7913,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="4.08203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="4.08203125" style="59" customWidth="1"/>
-    <col min="5" max="7" width="4.08203125" style="31" customWidth="1"/>
-    <col min="8" max="16" width="7.4140625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" style="59" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="67" customWidth="1"/>
-    <col min="19" max="19" width="10.4140625" style="46" customWidth="1"/>
-    <col min="20" max="20" width="18.4140625" style="54" customWidth="1"/>
-    <col min="21" max="21" width="18.4140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="56.08203125" style="30" customWidth="1"/>
-    <col min="23" max="24" width="8.83203125" style="31"/>
+    <col min="1" max="1" width="12.09765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="50.69921875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="4.09765625" style="59" customWidth="1"/>
+    <col min="5" max="7" width="4.09765625" style="31" customWidth="1"/>
+    <col min="8" max="16" width="7.3984375" style="31" customWidth="1"/>
+    <col min="17" max="17" width="7.796875" style="59" customWidth="1"/>
+    <col min="18" max="18" width="11.69921875" style="67" customWidth="1"/>
+    <col min="19" max="19" width="10.3984375" style="46" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" style="54" customWidth="1"/>
+    <col min="21" max="21" width="18.3984375" style="30" customWidth="1"/>
+    <col min="22" max="22" width="56.09765625" style="30" customWidth="1"/>
+    <col min="23" max="24" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D1" s="70" t="s">
+    <row r="1" spans="1:24">
+      <c r="D1" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="74"/>
       <c r="Q1" s="64"/>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="S1" s="72"/>
-    </row>
-    <row r="2" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S1" s="74"/>
+    </row>
+    <row r="2" spans="1:24" s="53" customFormat="1">
       <c r="A2" s="49" t="s">
         <v>208</v>
       </c>
@@ -8036,7 +8037,7 @@
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
     </row>
-    <row r="3" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="44" customFormat="1">
       <c r="A3" s="42" t="s">
         <v>263</v>
       </c>
@@ -8093,12 +8094,12 @@
       <c r="T3" s="69">
         <v>43905</v>
       </c>
-      <c r="U3" s="73"/>
+      <c r="U3" s="70"/>
       <c r="V3" s="43"/>
       <c r="W3" s="42"/>
       <c r="X3" s="42"/>
     </row>
-    <row r="4" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" s="44" customFormat="1">
       <c r="A4" s="42" t="s">
         <v>235</v>
       </c>
@@ -8160,7 +8161,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
     </row>
-    <row r="5" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" s="44" customFormat="1">
       <c r="A5" s="42" t="s">
         <v>223</v>
       </c>
@@ -8215,13 +8216,13 @@
       </c>
       <c r="R5" s="63"/>
       <c r="S5" s="47"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="73"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="70"/>
       <c r="V5" s="43"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
     </row>
-    <row r="6" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" s="44" customFormat="1">
       <c r="A6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8276,13 +8277,13 @@
       </c>
       <c r="R6" s="63"/>
       <c r="S6" s="47"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="70"/>
       <c r="V6" s="43"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" s="44" customFormat="1">
       <c r="A7" s="42" t="s">
         <v>234</v>
       </c>
@@ -8344,7 +8345,7 @@
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
     </row>
-    <row r="8" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" s="44" customFormat="1">
       <c r="A8" s="42" t="s">
         <v>237</v>
       </c>
@@ -8406,7 +8407,7 @@
       <c r="W8" s="42"/>
       <c r="X8" s="42"/>
     </row>
-    <row r="9" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" s="44" customFormat="1">
       <c r="A9" s="42" t="s">
         <v>225</v>
       </c>
@@ -8463,7 +8464,7 @@
       <c r="T9" s="69">
         <v>43909</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="70">
         <f>T8</f>
         <v>43912</v>
       </c>
@@ -8471,7 +8472,7 @@
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
     </row>
-    <row r="10" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" s="44" customFormat="1">
       <c r="A10" s="42" t="s">
         <v>238</v>
       </c>
@@ -8533,7 +8534,7 @@
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
     </row>
-    <row r="11" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" s="44" customFormat="1">
       <c r="A11" s="42" t="s">
         <v>226</v>
       </c>
@@ -8590,7 +8591,7 @@
       <c r="T11" s="69">
         <v>43909</v>
       </c>
-      <c r="U11" s="73">
+      <c r="U11" s="70">
         <f>T10</f>
         <v>43912</v>
       </c>
@@ -8598,7 +8599,7 @@
       <c r="W11" s="42"/>
       <c r="X11" s="42"/>
     </row>
-    <row r="12" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" s="44" customFormat="1">
       <c r="A12" s="42" t="s">
         <v>260</v>
       </c>
@@ -8660,7 +8661,7 @@
       <c r="W12" s="42"/>
       <c r="X12" s="42"/>
     </row>
-    <row r="13" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" s="44" customFormat="1">
       <c r="A13" s="42" t="s">
         <v>227</v>
       </c>
@@ -8715,12 +8716,12 @@
       <c r="R13" s="63"/>
       <c r="S13" s="47"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="43"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
     </row>
-    <row r="14" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" s="44" customFormat="1">
       <c r="A14" s="42" t="s">
         <v>231</v>
       </c>
@@ -8777,7 +8778,7 @@
       <c r="T14" s="69">
         <v>43909</v>
       </c>
-      <c r="U14" s="73">
+      <c r="U14" s="70">
         <f>T12</f>
         <v>43919</v>
       </c>
@@ -8785,7 +8786,7 @@
       <c r="W14" s="42"/>
       <c r="X14" s="42"/>
     </row>
-    <row r="15" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" s="44" customFormat="1">
       <c r="A15" s="42" t="s">
         <v>228</v>
       </c>
@@ -8847,7 +8848,7 @@
       <c r="W15" s="42"/>
       <c r="X15" s="42"/>
     </row>
-    <row r="16" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" s="44" customFormat="1">
       <c r="A16" s="42" t="s">
         <v>229</v>
       </c>
@@ -8909,7 +8910,7 @@
       <c r="W16" s="42"/>
       <c r="X16" s="42"/>
     </row>
-    <row r="17" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" s="44" customFormat="1">
       <c r="A17" s="42" t="s">
         <v>230</v>
       </c>
@@ -8975,7 +8976,7 @@
       <c r="W17" s="42"/>
       <c r="X17" s="42"/>
     </row>
-    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1">
       <c r="A18" s="45" t="s">
         <v>232</v>
       </c>
@@ -9041,7 +9042,7 @@
       <c r="W18" s="45"/>
       <c r="X18" s="45"/>
     </row>
-    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1">
       <c r="A19" s="45" t="s">
         <v>221</v>
       </c>
@@ -9103,7 +9104,7 @@
       <c r="W19" s="45"/>
       <c r="X19" s="45"/>
     </row>
-    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>258</v>
       </c>
@@ -9169,7 +9170,7 @@
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
-    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>246</v>
       </c>
@@ -9235,7 +9236,7 @@
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
-    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>259</v>
       </c>
@@ -9297,7 +9298,7 @@
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
-    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="36"/>
       <c r="B23" s="32"/>
       <c r="C23" s="59"/>
@@ -9323,7 +9324,7 @@
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
-    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="36"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -9348,7 +9349,7 @@
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
     </row>
-    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="32"/>
       <c r="C25" s="59"/>
@@ -9374,7 +9375,7 @@
       <c r="W25" s="36"/>
       <c r="X25" s="36"/>
     </row>
-    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="32"/>
       <c r="C26" s="58"/>
@@ -9400,7 +9401,7 @@
       <c r="W26" s="36"/>
       <c r="X26" s="36"/>
     </row>
-    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="58"/>
@@ -9426,7 +9427,7 @@
       <c r="W27" s="36"/>
       <c r="X27" s="36"/>
     </row>
-    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="32"/>
       <c r="C28" s="58"/>
@@ -9452,7 +9453,7 @@
       <c r="W28" s="36"/>
       <c r="X28" s="36"/>
     </row>
-    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="59"/>
@@ -9478,7 +9479,7 @@
       <c r="W29" s="36"/>
       <c r="X29" s="36"/>
     </row>
-    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A30" s="36"/>
       <c r="B30" s="32"/>
       <c r="C30" s="58"/>
@@ -9504,7 +9505,7 @@
       <c r="W30" s="36"/>
       <c r="X30" s="36"/>
     </row>
-    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A31" s="36"/>
       <c r="C31" s="58"/>
       <c r="D31" s="61"/>
@@ -9563,13 +9564,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="19" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
         <v>195</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
         <v>196</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="23" customFormat="1">
       <c r="A4" s="23" t="s">
         <v>199</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -9640,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -9651,7 +9652,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -9670,7 +9671,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>203</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2A951-B1D4-4D6B-858E-482C5732A4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E126CB62-94A9-49B8-BEF8-1E46353216A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="270">
   <si>
     <t>date</t>
   </si>
@@ -1445,9 +1445,6 @@
     <t>people who go to the beach</t>
   </si>
   <si>
-    <t>partition</t>
-  </si>
-  <si>
     <t>Travel across state borders allowed and increased domestic travel</t>
   </si>
   <si>
@@ -1619,9 +1616,6 @@
     <t>communication</t>
   </si>
   <si>
-    <t>partitioned for public transport vs no publiuc trasnport</t>
-  </si>
-  <si>
     <t>Proportion of cases that are asymptomatic</t>
   </si>
   <si>
@@ -1638,6 +1632,9 @@
   </si>
   <si>
     <t>cluster</t>
+  </si>
+  <si>
+    <t>public transport</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1645,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2905,7 +2902,7 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="22"/>
     <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
@@ -2922,7 +2919,7 @@
     <col min="13" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +2957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>43891</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>43892</v>
       </c>
@@ -3000,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>43893</v>
       </c>
@@ -3020,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>43894</v>
       </c>
@@ -3040,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>43895</v>
       </c>
@@ -3060,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>43896</v>
       </c>
@@ -3080,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>43897</v>
       </c>
@@ -3100,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>43898</v>
       </c>
@@ -3120,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>43899</v>
       </c>
@@ -3140,7 +3137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>43900</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>43901</v>
       </c>
@@ -3180,7 +3177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>43902</v>
       </c>
@@ -3200,7 +3197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>43903</v>
       </c>
@@ -3220,7 +3217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>43904</v>
       </c>
@@ -3240,7 +3237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>43905</v>
       </c>
@@ -3260,7 +3257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>43906</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>43907</v>
       </c>
@@ -3315,7 +3312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>43908</v>
       </c>
@@ -3344,7 +3341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>43909</v>
       </c>
@@ -3373,7 +3370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>43910</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>43911</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>43912</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>43913</v>
       </c>
@@ -3495,7 +3492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>43914</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>43915</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>43916</v>
       </c>
@@ -3591,7 +3588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>43917</v>
       </c>
@@ -3623,7 +3620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>43918</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>43919</v>
       </c>
@@ -3693,7 +3690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>43920</v>
       </c>
@@ -3728,7 +3725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>43921</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>43922</v>
       </c>
@@ -3804,7 +3801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>43923</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>43924</v>
       </c>
@@ -3880,7 +3877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>43925</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>43926</v>
       </c>
@@ -3956,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>43927</v>
       </c>
@@ -3994,7 +3991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>43928</v>
       </c>
@@ -4032,7 +4029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>43929</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>43930</v>
       </c>
@@ -4108,7 +4105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>43931</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>43932</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>43933</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>43934</v>
       </c>
@@ -4260,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>43935</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>43936</v>
       </c>
@@ -4336,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>43937</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>43938</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>43939</v>
       </c>
@@ -4450,7 +4447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>43940</v>
       </c>
@@ -4488,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>43941</v>
       </c>
@@ -4526,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>43942</v>
       </c>
@@ -4577,9 +4574,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4691,7 +4688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4744,7 +4741,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4797,7 +4794,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5009,7 +5006,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5062,7 +5059,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5115,7 +5112,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5168,7 +5165,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5327,7 +5324,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -5521,12 +5518,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="10.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>153</v>
       </c>
@@ -5543,7 +5540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -5561,7 +5558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -5579,7 +5576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -5594,7 +5591,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -5609,7 +5606,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -5624,7 +5621,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -5639,7 +5636,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -5669,7 +5666,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -5684,7 +5681,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -5714,7 +5711,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -5729,7 +5726,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -5744,7 +5741,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
@@ -5759,7 +5756,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
@@ -5774,7 +5771,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -5789,7 +5786,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -5804,7 +5801,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -5834,7 +5831,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -5849,7 +5846,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -5864,7 +5861,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -5879,7 +5876,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -5894,7 +5891,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -5909,7 +5906,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -5924,7 +5921,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -5939,7 +5936,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -5954,7 +5951,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -5969,7 +5966,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -5984,7 +5981,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -5999,7 +5996,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -6014,7 +6011,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -6044,7 +6041,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>69</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -6074,7 +6071,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
@@ -6089,7 +6086,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>72</v>
       </c>
@@ -6104,7 +6101,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>73</v>
       </c>
@@ -6119,7 +6116,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
@@ -6134,7 +6131,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>75</v>
       </c>
@@ -6149,7 +6146,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>76</v>
       </c>
@@ -6164,7 +6161,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>77</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>78</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>79</v>
       </c>
@@ -6209,7 +6206,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>80</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
@@ -6239,7 +6236,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>82</v>
       </c>
@@ -6254,7 +6251,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -6269,7 +6266,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>84</v>
       </c>
@@ -6284,7 +6281,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>85</v>
       </c>
@@ -6299,7 +6296,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
@@ -6314,7 +6311,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>87</v>
       </c>
@@ -6329,7 +6326,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>89</v>
       </c>
@@ -6359,7 +6356,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
@@ -6374,7 +6371,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>91</v>
       </c>
@@ -6389,7 +6386,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
@@ -6404,7 +6401,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
@@ -6419,7 +6416,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
@@ -6434,7 +6431,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>95</v>
       </c>
@@ -6449,7 +6446,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
@@ -6464,7 +6461,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>97</v>
       </c>
@@ -6479,7 +6476,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
@@ -6494,7 +6491,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>99</v>
       </c>
@@ -6509,7 +6506,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
@@ -6524,7 +6521,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>101</v>
       </c>
@@ -6539,7 +6536,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -6554,7 +6551,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>103</v>
       </c>
@@ -6569,7 +6566,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
@@ -6584,7 +6581,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>105</v>
       </c>
@@ -6599,7 +6596,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>107</v>
       </c>
@@ -6629,7 +6626,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
@@ -6644,7 +6641,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>109</v>
       </c>
@@ -6659,7 +6656,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
@@ -6674,7 +6671,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>111</v>
       </c>
@@ -6689,7 +6686,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
@@ -6704,7 +6701,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>113</v>
       </c>
@@ -6719,7 +6716,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
@@ -6734,7 +6731,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>115</v>
       </c>
@@ -6749,7 +6746,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>116</v>
       </c>
@@ -6764,7 +6761,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>117</v>
       </c>
@@ -6779,7 +6776,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -6794,7 +6791,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>119</v>
       </c>
@@ -6809,7 +6806,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>120</v>
       </c>
@@ -6824,7 +6821,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
@@ -6839,7 +6836,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>122</v>
       </c>
@@ -6854,7 +6851,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>123</v>
       </c>
@@ -6869,7 +6866,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>124</v>
       </c>
@@ -6884,7 +6881,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>125</v>
       </c>
@@ -6899,7 +6896,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>126</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>127</v>
       </c>
@@ -6929,7 +6926,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>128</v>
       </c>
@@ -6944,7 +6941,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>129</v>
       </c>
@@ -6959,7 +6956,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>130</v>
       </c>
@@ -6974,7 +6971,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>131</v>
       </c>
@@ -6989,7 +6986,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>132</v>
       </c>
@@ -7004,7 +7001,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -7019,7 +7016,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>134</v>
       </c>
@@ -7034,7 +7031,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>135</v>
       </c>
@@ -7049,7 +7046,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>136</v>
       </c>
@@ -7064,7 +7061,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>137</v>
       </c>
@@ -7079,7 +7076,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>138</v>
       </c>
@@ -7094,7 +7091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
@@ -7109,7 +7106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
@@ -7124,7 +7121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>141</v>
       </c>
@@ -7139,7 +7136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>142</v>
       </c>
@@ -7154,7 +7151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>143</v>
       </c>
@@ -7169,7 +7166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>144</v>
       </c>
@@ -7184,7 +7181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>145</v>
       </c>
@@ -7199,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>146</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>147</v>
       </c>
@@ -7229,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>148</v>
       </c>
@@ -7244,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>149</v>
       </c>
@@ -7259,7 +7256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>150</v>
       </c>
@@ -7274,7 +7271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>151</v>
       </c>
@@ -7303,13 +7300,13 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>154</v>
       </c>
@@ -7320,7 +7317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>156</v>
       </c>
@@ -7331,7 +7328,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>158</v>
       </c>
@@ -7340,7 +7337,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>159</v>
       </c>
@@ -7349,7 +7346,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>160</v>
       </c>
@@ -7358,7 +7355,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>161</v>
       </c>
@@ -7367,7 +7364,7 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>162</v>
       </c>
@@ -7390,10 +7387,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -7405,7 +7402,7 @@
     <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
@@ -7473,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>174</v>
       </c>
@@ -7506,12 +7503,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -7539,12 +7536,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
@@ -7573,7 +7570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>177</v>
       </c>
@@ -7596,7 +7593,7 @@
         <v>110</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I6" s="29">
         <v>0</v>
@@ -7608,7 +7605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>179</v>
       </c>
@@ -7643,12 +7640,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>219</v>
       </c>
       <c r="C8" s="29">
         <v>0.57999999999999996</v>
@@ -7667,7 +7664,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I8" s="29">
         <v>0</v>
@@ -7679,9 +7676,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>205</v>
@@ -7715,12 +7712,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="29">
         <v>0.1</v>
@@ -7751,9 +7748,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>204</v>
@@ -7787,12 +7784,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C12" s="29">
         <v>0.2</v>
@@ -7810,7 +7807,7 @@
         <v>110</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="I12" s="29">
         <v>0</v>
@@ -7822,12 +7819,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>213</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>214</v>
       </c>
       <c r="C13" s="29">
         <v>0.1</v>
@@ -7858,12 +7855,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="29">
         <v>0.4</v>
@@ -7893,7 +7890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -7917,7 +7914,7 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.09765625" style="31" customWidth="1"/>
     <col min="2" max="2" width="50.69921875" style="30" customWidth="1"/>
@@ -7934,9 +7931,9 @@
     <col min="23" max="24" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D1" s="72" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E1" s="73"/>
       <c r="F1" s="73"/>
@@ -7952,16 +7949,16 @@
       <c r="P1" s="74"/>
       <c r="Q1" s="64"/>
       <c r="R1" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S1" s="74"/>
     </row>
-    <row r="2" spans="1:24" s="53" customFormat="1">
+    <row r="2" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>200</v>
@@ -8019,30 +8016,30 @@
         <v>public_parks</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R2" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S2" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T2" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="U2" s="51" t="s">
         <v>267</v>
-      </c>
-      <c r="U2" s="51" t="s">
-        <v>269</v>
       </c>
       <c r="V2" s="50"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
     </row>
-    <row r="3" spans="1:24" s="44" customFormat="1">
+    <row r="3" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="56">
         <v>0.8</v>
@@ -8099,12 +8096,12 @@
       <c r="W3" s="42"/>
       <c r="X3" s="42"/>
     </row>
-    <row r="4" spans="1:24" s="44" customFormat="1">
+    <row r="4" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="57">
         <v>1</v>
@@ -8161,12 +8158,12 @@
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
     </row>
-    <row r="5" spans="1:24" s="44" customFormat="1">
+    <row r="5" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="57">
         <v>1</v>
@@ -8222,12 +8219,12 @@
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
     </row>
-    <row r="6" spans="1:24" s="44" customFormat="1">
+    <row r="6" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="57">
         <v>1</v>
@@ -8283,12 +8280,12 @@
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" s="44" customFormat="1">
+    <row r="7" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="57">
         <v>1</v>
@@ -8345,12 +8342,12 @@
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
     </row>
-    <row r="8" spans="1:24" s="44" customFormat="1">
+    <row r="8" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="57">
         <v>1</v>
@@ -8407,12 +8404,12 @@
       <c r="W8" s="42"/>
       <c r="X8" s="42"/>
     </row>
-    <row r="9" spans="1:24" s="44" customFormat="1">
+    <row r="9" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="57">
         <v>1</v>
@@ -8472,12 +8469,12 @@
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
     </row>
-    <row r="10" spans="1:24" s="44" customFormat="1">
+    <row r="10" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>238</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>239</v>
       </c>
       <c r="C10" s="57">
         <v>1</v>
@@ -8534,12 +8531,12 @@
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
     </row>
-    <row r="11" spans="1:24" s="44" customFormat="1">
+    <row r="11" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="57">
         <v>1</v>
@@ -8599,12 +8596,12 @@
       <c r="W11" s="42"/>
       <c r="X11" s="42"/>
     </row>
-    <row r="12" spans="1:24" s="44" customFormat="1">
+    <row r="12" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="57">
         <v>1</v>
@@ -8661,12 +8658,12 @@
       <c r="W12" s="42"/>
       <c r="X12" s="42"/>
     </row>
-    <row r="13" spans="1:24" s="44" customFormat="1">
+    <row r="13" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="57">
         <v>1</v>
@@ -8721,12 +8718,12 @@
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
     </row>
-    <row r="14" spans="1:24" s="44" customFormat="1">
+    <row r="14" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="57">
         <v>1</v>
@@ -8786,12 +8783,12 @@
       <c r="W14" s="42"/>
       <c r="X14" s="42"/>
     </row>
-    <row r="15" spans="1:24" s="44" customFormat="1">
+    <row r="15" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="57">
         <v>1</v>
@@ -8848,12 +8845,12 @@
       <c r="W15" s="42"/>
       <c r="X15" s="42"/>
     </row>
-    <row r="16" spans="1:24" s="44" customFormat="1">
+    <row r="16" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" s="57">
         <v>1</v>
@@ -8910,12 +8907,12 @@
       <c r="W16" s="42"/>
       <c r="X16" s="42"/>
     </row>
-    <row r="17" spans="1:24" s="44" customFormat="1">
+    <row r="17" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="57">
         <v>1</v>
@@ -8976,12 +8973,12 @@
       <c r="W17" s="42"/>
       <c r="X17" s="42"/>
     </row>
-    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1">
+    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="57">
         <v>1</v>
@@ -9042,12 +9039,12 @@
       <c r="W18" s="45"/>
       <c r="X18" s="45"/>
     </row>
-    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1">
+    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="57">
         <v>1</v>
@@ -9104,12 +9101,12 @@
       <c r="W19" s="45"/>
       <c r="X19" s="45"/>
     </row>
-    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="57">
         <v>1</v>
@@ -9170,12 +9167,12 @@
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
-    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C21" s="57">
         <v>1</v>
@@ -9236,12 +9233,12 @@
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
-    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="57">
         <v>1</v>
@@ -9298,7 +9295,7 @@
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
-    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="32"/>
       <c r="C23" s="59"/>
@@ -9324,7 +9321,7 @@
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
-    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -9349,7 +9346,7 @@
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
     </row>
-    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="32"/>
       <c r="C25" s="59"/>
@@ -9375,7 +9372,7 @@
       <c r="W25" s="36"/>
       <c r="X25" s="36"/>
     </row>
-    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="32"/>
       <c r="C26" s="58"/>
@@ -9401,7 +9398,7 @@
       <c r="W26" s="36"/>
       <c r="X26" s="36"/>
     </row>
-    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="58"/>
@@ -9427,7 +9424,7 @@
       <c r="W27" s="36"/>
       <c r="X27" s="36"/>
     </row>
-    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="32"/>
       <c r="C28" s="58"/>
@@ -9453,7 +9450,7 @@
       <c r="W28" s="36"/>
       <c r="X28" s="36"/>
     </row>
-    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="59"/>
@@ -9479,7 +9476,7 @@
       <c r="W29" s="36"/>
       <c r="X29" s="36"/>
     </row>
-    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="32"/>
       <c r="C30" s="58"/>
@@ -9505,7 +9502,7 @@
       <c r="W30" s="36"/>
       <c r="X30" s="36"/>
     </row>
-    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="C31" s="58"/>
       <c r="D31" s="61"/>
@@ -9564,13 +9561,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
@@ -9581,7 +9578,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1">
+    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>195</v>
       </c>
@@ -9592,7 +9589,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="23" customFormat="1">
+    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>196</v>
       </c>
@@ -9603,7 +9600,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="23" customFormat="1">
+    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>199</v>
       </c>
@@ -9611,7 +9608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -9622,7 +9619,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -9633,7 +9630,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -9641,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -9652,7 +9649,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -9660,7 +9657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -9671,7 +9668,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -9679,7 +9676,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -9687,7 +9684,7 @@
         <v>0.3</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E126CB62-94A9-49B8-BEF8-1E46353216A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB475B89-629E-4CAC-A3A4-A77460E97B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{CB6DD2BA-EF11-487B-AA65-01A06CA36038}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{ACEA9CD3-302F-46F2-90BF-0CD3A7F1D863}">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Age-weighted Australian estimate from Prem et al.</t>
+Average classroom size in Victoria:
+https://www.study.vic.gov.au/en/study-in-victoria/victoria's-school-system/Pages/default.aspx</t>
         </r>
       </text>
     </comment>
@@ -354,6 +355,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{B70396E9-CC65-4F5C-85BC-588FCC1683AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume imperfect - people in quarantine still go out a bit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{4D9BB851-5C3D-4298-9ACB-59D87F2FE0A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{3BA09861-5B41-40A2-BDB3-6E1D96AFAE17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11% of the population attend church at least weekly: http://www.2016ncls.org.au/resources/downloads/Local%20Churches%20in%20Australia-Research%20Findings%20from%20NCLS%20Research(2017).pdf</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C8" authorId="0" shapeId="0" xr:uid="{38932014-14A3-4F04-99D4-4C5AC3658D8C}">
       <text>
         <r>
@@ -426,6 +499,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{7818793A-9598-42AF-A4CD-2C86F78B914D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0" shapeId="0" xr:uid="{3165AF40-A273-447D-9A2E-AB9B1172C73B}">
       <text>
         <r>
@@ -447,6 +544,30 @@
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{F5056F56-5A9F-4B10-8FE8-D9030A3614BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
         </r>
       </text>
     </comment>
@@ -474,6 +595,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{B27B8D3D-006F-4C75-BD45-40A066F52766}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{410A1D9C-30A3-4CE9-8C84-62FC570432B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0" shapeId="0" xr:uid="{228AFDF0-550A-474C-82CE-D6026B4F01BE}">
       <text>
         <r>
@@ -498,6 +667,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{83637922-1505-431A-8C98-9A374E63764E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0" xr:uid="{2A4B0066-29E3-40CB-A1E4-27AD21709C47}">
       <text>
         <r>
@@ -519,6 +712,150 @@
           </rPr>
           <t xml:space="preserve">
 picnics, gatherings</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{B1849F6B-0306-433E-98FA-FF52F414E219}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume imperfect - people in quarantine still go out a bit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{CF1F0D09-080C-4525-BB4B-CE3BFE83793F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{C0857E38-81A8-4D60-A429-5B66E72D27E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed same as community transmission but divided by 90 assuming 4 times per year</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{ADC0EF27-C965-4277-B0F7-3F770FEAE298}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{74714B29-DD56-4376-81EE-54D608222AE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed same as household transmission but divided by 7 as likely only once per week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{17B6C9A2-290B-4E5C-AB16-BDA186C6EE76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume imperfect - people in quarantine still go out a bit</t>
         </r>
       </text>
     </comment>
@@ -604,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{252AC982-FF60-45FD-A4CF-8D34C1662215}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{252AC982-FF60-45FD-A4CF-8D34C1662215}">
       <text>
         <r>
           <rPr>
@@ -628,7 +965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{759E43AC-0F82-42CB-A657-8CF03780CEEB}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{759E43AC-0F82-42CB-A657-8CF03780CEEB}">
       <text>
         <r>
           <rPr>
@@ -652,7 +989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{FFF4F60E-3D97-4538-B09E-7948829E6AF3}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{FFF4F60E-3D97-4538-B09E-7948829E6AF3}">
       <text>
         <r>
           <rPr>
@@ -724,7 +1061,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0" shapeId="0" xr:uid="{07D5BAC1-2FF9-4941-B4B5-CDB663778A63}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{6223E0E3-908B-47BE-B9FF-77BB2D964278}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+More time at home?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{DE2F0B53-B1AD-4E9C-AD8D-83E8C51419E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Half of entertainment closed?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V18" authorId="0" shapeId="0" xr:uid="{07D5BAC1-2FF9-4941-B4B5-CDB663778A63}">
       <text>
         <r>
           <rPr>
@@ -748,7 +1133,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{98FD616D-BB7F-4E7D-88CA-B1DBC5F89873}">
+    <comment ref="V19" authorId="0" shapeId="0" xr:uid="{1D808B70-4F20-43CE-84F1-FD2853AC57AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I.e. 5% of workers are in retail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{98FD616D-BB7F-4E7D-88CA-B1DBC5F89873}">
       <text>
         <r>
           <rPr>
@@ -772,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="0" shapeId="0" xr:uid="{F5046FB0-4544-4B28-ADF0-BA19ADD0DAC4}">
+    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{F5046FB0-4544-4B28-ADF0-BA19ADD0DAC4}">
       <text>
         <r>
           <rPr>
@@ -796,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S21" authorId="0" shapeId="0" xr:uid="{E148481E-245F-4C18-BABD-3CD8F6A1812F}">
+    <comment ref="V23" authorId="0" shapeId="0" xr:uid="{E148481E-245F-4C18-BABD-3CD8F6A1812F}">
       <text>
         <r>
           <rPr>
@@ -825,7 +1234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="278">
   <si>
     <t>date</t>
   </si>
@@ -1635,15 +2044,40 @@
   </si>
   <si>
     <t>public transport</t>
+  </si>
+  <si>
+    <t>large_events</t>
+  </si>
+  <si>
+    <t>child_care</t>
+  </si>
+  <si>
+    <t>child care centres</t>
+  </si>
+  <si>
+    <t>concerts, festivals, sports games etc.</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>Child care closed</t>
+  </si>
+  <si>
+    <t>catch up with friends (&lt;10)</t>
+  </si>
+  <si>
+    <t>social catch ups with &lt;10 people banned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2348,7 +2782,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2514,6 +2948,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2563,7 +3010,224 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4570,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71292FC5-4B23-A74E-B513-C8525EFF9EE0}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7383,11 +8047,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7481,26 +8145,28 @@
         <v>1</v>
       </c>
       <c r="D3" s="29">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E3" s="29">
         <v>0.5</v>
       </c>
       <c r="F3" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="29">
-        <v>110</v>
-      </c>
-      <c r="H3" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="I3" s="29">
         <v>0</v>
       </c>
       <c r="J3" s="29">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K3" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7520,20 +8186,22 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4" s="29">
-        <v>110</v>
-      </c>
-      <c r="H4" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="I4" s="29">
         <v>0</v>
       </c>
       <c r="J4" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7547,8 +8215,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="29">
-        <f>MAX(0,5-SUMPRODUCT((C7:C14)*(D7:D14)*(E7:E14))/E5)</f>
-        <v>0</v>
+        <f>MAX(1,5-SUMPRODUCT((C7:C14)*(D7:D14)*(E7:E14))/E5)</f>
+        <v>1</v>
       </c>
       <c r="E5" s="29">
         <v>0.1</v>
@@ -7559,12 +8227,14 @@
       <c r="G5" s="29">
         <v>110</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="I5" s="29">
         <v>0.2</v>
       </c>
       <c r="J5" s="29">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K5" s="29">
         <v>20</v>
@@ -7578,7 +8248,7 @@
         <v>178</v>
       </c>
       <c r="C6" s="29">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="29">
         <v>10</v>
@@ -7599,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="29">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K6" s="29">
         <v>10</v>
@@ -7637,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7706,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="29">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K9" s="29">
         <v>20</v>
@@ -7742,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="29">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K10" s="29">
         <v>20</v>
@@ -7778,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="29">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K11" s="29">
         <v>20</v>
@@ -7813,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="29">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K12" s="29">
         <v>20</v>
@@ -7830,7 +8500,7 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="48">
         <f>E$5/7</f>
@@ -7849,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="29">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K13" s="29">
         <v>20</v>
@@ -7884,34 +8554,133 @@
         <v>0.2</v>
       </c>
       <c r="J14" s="29">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K14" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="A15" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>50</v>
+      </c>
+      <c r="E15" s="78">
+        <f>E$5/90</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>110</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>10</v>
+      </c>
+      <c r="E16" s="29">
+        <f>E3</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="29">
+        <v>5</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>1</v>
+      </c>
+      <c r="K16" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2</v>
+      </c>
+      <c r="E17" s="48">
+        <f>E$2/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F17" s="29">
+        <v>15</v>
+      </c>
+      <c r="G17" s="29">
+        <v>110</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7921,17 +8690,17 @@
     <col min="3" max="3" width="4.09765625" style="54" customWidth="1"/>
     <col min="4" max="4" width="4.09765625" style="59" customWidth="1"/>
     <col min="5" max="7" width="4.09765625" style="31" customWidth="1"/>
-    <col min="8" max="16" width="7.3984375" style="31" customWidth="1"/>
-    <col min="17" max="17" width="7.796875" style="59" customWidth="1"/>
-    <col min="18" max="18" width="11.69921875" style="67" customWidth="1"/>
-    <col min="19" max="19" width="10.3984375" style="46" customWidth="1"/>
-    <col min="20" max="20" width="18.3984375" style="54" customWidth="1"/>
-    <col min="21" max="21" width="18.3984375" style="30" customWidth="1"/>
-    <col min="22" max="22" width="56.09765625" style="30" customWidth="1"/>
-    <col min="23" max="24" width="8.796875" style="31"/>
+    <col min="8" max="19" width="7.3984375" style="31" customWidth="1"/>
+    <col min="20" max="20" width="7.796875" style="59" customWidth="1"/>
+    <col min="21" max="21" width="11.69921875" style="67" customWidth="1"/>
+    <col min="22" max="22" width="10.3984375" style="46" customWidth="1"/>
+    <col min="23" max="23" width="18.3984375" style="54" customWidth="1"/>
+    <col min="24" max="24" width="18.3984375" style="30" customWidth="1"/>
+    <col min="25" max="25" width="56.09765625" style="30" customWidth="1"/>
+    <col min="26" max="27" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D1" s="72" t="s">
         <v>266</v>
       </c>
@@ -7946,14 +8715,17 @@
       <c r="M1" s="73"/>
       <c r="N1" s="73"/>
       <c r="O1" s="73"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="72" t="s">
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="S1" s="74"/>
-    </row>
-    <row r="2" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="74"/>
+    </row>
+    <row r="2" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>207</v>
       </c>
@@ -7968,7 +8740,7 @@
         <v>H</v>
       </c>
       <c r="E2" s="51" t="str">
-        <f t="shared" ref="E2:P2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <f t="shared" ref="E2:S2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
         <v>S</v>
       </c>
       <c r="F2" s="51" t="str">
@@ -8015,26 +8787,38 @@
         <f t="shared" ca="1" si="0"/>
         <v>public_parks</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>large_events</v>
+      </c>
+      <c r="R2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>child_care</v>
+      </c>
+      <c r="S2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>social</v>
+      </c>
+      <c r="T2" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="R2" s="66" t="s">
+      <c r="U2" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="V2" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="60" t="s">
+      <c r="W2" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="X2" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-    </row>
-    <row r="3" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+    </row>
+    <row r="3" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>262</v>
       </c>
@@ -8083,20 +8867,29 @@
       <c r="P3" s="38">
         <v>1</v>
       </c>
-      <c r="Q3" s="65">
-        <v>0</v>
-      </c>
-      <c r="R3" s="63"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="69">
+      <c r="Q3" s="38">
+        <v>1</v>
+      </c>
+      <c r="R3" s="38">
+        <v>1</v>
+      </c>
+      <c r="S3" s="38">
+        <v>1</v>
+      </c>
+      <c r="T3" s="65">
+        <v>0</v>
+      </c>
+      <c r="U3" s="63"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="69">
         <v>43905</v>
       </c>
-      <c r="U3" s="70"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-    </row>
-    <row r="4" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="70"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+    </row>
+    <row r="4" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>234</v>
       </c>
@@ -8145,20 +8938,29 @@
       <c r="P4" s="38">
         <v>1</v>
       </c>
-      <c r="Q4" s="65">
-        <v>0</v>
-      </c>
-      <c r="R4" s="63"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="69">
+      <c r="Q4" s="38">
+        <v>1</v>
+      </c>
+      <c r="R4" s="38">
+        <v>1</v>
+      </c>
+      <c r="S4" s="38">
+        <v>1</v>
+      </c>
+      <c r="T4" s="65">
+        <v>0</v>
+      </c>
+      <c r="U4" s="63"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="69">
         <v>43919</v>
       </c>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-    </row>
-    <row r="5" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+    </row>
+    <row r="5" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>222</v>
       </c>
@@ -8208,18 +9010,27 @@
       <c r="P5" s="38">
         <v>1</v>
       </c>
-      <c r="Q5" s="65">
-        <v>0</v>
-      </c>
-      <c r="R5" s="63"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-    </row>
-    <row r="6" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="38">
+        <v>1</v>
+      </c>
+      <c r="R5" s="38">
+        <v>1</v>
+      </c>
+      <c r="S5" s="38">
+        <v>1</v>
+      </c>
+      <c r="T5" s="65">
+        <v>0</v>
+      </c>
+      <c r="U5" s="63"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+    </row>
+    <row r="6" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>223</v>
       </c>
@@ -8269,18 +9080,27 @@
       <c r="P6" s="38">
         <v>1</v>
       </c>
-      <c r="Q6" s="65">
-        <v>0</v>
-      </c>
-      <c r="R6" s="63"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-    </row>
-    <row r="7" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="38">
+        <v>1</v>
+      </c>
+      <c r="R6" s="38">
+        <v>1</v>
+      </c>
+      <c r="S6" s="38">
+        <v>1</v>
+      </c>
+      <c r="T6" s="65">
+        <v>0</v>
+      </c>
+      <c r="U6" s="63"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>233</v>
       </c>
@@ -8329,20 +9149,29 @@
       <c r="P7" s="38">
         <v>1</v>
       </c>
-      <c r="Q7" s="65">
-        <v>0</v>
-      </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="69">
+      <c r="Q7" s="38">
+        <v>1</v>
+      </c>
+      <c r="R7" s="38">
+        <v>1</v>
+      </c>
+      <c r="S7" s="38">
+        <v>1</v>
+      </c>
+      <c r="T7" s="65">
+        <v>0</v>
+      </c>
+      <c r="U7" s="63"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="69">
         <v>43919</v>
       </c>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-    </row>
-    <row r="8" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+    </row>
+    <row r="8" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>236</v>
       </c>
@@ -8391,20 +9220,29 @@
       <c r="P8" s="38">
         <v>1</v>
       </c>
-      <c r="Q8" s="65">
-        <v>0</v>
-      </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="69">
+      <c r="Q8" s="38">
+        <v>1</v>
+      </c>
+      <c r="R8" s="38">
+        <v>1</v>
+      </c>
+      <c r="S8" s="38">
+        <v>1</v>
+      </c>
+      <c r="T8" s="65">
+        <v>0</v>
+      </c>
+      <c r="U8" s="63"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="69">
         <v>43912</v>
       </c>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-    </row>
-    <row r="9" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+    </row>
+    <row r="9" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>224</v>
       </c>
@@ -8453,23 +9291,32 @@
       <c r="P9" s="38">
         <v>1</v>
       </c>
-      <c r="Q9" s="65">
-        <v>0</v>
-      </c>
-      <c r="R9" s="63"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="69">
+      <c r="Q9" s="38">
+        <v>1</v>
+      </c>
+      <c r="R9" s="38">
+        <v>1</v>
+      </c>
+      <c r="S9" s="38">
+        <v>1</v>
+      </c>
+      <c r="T9" s="65">
+        <v>0</v>
+      </c>
+      <c r="U9" s="63"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="69">
         <v>43909</v>
       </c>
-      <c r="U9" s="70">
-        <f>T8</f>
+      <c r="X9" s="70">
+        <f>W8</f>
         <v>43912</v>
       </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-    </row>
-    <row r="10" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+    </row>
+    <row r="10" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>237</v>
       </c>
@@ -8518,20 +9365,29 @@
       <c r="P10" s="38">
         <v>1</v>
       </c>
-      <c r="Q10" s="65">
-        <v>0</v>
-      </c>
-      <c r="R10" s="63"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="69">
+      <c r="Q10" s="38">
+        <v>1</v>
+      </c>
+      <c r="R10" s="38">
+        <v>1</v>
+      </c>
+      <c r="S10" s="38">
+        <v>1</v>
+      </c>
+      <c r="T10" s="65">
+        <v>0</v>
+      </c>
+      <c r="U10" s="63"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="69">
         <v>43912</v>
       </c>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-    </row>
-    <row r="11" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+    </row>
+    <row r="11" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>225</v>
       </c>
@@ -8580,23 +9436,32 @@
       <c r="P11" s="38">
         <v>1</v>
       </c>
-      <c r="Q11" s="65">
-        <v>0</v>
-      </c>
-      <c r="R11" s="63"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="69">
+      <c r="Q11" s="38">
+        <v>1</v>
+      </c>
+      <c r="R11" s="38">
+        <v>1</v>
+      </c>
+      <c r="S11" s="38">
+        <v>1</v>
+      </c>
+      <c r="T11" s="65">
+        <v>0</v>
+      </c>
+      <c r="U11" s="63"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="69">
         <v>43909</v>
       </c>
-      <c r="U11" s="70">
-        <f>T10</f>
+      <c r="X11" s="70">
+        <f>W10</f>
         <v>43912</v>
       </c>
-      <c r="V11" s="43"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-    </row>
-    <row r="12" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+    </row>
+    <row r="12" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>259</v>
       </c>
@@ -8643,22 +9508,32 @@
         <v>1</v>
       </c>
       <c r="P12" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="65">
-        <v>0</v>
-      </c>
-      <c r="R12" s="63"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="69">
+        <f>MIN(1,2/layers!D14)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>1</v>
+      </c>
+      <c r="R12" s="38">
+        <v>1</v>
+      </c>
+      <c r="S12" s="38">
+        <v>1</v>
+      </c>
+      <c r="T12" s="65">
+        <v>0</v>
+      </c>
+      <c r="U12" s="63"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="69">
         <v>43919</v>
       </c>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-    </row>
-    <row r="13" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+    </row>
+    <row r="13" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>226</v>
       </c>
@@ -8705,20 +9580,30 @@
         <v>0.2</v>
       </c>
       <c r="P13" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="Q13" s="65">
-        <v>0</v>
-      </c>
-      <c r="R13" s="63"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-    </row>
-    <row r="14" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+        <f>MIN(1,10/layers!D14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>1</v>
+      </c>
+      <c r="R13" s="38">
+        <v>1</v>
+      </c>
+      <c r="S13" s="38">
+        <v>1</v>
+      </c>
+      <c r="T13" s="65">
+        <v>0</v>
+      </c>
+      <c r="U13" s="63"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+    </row>
+    <row r="14" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>230</v>
       </c>
@@ -8753,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="40">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M14" s="38">
         <v>1</v>
@@ -8765,25 +9650,34 @@
         <v>1</v>
       </c>
       <c r="P14" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="Q14" s="65">
-        <v>0</v>
-      </c>
-      <c r="R14" s="63"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="69">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>1</v>
+      </c>
+      <c r="R14" s="38">
+        <v>1</v>
+      </c>
+      <c r="S14" s="38">
+        <v>1</v>
+      </c>
+      <c r="T14" s="65">
+        <v>0</v>
+      </c>
+      <c r="U14" s="63"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="69">
         <v>43909</v>
       </c>
-      <c r="U14" s="70">
-        <f>T12</f>
+      <c r="X14" s="70">
+        <f>W12</f>
         <v>43919</v>
       </c>
-      <c r="V14" s="43"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-    </row>
-    <row r="15" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+    </row>
+    <row r="15" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>227</v>
       </c>
@@ -8832,20 +9726,29 @@
       <c r="P15" s="38">
         <v>1</v>
       </c>
-      <c r="Q15" s="65">
-        <v>0</v>
-      </c>
-      <c r="R15" s="63"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="69">
+      <c r="Q15" s="38">
+        <v>1</v>
+      </c>
+      <c r="R15" s="38">
+        <v>1</v>
+      </c>
+      <c r="S15" s="38">
+        <v>1</v>
+      </c>
+      <c r="T15" s="65">
+        <v>0</v>
+      </c>
+      <c r="U15" s="63"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="69">
         <v>43912</v>
       </c>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-    </row>
-    <row r="16" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+    </row>
+    <row r="16" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>228</v>
       </c>
@@ -8894,492 +9797,688 @@
       <c r="P16" s="38">
         <v>1</v>
       </c>
-      <c r="Q16" s="65">
-        <v>0</v>
-      </c>
-      <c r="R16" s="63"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="69">
+      <c r="Q16" s="38">
+        <v>1</v>
+      </c>
+      <c r="R16" s="38">
+        <v>1</v>
+      </c>
+      <c r="S16" s="38">
+        <v>1</v>
+      </c>
+      <c r="T16" s="65">
+        <v>0</v>
+      </c>
+      <c r="U16" s="63"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="69">
         <v>43912</v>
       </c>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-    </row>
-    <row r="17" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="57">
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="L17" s="38">
+        <v>1</v>
+      </c>
+      <c r="M17" s="38">
+        <v>1</v>
+      </c>
+      <c r="N17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="38">
+        <v>1</v>
+      </c>
+      <c r="P17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>1</v>
+      </c>
+      <c r="R17" s="38">
+        <v>0</v>
+      </c>
+      <c r="S17" s="38">
+        <v>1</v>
+      </c>
+      <c r="T17" s="65">
+        <v>0</v>
+      </c>
+      <c r="U17" s="63"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+    </row>
+    <row r="18" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="57">
-        <v>1</v>
-      </c>
-      <c r="D17" s="57">
-        <v>1</v>
-      </c>
-      <c r="E17" s="38">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="38">
-        <v>1</v>
-      </c>
-      <c r="H17" s="38">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
-      <c r="K17" s="38">
-        <v>1</v>
-      </c>
-      <c r="L17" s="38">
-        <v>1</v>
-      </c>
-      <c r="M17" s="38">
-        <v>1</v>
-      </c>
-      <c r="N17" s="38">
-        <v>1</v>
-      </c>
-      <c r="O17" s="38">
-        <v>1</v>
-      </c>
-      <c r="P17" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="65">
-        <v>0</v>
-      </c>
-      <c r="R17" s="63" t="s">
+      <c r="C18" s="57">
+        <v>1</v>
+      </c>
+      <c r="D18" s="57">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1</v>
+      </c>
+      <c r="H18" s="38">
+        <v>1</v>
+      </c>
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+      <c r="J18" s="38">
+        <v>1</v>
+      </c>
+      <c r="K18" s="38">
+        <v>1</v>
+      </c>
+      <c r="L18" s="38">
+        <v>1</v>
+      </c>
+      <c r="M18" s="38">
+        <v>1</v>
+      </c>
+      <c r="N18" s="38">
+        <v>1</v>
+      </c>
+      <c r="O18" s="38">
+        <v>1</v>
+      </c>
+      <c r="P18" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>1</v>
+      </c>
+      <c r="R18" s="38">
+        <v>1</v>
+      </c>
+      <c r="S18" s="38">
+        <v>1</v>
+      </c>
+      <c r="T18" s="65">
+        <v>0</v>
+      </c>
+      <c r="U18" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="S17" s="47">
+      <c r="V18" s="77">
         <v>0.1</v>
       </c>
-      <c r="T17" s="69">
+      <c r="W18" s="69">
         <v>43915</v>
       </c>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-    </row>
-    <row r="18" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+    </row>
+    <row r="19" spans="1:27" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B19" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="57">
-        <v>1</v>
-      </c>
-      <c r="D18" s="57">
-        <v>1</v>
-      </c>
-      <c r="E18" s="38">
-        <v>1</v>
-      </c>
-      <c r="F18" s="38">
-        <v>1</v>
-      </c>
-      <c r="G18" s="38">
+      <c r="C19" s="57">
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
+      <c r="G19" s="38">
         <v>0.73</v>
       </c>
-      <c r="H18" s="38">
-        <v>1</v>
-      </c>
-      <c r="I18" s="38">
-        <v>1</v>
-      </c>
-      <c r="J18" s="38">
-        <v>1</v>
-      </c>
-      <c r="K18" s="38">
-        <v>1</v>
-      </c>
-      <c r="L18" s="38">
-        <v>1</v>
-      </c>
-      <c r="M18" s="38">
-        <v>1</v>
-      </c>
-      <c r="N18" s="38">
-        <v>1</v>
-      </c>
-      <c r="O18" s="38">
-        <v>1</v>
-      </c>
-      <c r="P18" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="65">
-        <v>0</v>
-      </c>
-      <c r="R18" s="63" t="s">
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
+      <c r="I19" s="38">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+      <c r="K19" s="38">
+        <v>1</v>
+      </c>
+      <c r="L19" s="38">
+        <v>1</v>
+      </c>
+      <c r="M19" s="38">
+        <v>1</v>
+      </c>
+      <c r="N19" s="38">
+        <v>1</v>
+      </c>
+      <c r="O19" s="38">
+        <v>1</v>
+      </c>
+      <c r="P19" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>1</v>
+      </c>
+      <c r="R19" s="38">
+        <v>1</v>
+      </c>
+      <c r="S19" s="38">
+        <v>1</v>
+      </c>
+      <c r="T19" s="65">
+        <v>0</v>
+      </c>
+      <c r="U19" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="S18" s="33">
+      <c r="V19" s="76">
         <v>0.95</v>
       </c>
-      <c r="T18" s="69">
+      <c r="W19" s="69">
         <v>43919</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-    </row>
-    <row r="19" spans="1:24" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+    </row>
+    <row r="20" spans="1:27" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B20" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="57">
-        <v>1</v>
-      </c>
-      <c r="D19" s="57">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="38">
-        <v>1</v>
-      </c>
-      <c r="H19" s="38">
-        <v>1</v>
-      </c>
-      <c r="I19" s="38">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1</v>
-      </c>
-      <c r="L19" s="40">
-        <v>0</v>
-      </c>
-      <c r="M19" s="38">
-        <v>1</v>
-      </c>
-      <c r="N19" s="38">
-        <v>1</v>
-      </c>
-      <c r="O19" s="38">
-        <v>1</v>
-      </c>
-      <c r="P19" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="65">
-        <v>0</v>
-      </c>
-      <c r="R19" s="63"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="69">
+      <c r="C20" s="57">
+        <v>1</v>
+      </c>
+      <c r="D20" s="57">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1</v>
+      </c>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="40">
+        <v>0</v>
+      </c>
+      <c r="M20" s="38">
+        <v>1</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
+        <v>1</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>1</v>
+      </c>
+      <c r="R20" s="38">
+        <v>1</v>
+      </c>
+      <c r="S20" s="38">
+        <v>1</v>
+      </c>
+      <c r="T20" s="65">
+        <v>0</v>
+      </c>
+      <c r="U20" s="63"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="69">
+        <v>43909</v>
+      </c>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+    </row>
+    <row r="21" spans="1:27" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="38">
+        <v>1</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="38">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1</v>
+      </c>
+      <c r="K21" s="38">
+        <v>1</v>
+      </c>
+      <c r="L21" s="38">
+        <v>1</v>
+      </c>
+      <c r="M21" s="38">
+        <v>1</v>
+      </c>
+      <c r="N21" s="38">
+        <v>1</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1</v>
+      </c>
+      <c r="P21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>0</v>
+      </c>
+      <c r="R21" s="38">
+        <v>1</v>
+      </c>
+      <c r="S21" s="38">
+        <v>1</v>
+      </c>
+      <c r="T21" s="65">
+        <v>0</v>
+      </c>
+      <c r="U21" s="63"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="69">
         <v>43912</v>
       </c>
-      <c r="U19" s="37"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="X21" s="37"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+    </row>
+    <row r="22" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B22" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="57">
-        <v>1</v>
-      </c>
-      <c r="D20" s="57">
-        <v>1</v>
-      </c>
-      <c r="E20" s="38">
-        <v>1</v>
-      </c>
-      <c r="F20" s="38">
-        <v>1</v>
-      </c>
-      <c r="G20" s="38">
+      <c r="C22" s="57">
+        <v>1</v>
+      </c>
+      <c r="D22" s="57">
+        <v>1</v>
+      </c>
+      <c r="E22" s="38">
+        <v>1</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38">
         <v>0.67</v>
       </c>
-      <c r="H20" s="38">
-        <v>1</v>
-      </c>
-      <c r="I20" s="38">
-        <v>1</v>
-      </c>
-      <c r="J20" s="38">
-        <v>1</v>
-      </c>
-      <c r="K20" s="38">
-        <v>1</v>
-      </c>
-      <c r="L20" s="38">
-        <v>1</v>
-      </c>
-      <c r="M20" s="38">
-        <v>1</v>
-      </c>
-      <c r="N20" s="38">
-        <v>1</v>
-      </c>
-      <c r="O20" s="38">
-        <v>1</v>
-      </c>
-      <c r="P20" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="65">
-        <v>0</v>
-      </c>
-      <c r="R20" s="63" t="s">
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="38">
+        <v>1</v>
+      </c>
+      <c r="J22" s="38">
+        <v>1</v>
+      </c>
+      <c r="K22" s="38">
+        <v>1</v>
+      </c>
+      <c r="L22" s="38">
+        <v>1</v>
+      </c>
+      <c r="M22" s="38">
+        <v>1</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1</v>
+      </c>
+      <c r="O22" s="38">
+        <v>1</v>
+      </c>
+      <c r="P22" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>1</v>
+      </c>
+      <c r="R22" s="38">
+        <v>1</v>
+      </c>
+      <c r="S22" s="38">
+        <v>1</v>
+      </c>
+      <c r="T22" s="65">
+        <v>0</v>
+      </c>
+      <c r="U22" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="33">
+      <c r="V22" s="76">
         <v>0.5</v>
       </c>
-      <c r="T20" s="69">
+      <c r="W22" s="69">
         <v>43919</v>
       </c>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-    </row>
-    <row r="21" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+    </row>
+    <row r="23" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B23" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="57">
-        <v>1</v>
-      </c>
-      <c r="D21" s="57">
-        <v>1</v>
-      </c>
-      <c r="E21" s="38">
-        <v>1</v>
-      </c>
-      <c r="F21" s="38">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38">
-        <v>1</v>
-      </c>
-      <c r="H21" s="38">
-        <v>1</v>
-      </c>
-      <c r="I21" s="38">
-        <v>1</v>
-      </c>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="38">
-        <v>1</v>
-      </c>
-      <c r="L21" s="38">
-        <v>1</v>
-      </c>
-      <c r="M21" s="38">
-        <v>1</v>
-      </c>
-      <c r="N21" s="38">
-        <v>1</v>
-      </c>
-      <c r="O21" s="38">
-        <v>1</v>
-      </c>
-      <c r="P21" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="65">
-        <v>0</v>
-      </c>
-      <c r="R21" s="63" t="s">
+      <c r="C23" s="57">
+        <v>1</v>
+      </c>
+      <c r="D23" s="57">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
+      <c r="G23" s="38">
+        <v>1</v>
+      </c>
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="38">
+        <v>1</v>
+      </c>
+      <c r="J23" s="38">
+        <v>1</v>
+      </c>
+      <c r="K23" s="38">
+        <v>1</v>
+      </c>
+      <c r="L23" s="38">
+        <v>1</v>
+      </c>
+      <c r="M23" s="38">
+        <v>1</v>
+      </c>
+      <c r="N23" s="38">
+        <v>1</v>
+      </c>
+      <c r="O23" s="38">
+        <v>1</v>
+      </c>
+      <c r="P23" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="38">
+        <v>1</v>
+      </c>
+      <c r="R23" s="38">
+        <v>1</v>
+      </c>
+      <c r="S23" s="38">
+        <v>1</v>
+      </c>
+      <c r="T23" s="65">
+        <v>0</v>
+      </c>
+      <c r="U23" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="S21" s="33">
+      <c r="V23" s="76">
         <v>0.95</v>
       </c>
-      <c r="T21" s="69">
+      <c r="W23" s="69">
         <v>43919</v>
       </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-    </row>
-    <row r="22" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="X23" s="37"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+    </row>
+    <row r="24" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B24" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="57">
-        <v>1</v>
-      </c>
-      <c r="D22" s="57">
-        <v>1</v>
-      </c>
-      <c r="E22" s="38">
-        <v>1</v>
-      </c>
-      <c r="F22" s="38">
-        <v>1</v>
-      </c>
-      <c r="G22" s="38">
-        <v>1</v>
-      </c>
-      <c r="H22" s="38">
-        <v>1</v>
-      </c>
-      <c r="I22" s="38">
-        <v>1</v>
-      </c>
-      <c r="J22" s="38">
-        <v>1</v>
-      </c>
-      <c r="K22" s="38">
-        <v>1</v>
-      </c>
-      <c r="L22" s="38">
-        <v>1</v>
-      </c>
-      <c r="M22" s="38">
-        <v>1</v>
-      </c>
-      <c r="N22" s="38">
-        <v>1</v>
-      </c>
-      <c r="O22" s="38">
-        <v>1</v>
-      </c>
-      <c r="P22" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="65">
+      <c r="C24" s="57">
+        <v>1</v>
+      </c>
+      <c r="D24" s="57">
+        <v>1</v>
+      </c>
+      <c r="E24" s="38">
+        <v>1</v>
+      </c>
+      <c r="F24" s="38">
+        <v>1</v>
+      </c>
+      <c r="G24" s="38">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="38">
+        <v>1</v>
+      </c>
+      <c r="J24" s="38">
+        <v>1</v>
+      </c>
+      <c r="K24" s="38">
+        <v>1</v>
+      </c>
+      <c r="L24" s="38">
+        <v>1</v>
+      </c>
+      <c r="M24" s="38">
+        <v>1</v>
+      </c>
+      <c r="N24" s="38">
+        <v>1</v>
+      </c>
+      <c r="O24" s="38">
+        <v>1</v>
+      </c>
+      <c r="P24" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="38">
+        <v>1</v>
+      </c>
+      <c r="R24" s="38">
+        <v>1</v>
+      </c>
+      <c r="S24" s="38">
+        <v>1</v>
+      </c>
+      <c r="T24" s="65">
         <v>5</v>
       </c>
-      <c r="R22" s="63"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="69">
+      <c r="U24" s="63"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="69">
         <v>43919</v>
       </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-    </row>
-    <row r="23" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-    </row>
-    <row r="24" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-    </row>
-    <row r="25" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-    </row>
-    <row r="26" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+    </row>
+    <row r="25" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="57">
+        <v>1</v>
+      </c>
+      <c r="D25" s="57">
+        <v>1</v>
+      </c>
+      <c r="E25" s="38">
+        <v>1</v>
+      </c>
+      <c r="F25" s="38">
+        <v>1</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="38">
+        <v>1</v>
+      </c>
+      <c r="J25" s="38">
+        <v>1</v>
+      </c>
+      <c r="K25" s="38">
+        <v>1</v>
+      </c>
+      <c r="L25" s="38">
+        <v>1</v>
+      </c>
+      <c r="M25" s="38">
+        <v>1</v>
+      </c>
+      <c r="N25" s="38">
+        <v>1</v>
+      </c>
+      <c r="O25" s="38">
+        <v>1</v>
+      </c>
+      <c r="P25" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>1</v>
+      </c>
+      <c r="R25" s="38">
+        <v>1</v>
+      </c>
+      <c r="S25" s="38">
+        <v>0</v>
+      </c>
+      <c r="T25" s="65">
+        <v>0</v>
+      </c>
+      <c r="U25" s="62"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="79">
+        <v>43919</v>
+      </c>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+    </row>
+    <row r="26" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9389,46 +10488,52 @@
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-    </row>
-    <row r="27" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+    </row>
+    <row r="27" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-    </row>
-    <row r="28" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="32"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+    </row>
+    <row r="28" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="32"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -9441,42 +10546,48 @@
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-    </row>
-    <row r="29" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+    </row>
+    <row r="29" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="63"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="33"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-    </row>
-    <row r="30" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+    </row>
+    <row r="30" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="32"/>
       <c r="C30" s="58"/>
@@ -9493,22 +10604,26 @@
       <c r="N30" s="34"/>
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-    </row>
-    <row r="31" spans="1:24" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+    </row>
+    <row r="31" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
@@ -9518,31 +10633,196 @@
       <c r="N31" s="34"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+    </row>
+    <row r="32" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+    </row>
+    <row r="33" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="D1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:P20">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="C3:P16 C22:P22 C18:P20">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:P22">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
+  <conditionalFormatting sqref="C3:P16 C22:P24 C18:P20">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:P22">
+  <conditionalFormatting sqref="C23:P24">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:K21 M21:P21">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:K21 M21:P21">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:S6 Q22 Q7:Q16 Q18:Q20">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:S6 Q23:S24 Q22 Q7:Q16 Q18:Q20">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23:S24">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S16 R18:S22">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S16 R18:S22">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:P17">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:P17">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:S17">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:S17">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:P25">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:P25">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:S25">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:S25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB475B89-629E-4CAC-A3A4-A77460E97B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00444DE9-ED90-4EF8-8D12-1FDC34F4EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{A0940E50-BCDF-4389-A08A-ACBC31720A58}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{1AAF7551-FCA7-4D53-9522-09B651849F3F}">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{B27B8D3D-006F-4C75-BD45-40A066F52766}">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{93772DD4-6D6B-41A6-B3A6-F5A2098C2C8B}">
       <text>
         <r>
           <rPr>
@@ -619,7 +619,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{410A1D9C-30A3-4CE9-8C84-62FC570432B1}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{A0940E50-BCDF-4389-A08A-ACBC31720A58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed same as community transmission but divided by 7 as likely only once per week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{B27B8D3D-006F-4C75-BD45-40A066F52766}">
       <text>
         <r>
           <rPr>
@@ -643,7 +667,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{228AFDF0-550A-474C-82CE-D6026B4F01BE}">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{410A1D9C-30A3-4CE9-8C84-62FC570432B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume only 1% chance of tracing community contact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{228AFDF0-550A-474C-82CE-D6026B4F01BE}">
       <text>
         <r>
           <rPr>
@@ -667,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{83637922-1505-431A-8C98-9A374E63764E}">
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{83637922-1505-431A-8C98-9A374E63764E}">
       <text>
         <r>
           <rPr>
@@ -691,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{2A4B0066-29E3-40CB-A1E4-27AD21709C47}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{2A4B0066-29E3-40CB-A1E4-27AD21709C47}">
       <text>
         <r>
           <rPr>
@@ -715,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{B1849F6B-0306-433E-98FA-FF52F414E219}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{B1849F6B-0306-433E-98FA-FF52F414E219}">
       <text>
         <r>
           <rPr>
@@ -739,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{CF1F0D09-080C-4525-BB4B-CE3BFE83793F}">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{CF1F0D09-080C-4525-BB4B-CE3BFE83793F}">
       <text>
         <r>
           <rPr>
@@ -763,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{C0857E38-81A8-4D60-A429-5B66E72D27E5}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{C0857E38-81A8-4D60-A429-5B66E72D27E5}">
       <text>
         <r>
           <rPr>
@@ -787,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{ADC0EF27-C965-4277-B0F7-3F770FEAE298}">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{ADC0EF27-C965-4277-B0F7-3F770FEAE298}">
       <text>
         <r>
           <rPr>
@@ -811,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{74714B29-DD56-4376-81EE-54D608222AE9}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{74714B29-DD56-4376-81EE-54D608222AE9}">
       <text>
         <r>
           <rPr>
@@ -835,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{17B6C9A2-290B-4E5C-AB16-BDA186C6EE76}">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{17B6C9A2-290B-4E5C-AB16-BDA186C6EE76}">
       <text>
         <r>
           <rPr>
@@ -941,7 +989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{252AC982-FF60-45FD-A4CF-8D34C1662215}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{252AC982-FF60-45FD-A4CF-8D34C1662215}">
       <text>
         <r>
           <rPr>
@@ -965,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{759E43AC-0F82-42CB-A657-8CF03780CEEB}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{759E43AC-0F82-42CB-A657-8CF03780CEEB}">
       <text>
         <r>
           <rPr>
@@ -989,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{FFF4F60E-3D97-4538-B09E-7948829E6AF3}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{FFF4F60E-3D97-4538-B09E-7948829E6AF3}">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{6223E0E3-908B-47BE-B9FF-77BB2D964278}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{6223E0E3-908B-47BE-B9FF-77BB2D964278}">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{DE2F0B53-B1AD-4E9C-AD8D-83E8C51419E5}">
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{DE2F0B53-B1AD-4E9C-AD8D-83E8C51419E5}">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V18" authorId="0" shapeId="0" xr:uid="{07D5BAC1-2FF9-4941-B4B5-CDB663778A63}">
+    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{07D5BAC1-2FF9-4941-B4B5-CDB663778A63}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V19" authorId="0" shapeId="0" xr:uid="{1D808B70-4F20-43CE-84F1-FD2853AC57AB}">
+    <comment ref="W21" authorId="0" shapeId="0" xr:uid="{1D808B70-4F20-43CE-84F1-FD2853AC57AB}">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{98FD616D-BB7F-4E7D-88CA-B1DBC5F89873}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{98FD616D-BB7F-4E7D-88CA-B1DBC5F89873}">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{F5046FB0-4544-4B28-ADF0-BA19ADD0DAC4}">
+    <comment ref="W24" authorId="0" shapeId="0" xr:uid="{F5046FB0-4544-4B28-ADF0-BA19ADD0DAC4}">
       <text>
         <r>
           <rPr>
@@ -1205,7 +1253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V23" authorId="0" shapeId="0" xr:uid="{E148481E-245F-4C18-BABD-3CD8F6A1812F}">
+    <comment ref="W25" authorId="0" shapeId="0" xr:uid="{E148481E-245F-4C18-BABD-3CD8F6A1812F}">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="284">
   <si>
     <t>date</t>
   </si>
@@ -1848,9 +1896,6 @@
     <t>undiag</t>
   </si>
   <si>
-    <t>people who go to pubs and cafes</t>
-  </si>
-  <si>
     <t>people who go to the beach</t>
   </si>
   <si>
@@ -1869,9 +1914,6 @@
     <t>beach</t>
   </si>
   <si>
-    <t>pub_cafe</t>
-  </si>
-  <si>
     <t>national_parks</t>
   </si>
   <si>
@@ -1911,9 +1953,6 @@
     <t>church_4sqm</t>
   </si>
   <si>
-    <t>bar_cafe_4sqm</t>
-  </si>
-  <si>
     <t>outdoor10</t>
   </si>
   <si>
@@ -1947,18 +1986,9 @@
     <t>church0</t>
   </si>
   <si>
-    <t>bar_cafe0</t>
-  </si>
-  <si>
-    <t>Restaurants/cafes/bars closed</t>
-  </si>
-  <si>
     <t>Community sports cancelled</t>
   </si>
   <si>
-    <t>Childcare/schools closed</t>
-  </si>
-  <si>
     <t>general park activities</t>
   </si>
   <si>
@@ -1992,9 +2022,6 @@
     <t>Churches / places of worship implementing 4 sq m rule</t>
   </si>
   <si>
-    <t>Restaurants/cafes/bars implementing 4 sq m physical distancing rule</t>
-  </si>
-  <si>
     <t>Professional sports cancelled for players (crowds are different policy)</t>
   </si>
   <si>
@@ -2068,6 +2095,45 @@
   </si>
   <si>
     <t>social catch ups with &lt;10 people banned</t>
+  </si>
+  <si>
+    <t>people who go to cafes and restaurants</t>
+  </si>
+  <si>
+    <t>cafe_restaurant</t>
+  </si>
+  <si>
+    <t>pub_bar</t>
+  </si>
+  <si>
+    <t>people who go to pubs and bars</t>
+  </si>
+  <si>
+    <t>cafe_restaurant0</t>
+  </si>
+  <si>
+    <t>cafe_restaurant_4sqm</t>
+  </si>
+  <si>
+    <t>pub_bar0</t>
+  </si>
+  <si>
+    <t>Pubs and bars closed</t>
+  </si>
+  <si>
+    <t>pub_bar_4sqm</t>
+  </si>
+  <si>
+    <t>Pubs and bars implementing 4 sq m physical distancing rule</t>
+  </si>
+  <si>
+    <t>Cafes and restaurants take-away only</t>
+  </si>
+  <si>
+    <t>Cafes and restaurants implementing 4 sq m physical distancing rule</t>
+  </si>
+  <si>
+    <t>Schools closed</t>
   </si>
 </sst>
 </file>
@@ -2939,15 +3005,6 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2960,6 +3017,15 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3010,7 +3076,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3024,6 +3097,41 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3068,6 +3176,13 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -3080,6 +3195,34 @@
         <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3185,34 +3328,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -8047,11 +8162,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98290782-EDB5-8E49-BAFB-76C1B5158EA7}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" sqref="A1:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8157,7 +8272,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I3" s="29">
         <v>0</v>
@@ -8174,7 +8289,7 @@
         <v>176</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -8192,7 +8307,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I4" s="29">
         <v>0</v>
@@ -8209,13 +8324,13 @@
         <v>181</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="29">
-        <f>MAX(1,5-SUMPRODUCT((C7:C14)*(D7:D14)*(E7:E14))/E5)</f>
+        <f>MAX(1,5-SUMPRODUCT((C7:C15)*(D7:D15)*(E7:E15))/E5)</f>
         <v>1</v>
       </c>
       <c r="E5" s="29">
@@ -8263,7 +8378,7 @@
         <v>110</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I6" s="29">
         <v>0</v>
@@ -8312,10 +8427,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="29">
         <v>0.57999999999999996</v>
@@ -8334,7 +8449,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I8" s="29">
         <v>0</v>
@@ -8348,10 +8463,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="29">
         <v>0.1</v>
@@ -8384,10 +8499,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C10" s="29">
         <v>0.1</v>
@@ -8420,10 +8535,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="C11" s="29">
         <v>0.25</v>
@@ -8456,22 +8571,23 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C12" s="29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D12" s="29">
         <v>5</v>
       </c>
-      <c r="E12" s="29">
-        <v>0.1</v>
+      <c r="E12" s="48">
+        <f>E$5/7</f>
+        <v>1.4285714285714287E-2</v>
       </c>
       <c r="F12" s="29">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G12" s="29">
         <v>110</v>
@@ -8491,56 +8607,56 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="C13" s="29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="29">
         <v>5</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>15</v>
+      </c>
+      <c r="G13" s="29">
+        <v>110</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>5</v>
+      </c>
+      <c r="E14" s="48">
         <f>E$5/7</f>
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="29">
-        <v>110</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="K13" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="D14" s="29">
-        <v>5</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0.1</v>
-      </c>
       <c r="F14" s="29">
         <v>0</v>
       </c>
@@ -8551,7 +8667,7 @@
         <v>183</v>
       </c>
       <c r="I14" s="29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="29">
         <v>0.01</v>
@@ -8562,109 +8678,144 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C15" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="29">
+        <v>5</v>
+      </c>
+      <c r="E15" s="29">
         <v>0.1</v>
       </c>
-      <c r="D15" s="29">
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>110</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="29">
         <v>50</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E16" s="75">
         <f>E$5/90</f>
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29">
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
         <v>110</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H16" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="I15" s="29">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
         <v>0.01</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K16" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="29">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="29">
         <v>0.1</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D17" s="29">
         <v>10</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E17" s="29">
         <f>E3</f>
         <v>0.5</v>
       </c>
-      <c r="F16" s="29">
-        <v>1</v>
-      </c>
-      <c r="G16" s="29">
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29">
         <v>5</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
-        <v>1</v>
-      </c>
-      <c r="K16" s="29">
+      <c r="H17" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="29">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29">
         <v>2</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E18" s="48">
         <f>E$2/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F18" s="29">
         <v>15</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G18" s="29">
         <v>110</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H18" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I18" s="29">
         <v>0.2</v>
       </c>
-      <c r="J17" s="29">
-        <v>1</v>
-      </c>
-      <c r="K17" s="29">
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29">
         <v>3</v>
       </c>
     </row>
@@ -8677,10 +8828,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8690,47 +8841,48 @@
     <col min="3" max="3" width="4.09765625" style="54" customWidth="1"/>
     <col min="4" max="4" width="4.09765625" style="59" customWidth="1"/>
     <col min="5" max="7" width="4.09765625" style="31" customWidth="1"/>
-    <col min="8" max="19" width="7.3984375" style="31" customWidth="1"/>
-    <col min="20" max="20" width="7.796875" style="59" customWidth="1"/>
-    <col min="21" max="21" width="11.69921875" style="67" customWidth="1"/>
-    <col min="22" max="22" width="10.3984375" style="46" customWidth="1"/>
-    <col min="23" max="23" width="18.3984375" style="54" customWidth="1"/>
-    <col min="24" max="24" width="18.3984375" style="30" customWidth="1"/>
-    <col min="25" max="25" width="56.09765625" style="30" customWidth="1"/>
-    <col min="26" max="27" width="8.796875" style="31"/>
+    <col min="8" max="20" width="7.3984375" style="31" customWidth="1"/>
+    <col min="21" max="21" width="7.796875" style="59" customWidth="1"/>
+    <col min="22" max="22" width="11.69921875" style="67" customWidth="1"/>
+    <col min="23" max="23" width="10.3984375" style="46" customWidth="1"/>
+    <col min="24" max="24" width="18.3984375" style="54" customWidth="1"/>
+    <col min="25" max="25" width="18.3984375" style="30" customWidth="1"/>
+    <col min="26" max="26" width="56.09765625" style="30" customWidth="1"/>
+    <col min="27" max="28" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D1" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="V1" s="74"/>
-    </row>
-    <row r="2" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D1" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="W1" s="78"/>
+    </row>
+    <row r="2" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>200</v>
@@ -8740,7 +8892,7 @@
         <v>H</v>
       </c>
       <c r="E2" s="51" t="str">
-        <f t="shared" ref="E2:S2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <f t="shared" ref="E2:T2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
         <v>S</v>
       </c>
       <c r="F2" s="51" t="str">
@@ -8773,57 +8925,61 @@
       </c>
       <c r="M2" s="51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>pub_cafe</v>
+        <v>cafe_restaurant</v>
       </c>
       <c r="N2" s="51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>transport</v>
+        <v>pub_bar</v>
       </c>
       <c r="O2" s="51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>national_parks</v>
+        <v>transport</v>
       </c>
       <c r="P2" s="51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>public_parks</v>
+        <v>national_parks</v>
       </c>
       <c r="Q2" s="51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>large_events</v>
+        <v>public_parks</v>
       </c>
       <c r="R2" s="51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>child_care</v>
+        <v>large_events</v>
       </c>
       <c r="S2" s="51" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>child_care</v>
+      </c>
+      <c r="T2" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>social</v>
       </c>
-      <c r="T2" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="U2" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="W2" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="49"/>
+      <c r="U2" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="X2" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z2" s="50"/>
       <c r="AA2" s="49"/>
-    </row>
-    <row r="3" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="49"/>
+    </row>
+    <row r="3" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="56">
         <v>0.8</v>
@@ -8876,25 +9032,28 @@
       <c r="S3" s="38">
         <v>1</v>
       </c>
-      <c r="T3" s="65">
-        <v>0</v>
-      </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="69">
+      <c r="T3" s="38">
+        <v>1</v>
+      </c>
+      <c r="U3" s="65">
+        <v>0</v>
+      </c>
+      <c r="V3" s="63"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="69">
         <v>43905</v>
       </c>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="42"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="43"/>
       <c r="AA3" s="42"/>
-    </row>
-    <row r="4" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="42"/>
+    </row>
+    <row r="4" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C4" s="57">
         <v>1</v>
@@ -8947,25 +9106,28 @@
       <c r="S4" s="38">
         <v>1</v>
       </c>
-      <c r="T4" s="65">
-        <v>0</v>
-      </c>
-      <c r="U4" s="63"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="69">
+      <c r="T4" s="38">
+        <v>1</v>
+      </c>
+      <c r="U4" s="65">
+        <v>0</v>
+      </c>
+      <c r="V4" s="63"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="69">
         <v>43919</v>
       </c>
-      <c r="X4" s="43"/>
       <c r="Y4" s="43"/>
-      <c r="Z4" s="42"/>
+      <c r="Z4" s="43"/>
       <c r="AA4" s="42"/>
-    </row>
-    <row r="5" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB4" s="42"/>
+    </row>
+    <row r="5" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C5" s="57">
         <v>1</v>
@@ -9019,23 +9181,26 @@
       <c r="S5" s="38">
         <v>1</v>
       </c>
-      <c r="T5" s="65">
-        <v>0</v>
-      </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="42"/>
+      <c r="T5" s="38">
+        <v>1</v>
+      </c>
+      <c r="U5" s="65">
+        <v>0</v>
+      </c>
+      <c r="V5" s="63"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="43"/>
       <c r="AA5" s="42"/>
-    </row>
-    <row r="6" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="42"/>
+    </row>
+    <row r="6" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C6" s="57">
         <v>1</v>
@@ -9089,94 +9254,100 @@
       <c r="S6" s="38">
         <v>1</v>
       </c>
-      <c r="T6" s="65">
-        <v>0</v>
-      </c>
-      <c r="U6" s="63"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="42"/>
+      <c r="T6" s="38">
+        <v>1</v>
+      </c>
+      <c r="U6" s="65">
+        <v>0</v>
+      </c>
+      <c r="V6" s="63"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="43"/>
       <c r="AA6" s="42"/>
-    </row>
-    <row r="7" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB6" s="42"/>
+    </row>
+    <row r="7" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1</v>
+      </c>
+      <c r="I7" s="38">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="41">
+        <v>1</v>
+      </c>
+      <c r="L7" s="38">
+        <v>1</v>
+      </c>
+      <c r="M7" s="38">
+        <v>1</v>
+      </c>
+      <c r="N7" s="38">
+        <v>1</v>
+      </c>
+      <c r="O7" s="38">
+        <v>1</v>
+      </c>
+      <c r="P7" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>1</v>
+      </c>
+      <c r="R7" s="38">
+        <v>1</v>
+      </c>
+      <c r="S7" s="38">
+        <v>1</v>
+      </c>
+      <c r="T7" s="38">
+        <v>1</v>
+      </c>
+      <c r="U7" s="65">
+        <v>0</v>
+      </c>
+      <c r="V7" s="63"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="69">
+        <v>43919</v>
+      </c>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+    </row>
+    <row r="8" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="57">
-        <v>1</v>
-      </c>
-      <c r="D7" s="57">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="38">
-        <v>1</v>
-      </c>
-      <c r="H7" s="38">
-        <v>1</v>
-      </c>
-      <c r="I7" s="38">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="41">
-        <v>1</v>
-      </c>
-      <c r="L7" s="38">
-        <v>1</v>
-      </c>
-      <c r="M7" s="38">
-        <v>1</v>
-      </c>
-      <c r="N7" s="38">
-        <v>1</v>
-      </c>
-      <c r="O7" s="38">
-        <v>0</v>
-      </c>
-      <c r="P7" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>1</v>
-      </c>
-      <c r="R7" s="38">
-        <v>1</v>
-      </c>
-      <c r="S7" s="38">
-        <v>1</v>
-      </c>
-      <c r="T7" s="65">
-        <v>0</v>
-      </c>
-      <c r="U7" s="63"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="69">
-        <v>43919</v>
-      </c>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-    </row>
-    <row r="8" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>236</v>
-      </c>
       <c r="B8" s="43" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C8" s="57">
         <v>1</v>
@@ -9229,25 +9400,28 @@
       <c r="S8" s="38">
         <v>1</v>
       </c>
-      <c r="T8" s="65">
-        <v>0</v>
-      </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="69">
+      <c r="T8" s="38">
+        <v>1</v>
+      </c>
+      <c r="U8" s="65">
+        <v>0</v>
+      </c>
+      <c r="V8" s="63"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="69">
         <v>43912</v>
       </c>
-      <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="42"/>
+      <c r="Z8" s="43"/>
       <c r="AA8" s="42"/>
-    </row>
-    <row r="9" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB8" s="42"/>
+    </row>
+    <row r="9" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C9" s="57">
         <v>1</v>
@@ -9300,28 +9474,31 @@
       <c r="S9" s="38">
         <v>1</v>
       </c>
-      <c r="T9" s="65">
-        <v>0</v>
-      </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="69">
+      <c r="T9" s="38">
+        <v>1</v>
+      </c>
+      <c r="U9" s="65">
+        <v>0</v>
+      </c>
+      <c r="V9" s="63"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="69">
         <v>43909</v>
       </c>
-      <c r="X9" s="70">
-        <f>W8</f>
+      <c r="Y9" s="70">
+        <f>X8</f>
         <v>43912</v>
       </c>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="42"/>
+      <c r="Z9" s="43"/>
       <c r="AA9" s="42"/>
-    </row>
-    <row r="10" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="42"/>
+    </row>
+    <row r="10" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="C10" s="57">
         <v>1</v>
@@ -9374,25 +9551,28 @@
       <c r="S10" s="38">
         <v>1</v>
       </c>
-      <c r="T10" s="65">
-        <v>0</v>
-      </c>
-      <c r="U10" s="63"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="69">
+      <c r="T10" s="38">
+        <v>1</v>
+      </c>
+      <c r="U10" s="65">
+        <v>0</v>
+      </c>
+      <c r="V10" s="63"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="69">
         <v>43912</v>
       </c>
-      <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
-      <c r="Z10" s="42"/>
+      <c r="Z10" s="43"/>
       <c r="AA10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB10" s="42"/>
+    </row>
+    <row r="11" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C11" s="57">
         <v>1</v>
@@ -9445,34 +9625,37 @@
       <c r="S11" s="38">
         <v>1</v>
       </c>
-      <c r="T11" s="65">
-        <v>0</v>
-      </c>
-      <c r="U11" s="63"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="69">
+      <c r="T11" s="38">
+        <v>1</v>
+      </c>
+      <c r="U11" s="65">
+        <v>0</v>
+      </c>
+      <c r="V11" s="63"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="69">
         <v>43909</v>
       </c>
-      <c r="X11" s="70">
-        <f>W10</f>
+      <c r="Y11" s="70">
+        <f>X10</f>
         <v>43912</v>
       </c>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="42"/>
+      <c r="Z11" s="43"/>
       <c r="AA11" s="42"/>
-    </row>
-    <row r="12" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB11" s="42"/>
+    </row>
+    <row r="12" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>261</v>
+        <v>277</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>278</v>
       </c>
       <c r="C12" s="57">
         <v>1</v>
       </c>
       <c r="D12" s="57">
-        <v>1.1499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E12" s="38">
         <v>1</v>
@@ -9481,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="38">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="38">
         <v>1</v>
@@ -9496,20 +9679,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="38">
         <v>1</v>
       </c>
       <c r="N12" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="38">
         <v>1</v>
       </c>
       <c r="P12" s="38">
-        <f>MIN(1,2/layers!D14)</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="38">
         <v>1</v>
@@ -9520,31 +9702,34 @@
       <c r="S12" s="38">
         <v>1</v>
       </c>
-      <c r="T12" s="65">
-        <v>0</v>
-      </c>
-      <c r="U12" s="63"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="69">
-        <v>43919</v>
-      </c>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="42"/>
+      <c r="T12" s="38">
+        <v>1</v>
+      </c>
+      <c r="U12" s="65">
+        <v>0</v>
+      </c>
+      <c r="V12" s="63"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="69">
+        <v>43912</v>
+      </c>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="43"/>
       <c r="AA12" s="42"/>
-    </row>
-    <row r="13" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB12" s="42"/>
+    </row>
+    <row r="13" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C13" s="57">
         <v>1</v>
       </c>
       <c r="D13" s="57">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E13" s="38">
         <v>1</v>
@@ -9552,8 +9737,8 @@
       <c r="F13" s="38">
         <v>1</v>
       </c>
-      <c r="G13" s="40">
-        <v>0.86</v>
+      <c r="G13" s="38">
+        <v>1</v>
       </c>
       <c r="H13" s="38">
         <v>1</v>
@@ -9568,19 +9753,18 @@
         <v>1</v>
       </c>
       <c r="L13" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="38">
         <v>1</v>
       </c>
       <c r="N13" s="38">
-        <v>1</v>
-      </c>
-      <c r="O13" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="P13" s="40">
-        <f>MIN(1,10/layers!D14)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="38">
+        <v>1</v>
+      </c>
+      <c r="P13" s="38">
         <v>1</v>
       </c>
       <c r="Q13" s="38">
@@ -9592,20 +9776,28 @@
       <c r="S13" s="38">
         <v>1</v>
       </c>
-      <c r="T13" s="65">
-        <v>0</v>
-      </c>
-      <c r="U13" s="63"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="42"/>
+      <c r="T13" s="38">
+        <v>1</v>
+      </c>
+      <c r="U13" s="65">
+        <v>0</v>
+      </c>
+      <c r="V13" s="63"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="69">
+        <v>43909</v>
+      </c>
+      <c r="Y13" s="70">
+        <f>X12</f>
+        <v>43912</v>
+      </c>
+      <c r="Z13" s="43"/>
       <c r="AA13" s="42"/>
-    </row>
-    <row r="14" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="42"/>
+    </row>
+    <row r="14" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>254</v>
@@ -9614,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="57">
-        <v>1.05</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E14" s="38">
         <v>1</v>
@@ -9622,8 +9814,8 @@
       <c r="F14" s="38">
         <v>1</v>
       </c>
-      <c r="G14" s="40">
-        <v>0.95</v>
+      <c r="G14" s="38">
+        <v>0.2</v>
       </c>
       <c r="H14" s="38">
         <v>1</v>
@@ -9637,8 +9829,8 @@
       <c r="K14" s="38">
         <v>1</v>
       </c>
-      <c r="L14" s="40">
-        <v>0.5</v>
+      <c r="L14" s="38">
+        <v>0</v>
       </c>
       <c r="M14" s="38">
         <v>1</v>
@@ -9647,39 +9839,39 @@
         <v>1</v>
       </c>
       <c r="O14" s="38">
-        <v>1</v>
-      </c>
-      <c r="P14" s="40">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="P14" s="38">
+        <v>0</v>
       </c>
       <c r="Q14" s="38">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="R14" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="38">
         <v>1</v>
       </c>
-      <c r="T14" s="65">
-        <v>0</v>
-      </c>
-      <c r="U14" s="63"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="69">
-        <v>43909</v>
-      </c>
-      <c r="X14" s="70">
-        <f>W12</f>
+      <c r="T14" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="U14" s="65">
+        <v>0</v>
+      </c>
+      <c r="V14" s="63"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="69">
         <v>43919</v>
       </c>
       <c r="Y14" s="43"/>
-      <c r="Z14" s="42"/>
+      <c r="Z14" s="43"/>
       <c r="AA14" s="42"/>
-    </row>
-    <row r="15" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB14" s="42"/>
+    </row>
+    <row r="15" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>253</v>
@@ -9688,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="57">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="38">
         <v>1</v>
@@ -9696,14 +9888,14 @@
       <c r="F15" s="38">
         <v>1</v>
       </c>
-      <c r="G15" s="38">
-        <v>1</v>
+      <c r="G15" s="40">
+        <v>0.86</v>
       </c>
       <c r="H15" s="38">
         <v>1</v>
       </c>
-      <c r="I15" s="40">
-        <v>0</v>
+      <c r="I15" s="38">
+        <v>1</v>
       </c>
       <c r="J15" s="38">
         <v>1</v>
@@ -9712,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="38">
         <v>1</v>
@@ -9720,823 +9912,947 @@
       <c r="N15" s="38">
         <v>1</v>
       </c>
-      <c r="O15" s="38">
-        <v>1</v>
+      <c r="O15" s="40">
+        <v>0.2</v>
       </c>
       <c r="P15" s="38">
         <v>1</v>
       </c>
       <c r="Q15" s="38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R15" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="38">
         <v>1</v>
       </c>
-      <c r="T15" s="65">
-        <v>0</v>
-      </c>
-      <c r="U15" s="63"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="69">
+      <c r="T15" s="38">
+        <v>1</v>
+      </c>
+      <c r="U15" s="65">
+        <v>0</v>
+      </c>
+      <c r="V15" s="63"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+    </row>
+    <row r="16" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1</v>
+      </c>
+      <c r="D16" s="57">
+        <v>1.05</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1</v>
+      </c>
+      <c r="F16" s="38">
+        <v>1</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0.95</v>
+      </c>
+      <c r="H16" s="38">
+        <v>1</v>
+      </c>
+      <c r="I16" s="38">
+        <v>1</v>
+      </c>
+      <c r="J16" s="38">
+        <v>1</v>
+      </c>
+      <c r="K16" s="38">
+        <v>1</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="38">
+        <v>1</v>
+      </c>
+      <c r="N16" s="38">
+        <v>1</v>
+      </c>
+      <c r="O16" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="P16" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>1</v>
+      </c>
+      <c r="R16" s="38">
+        <v>0</v>
+      </c>
+      <c r="S16" s="38">
+        <v>1</v>
+      </c>
+      <c r="T16" s="38">
+        <v>1</v>
+      </c>
+      <c r="U16" s="65">
+        <v>0</v>
+      </c>
+      <c r="V16" s="63"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="69">
+        <v>43909</v>
+      </c>
+      <c r="Y16" s="70">
+        <f>X14</f>
+        <v>43919</v>
+      </c>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+    </row>
+    <row r="17" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="57">
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="L17" s="38">
+        <v>1</v>
+      </c>
+      <c r="M17" s="38">
+        <v>1</v>
+      </c>
+      <c r="N17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="38">
+        <v>1</v>
+      </c>
+      <c r="P17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>1</v>
+      </c>
+      <c r="R17" s="38">
+        <v>1</v>
+      </c>
+      <c r="S17" s="38">
+        <v>1</v>
+      </c>
+      <c r="T17" s="38">
+        <v>1</v>
+      </c>
+      <c r="U17" s="65">
+        <v>0</v>
+      </c>
+      <c r="V17" s="63"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="69">
         <v>43912</v>
       </c>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-    </row>
-    <row r="16" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+    </row>
+    <row r="18" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="57">
+        <v>1</v>
+      </c>
+      <c r="D18" s="57">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38">
+        <v>0.92</v>
+      </c>
+      <c r="H18" s="38">
+        <v>1</v>
+      </c>
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0</v>
+      </c>
+      <c r="K18" s="38">
+        <v>1</v>
+      </c>
+      <c r="L18" s="38">
+        <v>1</v>
+      </c>
+      <c r="M18" s="38">
+        <v>1</v>
+      </c>
+      <c r="N18" s="38">
+        <v>1</v>
+      </c>
+      <c r="O18" s="38">
+        <v>1</v>
+      </c>
+      <c r="P18" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>1</v>
+      </c>
+      <c r="R18" s="38">
+        <v>1</v>
+      </c>
+      <c r="S18" s="38">
+        <v>1</v>
+      </c>
+      <c r="T18" s="38">
+        <v>1</v>
+      </c>
+      <c r="U18" s="65">
+        <v>0</v>
+      </c>
+      <c r="V18" s="63"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="69">
+        <v>43912</v>
+      </c>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+    </row>
+    <row r="19" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="57">
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
+      <c r="I19" s="38">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+      <c r="K19" s="38">
+        <v>1</v>
+      </c>
+      <c r="L19" s="38">
+        <v>1</v>
+      </c>
+      <c r="M19" s="38">
+        <v>1</v>
+      </c>
+      <c r="N19" s="38">
+        <v>1</v>
+      </c>
+      <c r="O19" s="38">
+        <v>1</v>
+      </c>
+      <c r="P19" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>1</v>
+      </c>
+      <c r="R19" s="38">
+        <v>1</v>
+      </c>
+      <c r="S19" s="38">
+        <v>0</v>
+      </c>
+      <c r="T19" s="38">
+        <v>1</v>
+      </c>
+      <c r="U19" s="65">
+        <v>0</v>
+      </c>
+      <c r="V19" s="63"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+    </row>
+    <row r="20" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="57">
+        <v>1</v>
+      </c>
+      <c r="D20" s="57">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1</v>
+      </c>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="38">
+        <v>1</v>
+      </c>
+      <c r="M20" s="38">
+        <v>1</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
+        <v>1</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>1</v>
+      </c>
+      <c r="R20" s="38">
+        <v>1</v>
+      </c>
+      <c r="S20" s="38">
+        <v>1</v>
+      </c>
+      <c r="T20" s="38">
+        <v>1</v>
+      </c>
+      <c r="U20" s="65">
+        <v>0</v>
+      </c>
+      <c r="V20" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="W20" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="X20" s="69">
+        <v>43915</v>
+      </c>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+    </row>
+    <row r="21" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B21" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="38">
+        <v>1</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38">
+        <v>0.73</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="38">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1</v>
+      </c>
+      <c r="K21" s="38">
+        <v>1</v>
+      </c>
+      <c r="L21" s="38">
+        <v>1</v>
+      </c>
+      <c r="M21" s="38">
+        <v>1</v>
+      </c>
+      <c r="N21" s="38">
+        <v>1</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1</v>
+      </c>
+      <c r="P21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>1</v>
+      </c>
+      <c r="R21" s="38">
+        <v>1</v>
+      </c>
+      <c r="S21" s="38">
+        <v>1</v>
+      </c>
+      <c r="T21" s="38">
+        <v>1</v>
+      </c>
+      <c r="U21" s="65">
+        <v>0</v>
+      </c>
+      <c r="V21" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="W21" s="73">
+        <v>0.95</v>
+      </c>
+      <c r="X21" s="69">
+        <v>43919</v>
+      </c>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+    </row>
+    <row r="22" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="57">
+        <v>1</v>
+      </c>
+      <c r="D22" s="57">
+        <v>1</v>
+      </c>
+      <c r="E22" s="38">
+        <v>1</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38">
+        <v>1</v>
+      </c>
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="38">
+        <v>1</v>
+      </c>
+      <c r="J22" s="38">
+        <v>1</v>
+      </c>
+      <c r="K22" s="38">
+        <v>1</v>
+      </c>
+      <c r="L22" s="40">
+        <v>0</v>
+      </c>
+      <c r="M22" s="38">
+        <v>1</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1</v>
+      </c>
+      <c r="O22" s="38">
+        <v>1</v>
+      </c>
+      <c r="P22" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>1</v>
+      </c>
+      <c r="R22" s="38">
+        <v>1</v>
+      </c>
+      <c r="S22" s="38">
+        <v>1</v>
+      </c>
+      <c r="T22" s="38">
+        <v>1</v>
+      </c>
+      <c r="U22" s="65">
+        <v>0</v>
+      </c>
+      <c r="V22" s="63"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="69">
+        <v>43909</v>
+      </c>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+    </row>
+    <row r="23" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="57">
+        <v>1</v>
+      </c>
+      <c r="D23" s="57">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
+      <c r="G23" s="38">
+        <v>1</v>
+      </c>
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="38">
+        <v>1</v>
+      </c>
+      <c r="J23" s="38">
+        <v>1</v>
+      </c>
+      <c r="K23" s="38">
+        <v>1</v>
+      </c>
+      <c r="L23" s="38">
+        <v>1</v>
+      </c>
+      <c r="M23" s="38">
+        <v>1</v>
+      </c>
+      <c r="N23" s="38">
+        <v>1</v>
+      </c>
+      <c r="O23" s="38">
+        <v>1</v>
+      </c>
+      <c r="P23" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="38">
+        <v>1</v>
+      </c>
+      <c r="R23" s="38">
+        <v>0</v>
+      </c>
+      <c r="S23" s="38">
+        <v>1</v>
+      </c>
+      <c r="T23" s="38">
+        <v>1</v>
+      </c>
+      <c r="U23" s="65">
+        <v>0</v>
+      </c>
+      <c r="V23" s="63"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="69">
+        <v>43912</v>
+      </c>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+    </row>
+    <row r="24" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="57">
+        <v>1</v>
+      </c>
+      <c r="D24" s="57">
+        <v>1</v>
+      </c>
+      <c r="E24" s="38">
+        <v>1</v>
+      </c>
+      <c r="F24" s="38">
+        <v>1</v>
+      </c>
+      <c r="G24" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="38">
+        <v>1</v>
+      </c>
+      <c r="J24" s="38">
+        <v>1</v>
+      </c>
+      <c r="K24" s="38">
+        <v>1</v>
+      </c>
+      <c r="L24" s="38">
+        <v>1</v>
+      </c>
+      <c r="M24" s="38">
+        <v>1</v>
+      </c>
+      <c r="N24" s="38">
+        <v>1</v>
+      </c>
+      <c r="O24" s="38">
+        <v>1</v>
+      </c>
+      <c r="P24" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="38">
+        <v>1</v>
+      </c>
+      <c r="R24" s="38">
+        <v>1</v>
+      </c>
+      <c r="S24" s="38">
+        <v>1</v>
+      </c>
+      <c r="T24" s="38">
+        <v>1</v>
+      </c>
+      <c r="U24" s="65">
+        <v>0</v>
+      </c>
+      <c r="V24" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="W24" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="X24" s="69">
+        <v>43919</v>
+      </c>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+    </row>
+    <row r="25" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="57">
-        <v>1</v>
-      </c>
-      <c r="D16" s="57">
-        <v>1</v>
-      </c>
-      <c r="E16" s="38">
-        <v>1</v>
-      </c>
-      <c r="F16" s="38">
-        <v>1</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0.92</v>
-      </c>
-      <c r="H16" s="38">
-        <v>1</v>
-      </c>
-      <c r="I16" s="38">
-        <v>1</v>
-      </c>
-      <c r="J16" s="40">
-        <v>0</v>
-      </c>
-      <c r="K16" s="38">
-        <v>1</v>
-      </c>
-      <c r="L16" s="38">
-        <v>1</v>
-      </c>
-      <c r="M16" s="38">
-        <v>1</v>
-      </c>
-      <c r="N16" s="38">
-        <v>1</v>
-      </c>
-      <c r="O16" s="38">
-        <v>1</v>
-      </c>
-      <c r="P16" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="38">
-        <v>1</v>
-      </c>
-      <c r="R16" s="38">
-        <v>1</v>
-      </c>
-      <c r="S16" s="38">
-        <v>1</v>
-      </c>
-      <c r="T16" s="65">
-        <v>0</v>
-      </c>
-      <c r="U16" s="63"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="69">
-        <v>43912</v>
-      </c>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-    </row>
-    <row r="17" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="57">
-        <v>1</v>
-      </c>
-      <c r="D17" s="57">
-        <v>1</v>
-      </c>
-      <c r="E17" s="38">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="38">
-        <v>1</v>
-      </c>
-      <c r="H17" s="38">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1</v>
-      </c>
-      <c r="K17" s="38">
-        <v>1</v>
-      </c>
-      <c r="L17" s="38">
-        <v>1</v>
-      </c>
-      <c r="M17" s="38">
-        <v>1</v>
-      </c>
-      <c r="N17" s="38">
-        <v>1</v>
-      </c>
-      <c r="O17" s="38">
-        <v>1</v>
-      </c>
-      <c r="P17" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="38">
-        <v>1</v>
-      </c>
-      <c r="R17" s="38">
-        <v>0</v>
-      </c>
-      <c r="S17" s="38">
-        <v>1</v>
-      </c>
-      <c r="T17" s="65">
-        <v>0</v>
-      </c>
-      <c r="U17" s="63"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-    </row>
-    <row r="18" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="57">
-        <v>1</v>
-      </c>
-      <c r="D18" s="57">
-        <v>1</v>
-      </c>
-      <c r="E18" s="38">
-        <v>1</v>
-      </c>
-      <c r="F18" s="38">
-        <v>1</v>
-      </c>
-      <c r="G18" s="38">
-        <v>1</v>
-      </c>
-      <c r="H18" s="38">
-        <v>1</v>
-      </c>
-      <c r="I18" s="38">
-        <v>1</v>
-      </c>
-      <c r="J18" s="38">
-        <v>1</v>
-      </c>
-      <c r="K18" s="38">
-        <v>1</v>
-      </c>
-      <c r="L18" s="38">
-        <v>1</v>
-      </c>
-      <c r="M18" s="38">
-        <v>1</v>
-      </c>
-      <c r="N18" s="38">
-        <v>1</v>
-      </c>
-      <c r="O18" s="38">
-        <v>1</v>
-      </c>
-      <c r="P18" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="38">
-        <v>1</v>
-      </c>
-      <c r="R18" s="38">
-        <v>1</v>
-      </c>
-      <c r="S18" s="38">
-        <v>1</v>
-      </c>
-      <c r="T18" s="65">
-        <v>0</v>
-      </c>
-      <c r="U18" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="V18" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="W18" s="69">
-        <v>43915</v>
-      </c>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-    </row>
-    <row r="19" spans="1:27" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="57">
-        <v>1</v>
-      </c>
-      <c r="D19" s="57">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="38">
-        <v>0.73</v>
-      </c>
-      <c r="H19" s="38">
-        <v>1</v>
-      </c>
-      <c r="I19" s="38">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1</v>
-      </c>
-      <c r="L19" s="38">
-        <v>1</v>
-      </c>
-      <c r="M19" s="38">
-        <v>1</v>
-      </c>
-      <c r="N19" s="38">
-        <v>1</v>
-      </c>
-      <c r="O19" s="38">
-        <v>1</v>
-      </c>
-      <c r="P19" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="38">
-        <v>1</v>
-      </c>
-      <c r="R19" s="38">
-        <v>1</v>
-      </c>
-      <c r="S19" s="38">
-        <v>1</v>
-      </c>
-      <c r="T19" s="65">
-        <v>0</v>
-      </c>
-      <c r="U19" s="75" t="s">
+      <c r="B25" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="57">
+        <v>1</v>
+      </c>
+      <c r="D25" s="57">
+        <v>1</v>
+      </c>
+      <c r="E25" s="38">
+        <v>1</v>
+      </c>
+      <c r="F25" s="38">
+        <v>1</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="38">
+        <v>1</v>
+      </c>
+      <c r="J25" s="38">
+        <v>1</v>
+      </c>
+      <c r="K25" s="38">
+        <v>1</v>
+      </c>
+      <c r="L25" s="38">
+        <v>1</v>
+      </c>
+      <c r="M25" s="38">
+        <v>1</v>
+      </c>
+      <c r="N25" s="38">
+        <v>1</v>
+      </c>
+      <c r="O25" s="38">
+        <v>1</v>
+      </c>
+      <c r="P25" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>1</v>
+      </c>
+      <c r="R25" s="38">
+        <v>1</v>
+      </c>
+      <c r="S25" s="38">
+        <v>1</v>
+      </c>
+      <c r="T25" s="38">
+        <v>1</v>
+      </c>
+      <c r="U25" s="65">
+        <v>0</v>
+      </c>
+      <c r="V25" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="V19" s="76">
+      <c r="W25" s="73">
         <v>0.95</v>
       </c>
-      <c r="W19" s="69">
+      <c r="X25" s="69">
         <v>43919</v>
       </c>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-    </row>
-    <row r="20" spans="1:27" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="57">
-        <v>1</v>
-      </c>
-      <c r="D20" s="57">
-        <v>1</v>
-      </c>
-      <c r="E20" s="38">
-        <v>1</v>
-      </c>
-      <c r="F20" s="38">
-        <v>1</v>
-      </c>
-      <c r="G20" s="38">
-        <v>1</v>
-      </c>
-      <c r="H20" s="38">
-        <v>1</v>
-      </c>
-      <c r="I20" s="38">
-        <v>1</v>
-      </c>
-      <c r="J20" s="38">
-        <v>1</v>
-      </c>
-      <c r="K20" s="38">
-        <v>1</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0</v>
-      </c>
-      <c r="M20" s="38">
-        <v>1</v>
-      </c>
-      <c r="N20" s="38">
-        <v>1</v>
-      </c>
-      <c r="O20" s="38">
-        <v>1</v>
-      </c>
-      <c r="P20" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="38">
-        <v>1</v>
-      </c>
-      <c r="R20" s="38">
-        <v>1</v>
-      </c>
-      <c r="S20" s="38">
-        <v>1</v>
-      </c>
-      <c r="T20" s="65">
-        <v>0</v>
-      </c>
-      <c r="U20" s="63"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="69">
-        <v>43909</v>
-      </c>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-    </row>
-    <row r="21" spans="1:27" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+    </row>
+    <row r="26" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="57">
+        <v>1</v>
+      </c>
+      <c r="D26" s="57">
+        <v>1</v>
+      </c>
+      <c r="E26" s="38">
+        <v>1</v>
+      </c>
+      <c r="F26" s="38">
+        <v>1</v>
+      </c>
+      <c r="G26" s="38">
+        <v>1</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1</v>
+      </c>
+      <c r="I26" s="38">
+        <v>1</v>
+      </c>
+      <c r="J26" s="38">
+        <v>1</v>
+      </c>
+      <c r="K26" s="38">
+        <v>1</v>
+      </c>
+      <c r="L26" s="38">
+        <v>1</v>
+      </c>
+      <c r="M26" s="38">
+        <v>1</v>
+      </c>
+      <c r="N26" s="38">
+        <v>1</v>
+      </c>
+      <c r="O26" s="38">
+        <v>1</v>
+      </c>
+      <c r="P26" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="38">
+        <v>1</v>
+      </c>
+      <c r="R26" s="38">
+        <v>1</v>
+      </c>
+      <c r="S26" s="38">
+        <v>1</v>
+      </c>
+      <c r="T26" s="38">
+        <v>1</v>
+      </c>
+      <c r="U26" s="65">
+        <v>5</v>
+      </c>
+      <c r="V26" s="63"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="69">
+        <v>43919</v>
+      </c>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+    </row>
+    <row r="27" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="57">
-        <v>1</v>
-      </c>
-      <c r="D21" s="57">
-        <v>1</v>
-      </c>
-      <c r="E21" s="38">
-        <v>1</v>
-      </c>
-      <c r="F21" s="38">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38">
-        <v>1</v>
-      </c>
-      <c r="H21" s="38">
-        <v>1</v>
-      </c>
-      <c r="I21" s="38">
-        <v>1</v>
-      </c>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="38">
-        <v>1</v>
-      </c>
-      <c r="L21" s="38">
-        <v>1</v>
-      </c>
-      <c r="M21" s="38">
-        <v>1</v>
-      </c>
-      <c r="N21" s="38">
-        <v>1</v>
-      </c>
-      <c r="O21" s="38">
-        <v>1</v>
-      </c>
-      <c r="P21" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="38">
-        <v>0</v>
-      </c>
-      <c r="R21" s="38">
-        <v>1</v>
-      </c>
-      <c r="S21" s="38">
-        <v>1</v>
-      </c>
-      <c r="T21" s="65">
-        <v>0</v>
-      </c>
-      <c r="U21" s="63"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="69">
-        <v>43912</v>
-      </c>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-    </row>
-    <row r="22" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="57">
-        <v>1</v>
-      </c>
-      <c r="D22" s="57">
-        <v>1</v>
-      </c>
-      <c r="E22" s="38">
-        <v>1</v>
-      </c>
-      <c r="F22" s="38">
-        <v>1</v>
-      </c>
-      <c r="G22" s="38">
-        <v>0.67</v>
-      </c>
-      <c r="H22" s="38">
-        <v>1</v>
-      </c>
-      <c r="I22" s="38">
-        <v>1</v>
-      </c>
-      <c r="J22" s="38">
-        <v>1</v>
-      </c>
-      <c r="K22" s="38">
-        <v>1</v>
-      </c>
-      <c r="L22" s="38">
-        <v>1</v>
-      </c>
-      <c r="M22" s="38">
-        <v>1</v>
-      </c>
-      <c r="N22" s="38">
-        <v>1</v>
-      </c>
-      <c r="O22" s="38">
-        <v>1</v>
-      </c>
-      <c r="P22" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="38">
-        <v>1</v>
-      </c>
-      <c r="R22" s="38">
-        <v>1</v>
-      </c>
-      <c r="S22" s="38">
-        <v>1</v>
-      </c>
-      <c r="T22" s="65">
-        <v>0</v>
-      </c>
-      <c r="U22" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="V22" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="W22" s="69">
+      <c r="C27" s="57">
+        <v>1</v>
+      </c>
+      <c r="D27" s="57">
+        <v>1</v>
+      </c>
+      <c r="E27" s="38">
+        <v>1</v>
+      </c>
+      <c r="F27" s="38">
+        <v>1</v>
+      </c>
+      <c r="G27" s="38">
+        <v>1</v>
+      </c>
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="38">
+        <v>1</v>
+      </c>
+      <c r="J27" s="38">
+        <v>1</v>
+      </c>
+      <c r="K27" s="38">
+        <v>1</v>
+      </c>
+      <c r="L27" s="38">
+        <v>1</v>
+      </c>
+      <c r="M27" s="38">
+        <v>1</v>
+      </c>
+      <c r="N27" s="38">
+        <v>1</v>
+      </c>
+      <c r="O27" s="38">
+        <v>1</v>
+      </c>
+      <c r="P27" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="38">
+        <v>1</v>
+      </c>
+      <c r="R27" s="38">
+        <v>1</v>
+      </c>
+      <c r="S27" s="38">
+        <v>1</v>
+      </c>
+      <c r="T27" s="38">
+        <v>0</v>
+      </c>
+      <c r="U27" s="65">
+        <v>0</v>
+      </c>
+      <c r="V27" s="62"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="76">
         <v>43919</v>
       </c>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-    </row>
-    <row r="23" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="57">
-        <v>1</v>
-      </c>
-      <c r="D23" s="57">
-        <v>1</v>
-      </c>
-      <c r="E23" s="38">
-        <v>1</v>
-      </c>
-      <c r="F23" s="38">
-        <v>1</v>
-      </c>
-      <c r="G23" s="38">
-        <v>1</v>
-      </c>
-      <c r="H23" s="38">
-        <v>1</v>
-      </c>
-      <c r="I23" s="38">
-        <v>1</v>
-      </c>
-      <c r="J23" s="38">
-        <v>1</v>
-      </c>
-      <c r="K23" s="38">
-        <v>1</v>
-      </c>
-      <c r="L23" s="38">
-        <v>1</v>
-      </c>
-      <c r="M23" s="38">
-        <v>1</v>
-      </c>
-      <c r="N23" s="38">
-        <v>1</v>
-      </c>
-      <c r="O23" s="38">
-        <v>1</v>
-      </c>
-      <c r="P23" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="38">
-        <v>1</v>
-      </c>
-      <c r="R23" s="38">
-        <v>1</v>
-      </c>
-      <c r="S23" s="38">
-        <v>1</v>
-      </c>
-      <c r="T23" s="65">
-        <v>0</v>
-      </c>
-      <c r="U23" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="V23" s="76">
-        <v>0.95</v>
-      </c>
-      <c r="W23" s="69">
-        <v>43919</v>
-      </c>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-    </row>
-    <row r="24" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="57">
-        <v>1</v>
-      </c>
-      <c r="D24" s="57">
-        <v>1</v>
-      </c>
-      <c r="E24" s="38">
-        <v>1</v>
-      </c>
-      <c r="F24" s="38">
-        <v>1</v>
-      </c>
-      <c r="G24" s="38">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38">
-        <v>1</v>
-      </c>
-      <c r="I24" s="38">
-        <v>1</v>
-      </c>
-      <c r="J24" s="38">
-        <v>1</v>
-      </c>
-      <c r="K24" s="38">
-        <v>1</v>
-      </c>
-      <c r="L24" s="38">
-        <v>1</v>
-      </c>
-      <c r="M24" s="38">
-        <v>1</v>
-      </c>
-      <c r="N24" s="38">
-        <v>1</v>
-      </c>
-      <c r="O24" s="38">
-        <v>1</v>
-      </c>
-      <c r="P24" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="38">
-        <v>1</v>
-      </c>
-      <c r="R24" s="38">
-        <v>1</v>
-      </c>
-      <c r="S24" s="38">
-        <v>1</v>
-      </c>
-      <c r="T24" s="65">
-        <v>5</v>
-      </c>
-      <c r="U24" s="63"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="69">
-        <v>43919</v>
-      </c>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-    </row>
-    <row r="25" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="57">
-        <v>1</v>
-      </c>
-      <c r="D25" s="57">
-        <v>1</v>
-      </c>
-      <c r="E25" s="38">
-        <v>1</v>
-      </c>
-      <c r="F25" s="38">
-        <v>1</v>
-      </c>
-      <c r="G25" s="38">
-        <v>1</v>
-      </c>
-      <c r="H25" s="38">
-        <v>1</v>
-      </c>
-      <c r="I25" s="38">
-        <v>1</v>
-      </c>
-      <c r="J25" s="38">
-        <v>1</v>
-      </c>
-      <c r="K25" s="38">
-        <v>1</v>
-      </c>
-      <c r="L25" s="38">
-        <v>1</v>
-      </c>
-      <c r="M25" s="38">
-        <v>1</v>
-      </c>
-      <c r="N25" s="38">
-        <v>1</v>
-      </c>
-      <c r="O25" s="38">
-        <v>1</v>
-      </c>
-      <c r="P25" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="38">
-        <v>1</v>
-      </c>
-      <c r="R25" s="38">
-        <v>1</v>
-      </c>
-      <c r="S25" s="38">
-        <v>0</v>
-      </c>
-      <c r="T25" s="65">
-        <v>0</v>
-      </c>
-      <c r="U25" s="62"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="79">
-        <v>43919</v>
-      </c>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-    </row>
-    <row r="26" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-    </row>
-    <row r="27" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="37"/>
       <c r="Y27" s="32"/>
-      <c r="Z27" s="36"/>
+      <c r="Z27" s="32"/>
       <c r="AA27" s="36"/>
-    </row>
-    <row r="28" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB27" s="36"/>
+    </row>
+    <row r="28" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
@@ -10549,49 +10865,51 @@
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="32"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="58"/>
       <c r="Y28" s="32"/>
-      <c r="Z28" s="36"/>
+      <c r="Z28" s="32"/>
       <c r="AA28" s="36"/>
-    </row>
-    <row r="29" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB28" s="36"/>
+    </row>
+    <row r="29" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="37"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="68"/>
       <c r="Y29" s="37"/>
-      <c r="Z29" s="36"/>
+      <c r="Z29" s="32"/>
       <c r="AA29" s="36"/>
-    </row>
-    <row r="30" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB29" s="36"/>
+    </row>
+    <row r="30" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="32"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -10607,45 +10925,47 @@
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="37"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="58"/>
       <c r="Y30" s="32"/>
-      <c r="Z30" s="36"/>
+      <c r="Z30" s="32"/>
       <c r="AA30" s="36"/>
-    </row>
-    <row r="31" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB30" s="36"/>
+    </row>
+    <row r="31" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="61"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
       <c r="U31" s="63"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="36"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
       <c r="AA31" s="36"/>
-    </row>
-    <row r="32" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB31" s="36"/>
+    </row>
+    <row r="32" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="32"/>
       <c r="C32" s="58"/>
@@ -10665,22 +10985,24 @@
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="32"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="68"/>
       <c r="Y32" s="37"/>
-      <c r="Z32" s="36"/>
+      <c r="Z32" s="32"/>
       <c r="AA32" s="36"/>
-    </row>
-    <row r="33" spans="1:27" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB32" s="36"/>
+    </row>
+    <row r="33" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -10693,142 +11015,287 @@
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="34"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="36"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="32"/>
       <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+    </row>
+    <row r="34" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+    </row>
+    <row r="35" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="D1:S1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="D1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:P16 C22:P22 C18:P20">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+  <conditionalFormatting sqref="C3:P11 C24:P24 C20:P22 C12:C13 C14:P18">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:P16 C22:P24 C18:P20">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="notEqual">
+  <conditionalFormatting sqref="C3:P11 C24:P26 C20:P22 C12:C13 C14:P18">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:P24">
-    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+  <conditionalFormatting sqref="C25:P26">
+    <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:K21 M21:P21">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+  <conditionalFormatting sqref="C23:K23 M23:P23">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:K21 M21:P21">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="notEqual">
+  <conditionalFormatting sqref="C23:K23 M23:P23">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="notEqual">
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q22 Q7:Q16 Q18:Q20">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q23:S24 Q22 Q7:Q16 Q18:Q20">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
+  <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:S24">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="Q25:S26">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="notEqual">
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S16 R18:S22">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S16 R18:S22">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="notEqual">
+  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:P17">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="C19:P19">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:P17">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+  <conditionalFormatting sqref="C19:P19">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:S17">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="R19:S19">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:S17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+  <conditionalFormatting sqref="R19:S19">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:P25">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+  <conditionalFormatting sqref="C27:P27">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:P25">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="C27:P27">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:S25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="Q27:S27">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:S25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q27:S27">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T6">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T6 T25:T26">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T26">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:P13">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:P13">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q13">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q13">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S13">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S13">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T13">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T13">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10837,8 +11304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10915,7 +11382,7 @@
         <v>187</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10964,7 +11431,7 @@
         <v>0.3</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00444DE9-ED90-4EF8-8D12-1FDC34F4EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA72BE-3E4D-491B-8FF1-87013EE72C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{A0940E50-BCDF-4389-A08A-ACBC31720A58}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{0FB2AC50-197C-43F2-B71A-9B50828C7AFE}">
       <text>
         <r>
           <rPr>
@@ -2390,7 +2390,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2597,6 +2597,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2848,7 +2854,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3027,6 +3033,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3677,8 +3684,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3992,6 +3999,9 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
+      <c r="K14" s="80">
+        <v>0</v>
+      </c>
       <c r="L14" s="7">
         <v>12</v>
       </c>
@@ -4012,6 +4022,9 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
+      <c r="K15" s="80">
+        <v>0</v>
+      </c>
       <c r="L15" s="7">
         <v>4</v>
       </c>
@@ -4032,6 +4045,9 @@
       <c r="J16" s="7">
         <v>0</v>
       </c>
+      <c r="K16" s="80">
+        <v>0</v>
+      </c>
       <c r="L16" s="7">
         <v>7</v>
       </c>
@@ -4058,6 +4074,9 @@
       <c r="J17" s="7">
         <v>0</v>
       </c>
+      <c r="K17" s="80">
+        <v>500</v>
+      </c>
       <c r="L17" s="7">
         <v>13</v>
       </c>
@@ -4084,8 +4103,8 @@
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="7">
-        <v>2500</v>
+      <c r="K18" s="80">
+        <v>1000</v>
       </c>
       <c r="L18" s="7">
         <v>29</v>
@@ -8263,7 +8282,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="29">
         <v>5</v>
@@ -8508,7 +8527,7 @@
         <v>0.1</v>
       </c>
       <c r="D10" s="29">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E10" s="48">
         <f>E$5/7</f>
@@ -8544,7 +8563,7 @@
         <v>0.25</v>
       </c>
       <c r="D11" s="29">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E11" s="48">
         <f>E$5/7</f>
@@ -8580,7 +8599,7 @@
         <v>0.25</v>
       </c>
       <c r="D12" s="29">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E12" s="48">
         <f>E$5/7</f>
@@ -8762,7 +8781,7 @@
       </c>
       <c r="E17" s="29">
         <f>E3</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="29">
         <v>1</v>
@@ -8830,7 +8849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:Y27"/>
     </sheetView>
   </sheetViews>
@@ -8982,7 +9001,7 @@
         <v>214</v>
       </c>
       <c r="C3" s="56">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="57">
         <v>1</v>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA72BE-3E4D-491B-8FF1-87013EE72C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E6D7F-E921-4571-81A4-91A01C0581D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3024,6 +3024,7 @@
     <xf numFmtId="14" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3033,7 +3034,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3999,7 +3999,7 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="77">
         <v>0</v>
       </c>
       <c r="L14" s="7">
@@ -4022,7 +4022,7 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="80">
+      <c r="K15" s="77">
         <v>0</v>
       </c>
       <c r="L15" s="7">
@@ -4045,7 +4045,7 @@
       <c r="J16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="77">
         <v>0</v>
       </c>
       <c r="L16" s="7">
@@ -4074,7 +4074,7 @@
       <c r="J17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="80">
+      <c r="K17" s="77">
         <v>500</v>
       </c>
       <c r="L17" s="7">
@@ -4103,7 +4103,7 @@
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="80">
+      <c r="K18" s="77">
         <v>1000</v>
       </c>
       <c r="L18" s="7">
@@ -8849,7 +8849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:Y27"/>
     </sheetView>
   </sheetViews>
@@ -8871,30 +8871,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="78"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="79"/>
       <c r="U1" s="64"/>
-      <c r="V1" s="77" t="s">
+      <c r="V1" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="W1" s="78"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
@@ -11324,7 +11324,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11390,7 +11390,7 @@
         <v>186</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="C6" t="s">
         <v>191</v>
@@ -11420,7 +11420,7 @@
         <v>194</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E6D7F-E921-4571-81A4-91A01C0581D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BABC44-AC1F-415D-A5D6-970A8AEF0F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="286">
   <si>
     <t>date</t>
   </si>
@@ -2134,6 +2134,12 @@
   </si>
   <si>
     <t>Schools closed</t>
+  </si>
+  <si>
+    <t>comm_relax</t>
+  </si>
+  <si>
+    <t>Physical distancing relaxed a bit</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2151,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2854,7 +2860,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3034,6 +3040,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3083,7 +3092,49 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3688,7 +3739,7 @@
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="22"/>
     <col min="2" max="2" width="14.5" style="7" customWidth="1"/>
@@ -3705,7 +3756,7 @@
     <col min="13" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3743,7 +3794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="21">
         <v>43891</v>
       </c>
@@ -3763,7 +3814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="21">
         <v>43892</v>
       </c>
@@ -3783,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="21">
         <v>43893</v>
       </c>
@@ -3803,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="21">
         <v>43894</v>
       </c>
@@ -3823,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="21">
         <v>43895</v>
       </c>
@@ -3843,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="21">
         <v>43896</v>
       </c>
@@ -3863,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="21">
         <v>43897</v>
       </c>
@@ -3883,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="21">
         <v>43898</v>
       </c>
@@ -3903,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="21">
         <v>43899</v>
       </c>
@@ -3923,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="21">
         <v>43900</v>
       </c>
@@ -3943,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="21">
         <v>43901</v>
       </c>
@@ -3963,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="21">
         <v>43902</v>
       </c>
@@ -3983,7 +4034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="21">
         <v>43903</v>
       </c>
@@ -4006,7 +4057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="21">
         <v>43904</v>
       </c>
@@ -4029,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="21">
         <v>43905</v>
       </c>
@@ -4052,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="21">
         <v>43906</v>
       </c>
@@ -4081,7 +4132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="21">
         <v>43907</v>
       </c>
@@ -4110,7 +4161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="21">
         <v>43908</v>
       </c>
@@ -4139,7 +4190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="21">
         <v>43909</v>
       </c>
@@ -4168,7 +4219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="21">
         <v>43910</v>
       </c>
@@ -4197,7 +4248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="21">
         <v>43911</v>
       </c>
@@ -4226,7 +4277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="21">
         <v>43912</v>
       </c>
@@ -4255,7 +4306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="21">
         <v>43913</v>
       </c>
@@ -4290,7 +4341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="21">
         <v>43914</v>
       </c>
@@ -4322,7 +4373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="21">
         <v>43915</v>
       </c>
@@ -4354,7 +4405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="21">
         <v>43916</v>
       </c>
@@ -4386,7 +4437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="21">
         <v>43917</v>
       </c>
@@ -4418,7 +4469,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="21">
         <v>43918</v>
       </c>
@@ -4450,7 +4501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="21">
         <v>43919</v>
       </c>
@@ -4488,7 +4539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="21">
         <v>43920</v>
       </c>
@@ -4523,7 +4574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="21">
         <v>43921</v>
       </c>
@@ -4561,7 +4612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="21">
         <v>43922</v>
       </c>
@@ -4599,7 +4650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="21">
         <v>43923</v>
       </c>
@@ -4637,7 +4688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="21">
         <v>43924</v>
       </c>
@@ -4675,7 +4726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="21">
         <v>43925</v>
       </c>
@@ -4713,7 +4764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="21">
         <v>43926</v>
       </c>
@@ -4751,7 +4802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="21">
         <v>43927</v>
       </c>
@@ -4789,7 +4840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="21">
         <v>43928</v>
       </c>
@@ -4827,7 +4878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="21">
         <v>43929</v>
       </c>
@@ -4865,7 +4916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="21">
         <v>43930</v>
       </c>
@@ -4903,7 +4954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="21">
         <v>43931</v>
       </c>
@@ -4941,7 +4992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="21">
         <v>43932</v>
       </c>
@@ -4979,7 +5030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="21">
         <v>43933</v>
       </c>
@@ -5017,7 +5068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="21">
         <v>43934</v>
       </c>
@@ -5055,7 +5106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="21">
         <v>43935</v>
       </c>
@@ -5093,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="21">
         <v>43936</v>
       </c>
@@ -5131,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="21">
         <v>43937</v>
       </c>
@@ -5169,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="21">
         <v>43938</v>
       </c>
@@ -5207,7 +5258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="21">
         <v>43939</v>
       </c>
@@ -5245,7 +5296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="21">
         <v>43940</v>
       </c>
@@ -5283,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="21">
         <v>43941</v>
       </c>
@@ -5321,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="21">
         <v>43942</v>
       </c>
@@ -5372,9 +5423,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5430,7 +5481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5486,7 +5537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5539,7 +5590,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5592,7 +5643,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5645,7 +5696,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5698,7 +5749,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -5751,7 +5802,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5855,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5857,7 +5908,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5910,7 +5961,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5963,7 +6014,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6016,7 +6067,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6069,7 +6120,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6122,7 +6173,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6175,7 +6226,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6228,7 +6279,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6316,12 +6367,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="16384" width="10.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>153</v>
       </c>
@@ -6338,7 +6389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -6356,7 +6407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -6374,7 +6425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -6389,7 +6440,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -6404,7 +6455,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -6419,7 +6470,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -6434,7 +6485,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -6449,7 +6500,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -6464,7 +6515,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -6479,7 +6530,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -6494,7 +6545,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -6509,7 +6560,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -6524,7 +6575,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -6539,7 +6590,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
@@ -6554,7 +6605,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
@@ -6569,7 +6620,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -6584,7 +6635,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -6599,7 +6650,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -6614,7 +6665,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -6629,7 +6680,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -6644,7 +6695,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -6659,7 +6710,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -6674,7 +6725,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -6689,7 +6740,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -6704,7 +6755,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -6719,7 +6770,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -6734,7 +6785,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -6749,7 +6800,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -6764,7 +6815,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -6779,7 +6830,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -6794,7 +6845,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -6809,7 +6860,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -6824,7 +6875,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -6839,7 +6890,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>69</v>
       </c>
@@ -6854,7 +6905,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -6869,7 +6920,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
@@ -6884,7 +6935,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>72</v>
       </c>
@@ -6899,7 +6950,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>73</v>
       </c>
@@ -6914,7 +6965,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
@@ -6929,7 +6980,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
         <v>75</v>
       </c>
@@ -6944,7 +6995,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
         <v>76</v>
       </c>
@@ -6959,7 +7010,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
         <v>77</v>
       </c>
@@ -6974,7 +7025,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>78</v>
       </c>
@@ -6989,7 +7040,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>79</v>
       </c>
@@ -7004,7 +7055,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>80</v>
       </c>
@@ -7019,7 +7070,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
@@ -7034,7 +7085,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>82</v>
       </c>
@@ -7049,7 +7100,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -7064,7 +7115,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
         <v>84</v>
       </c>
@@ -7079,7 +7130,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
         <v>85</v>
       </c>
@@ -7094,7 +7145,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
@@ -7109,7 +7160,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
         <v>87</v>
       </c>
@@ -7124,7 +7175,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
@@ -7139,7 +7190,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>89</v>
       </c>
@@ -7154,7 +7205,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
@@ -7169,7 +7220,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>91</v>
       </c>
@@ -7184,7 +7235,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
@@ -7199,7 +7250,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
@@ -7214,7 +7265,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
@@ -7229,7 +7280,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>95</v>
       </c>
@@ -7244,7 +7295,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
@@ -7259,7 +7310,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>97</v>
       </c>
@@ -7274,7 +7325,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
@@ -7289,7 +7340,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>99</v>
       </c>
@@ -7304,7 +7355,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
@@ -7319,7 +7370,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>101</v>
       </c>
@@ -7334,7 +7385,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -7349,7 +7400,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>103</v>
       </c>
@@ -7364,7 +7415,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
@@ -7379,7 +7430,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>105</v>
       </c>
@@ -7394,7 +7445,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
@@ -7409,7 +7460,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>107</v>
       </c>
@@ -7424,7 +7475,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
@@ -7439,7 +7490,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>109</v>
       </c>
@@ -7454,7 +7505,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
@@ -7469,7 +7520,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>111</v>
       </c>
@@ -7484,7 +7535,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
@@ -7499,7 +7550,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>113</v>
       </c>
@@ -7514,7 +7565,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
@@ -7529,7 +7580,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="9" t="s">
         <v>115</v>
       </c>
@@ -7544,7 +7595,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="9" t="s">
         <v>116</v>
       </c>
@@ -7559,7 +7610,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>117</v>
       </c>
@@ -7574,7 +7625,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -7589,7 +7640,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>119</v>
       </c>
@@ -7604,7 +7655,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>120</v>
       </c>
@@ -7619,7 +7670,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
@@ -7634,7 +7685,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>122</v>
       </c>
@@ -7649,7 +7700,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="9" t="s">
         <v>123</v>
       </c>
@@ -7664,7 +7715,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="9" t="s">
         <v>124</v>
       </c>
@@ -7679,7 +7730,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>125</v>
       </c>
@@ -7694,7 +7745,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
         <v>126</v>
       </c>
@@ -7709,7 +7760,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="9" t="s">
         <v>127</v>
       </c>
@@ -7724,7 +7775,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>128</v>
       </c>
@@ -7739,7 +7790,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="9" t="s">
         <v>129</v>
       </c>
@@ -7754,7 +7805,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="9" t="s">
         <v>130</v>
       </c>
@@ -7769,7 +7820,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="9" t="s">
         <v>131</v>
       </c>
@@ -7784,7 +7835,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="9" t="s">
         <v>132</v>
       </c>
@@ -7799,7 +7850,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -7814,7 +7865,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="9" t="s">
         <v>134</v>
       </c>
@@ -7829,7 +7880,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>135</v>
       </c>
@@ -7844,7 +7895,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>136</v>
       </c>
@@ -7859,7 +7910,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>137</v>
       </c>
@@ -7874,7 +7925,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>138</v>
       </c>
@@ -7889,7 +7940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
@@ -7904,7 +7955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
@@ -7919,7 +7970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="9" t="s">
         <v>141</v>
       </c>
@@ -7934,7 +7985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>142</v>
       </c>
@@ -7949,7 +8000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>143</v>
       </c>
@@ -7964,7 +8015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>144</v>
       </c>
@@ -7979,7 +8030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>145</v>
       </c>
@@ -7994,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="9" t="s">
         <v>146</v>
       </c>
@@ -8009,7 +8060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
         <v>147</v>
       </c>
@@ -8024,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>148</v>
       </c>
@@ -8039,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>149</v>
       </c>
@@ -8054,7 +8105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>150</v>
       </c>
@@ -8069,7 +8120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>151</v>
       </c>
@@ -8098,13 +8149,13 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="20" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>154</v>
       </c>
@@ -8115,7 +8166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
         <v>156</v>
       </c>
@@ -8126,7 +8177,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
         <v>158</v>
       </c>
@@ -8135,7 +8186,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>159</v>
       </c>
@@ -8144,7 +8195,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
         <v>160</v>
       </c>
@@ -8153,7 +8204,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
         <v>161</v>
       </c>
@@ -8162,7 +8213,7 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
         <v>162</v>
       </c>
@@ -8185,10 +8236,10 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K18"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -8200,7 +8251,7 @@
     <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="19" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
@@ -8235,7 +8286,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
@@ -8268,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="29" t="s">
         <v>174</v>
       </c>
@@ -8303,7 +8354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
@@ -8338,7 +8389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="29" t="s">
         <v>181</v>
       </c>
@@ -8374,7 +8425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="29" t="s">
         <v>177</v>
       </c>
@@ -8409,7 +8460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="29" t="s">
         <v>179</v>
       </c>
@@ -8444,7 +8495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="29" t="s">
         <v>215</v>
       </c>
@@ -8480,7 +8531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="29" t="s">
         <v>209</v>
       </c>
@@ -8516,7 +8567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="29" t="s">
         <v>218</v>
       </c>
@@ -8552,7 +8603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="29" t="s">
         <v>272</v>
       </c>
@@ -8588,7 +8639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="29" t="s">
         <v>273</v>
       </c>
@@ -8624,7 +8675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="29" t="s">
         <v>208</v>
       </c>
@@ -8659,7 +8710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="29" t="s">
         <v>210</v>
       </c>
@@ -8695,7 +8746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="29" t="s">
         <v>212</v>
       </c>
@@ -8730,7 +8781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="29" t="s">
         <v>263</v>
       </c>
@@ -8766,7 +8817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="29" t="s">
         <v>264</v>
       </c>
@@ -8802,7 +8853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="29" t="s">
         <v>267</v>
       </c>
@@ -8849,11 +8900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Y27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.09765625" style="31" customWidth="1"/>
     <col min="2" max="2" width="50.69921875" style="30" customWidth="1"/>
@@ -8870,7 +8921,7 @@
     <col min="27" max="28" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28">
       <c r="D1" s="78" t="s">
         <v>259</v>
       </c>
@@ -8896,7 +8947,7 @@
       </c>
       <c r="W1" s="79"/>
     </row>
-    <row r="2" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="53" customFormat="1">
       <c r="A2" s="49" t="s">
         <v>206</v>
       </c>
@@ -8993,7 +9044,7 @@
       <c r="AA2" s="49"/>
       <c r="AB2" s="49"/>
     </row>
-    <row r="3" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="44" customFormat="1">
       <c r="A3" s="42" t="s">
         <v>255</v>
       </c>
@@ -9067,7 +9118,7 @@
       <c r="AA3" s="42"/>
       <c r="AB3" s="42"/>
     </row>
-    <row r="4" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="44" customFormat="1">
       <c r="A4" s="42" t="s">
         <v>231</v>
       </c>
@@ -9141,7 +9192,7 @@
       <c r="AA4" s="42"/>
       <c r="AB4" s="42"/>
     </row>
-    <row r="5" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="44" customFormat="1">
       <c r="A5" s="42" t="s">
         <v>220</v>
       </c>
@@ -9214,7 +9265,7 @@
       <c r="AA5" s="42"/>
       <c r="AB5" s="42"/>
     </row>
-    <row r="6" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="44" customFormat="1">
       <c r="A6" s="42" t="s">
         <v>221</v>
       </c>
@@ -9287,7 +9338,7 @@
       <c r="AA6" s="42"/>
       <c r="AB6" s="42"/>
     </row>
-    <row r="7" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="44" customFormat="1">
       <c r="A7" s="42" t="s">
         <v>230</v>
       </c>
@@ -9361,7 +9412,7 @@
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
     </row>
-    <row r="8" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="44" customFormat="1">
       <c r="A8" s="42" t="s">
         <v>233</v>
       </c>
@@ -9435,7 +9486,7 @@
       <c r="AA8" s="42"/>
       <c r="AB8" s="42"/>
     </row>
-    <row r="9" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="44" customFormat="1">
       <c r="A9" s="42" t="s">
         <v>222</v>
       </c>
@@ -9512,7 +9563,7 @@
       <c r="AA9" s="42"/>
       <c r="AB9" s="42"/>
     </row>
-    <row r="10" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="44" customFormat="1">
       <c r="A10" s="42" t="s">
         <v>275</v>
       </c>
@@ -9586,7 +9637,7 @@
       <c r="AA10" s="42"/>
       <c r="AB10" s="42"/>
     </row>
-    <row r="11" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="44" customFormat="1">
       <c r="A11" s="42" t="s">
         <v>276</v>
       </c>
@@ -9663,7 +9714,7 @@
       <c r="AA11" s="42"/>
       <c r="AB11" s="42"/>
     </row>
-    <row r="12" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="44" customFormat="1">
       <c r="A12" s="42" t="s">
         <v>277</v>
       </c>
@@ -9737,7 +9788,7 @@
       <c r="AA12" s="42"/>
       <c r="AB12" s="42"/>
     </row>
-    <row r="13" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="44" customFormat="1">
       <c r="A13" s="42" t="s">
         <v>279</v>
       </c>
@@ -9814,7 +9865,7 @@
       <c r="AA13" s="42"/>
       <c r="AB13" s="42"/>
     </row>
-    <row r="14" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="44" customFormat="1">
       <c r="A14" s="42" t="s">
         <v>252</v>
       </c>
@@ -9888,7 +9939,7 @@
       <c r="AA14" s="42"/>
       <c r="AB14" s="42"/>
     </row>
-    <row r="15" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="44" customFormat="1">
       <c r="A15" s="42" t="s">
         <v>223</v>
       </c>
@@ -9960,7 +10011,7 @@
       <c r="AA15" s="42"/>
       <c r="AB15" s="42"/>
     </row>
-    <row r="16" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="44" customFormat="1">
       <c r="A16" s="42" t="s">
         <v>227</v>
       </c>
@@ -10037,7 +10088,7 @@
       <c r="AA16" s="42"/>
       <c r="AB16" s="42"/>
     </row>
-    <row r="17" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="44" customFormat="1">
       <c r="A17" s="42" t="s">
         <v>224</v>
       </c>
@@ -10111,7 +10162,7 @@
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
     </row>
-    <row r="18" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="44" customFormat="1">
       <c r="A18" s="42" t="s">
         <v>225</v>
       </c>
@@ -10185,7 +10236,7 @@
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
     </row>
-    <row r="19" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="44" customFormat="1">
       <c r="A19" s="42" t="s">
         <v>264</v>
       </c>
@@ -10257,7 +10308,7 @@
       <c r="AA19" s="42"/>
       <c r="AB19" s="42"/>
     </row>
-    <row r="20" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="44" customFormat="1">
       <c r="A20" s="42" t="s">
         <v>226</v>
       </c>
@@ -10335,7 +10386,7 @@
       <c r="AA20" s="42"/>
       <c r="AB20" s="42"/>
     </row>
-    <row r="21" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1">
       <c r="A21" s="45" t="s">
         <v>228</v>
       </c>
@@ -10413,7 +10464,7 @@
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
     </row>
-    <row r="22" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1">
       <c r="A22" s="45" t="s">
         <v>218</v>
       </c>
@@ -10487,7 +10538,7 @@
       <c r="AA22" s="45"/>
       <c r="AB22" s="45"/>
     </row>
-    <row r="23" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="27" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="45" t="s">
         <v>263</v>
       </c>
@@ -10561,7 +10612,7 @@
       <c r="AA23" s="45"/>
       <c r="AB23" s="45"/>
     </row>
-    <row r="24" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>250</v>
       </c>
@@ -10639,7 +10690,7 @@
       <c r="AA24" s="36"/>
       <c r="AB24" s="36"/>
     </row>
-    <row r="25" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>239</v>
       </c>
@@ -10717,7 +10768,7 @@
       <c r="AA25" s="36"/>
       <c r="AB25" s="36"/>
     </row>
-    <row r="26" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>251</v>
       </c>
@@ -10791,7 +10842,7 @@
       <c r="AA26" s="36"/>
       <c r="AB26" s="36"/>
     </row>
-    <row r="27" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>267</v>
       </c>
@@ -10865,27 +10916,70 @@
       <c r="AA27" s="36"/>
       <c r="AB27" s="36"/>
     </row>
-    <row r="28" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="61"/>
+    <row r="28" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A28" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="59">
+        <v>1</v>
+      </c>
+      <c r="D28" s="57">
+        <v>1</v>
+      </c>
+      <c r="E28" s="38">
+        <v>1</v>
+      </c>
+      <c r="F28" s="38">
+        <v>1</v>
+      </c>
+      <c r="G28" s="38">
+        <v>1</v>
+      </c>
+      <c r="H28" s="38">
+        <v>1</v>
+      </c>
+      <c r="I28" s="38">
+        <v>1</v>
+      </c>
+      <c r="J28" s="38">
+        <v>1</v>
+      </c>
+      <c r="K28" s="38">
+        <v>1</v>
+      </c>
+      <c r="L28" s="38">
+        <v>1</v>
+      </c>
+      <c r="M28" s="38">
+        <v>1</v>
+      </c>
+      <c r="N28" s="38">
+        <v>1</v>
+      </c>
+      <c r="O28" s="38">
+        <v>1</v>
+      </c>
+      <c r="P28" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="38">
+        <v>1</v>
+      </c>
+      <c r="R28" s="38">
+        <v>1</v>
+      </c>
+      <c r="S28" s="38">
+        <v>1</v>
+      </c>
+      <c r="T28" s="38">
+        <v>1</v>
+      </c>
+      <c r="U28" s="65">
+        <v>0</v>
+      </c>
       <c r="V28" s="62"/>
       <c r="W28" s="35"/>
       <c r="X28" s="58"/>
@@ -10894,7 +10988,7 @@
       <c r="AA28" s="36"/>
       <c r="AB28" s="36"/>
     </row>
-    <row r="29" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A29" s="36"/>
       <c r="B29" s="32"/>
       <c r="C29" s="59"/>
@@ -10924,7 +11018,7 @@
       <c r="AA29" s="36"/>
       <c r="AB29" s="36"/>
     </row>
-    <row r="30" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A30" s="36"/>
       <c r="B30" s="32"/>
       <c r="C30" s="58"/>
@@ -10954,7 +11048,7 @@
       <c r="AA30" s="36"/>
       <c r="AB30" s="36"/>
     </row>
-    <row r="31" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="58"/>
@@ -10984,7 +11078,7 @@
       <c r="AA31" s="36"/>
       <c r="AB31" s="36"/>
     </row>
-    <row r="32" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A32" s="36"/>
       <c r="B32" s="32"/>
       <c r="C32" s="58"/>
@@ -11014,7 +11108,7 @@
       <c r="AA32" s="36"/>
       <c r="AB32" s="36"/>
     </row>
-    <row r="33" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="59"/>
@@ -11044,7 +11138,7 @@
       <c r="AA33" s="36"/>
       <c r="AB33" s="36"/>
     </row>
-    <row r="34" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A34" s="36"/>
       <c r="B34" s="32"/>
       <c r="C34" s="58"/>
@@ -11074,7 +11168,7 @@
       <c r="AA34" s="36"/>
       <c r="AB34" s="36"/>
     </row>
-    <row r="35" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A35" s="36"/>
       <c r="C35" s="58"/>
       <c r="D35" s="61"/>
@@ -11109,207 +11203,237 @@
     <mergeCell ref="D1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P11 C24:P24 C20:P22 C12:C13 C14:P18">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:P11 C24:P26 C20:P22 C12:C13 C14:P18">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:P26">
+    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:K23 M23:P23">
+    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:K23 M23:P23">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
     <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:P11 C24:P26 C20:P22 C12:C13 C14:P18">
+  <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
     <cfRule type="cellIs" dxfId="39" priority="51" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:P26">
-    <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
+  <conditionalFormatting sqref="Q25:S26">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:K23 M23:P23">
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:K23 M23:P23">
-    <cfRule type="cellIs" dxfId="36" priority="47" operator="notEqual">
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:S26">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:S19">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:P27">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:P27">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:S27">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:S27">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T6">
     <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19:S19">
+  <conditionalFormatting sqref="T3:T6 T25:T26">
     <cfRule type="cellIs" dxfId="21" priority="32" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="notEqual">
+  <conditionalFormatting sqref="T25:T26">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:P27">
+  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
     <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:S27">
+  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
     <cfRule type="cellIs" dxfId="18" priority="29" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:S27">
+  <conditionalFormatting sqref="T19">
     <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T6">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T6 T25:T26">
+  <conditionalFormatting sqref="T27">
     <cfRule type="cellIs" dxfId="15" priority="26" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T26">
+  <conditionalFormatting sqref="T27">
     <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
+  <conditionalFormatting sqref="D12:P13">
     <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
+  <conditionalFormatting sqref="D12:P13">
     <cfRule type="cellIs" dxfId="12" priority="23" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
+  <conditionalFormatting sqref="Q12:Q13">
     <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
+  <conditionalFormatting sqref="Q12:Q13">
     <cfRule type="cellIs" dxfId="10" priority="21" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="notEqual">
+  <conditionalFormatting sqref="R12:S13">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+  <conditionalFormatting sqref="R12:S13">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:P13">
+  <conditionalFormatting sqref="T12:T13">
     <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:P13">
+  <conditionalFormatting sqref="T12:T13">
     <cfRule type="cellIs" dxfId="6" priority="17" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+  <conditionalFormatting sqref="D28:P28">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="notEqual">
+  <conditionalFormatting sqref="D28:P28">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+  <conditionalFormatting sqref="Q28:S28">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="notEqual">
+  <conditionalFormatting sqref="Q28:S28">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="notEqual">
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11323,17 +11447,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="19" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
@@ -11344,7 +11468,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
         <v>195</v>
       </c>
@@ -11355,7 +11479,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
         <v>196</v>
       </c>
@@ -11366,7 +11490,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="23" customFormat="1">
       <c r="A4" s="23" t="s">
         <v>199</v>
       </c>
@@ -11374,7 +11498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -11385,7 +11509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -11396,7 +11520,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -11404,26 +11528,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
       <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -11434,7 +11558,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -11442,7 +11566,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>203</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0906E83F-0B33-4A22-9ABA-E299C1F6E7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8BF32-2E26-41BA-AB7B-D09FD7D5FCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -229,7 +229,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not required, filled with Australian household structure data</t>
@@ -244,7 +244,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -253,7 +253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Reference level for transmissability</t>
@@ -340,7 +340,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -349,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Average classroom size in Victoria:
@@ -365,7 +365,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -374,7 +374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Age-weighted Australian estimates from Prem et al.</t>
@@ -437,7 +437,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -446,7 +446,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume imperfect - people in quarantine still go out a bit</t>
@@ -461,7 +461,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -470,7 +470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -485,7 +485,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -494,7 +494,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 11% of the population attend church at least weekly: http://www.2016ncls.org.au/resources/downloads/Local%20Churches%20in%20Australia-Research%20Findings%20from%20NCLS%20Research(2017).pdf</t>
@@ -509,7 +509,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -518,7 +518,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 For people under 30, age-weighted participation rate of 34%. Over 30 years ignored as rates quickly decline.
@@ -534,7 +534,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -543,7 +543,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assuming a sport contact is equal to a house contact, but only occurs once per week so divide by 7</t>
@@ -558,7 +558,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -567,7 +567,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
@@ -582,7 +582,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -591,7 +591,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -606,7 +606,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -615,7 +615,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
@@ -630,7 +630,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -639,7 +639,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -654,7 +654,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -663,7 +663,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
@@ -678,7 +678,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -687,7 +687,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -702,7 +702,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -711,7 +711,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
@@ -726,7 +726,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -735,7 +735,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -775,7 +775,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -784,7 +784,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -828,7 +828,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -837,7 +837,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
@@ -852,7 +852,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -861,7 +861,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -900,7 +900,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -909,7 +909,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume imperfect - people in quarantine still go out a bit</t>
@@ -924,7 +924,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -933,7 +933,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -948,7 +948,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -957,7 +957,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 90 assuming 4 times per year</t>
@@ -972,7 +972,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -981,7 +981,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume only 1% chance of tracing community contact</t>
@@ -1021,7 +1021,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1030,7 +1030,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed same as household transmission but divided by 7 as likely only once per week</t>
@@ -1045,7 +1045,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1054,7 +1054,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assume imperfect - people in quarantine still go out a bit</t>
@@ -1079,7 +1079,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1088,7 +1088,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
@@ -1151,7 +1151,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1160,7 +1160,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Assumed daily number of infections imported per day, from other states or internationally</t>
@@ -1175,7 +1175,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1184,7 +1184,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 remove this percentage of contacts from the network layer</t>
@@ -1199,7 +1199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1208,10 +1208,35 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportion of people unaffected - the remainder are removed from the network layer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{03E79333-8F96-4AE8-A500-D0514A243FC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From flutracker, 0.2% fever and cough prevalence compared to ~1.4% the same time last yer --&gt; 86% reduction 
+https://info.flutracking.net/reports-2/australia-reports/</t>
         </r>
       </text>
     </comment>
@@ -1223,7 +1248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1232,7 +1257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Reduce beach contacts from current number to 2?</t>
@@ -1247,7 +1272,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1256,7 +1281,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Reduce beacn contacts from current number to 10?</t>
@@ -1271,7 +1296,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1280,7 +1305,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 More time at home?</t>
@@ -1295,7 +1320,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1304,7 +1329,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Half of entertainment closed?</t>
@@ -1319,7 +1344,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1328,7 +1353,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E.g. 0.1 here means that 90% of children are removed from the school netowrk layer</t>
@@ -1343,7 +1368,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1352,7 +1377,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 I.e. 5% of workers are in retail</t>
@@ -1367,7 +1392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1376,7 +1401,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Google mobility data shows 33% reduction when non-essential work closed</t>
@@ -1391,7 +1416,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1400,7 +1425,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 - proportion of workers who are essential</t>
@@ -1415,7 +1440,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -1424,7 +1449,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 - proportion of workers who are non-COVID-19 health workers</t>
@@ -1470,7 +1495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="305">
   <si>
     <t>date</t>
   </si>
@@ -2240,9 +2265,6 @@
     <t>communication</t>
   </si>
   <si>
-    <t>Proportion of cases that are asymptomatic</t>
-  </si>
-  <si>
     <t>Non-COVID-19 health services closed</t>
   </si>
   <si>
@@ -2327,9 +2349,6 @@
     <t>comm_relax</t>
   </si>
   <si>
-    <t>Physical distancing relaxed a bit</t>
-  </si>
-  <si>
     <t>Participants</t>
   </si>
   <si>
@@ -2379,6 +2398,18 @@
   </si>
   <si>
     <t>Assumption on future test numbers</t>
+  </si>
+  <si>
+    <t>Physical distancing relaxed a bit (what do we go back to)</t>
+  </si>
+  <si>
+    <t>diag_factor</t>
+  </si>
+  <si>
+    <t>Proportion of cases that are asymptomatic (for estimate cumulative cases data)</t>
+  </si>
+  <si>
+    <t>Proportion who are asymptomatic</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2421,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2620,19 +2651,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3305,6 +3323,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="46" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3314,16 +3342,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="46" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4177,9 +4195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -4253,6 +4271,9 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
       <c r="L2" s="6">
         <v>9</v>
       </c>
@@ -4273,6 +4294,9 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
       <c r="L3" s="6">
         <v>0</v>
       </c>
@@ -4293,6 +4317,9 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
       <c r="L4" s="6">
         <v>0</v>
       </c>
@@ -4313,6 +4340,9 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
       <c r="L5" s="6">
         <v>1</v>
       </c>
@@ -4333,6 +4363,9 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
       <c r="L6" s="6">
         <v>0</v>
       </c>
@@ -4353,6 +4386,9 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
       <c r="L7" s="6">
         <v>1</v>
       </c>
@@ -4373,6 +4409,9 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
       <c r="L8" s="6">
         <v>1</v>
       </c>
@@ -4393,6 +4432,9 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
       <c r="L9" s="6">
         <v>2</v>
       </c>
@@ -4413,6 +4455,9 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
       <c r="L10" s="6">
         <v>3</v>
       </c>
@@ -4433,6 +4478,9 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
       <c r="L11" s="6">
         <v>1</v>
       </c>
@@ -4453,6 +4501,9 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
       <c r="L12" s="6">
         <v>4</v>
       </c>
@@ -4473,6 +4524,9 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
       <c r="L13" s="6">
         <v>9</v>
       </c>
@@ -4494,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="76">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L14" s="6">
         <v>12</v>
@@ -4517,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="76">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L15" s="6">
         <v>4</v>
@@ -4540,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="76">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L16" s="6">
         <v>7</v>
@@ -5863,7 +5917,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5932,52 +5986,52 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="85">
         <v>0.65986800000000001</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="85">
         <v>0.503965</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="85">
         <v>0.21477299999999999</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="85">
         <v>9.4509999999999997E-2</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="85">
         <v>0.15807499999999999</v>
       </c>
-      <c r="G2" s="88">
+      <c r="G2" s="85">
         <v>0.33119399999999999</v>
       </c>
-      <c r="H2" s="88">
+      <c r="H2" s="85">
         <v>0.61729000000000001</v>
       </c>
-      <c r="I2" s="88">
+      <c r="I2" s="85">
         <v>0.62299000000000004</v>
       </c>
-      <c r="J2" s="88">
+      <c r="J2" s="85">
         <v>0.22986699999999999</v>
       </c>
-      <c r="K2" s="88">
+      <c r="K2" s="85">
         <v>7.7709E-2</v>
       </c>
-      <c r="L2" s="88">
+      <c r="L2" s="85">
         <v>7.2123999999999994E-2</v>
       </c>
-      <c r="M2" s="88">
+      <c r="M2" s="85">
         <v>3.5873000000000002E-2</v>
       </c>
-      <c r="N2" s="88">
+      <c r="N2" s="85">
         <v>2.9784999999999999E-2</v>
       </c>
-      <c r="O2" s="88">
+      <c r="O2" s="85">
         <v>9.92E-3</v>
       </c>
-      <c r="P2" s="88">
+      <c r="P2" s="85">
         <v>4.2420000000000001E-3</v>
       </c>
-      <c r="Q2" s="88">
+      <c r="Q2" s="85">
         <v>6.1619999999999999E-3</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -5988,52 +6042,52 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="85">
         <v>0.31477699999999997</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="85">
         <v>0.89546000000000003</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="85">
         <v>0.412466</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="85">
         <v>0.12892600000000001</v>
       </c>
-      <c r="F3" s="88">
+      <c r="F3" s="85">
         <v>3.9333E-2</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="85">
         <v>0.149588</v>
       </c>
-      <c r="H3" s="88">
+      <c r="H3" s="85">
         <v>0.431338</v>
       </c>
-      <c r="I3" s="88">
+      <c r="I3" s="85">
         <v>0.62494499999999997</v>
       </c>
-      <c r="J3" s="88">
+      <c r="J3" s="85">
         <v>0.47687299999999999</v>
       </c>
-      <c r="K3" s="88">
+      <c r="K3" s="85">
         <v>0.162493</v>
       </c>
-      <c r="L3" s="88">
+      <c r="L3" s="85">
         <v>4.9998000000000001E-2</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="85">
         <v>2.9618999999999999E-2</v>
       </c>
-      <c r="N3" s="88">
+      <c r="N3" s="85">
         <v>1.6726000000000001E-2</v>
       </c>
-      <c r="O3" s="88">
+      <c r="O3" s="85">
         <v>9.5239999999999995E-3</v>
       </c>
-      <c r="P3" s="88">
+      <c r="P3" s="85">
         <v>4.1780000000000003E-3</v>
       </c>
-      <c r="Q3" s="88">
+      <c r="Q3" s="85">
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
@@ -6041,52 +6095,52 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="85">
         <v>0.13282099999999999</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="85">
         <v>0.40507300000000002</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="85">
         <v>1.433889</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="85">
         <v>0.39880599999999999</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="85">
         <v>5.5355000000000001E-2</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="85">
         <v>3.4249000000000002E-2</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="85">
         <v>0.119908</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <v>0.375305</v>
       </c>
-      <c r="J4" s="88">
+      <c r="J4" s="85">
         <v>0.56235800000000002</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="85">
         <v>0.27133200000000002</v>
       </c>
-      <c r="L4" s="88">
+      <c r="L4" s="85">
         <v>7.5578999999999993E-2</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="85">
         <v>1.8716E-2</v>
       </c>
-      <c r="N4" s="88">
+      <c r="N4" s="85">
         <v>1.4074E-2</v>
       </c>
-      <c r="O4" s="88">
+      <c r="O4" s="85">
         <v>1.0442E-2</v>
       </c>
-      <c r="P4" s="88">
+      <c r="P4" s="85">
         <v>7.698E-3</v>
       </c>
-      <c r="Q4" s="88">
+      <c r="Q4" s="85">
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
@@ -6094,52 +6148,52 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="85">
         <v>6.1564000000000001E-2</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="85">
         <v>0.116366</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="85">
         <v>0.45097300000000001</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="85">
         <v>1.1951130000000001</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="85">
         <v>0.18948100000000001</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="85">
         <v>4.1827000000000003E-2</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="85">
         <v>2.5562999999999999E-2</v>
       </c>
-      <c r="I5" s="88">
+      <c r="I5" s="85">
         <v>0.15873200000000001</v>
       </c>
-      <c r="J5" s="88">
+      <c r="J5" s="85">
         <v>0.359678</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="85">
         <v>0.46463599999999999</v>
       </c>
-      <c r="L5" s="88">
+      <c r="L5" s="85">
         <v>0.211951</v>
       </c>
-      <c r="M5" s="88">
+      <c r="M5" s="85">
         <v>4.7126000000000001E-2</v>
       </c>
-      <c r="N5" s="88">
+      <c r="N5" s="85">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="O5" s="88">
+      <c r="O5" s="85">
         <v>1.1908E-2</v>
       </c>
-      <c r="P5" s="88">
+      <c r="P5" s="85">
         <v>4.9189999999999998E-3</v>
       </c>
-      <c r="Q5" s="88">
+      <c r="Q5" s="85">
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
@@ -6147,52 +6201,52 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="85">
         <v>0.14102200000000001</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="85">
         <v>6.4642000000000005E-2</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="85">
         <v>8.3546999999999996E-2</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="85">
         <v>0.40224300000000002</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="85">
         <v>1.1921930000000001</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="85">
         <v>0.248001</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="85">
         <v>4.6676000000000002E-2</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="85">
         <v>2.2216E-2</v>
       </c>
-      <c r="J6" s="88">
+      <c r="J6" s="85">
         <v>0.139739</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="85">
         <v>0.43590299999999998</v>
       </c>
-      <c r="L6" s="88">
+      <c r="L6" s="85">
         <v>0.28106300000000001</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="85">
         <v>0.103923</v>
       </c>
-      <c r="N6" s="88">
+      <c r="N6" s="85">
         <v>2.0109999999999999E-2</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="85">
         <v>4.0249999999999999E-3</v>
       </c>
-      <c r="P6" s="88">
+      <c r="P6" s="85">
         <v>5.359E-3</v>
       </c>
-      <c r="Q6" s="88">
+      <c r="Q6" s="85">
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
@@ -6200,52 +6254,52 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="85">
         <v>0.42515599999999998</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="85">
         <v>0.13725799999999999</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="85">
         <v>4.3091999999999998E-2</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="85">
         <v>8.3335999999999993E-2</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="85">
         <v>0.27788800000000002</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="85">
         <v>1.089831</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="85">
         <v>0.22731799999999999</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="85">
         <v>4.1119000000000003E-2</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="85">
         <v>2.086E-2</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="85">
         <v>7.6337000000000002E-2</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="85">
         <v>0.20813300000000001</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="85">
         <v>0.106445</v>
       </c>
-      <c r="N7" s="88">
+      <c r="N7" s="85">
         <v>4.3403999999999998E-2</v>
       </c>
-      <c r="O7" s="88">
+      <c r="O7" s="85">
         <v>1.0788000000000001E-2</v>
       </c>
-      <c r="P7" s="88">
+      <c r="P7" s="85">
         <v>1.526E-3</v>
       </c>
-      <c r="Q7" s="88">
+      <c r="Q7" s="85">
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
@@ -6253,52 +6307,52 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="85">
         <v>0.63256400000000002</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="85">
         <v>0.52978800000000004</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="85">
         <v>0.221806</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="85">
         <v>4.1730000000000003E-2</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="85">
         <v>6.4195000000000002E-2</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="85">
         <v>0.22583800000000001</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="85">
         <v>0.93633699999999997</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="85">
         <v>0.236536</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="85">
         <v>7.1504999999999999E-2</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="85">
         <v>2.2377000000000001E-2</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="85">
         <v>4.0784000000000001E-2</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="85">
         <v>6.2238000000000002E-2</v>
       </c>
-      <c r="N8" s="88">
+      <c r="N8" s="85">
         <v>5.9047000000000002E-2</v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="85">
         <v>1.0583E-2</v>
       </c>
-      <c r="P8" s="88">
+      <c r="P8" s="85">
         <v>5.4229999999999999E-3</v>
       </c>
-      <c r="Q8" s="88">
+      <c r="Q8" s="85">
         <v>3.594E-3</v>
       </c>
     </row>
@@ -6306,52 +6360,52 @@
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="85">
         <v>0.53381800000000001</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="85">
         <v>0.76395199999999996</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="85">
         <v>0.56459199999999998</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="85">
         <v>0.20846700000000001</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="85">
         <v>3.1192000000000001E-2</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="85">
         <v>4.0858999999999999E-2</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="85">
         <v>0.16445899999999999</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="85">
         <v>0.94722799999999996</v>
       </c>
-      <c r="J9" s="88">
+      <c r="J9" s="85">
         <v>0.174175</v>
       </c>
-      <c r="K9" s="88">
+      <c r="K9" s="85">
         <v>4.2037999999999999E-2</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="85">
         <v>2.5260000000000001E-2</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="85">
         <v>1.8571000000000001E-2</v>
       </c>
-      <c r="N9" s="88">
+      <c r="N9" s="85">
         <v>3.2816999999999999E-2</v>
       </c>
-      <c r="O9" s="88">
+      <c r="O9" s="85">
         <v>1.9281E-2</v>
       </c>
-      <c r="P9" s="88">
+      <c r="P9" s="85">
         <v>9.4479999999999998E-3</v>
       </c>
-      <c r="Q9" s="88">
+      <c r="Q9" s="85">
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
@@ -6359,52 +6413,52 @@
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="85">
         <v>0.24148500000000001</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="85">
         <v>0.53524700000000003</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="85">
         <v>0.726603</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="85">
         <v>0.44772899999999999</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="85">
         <v>0.109945</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="85">
         <v>3.4540000000000001E-2</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="85">
         <v>7.7090000000000006E-2</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="85">
         <v>0.18113699999999999</v>
       </c>
-      <c r="J10" s="88">
+      <c r="J10" s="85">
         <v>0.77208200000000005</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="85">
         <v>0.16217000000000001</v>
       </c>
-      <c r="L10" s="88">
+      <c r="L10" s="85">
         <v>3.7186999999999998E-2</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="85">
         <v>7.443E-3</v>
       </c>
-      <c r="N10" s="88">
+      <c r="N10" s="85">
         <v>2.1396999999999999E-2</v>
       </c>
-      <c r="O10" s="88">
+      <c r="O10" s="85">
         <v>2.512E-2</v>
       </c>
-      <c r="P10" s="88">
+      <c r="P10" s="85">
         <v>9.8720000000000006E-3</v>
       </c>
-      <c r="Q10" s="88">
+      <c r="Q10" s="85">
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
@@ -6412,52 +6466,52 @@
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="85">
         <v>0.122279</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="85">
         <v>0.276169</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="85">
         <v>0.46051500000000001</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="85">
         <v>0.61675800000000003</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="85">
         <v>0.32389400000000002</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="85">
         <v>7.7887999999999999E-2</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="85">
         <v>3.0709E-2</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="85">
         <v>8.0238000000000004E-2</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="85">
         <v>0.164073</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="85">
         <v>0.67377399999999998</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="85">
         <v>0.140821</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="85">
         <v>2.7285E-2</v>
       </c>
-      <c r="N11" s="88">
+      <c r="N11" s="85">
         <v>1.1768000000000001E-2</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="85">
         <v>9.0639999999999991E-3</v>
       </c>
-      <c r="P11" s="88">
+      <c r="P11" s="85">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="Q11" s="88">
+      <c r="Q11" s="85">
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
@@ -6465,52 +6519,52 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="85">
         <v>0.202735</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="85">
         <v>0.16897499999999999</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="85">
         <v>0.30529200000000001</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="85">
         <v>0.41128100000000001</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="85">
         <v>0.39054499999999998</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="85">
         <v>0.23483599999999999</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="85">
         <v>9.1048000000000004E-2</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="85">
         <v>4.861E-2</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="85">
         <v>7.9533999999999994E-2</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="85">
         <v>0.187475</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="85">
         <v>0.66868700000000003</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="85">
         <v>0.13591600000000001</v>
       </c>
-      <c r="N12" s="88">
+      <c r="N12" s="85">
         <v>2.6984999999999999E-2</v>
       </c>
-      <c r="O12" s="88">
+      <c r="O12" s="85">
         <v>8.7309999999999992E-3</v>
       </c>
-      <c r="P12" s="88">
+      <c r="P12" s="85">
         <v>9.3959999999999998E-3</v>
       </c>
-      <c r="Q12" s="88">
+      <c r="Q12" s="85">
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
@@ -6518,52 +6572,52 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B13" s="85">
         <v>0.32726300000000003</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="85">
         <v>0.32473099999999999</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="85">
         <v>0.21896099999999999</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="85">
         <v>0.30264000000000002</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="85">
         <v>0.28360600000000002</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="85">
         <v>0.32831300000000002</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="85">
         <v>0.25703799999999999</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="85">
         <v>8.4280999999999995E-2</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="85">
         <v>4.2615E-2</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="85">
         <v>0.12336</v>
       </c>
-      <c r="L13" s="88">
+      <c r="L13" s="85">
         <v>0.21965000000000001</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="85">
         <v>0.70332499999999998</v>
       </c>
-      <c r="N13" s="88">
+      <c r="N13" s="85">
         <v>0.14740900000000001</v>
       </c>
-      <c r="O13" s="88">
+      <c r="O13" s="85">
         <v>4.3435000000000001E-2</v>
       </c>
-      <c r="P13" s="88">
+      <c r="P13" s="85">
         <v>7.1599999999999997E-3</v>
       </c>
-      <c r="Q13" s="88">
+      <c r="Q13" s="85">
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
@@ -6571,52 +6625,52 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="85">
         <v>0.39001200000000003</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="85">
         <v>0.34861300000000001</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="85">
         <v>0.24646000000000001</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="85">
         <v>0.221558</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="85">
         <v>0.154866</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="85">
         <v>0.21662200000000001</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="85">
         <v>0.292574</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="85">
         <v>0.21071000000000001</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="85">
         <v>9.5468999999999998E-2</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="85">
         <v>5.0065999999999999E-2</v>
       </c>
-      <c r="L14" s="88">
+      <c r="L14" s="85">
         <v>9.9140000000000006E-2</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="85">
         <v>0.20558000000000001</v>
       </c>
-      <c r="N14" s="88">
+      <c r="N14" s="85">
         <v>0.67306100000000002</v>
       </c>
-      <c r="O14" s="88">
+      <c r="O14" s="85">
         <v>0.117825</v>
       </c>
-      <c r="P14" s="88">
+      <c r="P14" s="85">
         <v>2.2641000000000001E-2</v>
       </c>
-      <c r="Q14" s="88">
+      <c r="Q14" s="85">
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
@@ -6624,52 +6678,52 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="85">
         <v>0.27691300000000002</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="85">
         <v>0.40850700000000001</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="85">
         <v>0.36937399999999998</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="85">
         <v>0.194775</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="85">
         <v>0.13383900000000001</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="85">
         <v>0.15487699999999999</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="85">
         <v>0.26593499999999998</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="85">
         <v>0.315639</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="85">
         <v>0.26062400000000002</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="85">
         <v>8.1602999999999995E-2</v>
       </c>
-      <c r="L15" s="88">
+      <c r="L15" s="85">
         <v>7.9352000000000006E-2</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="85">
         <v>0.11375300000000001</v>
       </c>
-      <c r="N15" s="88">
+      <c r="N15" s="85">
         <v>0.165434</v>
       </c>
-      <c r="O15" s="88">
+      <c r="O15" s="85">
         <v>0.67988899999999997</v>
       </c>
-      <c r="P15" s="88">
+      <c r="P15" s="85">
         <v>0.102949</v>
       </c>
-      <c r="Q15" s="88">
+      <c r="Q15" s="85">
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
@@ -6677,52 +6731,52 @@
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B16" s="85">
         <v>0.124528</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="85">
         <v>0.37307600000000002</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="85">
         <v>0.33174900000000002</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="85">
         <v>0.26471499999999998</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="85">
         <v>5.3835000000000001E-2</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="85">
         <v>0.113358</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="85">
         <v>0.102258</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I16" s="85">
         <v>0.24501899999999999</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J16" s="85">
         <v>0.23438200000000001</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="85">
         <v>0.18404599999999999</v>
       </c>
-      <c r="L16" s="88">
+      <c r="L16" s="85">
         <v>0.10995099999999999</v>
       </c>
-      <c r="M16" s="88">
+      <c r="M16" s="85">
         <v>5.3179999999999998E-2</v>
       </c>
-      <c r="N16" s="88">
+      <c r="N16" s="85">
         <v>0.104953</v>
       </c>
-      <c r="O16" s="88">
+      <c r="O16" s="85">
         <v>0.15714600000000001</v>
       </c>
-      <c r="P16" s="88">
+      <c r="P16" s="85">
         <v>0.434751</v>
       </c>
-      <c r="Q16" s="88">
+      <c r="Q16" s="85">
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
@@ -6730,52 +6784,52 @@
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="88">
+      <c r="B17" s="85">
         <v>0.223936</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="85">
         <v>0.29398800000000003</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="85">
         <v>0.46812700000000002</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="85">
         <v>0.36628500000000003</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="85">
         <v>9.4772999999999996E-2</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="85">
         <v>8.3843000000000001E-2</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="85">
         <v>0.104393</v>
       </c>
-      <c r="I17" s="88">
+      <c r="I17" s="85">
         <v>0.23522100000000001</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="85">
         <v>0.28778300000000001</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K17" s="85">
         <v>0.26388600000000001</v>
       </c>
-      <c r="L17" s="88">
+      <c r="L17" s="85">
         <v>0.29662300000000003</v>
       </c>
-      <c r="M17" s="88">
+      <c r="M17" s="85">
         <v>0.126778</v>
       </c>
-      <c r="N17" s="88">
+      <c r="N17" s="85">
         <v>4.9124000000000001E-2</v>
       </c>
-      <c r="O17" s="88">
+      <c r="O17" s="85">
         <v>9.4159999999999994E-2</v>
       </c>
-      <c r="P17" s="88">
+      <c r="P17" s="85">
         <v>0.10020999999999999</v>
       </c>
-      <c r="Q17" s="88">
+      <c r="Q17" s="85">
         <v>0.304143</v>
       </c>
     </row>
@@ -8593,8 +8647,8 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8685,10 +8739,10 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8745,23 +8799,23 @@
       <c r="B2" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="85">
-        <v>1</v>
-      </c>
-      <c r="D2" s="85">
+      <c r="C2" s="82">
+        <v>1</v>
+      </c>
+      <c r="D2" s="82">
         <v>4</v>
       </c>
-      <c r="E2" s="85">
-        <v>1</v>
-      </c>
-      <c r="F2" s="85">
-        <v>0</v>
-      </c>
-      <c r="G2" s="85">
+      <c r="E2" s="82">
+        <v>1</v>
+      </c>
+      <c r="F2" s="82">
+        <v>0</v>
+      </c>
+      <c r="G2" s="82">
         <v>110</v>
       </c>
-      <c r="H2" s="85" t="s">
-        <v>261</v>
+      <c r="H2" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="I2" s="28">
         <v>1</v>
@@ -8780,23 +8834,23 @@
       <c r="B3" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="85">
-        <v>1</v>
-      </c>
-      <c r="D3" s="85">
+      <c r="C3" s="82">
+        <v>1</v>
+      </c>
+      <c r="D3" s="82">
         <v>21</v>
       </c>
       <c r="E3" s="28">
         <v>0.1</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="82">
         <v>5</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="82">
         <v>18</v>
       </c>
-      <c r="H3" s="85" t="s">
-        <v>261</v>
+      <c r="H3" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="I3" s="28">
         <v>0</v>
@@ -8815,23 +8869,23 @@
       <c r="B4" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="85">
-        <v>1</v>
-      </c>
-      <c r="D4" s="86">
+      <c r="C4" s="82">
+        <v>1</v>
+      </c>
+      <c r="D4" s="83">
         <v>5</v>
       </c>
       <c r="E4" s="28">
         <v>0.5</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="82">
         <v>18</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="82">
         <v>65</v>
       </c>
-      <c r="H4" s="85" t="s">
-        <v>261</v>
+      <c r="H4" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="I4" s="28">
         <v>0</v>
@@ -8850,10 +8904,10 @@
       <c r="B5" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="87">
-        <v>1</v>
-      </c>
-      <c r="D5" s="87">
+      <c r="C5" s="84">
+        <v>1</v>
+      </c>
+      <c r="D5" s="84">
         <f>MAX(1,5-SUMPRODUCT((C7:C15)*(D7:D15)*(E7:E15))/E5)</f>
         <v>1</v>
       </c>
@@ -8866,7 +8920,7 @@
       <c r="G5" s="28">
         <v>110</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="28">
@@ -8886,10 +8940,10 @@
       <c r="B6" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="84">
         <v>0.11</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="84">
         <v>10</v>
       </c>
       <c r="E6" s="28">
@@ -8901,8 +8955,8 @@
       <c r="G6" s="28">
         <v>110</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>261</v>
+      <c r="H6" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
@@ -8921,10 +8975,10 @@
       <c r="B7" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="84">
         <v>0.01</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="84">
         <v>10</v>
       </c>
       <c r="E7" s="28">
@@ -8936,7 +8990,7 @@
       <c r="G7" s="28">
         <v>40</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="82" t="s">
         <v>182</v>
       </c>
       <c r="I7" s="28">
@@ -8956,10 +9010,10 @@
       <c r="B8" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="84">
         <v>0.34</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="84">
         <v>5</v>
       </c>
       <c r="E8" s="47">
@@ -8972,8 +9026,8 @@
       <c r="G8" s="28">
         <v>30</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>261</v>
+      <c r="H8" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="I8" s="28">
         <v>0</v>
@@ -8992,10 +9046,10 @@
       <c r="B9" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="84">
         <v>0.1</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="84">
         <v>5</v>
       </c>
       <c r="E9" s="47">
@@ -9008,7 +9062,7 @@
       <c r="G9" s="28">
         <v>110</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I9" s="28">
@@ -9028,10 +9082,10 @@
       <c r="B10" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="84">
         <v>0.1</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="84">
         <v>20</v>
       </c>
       <c r="E10" s="47">
@@ -9044,7 +9098,7 @@
       <c r="G10" s="28">
         <v>110</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I10" s="28">
@@ -9059,15 +9113,15 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="87">
+        <v>270</v>
+      </c>
+      <c r="C11" s="84">
         <v>0.25</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="84">
         <v>20</v>
       </c>
       <c r="E11" s="47">
@@ -9080,7 +9134,7 @@
       <c r="G11" s="28">
         <v>110</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I11" s="28">
@@ -9095,10 +9149,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>273</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>274</v>
       </c>
       <c r="C12" s="28">
         <v>0.25</v>
@@ -9116,7 +9170,7 @@
       <c r="G12" s="28">
         <v>110</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I12" s="28">
@@ -9134,7 +9188,7 @@
         <v>208</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="28">
         <v>0.114</v>
@@ -9151,7 +9205,7 @@
       <c r="G13" s="28">
         <v>110</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I13" s="28">
@@ -9187,7 +9241,7 @@
       <c r="G14" s="28">
         <v>110</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I14" s="28">
@@ -9222,7 +9276,7 @@
       <c r="G15" s="28">
         <v>110</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I15" s="28">
@@ -9237,10 +9291,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="28">
         <v>0.1</v>
@@ -9258,7 +9312,7 @@
       <c r="G16" s="28">
         <v>110</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I16" s="28">
@@ -9273,10 +9327,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="C17" s="28">
         <v>0.54500000000000004</v>
@@ -9294,8 +9348,8 @@
       <c r="G17" s="28">
         <v>6</v>
       </c>
-      <c r="H17" s="85" t="s">
-        <v>261</v>
+      <c r="H17" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
@@ -9309,16 +9363,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="28">
         <v>1</v>
       </c>
       <c r="D18" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="47">
         <f>E$2/7</f>
@@ -9330,7 +9384,7 @@
       <c r="G18" s="28">
         <v>110</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="82" t="s">
         <v>183</v>
       </c>
       <c r="I18" s="28">
@@ -9345,10 +9399,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="28">
         <v>0.8</v>
@@ -9365,8 +9419,8 @@
       <c r="G19" s="28">
         <v>110</v>
       </c>
-      <c r="H19" s="85" t="s">
-        <v>261</v>
+      <c r="H19" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="I19" s="28">
         <v>1</v>
@@ -9392,8 +9446,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:U1"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -9414,31 +9468,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="D1" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="79"/>
+      <c r="D1" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="87"/>
       <c r="V1" s="63"/>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="79"/>
+      <c r="X1" s="87"/>
     </row>
     <row r="2" spans="1:29" s="52" customFormat="1">
       <c r="A2" s="48" t="s">
@@ -9532,10 +9586,10 @@
         <v>236</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z2" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA2" s="49"/>
       <c r="AB2" s="48"/>
@@ -9549,7 +9603,7 @@
         <v>214</v>
       </c>
       <c r="C3" s="55">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3" s="56">
         <v>1</v>
@@ -10083,10 +10137,10 @@
     </row>
     <row r="10" spans="1:29" s="43" customFormat="1">
       <c r="A10" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="56">
         <v>1</v>
@@ -10160,10 +10214,10 @@
     </row>
     <row r="11" spans="1:29" s="43" customFormat="1">
       <c r="A11" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="56">
         <v>1</v>
@@ -10240,10 +10294,10 @@
     </row>
     <row r="12" spans="1:29" s="43" customFormat="1">
       <c r="A12" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>277</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>278</v>
       </c>
       <c r="C12" s="56">
         <v>1</v>
@@ -10317,10 +10371,10 @@
     </row>
     <row r="13" spans="1:29" s="43" customFormat="1">
       <c r="A13" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>280</v>
       </c>
       <c r="C13" s="56">
         <v>1</v>
@@ -10783,10 +10837,10 @@
     </row>
     <row r="19" spans="1:29" s="43" customFormat="1">
       <c r="A19" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="56">
         <v>1</v>
@@ -10861,7 +10915,7 @@
         <v>226</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="56">
         <v>1</v>
@@ -11097,10 +11151,10 @@
     </row>
     <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="56">
         <v>1</v>
@@ -11258,7 +11312,7 @@
         <v>239</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="56">
         <v>1</v>
@@ -11413,10 +11467,10 @@
     </row>
     <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A27" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" s="56">
         <v>1</v>
@@ -11490,10 +11544,10 @@
     </row>
     <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A28" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C28" s="55">
         <v>1</v>
@@ -11565,10 +11619,10 @@
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A29" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C29" s="56">
         <v>1</v>
@@ -12188,10 +12242,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12306,7 +12360,7 @@
         <v>200</v>
       </c>
       <c r="B11">
-        <v>1.5E-3</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -12314,54 +12368,65 @@
         <v>203</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17">
         <v>1000</v>
       </c>
-      <c r="C16" t="s">
-        <v>302</v>
+      <c r="C17" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -12381,20 +12446,20 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
         <v>286</v>
       </c>
-      <c r="C1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>13</v>
       </c>
       <c r="B2">
@@ -12403,13 +12468,13 @@
       <c r="C2">
         <v>82289</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="79">
         <f>B2/C2</f>
         <v>0.22103804882791139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="78" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -12418,13 +12483,13 @@
       <c r="C3">
         <v>395365</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="79">
         <f t="shared" ref="D3:D7" si="0">B3/C3</f>
         <v>0.56577086995561066</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="78" t="s">
         <v>15</v>
       </c>
       <c r="B4">
@@ -12433,13 +12498,13 @@
       <c r="C4">
         <v>363542</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <f t="shared" si="0"/>
         <v>0.67502241831755339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="78" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -12448,13 +12513,13 @@
       <c r="C5">
         <v>374094</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="79">
         <f t="shared" si="0"/>
         <v>0.32347484856747233</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B6">
@@ -12463,13 +12528,13 @@
       <c r="C6">
         <v>466003</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="79">
         <f t="shared" si="0"/>
         <v>0.15124580743042426</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B7">
@@ -12478,16 +12543,16 @@
       <c r="C7">
         <v>500215</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="79">
         <f t="shared" si="0"/>
         <v>0.10410123646831862</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="83" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="84">
+      <c r="C8" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="81">
         <f>SUM(B2:B7)/SUM(C2:C7)</f>
         <v>0.33501504463884618</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8BF32-2E26-41BA-AB7B-D09FD7D5FCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A229D-5B50-40A0-816A-39E74777A45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -4195,9 +4195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -8742,7 +8742,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9446,8 +9446,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -11550,7 +11550,7 @@
         <v>301</v>
       </c>
       <c r="C28" s="55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="56">
         <v>1</v>
@@ -12245,7 +12245,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12311,7 +12311,8 @@
         <v>186</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <f>6200000/B5</f>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
         <v>191</v>
@@ -12330,7 +12331,7 @@
         <v>188</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="s">
         <v>192</v>
@@ -12390,7 +12391,7 @@
         <v>293</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>297</v>
@@ -12401,7 +12402,7 @@
         <v>294</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="C15" t="s">
         <v>298</v>
@@ -12423,7 +12424,7 @@
         <v>296</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C17" t="s">
         <v>300</v>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A229D-5B50-40A0-816A-39E74777A45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079071E-35D4-414E-8277-173789D974A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{B70396E9-CC65-4F5C-85BC-588FCC1683AF}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{2938AA4C-4DCB-4879-9D52-48962C2F8C5D}">
       <text>
         <r>
           <rPr>
@@ -449,31 +449,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assume imperfect - people in quarantine still go out a bit</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{4D9BB851-5C3D-4298-9ACB-59D87F2FE0A1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
+14 = assume not possible (without app)</t>
         </r>
       </text>
     </comment>
@@ -574,30 +550,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{7818793A-9598-42AF-A4CD-2C86F78B914D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E10" authorId="0" shapeId="0" xr:uid="{3165AF40-A273-447D-9A2E-AB9B1172C73B}">
       <text>
         <r>
@@ -619,30 +571,6 @@
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{F5056F56-5A9F-4B10-8FE8-D9030A3614BD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
         </r>
       </text>
     </comment>
@@ -670,30 +598,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{93772DD4-6D6B-41A6-B3A6-F5A2098C2C8B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E12" authorId="0" shapeId="0" xr:uid="{0FB2AC50-197C-43F2-B71A-9B50828C7AFE}">
       <text>
         <r>
@@ -715,30 +619,6 @@
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 7 as likely only once per week</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{B27B8D3D-006F-4C75-BD45-40A066F52766}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
         </r>
       </text>
     </comment>
@@ -764,30 +644,6 @@
           <t xml:space="preserve">
 2016 census. 11.5% of people travelled to work by public transport
 https://www.abs.gov.au/AUSSTATS/abs@.nsf/mediareleasesbyReleaseDate/7DD5DC715B608612CA2581BF001F8404?OpenDocument</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{410A1D9C-30A3-4CE9-8C84-62FC570432B1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
         </r>
       </text>
     </comment>
@@ -844,30 +700,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{83637922-1505-431A-8C98-9A374E63764E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B15" authorId="0" shapeId="0" xr:uid="{2A4B0066-29E3-40CB-A1E4-27AD21709C47}">
       <text>
         <r>
@@ -892,54 +724,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{B1849F6B-0306-433E-98FA-FF52F414E219}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume imperfect - people in quarantine still go out a bit</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{CF1F0D09-080C-4525-BB4B-CE3BFE83793F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E16" authorId="0" shapeId="0" xr:uid="{C0857E38-81A8-4D60-A429-5B66E72D27E5}">
       <text>
         <r>
@@ -961,30 +745,6 @@
           </rPr>
           <t xml:space="preserve">
 Assumed same as community transmission but divided by 90 assuming 4 times per year</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{ADC0EF27-C965-4277-B0F7-3F770FEAE298}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume only 1% chance of tracing community contact</t>
         </r>
       </text>
     </comment>
@@ -1037,30 +797,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{17B6C9A2-290B-4E5C-AB16-BDA186C6EE76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Assume imperfect - people in quarantine still go out a bit</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1069,6 +805,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
+    <author>tc={81B57D00-6E35-4E21-A267-5494FC19ABC7}</author>
+    <author>tc={34762953-4FFA-49EB-B2E6-E21B3FC50EC7}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DBC75FE4-35A6-460A-9904-321F2B604C0D}">
@@ -1240,99 +978,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{F8DCCDC1-7AFA-44E8-98BE-190C2DB098AF}">
+    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{69E7ED8A-402F-4238-ACC4-340D35E2ED85}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Reduce beach contacts from current number to 2?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{1570F270-F09B-4033-AFC6-75F3A894A7AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Reduce beacn contacts from current number to 10?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{6223E0E3-908B-47BE-B9FF-77BB2D964278}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-More time at home?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{DE2F0B53-B1AD-4E9C-AD8D-83E8C51419E5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Half of entertainment closed?</t>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    effect overlaps with community transmission</t>
         </r>
       </text>
     </comment>
@@ -1384,7 +1043,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{98FD616D-BB7F-4E7D-88CA-B1DBC5F89873}">
+    <comment ref="F24" authorId="2" shapeId="0" xr:uid="{3F673B69-86E7-4115-82B4-E8D7FD9F00FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Depends if worker is essential or non-essential</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{7D0F4839-BF80-4D00-BD3A-9960493BC764}">
       <text>
         <r>
           <rPr>
@@ -2421,7 +2097,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3150,7 +2826,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3214,16 +2890,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3342,6 +3009,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="31" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3392,7 +3062,553 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="148">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4200,7 +4416,7 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="21"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
@@ -4217,7 +4433,7 @@
     <col min="13" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>43891</v>
       </c>
@@ -4278,7 +4494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>43892</v>
       </c>
@@ -4301,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>43893</v>
       </c>
@@ -4324,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>43894</v>
       </c>
@@ -4347,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>43895</v>
       </c>
@@ -4370,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>43896</v>
       </c>
@@ -4393,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>43897</v>
       </c>
@@ -4416,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>43898</v>
       </c>
@@ -4439,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>43899</v>
       </c>
@@ -4462,7 +4678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>43900</v>
       </c>
@@ -4485,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>43901</v>
       </c>
@@ -4508,7 +4724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>43902</v>
       </c>
@@ -4531,7 +4747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>43903</v>
       </c>
@@ -4547,14 +4763,14 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="73">
         <v>500</v>
       </c>
       <c r="L14" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>43904</v>
       </c>
@@ -4570,14 +4786,14 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="73">
         <v>500</v>
       </c>
       <c r="L15" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>43905</v>
       </c>
@@ -4593,14 +4809,14 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="73">
         <v>500</v>
       </c>
       <c r="L16" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>43906</v>
       </c>
@@ -4622,14 +4838,14 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="76">
+      <c r="K17" s="73">
         <v>500</v>
       </c>
       <c r="L17" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>43907</v>
       </c>
@@ -4651,14 +4867,14 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="76">
+      <c r="K18" s="73">
         <v>1000</v>
       </c>
       <c r="L18" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>43908</v>
       </c>
@@ -4687,7 +4903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>43909</v>
       </c>
@@ -4716,7 +4932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>43910</v>
       </c>
@@ -4745,7 +4961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>43911</v>
       </c>
@@ -4774,7 +4990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>43912</v>
       </c>
@@ -4803,7 +5019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>43913</v>
       </c>
@@ -4838,7 +5054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>43914</v>
       </c>
@@ -4870,7 +5086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>43915</v>
       </c>
@@ -4902,7 +5118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>43916</v>
       </c>
@@ -4934,7 +5150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>43917</v>
       </c>
@@ -4966,7 +5182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>43918</v>
       </c>
@@ -4998,7 +5214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>43919</v>
       </c>
@@ -5036,7 +5252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>43920</v>
       </c>
@@ -5071,7 +5287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>43921</v>
       </c>
@@ -5109,7 +5325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>43922</v>
       </c>
@@ -5147,7 +5363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>43923</v>
       </c>
@@ -5185,7 +5401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>43924</v>
       </c>
@@ -5223,7 +5439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>43925</v>
       </c>
@@ -5261,7 +5477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>43926</v>
       </c>
@@ -5299,7 +5515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>43927</v>
       </c>
@@ -5337,7 +5553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>43928</v>
       </c>
@@ -5375,7 +5591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>43929</v>
       </c>
@@ -5413,7 +5629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>43930</v>
       </c>
@@ -5451,7 +5667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>43931</v>
       </c>
@@ -5489,7 +5705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>43932</v>
       </c>
@@ -5527,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>43933</v>
       </c>
@@ -5565,7 +5781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>43934</v>
       </c>
@@ -5603,7 +5819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>43935</v>
       </c>
@@ -5641,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>43936</v>
       </c>
@@ -5679,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>43937</v>
       </c>
@@ -5717,7 +5933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>43938</v>
       </c>
@@ -5755,7 +5971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>43939</v>
       </c>
@@ -5793,7 +6009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>43940</v>
       </c>
@@ -5831,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>43941</v>
       </c>
@@ -5869,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>43942</v>
       </c>
@@ -5920,13 +6136,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="17" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5982,854 +6198,854 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="85">
+      <c r="B2" s="82">
         <v>0.65986800000000001</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="82">
         <v>0.503965</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="82">
         <v>0.21477299999999999</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="82">
         <v>9.4509999999999997E-2</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="82">
         <v>0.15807499999999999</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="82">
         <v>0.33119399999999999</v>
       </c>
-      <c r="H2" s="85">
+      <c r="H2" s="82">
         <v>0.61729000000000001</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="82">
         <v>0.62299000000000004</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="82">
         <v>0.22986699999999999</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="82">
         <v>7.7709E-2</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="82">
         <v>7.2123999999999994E-2</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="82">
         <v>3.5873000000000002E-2</v>
       </c>
-      <c r="N2" s="85">
+      <c r="N2" s="82">
         <v>2.9784999999999999E-2</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="82">
         <v>9.92E-3</v>
       </c>
-      <c r="P2" s="85">
+      <c r="P2" s="82">
         <v>4.2420000000000001E-3</v>
       </c>
-      <c r="Q2" s="85">
+      <c r="Q2" s="82">
         <v>6.1619999999999999E-3</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="82">
         <v>0.31477699999999997</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="82">
         <v>0.89546000000000003</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="82">
         <v>0.412466</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="82">
         <v>0.12892600000000001</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="82">
         <v>3.9333E-2</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="82">
         <v>0.149588</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="82">
         <v>0.431338</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="82">
         <v>0.62494499999999997</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="82">
         <v>0.47687299999999999</v>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="82">
         <v>0.162493</v>
       </c>
-      <c r="L3" s="85">
+      <c r="L3" s="82">
         <v>4.9998000000000001E-2</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="82">
         <v>2.9618999999999999E-2</v>
       </c>
-      <c r="N3" s="85">
+      <c r="N3" s="82">
         <v>1.6726000000000001E-2</v>
       </c>
-      <c r="O3" s="85">
+      <c r="O3" s="82">
         <v>9.5239999999999995E-3</v>
       </c>
-      <c r="P3" s="85">
+      <c r="P3" s="82">
         <v>4.1780000000000003E-3</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="Q3" s="82">
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="82">
         <v>0.13282099999999999</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="82">
         <v>0.40507300000000002</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="82">
         <v>1.433889</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="82">
         <v>0.39880599999999999</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="82">
         <v>5.5355000000000001E-2</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="82">
         <v>3.4249000000000002E-2</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="82">
         <v>0.119908</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="82">
         <v>0.375305</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="82">
         <v>0.56235800000000002</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="82">
         <v>0.27133200000000002</v>
       </c>
-      <c r="L4" s="85">
+      <c r="L4" s="82">
         <v>7.5578999999999993E-2</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="82">
         <v>1.8716E-2</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="82">
         <v>1.4074E-2</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="82">
         <v>1.0442E-2</v>
       </c>
-      <c r="P4" s="85">
+      <c r="P4" s="82">
         <v>7.698E-3</v>
       </c>
-      <c r="Q4" s="85">
+      <c r="Q4" s="82">
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="82">
         <v>6.1564000000000001E-2</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="82">
         <v>0.116366</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="82">
         <v>0.45097300000000001</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="82">
         <v>1.1951130000000001</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="82">
         <v>0.18948100000000001</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="82">
         <v>4.1827000000000003E-2</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="82">
         <v>2.5562999999999999E-2</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="82">
         <v>0.15873200000000001</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="82">
         <v>0.359678</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="82">
         <v>0.46463599999999999</v>
       </c>
-      <c r="L5" s="85">
+      <c r="L5" s="82">
         <v>0.211951</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="82">
         <v>4.7126000000000001E-2</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="82">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="O5" s="85">
+      <c r="O5" s="82">
         <v>1.1908E-2</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="82">
         <v>4.9189999999999998E-3</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="82">
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="82">
         <v>0.14102200000000001</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="82">
         <v>6.4642000000000005E-2</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="82">
         <v>8.3546999999999996E-2</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="82">
         <v>0.40224300000000002</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="82">
         <v>1.1921930000000001</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="82">
         <v>0.248001</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="82">
         <v>4.6676000000000002E-2</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="82">
         <v>2.2216E-2</v>
       </c>
-      <c r="J6" s="85">
+      <c r="J6" s="82">
         <v>0.139739</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="82">
         <v>0.43590299999999998</v>
       </c>
-      <c r="L6" s="85">
+      <c r="L6" s="82">
         <v>0.28106300000000001</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="82">
         <v>0.103923</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="82">
         <v>2.0109999999999999E-2</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="82">
         <v>4.0249999999999999E-3</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="82">
         <v>5.359E-3</v>
       </c>
-      <c r="Q6" s="85">
+      <c r="Q6" s="82">
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="82">
         <v>0.42515599999999998</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="82">
         <v>0.13725799999999999</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="82">
         <v>4.3091999999999998E-2</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="82">
         <v>8.3335999999999993E-2</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="82">
         <v>0.27788800000000002</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="82">
         <v>1.089831</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="82">
         <v>0.22731799999999999</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="82">
         <v>4.1119000000000003E-2</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="82">
         <v>2.086E-2</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="82">
         <v>7.6337000000000002E-2</v>
       </c>
-      <c r="L7" s="85">
+      <c r="L7" s="82">
         <v>0.20813300000000001</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="82">
         <v>0.106445</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="82">
         <v>4.3403999999999998E-2</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="82">
         <v>1.0788000000000001E-2</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="82">
         <v>1.526E-3</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="82">
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="82">
         <v>0.63256400000000002</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="82">
         <v>0.52978800000000004</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>0.221806</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="82">
         <v>4.1730000000000003E-2</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="82">
         <v>6.4195000000000002E-2</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="82">
         <v>0.22583800000000001</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="82">
         <v>0.93633699999999997</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="82">
         <v>0.236536</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="82">
         <v>7.1504999999999999E-2</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="82">
         <v>2.2377000000000001E-2</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="82">
         <v>4.0784000000000001E-2</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="82">
         <v>6.2238000000000002E-2</v>
       </c>
-      <c r="N8" s="85">
+      <c r="N8" s="82">
         <v>5.9047000000000002E-2</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="82">
         <v>1.0583E-2</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="82">
         <v>5.4229999999999999E-3</v>
       </c>
-      <c r="Q8" s="85">
+      <c r="Q8" s="82">
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="82">
         <v>0.53381800000000001</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="82">
         <v>0.76395199999999996</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <v>0.56459199999999998</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="82">
         <v>0.20846700000000001</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="82">
         <v>3.1192000000000001E-2</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="82">
         <v>4.0858999999999999E-2</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="82">
         <v>0.16445899999999999</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="82">
         <v>0.94722799999999996</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="82">
         <v>0.174175</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="82">
         <v>4.2037999999999999E-2</v>
       </c>
-      <c r="L9" s="85">
+      <c r="L9" s="82">
         <v>2.5260000000000001E-2</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="82">
         <v>1.8571000000000001E-2</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="82">
         <v>3.2816999999999999E-2</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O9" s="82">
         <v>1.9281E-2</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="82">
         <v>9.4479999999999998E-3</v>
       </c>
-      <c r="Q9" s="85">
+      <c r="Q9" s="82">
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="82">
         <v>0.24148500000000001</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="82">
         <v>0.53524700000000003</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>0.726603</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="82">
         <v>0.44772899999999999</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="82">
         <v>0.109945</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="82">
         <v>3.4540000000000001E-2</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="82">
         <v>7.7090000000000006E-2</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="82">
         <v>0.18113699999999999</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="82">
         <v>0.77208200000000005</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="82">
         <v>0.16217000000000001</v>
       </c>
-      <c r="L10" s="85">
+      <c r="L10" s="82">
         <v>3.7186999999999998E-2</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="82">
         <v>7.443E-3</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="82">
         <v>2.1396999999999999E-2</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="82">
         <v>2.512E-2</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="82">
         <v>9.8720000000000006E-3</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="Q10" s="82">
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="82">
         <v>0.122279</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="82">
         <v>0.276169</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>0.46051500000000001</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="82">
         <v>0.61675800000000003</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="82">
         <v>0.32389400000000002</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="82">
         <v>7.7887999999999999E-2</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="82">
         <v>3.0709E-2</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="82">
         <v>8.0238000000000004E-2</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="82">
         <v>0.164073</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="82">
         <v>0.67377399999999998</v>
       </c>
-      <c r="L11" s="85">
+      <c r="L11" s="82">
         <v>0.140821</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="82">
         <v>2.7285E-2</v>
       </c>
-      <c r="N11" s="85">
+      <c r="N11" s="82">
         <v>1.1768000000000001E-2</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="82">
         <v>9.0639999999999991E-3</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="82">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="Q11" s="85">
+      <c r="Q11" s="82">
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="82">
         <v>0.202735</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="82">
         <v>0.16897499999999999</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>0.30529200000000001</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="82">
         <v>0.41128100000000001</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="82">
         <v>0.39054499999999998</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="82">
         <v>0.23483599999999999</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="82">
         <v>9.1048000000000004E-2</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="82">
         <v>4.861E-2</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="82">
         <v>7.9533999999999994E-2</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="82">
         <v>0.187475</v>
       </c>
-      <c r="L12" s="85">
+      <c r="L12" s="82">
         <v>0.66868700000000003</v>
       </c>
-      <c r="M12" s="85">
+      <c r="M12" s="82">
         <v>0.13591600000000001</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="82">
         <v>2.6984999999999999E-2</v>
       </c>
-      <c r="O12" s="85">
+      <c r="O12" s="82">
         <v>8.7309999999999992E-3</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="82">
         <v>9.3959999999999998E-3</v>
       </c>
-      <c r="Q12" s="85">
+      <c r="Q12" s="82">
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="82">
         <v>0.32726300000000003</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="82">
         <v>0.32473099999999999</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>0.21896099999999999</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="82">
         <v>0.30264000000000002</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="82">
         <v>0.28360600000000002</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="82">
         <v>0.32831300000000002</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="82">
         <v>0.25703799999999999</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="82">
         <v>8.4280999999999995E-2</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="82">
         <v>4.2615E-2</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="82">
         <v>0.12336</v>
       </c>
-      <c r="L13" s="85">
+      <c r="L13" s="82">
         <v>0.21965000000000001</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="82">
         <v>0.70332499999999998</v>
       </c>
-      <c r="N13" s="85">
+      <c r="N13" s="82">
         <v>0.14740900000000001</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O13" s="82">
         <v>4.3435000000000001E-2</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="82">
         <v>7.1599999999999997E-3</v>
       </c>
-      <c r="Q13" s="85">
+      <c r="Q13" s="82">
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="82">
         <v>0.39001200000000003</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="82">
         <v>0.34861300000000001</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>0.24646000000000001</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="82">
         <v>0.221558</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="82">
         <v>0.154866</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="82">
         <v>0.21662200000000001</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="82">
         <v>0.292574</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="82">
         <v>0.21071000000000001</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="82">
         <v>9.5468999999999998E-2</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="82">
         <v>5.0065999999999999E-2</v>
       </c>
-      <c r="L14" s="85">
+      <c r="L14" s="82">
         <v>9.9140000000000006E-2</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="82">
         <v>0.20558000000000001</v>
       </c>
-      <c r="N14" s="85">
+      <c r="N14" s="82">
         <v>0.67306100000000002</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="82">
         <v>0.117825</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="82">
         <v>2.2641000000000001E-2</v>
       </c>
-      <c r="Q14" s="85">
+      <c r="Q14" s="82">
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="82">
         <v>0.27691300000000002</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="82">
         <v>0.40850700000000001</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>0.36937399999999998</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="82">
         <v>0.194775</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="82">
         <v>0.13383900000000001</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="82">
         <v>0.15487699999999999</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="82">
         <v>0.26593499999999998</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="82">
         <v>0.315639</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="82">
         <v>0.26062400000000002</v>
       </c>
-      <c r="K15" s="85">
+      <c r="K15" s="82">
         <v>8.1602999999999995E-2</v>
       </c>
-      <c r="L15" s="85">
+      <c r="L15" s="82">
         <v>7.9352000000000006E-2</v>
       </c>
-      <c r="M15" s="85">
+      <c r="M15" s="82">
         <v>0.11375300000000001</v>
       </c>
-      <c r="N15" s="85">
+      <c r="N15" s="82">
         <v>0.165434</v>
       </c>
-      <c r="O15" s="85">
+      <c r="O15" s="82">
         <v>0.67988899999999997</v>
       </c>
-      <c r="P15" s="85">
+      <c r="P15" s="82">
         <v>0.102949</v>
       </c>
-      <c r="Q15" s="85">
+      <c r="Q15" s="82">
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B16" s="82">
         <v>0.124528</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="82">
         <v>0.37307600000000002</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>0.33174900000000002</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="82">
         <v>0.26471499999999998</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="82">
         <v>5.3835000000000001E-2</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="82">
         <v>0.113358</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="82">
         <v>0.102258</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="82">
         <v>0.24501899999999999</v>
       </c>
-      <c r="J16" s="85">
+      <c r="J16" s="82">
         <v>0.23438200000000001</v>
       </c>
-      <c r="K16" s="85">
+      <c r="K16" s="82">
         <v>0.18404599999999999</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="82">
         <v>0.10995099999999999</v>
       </c>
-      <c r="M16" s="85">
+      <c r="M16" s="82">
         <v>5.3179999999999998E-2</v>
       </c>
-      <c r="N16" s="85">
+      <c r="N16" s="82">
         <v>0.104953</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O16" s="82">
         <v>0.15714600000000001</v>
       </c>
-      <c r="P16" s="85">
+      <c r="P16" s="82">
         <v>0.434751</v>
       </c>
-      <c r="Q16" s="85">
+      <c r="Q16" s="82">
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="85">
+      <c r="B17" s="82">
         <v>0.223936</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="82">
         <v>0.29398800000000003</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>0.46812700000000002</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="82">
         <v>0.36628500000000003</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="82">
         <v>9.4772999999999996E-2</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="82">
         <v>8.3843000000000001E-2</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="82">
         <v>0.104393</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="82">
         <v>0.23522100000000001</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="82">
         <v>0.28778300000000001</v>
       </c>
-      <c r="K17" s="85">
+      <c r="K17" s="82">
         <v>0.26388600000000001</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="82">
         <v>0.29662300000000003</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="82">
         <v>0.126778</v>
       </c>
-      <c r="N17" s="85">
+      <c r="N17" s="82">
         <v>4.9124000000000001E-2</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O17" s="82">
         <v>9.4159999999999994E-2</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="82">
         <v>0.10020999999999999</v>
       </c>
-      <c r="Q17" s="85">
+      <c r="Q17" s="82">
         <v>0.304143</v>
       </c>
     </row>
@@ -6868,13 +7084,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.8984375" style="7" customWidth="1"/>
     <col min="2" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
@@ -6891,7 +7107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -6909,7 +7125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -6927,7 +7143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -6942,7 +7158,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -6957,7 +7173,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -6972,7 +7188,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -6987,7 +7203,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -7002,7 +7218,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -7017,7 +7233,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -7032,7 +7248,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -7047,7 +7263,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -7062,7 +7278,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -7077,7 +7293,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -7092,7 +7308,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -7107,7 +7323,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -7122,7 +7338,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -7137,7 +7353,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -7152,7 +7368,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -7167,7 +7383,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -7182,7 +7398,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -7197,7 +7413,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -7212,7 +7428,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -7227,7 +7443,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -7242,7 +7458,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -7257,7 +7473,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -7272,7 +7488,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
@@ -7287,7 +7503,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -7302,7 +7518,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -7317,7 +7533,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
@@ -7332,7 +7548,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
@@ -7347,7 +7563,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -7362,7 +7578,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7377,7 +7593,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7392,7 +7608,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
@@ -7407,7 +7623,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
@@ -7422,7 +7638,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -7437,7 +7653,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -7452,7 +7668,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
@@ -7467,7 +7683,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
@@ -7482,7 +7698,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -7497,7 +7713,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>76</v>
       </c>
@@ -7512,7 +7728,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>77</v>
       </c>
@@ -7527,7 +7743,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -7542,7 +7758,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>79</v>
       </c>
@@ -7557,7 +7773,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
@@ -7572,7 +7788,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>81</v>
       </c>
@@ -7587,7 +7803,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>82</v>
       </c>
@@ -7602,7 +7818,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>83</v>
       </c>
@@ -7617,7 +7833,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
@@ -7632,7 +7848,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -7647,7 +7863,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -7662,7 +7878,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
@@ -7677,7 +7893,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>88</v>
       </c>
@@ -7692,7 +7908,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>89</v>
       </c>
@@ -7707,7 +7923,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
@@ -7722,7 +7938,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>91</v>
       </c>
@@ -7737,7 +7953,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>92</v>
       </c>
@@ -7752,7 +7968,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
@@ -7767,7 +7983,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -7782,7 +7998,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
@@ -7797,7 +8013,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
@@ -7812,7 +8028,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>97</v>
       </c>
@@ -7827,7 +8043,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
@@ -7842,7 +8058,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>99</v>
       </c>
@@ -7857,7 +8073,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>100</v>
       </c>
@@ -7872,7 +8088,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>101</v>
       </c>
@@ -7887,7 +8103,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
@@ -7902,7 +8118,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
@@ -7917,7 +8133,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -7932,7 +8148,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -7947,7 +8163,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
@@ -7962,7 +8178,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>107</v>
       </c>
@@ -7977,7 +8193,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>108</v>
       </c>
@@ -7992,7 +8208,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>109</v>
       </c>
@@ -8007,7 +8223,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>110</v>
       </c>
@@ -8022,7 +8238,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>111</v>
       </c>
@@ -8037,7 +8253,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>112</v>
       </c>
@@ -8052,7 +8268,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>113</v>
       </c>
@@ -8067,7 +8283,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>114</v>
       </c>
@@ -8082,7 +8298,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
@@ -8097,7 +8313,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -8112,7 +8328,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>117</v>
       </c>
@@ -8127,7 +8343,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -8142,7 +8358,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -8157,7 +8373,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -8172,7 +8388,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -8187,7 +8403,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -8202,7 +8418,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -8217,7 +8433,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -8232,7 +8448,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -8247,7 +8463,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -8262,7 +8478,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -8277,7 +8493,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -8292,7 +8508,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -8307,7 +8523,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -8322,7 +8538,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -8337,7 +8553,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>132</v>
       </c>
@@ -8352,7 +8568,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>133</v>
       </c>
@@ -8367,7 +8583,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>134</v>
       </c>
@@ -8382,7 +8598,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>135</v>
       </c>
@@ -8397,7 +8613,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>136</v>
       </c>
@@ -8412,7 +8628,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>137</v>
       </c>
@@ -8427,7 +8643,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>138</v>
       </c>
@@ -8442,7 +8658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>139</v>
       </c>
@@ -8457,7 +8673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>140</v>
       </c>
@@ -8472,7 +8688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>141</v>
       </c>
@@ -8487,7 +8703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>142</v>
       </c>
@@ -8502,7 +8718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>143</v>
       </c>
@@ -8517,7 +8733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>144</v>
       </c>
@@ -8532,7 +8748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>145</v>
       </c>
@@ -8547,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>146</v>
       </c>
@@ -8562,7 +8778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>147</v>
       </c>
@@ -8577,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>148</v>
       </c>
@@ -8592,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>149</v>
       </c>
@@ -8607,7 +8823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>150</v>
       </c>
@@ -8622,7 +8838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>151</v>
       </c>
@@ -8651,13 +8867,13 @@
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -8668,7 +8884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
@@ -8679,7 +8895,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
@@ -8688,7 +8904,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>159</v>
       </c>
@@ -8697,7 +8913,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>160</v>
       </c>
@@ -8706,7 +8922,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
@@ -8715,7 +8931,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>162</v>
       </c>
@@ -8742,10 +8958,10 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -8757,7 +8973,7 @@
     <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
@@ -8792,29 +9008,29 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="82">
-        <v>1</v>
-      </c>
-      <c r="D2" s="82">
+      <c r="C2" s="79">
+        <v>1</v>
+      </c>
+      <c r="D2" s="79">
         <v>4</v>
       </c>
-      <c r="E2" s="82">
-        <v>1</v>
-      </c>
-      <c r="F2" s="82">
-        <v>0</v>
-      </c>
-      <c r="G2" s="82">
+      <c r="E2" s="79">
+        <v>1</v>
+      </c>
+      <c r="F2" s="79">
+        <v>0</v>
+      </c>
+      <c r="G2" s="79">
         <v>110</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="79" t="s">
         <v>260</v>
       </c>
       <c r="I2" s="28">
@@ -8824,90 +9040,90 @@
         <v>1</v>
       </c>
       <c r="K2" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="82">
-        <v>1</v>
-      </c>
-      <c r="D3" s="82">
+      <c r="C3" s="79">
+        <v>1</v>
+      </c>
+      <c r="D3" s="79">
         <v>21</v>
       </c>
       <c r="E3" s="28">
         <v>0.1</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="79">
         <v>5</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="79">
         <v>18</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="79" t="s">
         <v>260</v>
       </c>
       <c r="I3" s="28">
         <v>0</v>
       </c>
       <c r="J3" s="28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K3" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="82">
-        <v>1</v>
-      </c>
-      <c r="D4" s="83">
+      <c r="C4" s="79">
+        <v>1</v>
+      </c>
+      <c r="D4" s="80">
         <v>5</v>
       </c>
       <c r="E4" s="28">
         <v>0.5</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="79">
         <v>18</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <v>65</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="79" t="s">
         <v>260</v>
       </c>
       <c r="I4" s="28">
         <v>0</v>
       </c>
       <c r="J4" s="28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K4" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="84">
-        <v>1</v>
-      </c>
-      <c r="D5" s="84">
+      <c r="C5" s="81">
+        <v>1</v>
+      </c>
+      <c r="D5" s="81">
         <f>MAX(1,5-SUMPRODUCT((C7:C15)*(D7:D15)*(E7:E15))/E5)</f>
         <v>1</v>
       </c>
@@ -8920,34 +9136,34 @@
       <c r="G5" s="28">
         <v>110</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="81">
         <v>0.11</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="81">
         <v>10</v>
       </c>
       <c r="E6" s="28">
-        <v>0.5</v>
+        <v>1.155E-2</v>
       </c>
       <c r="F6" s="28">
         <v>0</v>
@@ -8955,34 +9171,34 @@
       <c r="G6" s="28">
         <v>110</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="79" t="s">
         <v>260</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
       </c>
       <c r="J6" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>179</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="81">
         <v>0.01</v>
       </c>
-      <c r="D7" s="84">
-        <v>10</v>
+      <c r="D7" s="81">
+        <v>12</v>
       </c>
       <c r="E7" s="28">
-        <v>1</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="F7" s="28">
         <v>18</v>
@@ -8990,35 +9206,34 @@
       <c r="G7" s="28">
         <v>40</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="79" t="s">
         <v>182</v>
       </c>
       <c r="I7" s="28">
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K7" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="81">
         <v>0.34</v>
       </c>
-      <c r="D8" s="84">
-        <v>5</v>
-      </c>
-      <c r="E8" s="47">
-        <f>E2/7</f>
-        <v>0.14285714285714285</v>
+      <c r="D8" s="81">
+        <v>23</v>
+      </c>
+      <c r="E8" s="44">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F8" s="28">
         <v>4</v>
@@ -9026,35 +9241,34 @@
       <c r="G8" s="28">
         <v>30</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="79" t="s">
         <v>260</v>
       </c>
       <c r="I8" s="28">
         <v>0</v>
       </c>
       <c r="J8" s="28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="81">
         <v>0.1</v>
       </c>
-      <c r="D9" s="84">
-        <v>5</v>
-      </c>
-      <c r="E9" s="47">
-        <f>E$5/7</f>
-        <v>1.4285714285714287E-2</v>
+      <c r="D9" s="81">
+        <v>17</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F9" s="28">
         <v>0</v>
@@ -9062,35 +9276,34 @@
       <c r="G9" s="28">
         <v>110</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I9" s="28">
         <v>0</v>
       </c>
       <c r="J9" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="81">
         <v>0.1</v>
       </c>
-      <c r="D10" s="84">
-        <v>20</v>
-      </c>
-      <c r="E10" s="47">
-        <f>E$5/7</f>
-        <v>1.4285714285714287E-2</v>
+      <c r="D10" s="81">
+        <v>17</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1.2E-2</v>
       </c>
       <c r="F10" s="28">
         <v>15</v>
@@ -9098,35 +9311,34 @@
       <c r="G10" s="28">
         <v>110</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I10" s="28">
         <v>0</v>
       </c>
       <c r="J10" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K10" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>271</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="81">
         <v>0.25</v>
       </c>
-      <c r="D11" s="84">
-        <v>20</v>
-      </c>
-      <c r="E11" s="47">
-        <f>E$5/7</f>
-        <v>1.4285714285714287E-2</v>
+      <c r="D11" s="81">
+        <v>21</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="F11" s="28">
         <v>18</v>
@@ -9134,20 +9346,20 @@
       <c r="G11" s="28">
         <v>110</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="H11" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I11" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="28">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="K11" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>272</v>
       </c>
@@ -9157,12 +9369,11 @@
       <c r="C12" s="28">
         <v>0.25</v>
       </c>
-      <c r="D12" s="28">
-        <v>50</v>
-      </c>
-      <c r="E12" s="47">
-        <f>E$5/7</f>
-        <v>1.4285714285714287E-2</v>
+      <c r="D12" s="81">
+        <v>24</v>
+      </c>
+      <c r="E12" s="44">
+        <v>1.4400000000000001E-2</v>
       </c>
       <c r="F12" s="28">
         <v>18</v>
@@ -9170,20 +9381,20 @@
       <c r="G12" s="28">
         <v>110</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I12" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="28">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="K12" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>208</v>
       </c>
@@ -9193,11 +9404,11 @@
       <c r="C13" s="28">
         <v>0.114</v>
       </c>
-      <c r="D13" s="28">
-        <v>5</v>
+      <c r="D13" s="81">
+        <v>207</v>
       </c>
       <c r="E13" s="28">
-        <v>0.1</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F13" s="28">
         <v>15</v>
@@ -9205,20 +9416,20 @@
       <c r="G13" s="28">
         <v>110</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I13" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>210</v>
       </c>
@@ -9228,12 +9439,11 @@
       <c r="C14" s="28">
         <v>5.5E-2</v>
       </c>
-      <c r="D14" s="28">
-        <v>5</v>
-      </c>
-      <c r="E14" s="47">
-        <f>E$5/7</f>
-        <v>1.4285714285714287E-2</v>
+      <c r="D14" s="81">
+        <v>17</v>
+      </c>
+      <c r="E14" s="44">
+        <v>1.2400000000000001E-2</v>
       </c>
       <c r="F14" s="28">
         <v>0</v>
@@ -9241,20 +9451,20 @@
       <c r="G14" s="28">
         <v>110</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I14" s="28">
         <v>0</v>
       </c>
       <c r="J14" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>212</v>
       </c>
@@ -9264,11 +9474,11 @@
       <c r="C15" s="28">
         <v>0.4</v>
       </c>
-      <c r="D15" s="28">
-        <v>5</v>
+      <c r="D15" s="81">
+        <v>17</v>
       </c>
       <c r="E15" s="28">
-        <v>0.1</v>
+        <v>1.2400000000000001E-2</v>
       </c>
       <c r="F15" s="28">
         <v>0</v>
@@ -9276,20 +9486,20 @@
       <c r="G15" s="28">
         <v>110</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I15" s="28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>262</v>
       </c>
@@ -9299,12 +9509,11 @@
       <c r="C16" s="28">
         <v>0.1</v>
       </c>
-      <c r="D16" s="28">
-        <v>50</v>
-      </c>
-      <c r="E16" s="74">
-        <f>E$5/90</f>
-        <v>1.1111111111111111E-3</v>
+      <c r="D16" s="81">
+        <v>45</v>
+      </c>
+      <c r="E16" s="71">
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -9312,20 +9521,20 @@
       <c r="G16" s="28">
         <v>110</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
       <c r="J16" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>263</v>
       </c>
@@ -9335,12 +9544,11 @@
       <c r="C17" s="28">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D17" s="28">
-        <v>10</v>
+      <c r="D17" s="81">
+        <v>13</v>
       </c>
       <c r="E17" s="28">
-        <f>E3</f>
-        <v>0.1</v>
+        <v>0.21339999999999998</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
@@ -9348,20 +9556,20 @@
       <c r="G17" s="28">
         <v>6</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="79" t="s">
         <v>260</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
       <c r="J17" s="28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>266</v>
       </c>
@@ -9371,12 +9579,11 @@
       <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="28">
-        <v>4</v>
-      </c>
-      <c r="E18" s="47">
-        <f>E$2/7</f>
-        <v>0.14285714285714285</v>
+      <c r="D18" s="81">
+        <v>6</v>
+      </c>
+      <c r="E18" s="44">
+        <v>2.24E-2</v>
       </c>
       <c r="F18" s="28">
         <v>15</v>
@@ -9384,20 +9591,20 @@
       <c r="G18" s="28">
         <v>110</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="79" t="s">
         <v>183</v>
       </c>
       <c r="I18" s="28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J18" s="28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>289</v>
       </c>
@@ -9407,11 +9614,11 @@
       <c r="C19" s="28">
         <v>0.8</v>
       </c>
-      <c r="D19" s="28">
-        <v>20</v>
-      </c>
-      <c r="E19" s="47">
-        <v>1</v>
+      <c r="D19" s="81">
+        <v>19</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0.94049999999999989</v>
       </c>
       <c r="F19" s="28">
         <v>80</v>
@@ -9419,17 +9626,17 @@
       <c r="G19" s="28">
         <v>110</v>
       </c>
-      <c r="H19" s="82" t="s">
+      <c r="H19" s="79" t="s">
         <v>260</v>
       </c>
       <c r="I19" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>1</v>
       </c>
       <c r="K19" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9446,166 +9653,166 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.09765625" style="30" customWidth="1"/>
     <col min="2" max="2" width="50.69921875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="4.09765625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="4.09765625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="4.09765625" style="55" customWidth="1"/>
     <col min="5" max="7" width="4.09765625" style="30" customWidth="1"/>
     <col min="8" max="21" width="7.3984375" style="30" customWidth="1"/>
-    <col min="22" max="22" width="7.796875" style="58" customWidth="1"/>
-    <col min="23" max="23" width="11.69921875" style="66" customWidth="1"/>
-    <col min="24" max="24" width="10.3984375" style="45" customWidth="1"/>
-    <col min="25" max="25" width="18.3984375" style="53" customWidth="1"/>
+    <col min="22" max="22" width="7.796875" style="55" customWidth="1"/>
+    <col min="23" max="23" width="11.69921875" style="63" customWidth="1"/>
+    <col min="24" max="24" width="10.3984375" style="42" customWidth="1"/>
+    <col min="25" max="25" width="18.3984375" style="50" customWidth="1"/>
     <col min="26" max="26" width="18.3984375" style="29" customWidth="1"/>
     <col min="27" max="27" width="56.09765625" style="29" customWidth="1"/>
     <col min="28" max="29" width="8.796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="D1" s="86" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D1" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="86" t="s">
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="87"/>
-    </row>
-    <row r="2" spans="1:29" s="52" customFormat="1">
-      <c r="A2" s="48" t="s">
+      <c r="X1" s="84"/>
+    </row>
+    <row r="2" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="59" t="str">
+      <c r="D2" s="56" t="str">
         <f ca="1">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
         <v>H</v>
       </c>
-      <c r="E2" s="50" t="str">
+      <c r="E2" s="47" t="str">
         <f t="shared" ref="E2:U2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
         <v>S</v>
       </c>
-      <c r="F2" s="50" t="str">
+      <c r="F2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>W</v>
       </c>
-      <c r="G2" s="50" t="str">
+      <c r="G2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="H2" s="50" t="str">
+      <c r="H2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Church</v>
       </c>
-      <c r="I2" s="50" t="str">
+      <c r="I2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>pSport</v>
       </c>
-      <c r="J2" s="50" t="str">
+      <c r="J2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>cSport</v>
       </c>
-      <c r="K2" s="50" t="str">
+      <c r="K2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>beach</v>
       </c>
-      <c r="L2" s="50" t="str">
+      <c r="L2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>entertainment</v>
       </c>
-      <c r="M2" s="50" t="str">
+      <c r="M2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>cafe_restaurant</v>
       </c>
-      <c r="N2" s="50" t="str">
+      <c r="N2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>pub_bar</v>
       </c>
-      <c r="O2" s="50" t="str">
+      <c r="O2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>transport</v>
       </c>
-      <c r="P2" s="50" t="str">
+      <c r="P2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>national_parks</v>
       </c>
-      <c r="Q2" s="50" t="str">
+      <c r="Q2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>public_parks</v>
       </c>
-      <c r="R2" s="50" t="str">
+      <c r="R2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>large_events</v>
       </c>
-      <c r="S2" s="50" t="str">
+      <c r="S2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>child_care</v>
       </c>
-      <c r="T2" s="50" t="str">
+      <c r="T2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>social</v>
       </c>
-      <c r="U2" s="50" t="str">
+      <c r="U2" s="47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>aged_care</v>
       </c>
-      <c r="V2" s="59" t="s">
+      <c r="V2" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="W2" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="Y2" s="59" t="s">
+      <c r="Y2" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-    </row>
-    <row r="3" spans="1:29" s="43" customFormat="1">
-      <c r="A3" s="41" t="s">
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+    </row>
+    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="52">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="53">
         <v>1</v>
       </c>
       <c r="E3" s="37">
@@ -9659,30 +9866,30 @@
       <c r="U3" s="37">
         <v>1</v>
       </c>
-      <c r="V3" s="64">
-        <v>0</v>
-      </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="68">
+      <c r="V3" s="61">
+        <v>0</v>
+      </c>
+      <c r="W3" s="59"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="65">
         <v>43905</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-    </row>
-    <row r="4" spans="1:29" s="43" customFormat="1">
-      <c r="A4" s="41" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+    </row>
+    <row r="4" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="56">
-        <v>1</v>
-      </c>
-      <c r="D4" s="56">
+      <c r="C4" s="53">
+        <v>1</v>
+      </c>
+      <c r="D4" s="53">
         <v>1</v>
       </c>
       <c r="E4" s="37">
@@ -9736,30 +9943,30 @@
       <c r="U4" s="37">
         <v>1</v>
       </c>
-      <c r="V4" s="64">
-        <v>0</v>
-      </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="68">
+      <c r="V4" s="61">
+        <v>0</v>
+      </c>
+      <c r="W4" s="59"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="65">
         <v>43919</v>
       </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-    </row>
-    <row r="5" spans="1:29" s="43" customFormat="1">
-      <c r="A5" s="41" t="s">
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+    </row>
+    <row r="5" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="56">
-        <v>1</v>
-      </c>
-      <c r="D5" s="56">
+      <c r="C5" s="53">
+        <v>1</v>
+      </c>
+      <c r="D5" s="53">
         <v>1</v>
       </c>
       <c r="E5" s="37">
@@ -9780,9 +9987,8 @@
       <c r="J5" s="37">
         <v>1</v>
       </c>
-      <c r="K5" s="39">
-        <f>MIN(1,2/layers!D8)</f>
-        <v>0.4</v>
+      <c r="K5" s="86">
+        <v>0.1</v>
       </c>
       <c r="L5" s="37">
         <v>1</v>
@@ -9814,28 +10020,28 @@
       <c r="U5" s="37">
         <v>1</v>
       </c>
-      <c r="V5" s="64">
-        <v>0</v>
-      </c>
-      <c r="W5" s="62"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-    </row>
-    <row r="6" spans="1:29" s="43" customFormat="1">
-      <c r="A6" s="41" t="s">
+      <c r="V5" s="61">
+        <v>0</v>
+      </c>
+      <c r="W5" s="59"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+    </row>
+    <row r="6" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="56">
-        <v>1</v>
-      </c>
-      <c r="D6" s="56">
+      <c r="C6" s="53">
+        <v>1</v>
+      </c>
+      <c r="D6" s="53">
         <v>1</v>
       </c>
       <c r="E6" s="37">
@@ -9856,9 +10062,8 @@
       <c r="J6" s="37">
         <v>1</v>
       </c>
-      <c r="K6" s="39">
-        <f>MIN(1,10/layers!D9)</f>
-        <v>1</v>
+      <c r="K6" s="86">
+        <v>0.5</v>
       </c>
       <c r="L6" s="37">
         <v>1</v>
@@ -9890,28 +10095,28 @@
       <c r="U6" s="37">
         <v>1</v>
       </c>
-      <c r="V6" s="64">
-        <v>0</v>
-      </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-    </row>
-    <row r="7" spans="1:29" s="43" customFormat="1">
-      <c r="A7" s="41" t="s">
+      <c r="V6" s="61">
+        <v>0</v>
+      </c>
+      <c r="W6" s="59"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+    </row>
+    <row r="7" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="56">
-        <v>1</v>
-      </c>
-      <c r="D7" s="56">
+      <c r="C7" s="53">
+        <v>1</v>
+      </c>
+      <c r="D7" s="53">
         <v>1</v>
       </c>
       <c r="E7" s="37">
@@ -9932,7 +10137,7 @@
       <c r="J7" s="37">
         <v>1</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="37">
         <v>1</v>
       </c>
       <c r="L7" s="37">
@@ -9965,30 +10170,30 @@
       <c r="U7" s="37">
         <v>1</v>
       </c>
-      <c r="V7" s="64">
-        <v>0</v>
-      </c>
-      <c r="W7" s="62"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="68">
+      <c r="V7" s="61">
+        <v>0</v>
+      </c>
+      <c r="W7" s="59"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="65">
         <v>43919</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-    </row>
-    <row r="8" spans="1:29" s="43" customFormat="1">
-      <c r="A8" s="41" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+    </row>
+    <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="56">
-        <v>1</v>
-      </c>
-      <c r="D8" s="56">
+      <c r="C8" s="53">
+        <v>1</v>
+      </c>
+      <c r="D8" s="53">
         <v>1</v>
       </c>
       <c r="E8" s="37">
@@ -10042,42 +10247,42 @@
       <c r="U8" s="37">
         <v>1</v>
       </c>
-      <c r="V8" s="64">
-        <v>0</v>
-      </c>
-      <c r="W8" s="62"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="68">
+      <c r="V8" s="61">
+        <v>0</v>
+      </c>
+      <c r="W8" s="59"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="65">
         <v>43912</v>
       </c>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-    </row>
-    <row r="9" spans="1:29" s="43" customFormat="1">
-      <c r="A9" s="41" t="s">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+    </row>
+    <row r="9" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="56">
-        <v>1</v>
-      </c>
-      <c r="D9" s="56">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="38">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
+      <c r="C9" s="53">
+        <v>1</v>
+      </c>
+      <c r="D9" s="53">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="86">
         <v>0.8</v>
       </c>
       <c r="I9" s="37">
@@ -10119,34 +10324,34 @@
       <c r="U9" s="37">
         <v>1</v>
       </c>
-      <c r="V9" s="64">
-        <v>0</v>
-      </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="68">
+      <c r="V9" s="61">
+        <v>0</v>
+      </c>
+      <c r="W9" s="59"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="65">
         <v>43909</v>
       </c>
-      <c r="Z9" s="69">
+      <c r="Z9" s="66">
         <f>Y8</f>
         <v>43912</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-    </row>
-    <row r="10" spans="1:29" s="43" customFormat="1">
-      <c r="A10" s="41" t="s">
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+    </row>
+    <row r="10" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="56">
-        <v>1</v>
-      </c>
-      <c r="D10" s="56">
-        <v>1.05</v>
+      <c r="C10" s="53">
+        <v>1</v>
+      </c>
+      <c r="D10" s="53">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -10199,30 +10404,30 @@
       <c r="U10" s="37">
         <v>1</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="61">
         <v>0</v>
       </c>
       <c r="W10" s="28"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="68">
+      <c r="X10" s="43"/>
+      <c r="Y10" s="65">
         <v>43912</v>
       </c>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-    </row>
-    <row r="11" spans="1:29" s="43" customFormat="1">
-      <c r="A11" s="41" t="s">
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+    </row>
+    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>275</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C11" s="56">
-        <v>1</v>
-      </c>
-      <c r="D11" s="56">
+      <c r="C11" s="53">
+        <v>1</v>
+      </c>
+      <c r="D11" s="53">
         <v>1</v>
       </c>
       <c r="E11" s="37">
@@ -10249,8 +10454,8 @@
       <c r="L11" s="37">
         <v>1</v>
       </c>
-      <c r="M11" s="39">
-        <v>0.8</v>
+      <c r="M11" s="86">
+        <v>0.3</v>
       </c>
       <c r="N11" s="37">
         <v>1</v>
@@ -10276,34 +10481,34 @@
       <c r="U11" s="37">
         <v>1</v>
       </c>
-      <c r="V11" s="64">
-        <v>0</v>
-      </c>
-      <c r="W11" s="62"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="68">
+      <c r="V11" s="61">
+        <v>0</v>
+      </c>
+      <c r="W11" s="59"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="65">
         <v>43909</v>
       </c>
-      <c r="Z11" s="69">
+      <c r="Z11" s="66">
         <f>Y10</f>
         <v>43912</v>
       </c>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-    </row>
-    <row r="12" spans="1:29" s="43" customFormat="1">
-      <c r="A12" s="41" t="s">
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+    </row>
+    <row r="12" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="56">
-        <v>1</v>
-      </c>
-      <c r="D12" s="56">
-        <v>1.05</v>
+      <c r="C12" s="53">
+        <v>1</v>
+      </c>
+      <c r="D12" s="86">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E12" s="37">
         <v>1</v>
@@ -10356,30 +10561,30 @@
       <c r="U12" s="37">
         <v>1</v>
       </c>
-      <c r="V12" s="64">
-        <v>0</v>
-      </c>
-      <c r="W12" s="62"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="68">
+      <c r="V12" s="61">
+        <v>0</v>
+      </c>
+      <c r="W12" s="59"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="65">
         <v>43912</v>
       </c>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-    </row>
-    <row r="13" spans="1:29" s="43" customFormat="1">
-      <c r="A13" s="41" t="s">
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+    </row>
+    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
         <v>278</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="56">
-        <v>1</v>
-      </c>
-      <c r="D13" s="56">
+      <c r="C13" s="53">
+        <v>1</v>
+      </c>
+      <c r="D13" s="53">
         <v>1</v>
       </c>
       <c r="E13" s="37">
@@ -10409,7 +10614,7 @@
       <c r="M13" s="37">
         <v>1</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="86">
         <v>0.8</v>
       </c>
       <c r="O13" s="37">
@@ -10433,34 +10638,34 @@
       <c r="U13" s="37">
         <v>1</v>
       </c>
-      <c r="V13" s="64">
-        <v>0</v>
-      </c>
-      <c r="W13" s="62"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="68">
+      <c r="V13" s="61">
+        <v>0</v>
+      </c>
+      <c r="W13" s="59"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="65">
         <v>43909</v>
       </c>
-      <c r="Z13" s="69">
+      <c r="Z13" s="66">
         <f>Y12</f>
         <v>43912</v>
       </c>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-    </row>
-    <row r="14" spans="1:29" s="43" customFormat="1">
-      <c r="A14" s="41" t="s">
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+    </row>
+    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>252</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="56">
-        <v>1</v>
-      </c>
-      <c r="D14" s="56">
-        <v>1.1499999999999999</v>
+      <c r="C14" s="53">
+        <v>1</v>
+      </c>
+      <c r="D14" s="86">
+        <v>1</v>
       </c>
       <c r="E14" s="37">
         <v>1</v>
@@ -10468,8 +10673,8 @@
       <c r="F14" s="37">
         <v>1</v>
       </c>
-      <c r="G14" s="37">
-        <v>0.2</v>
+      <c r="G14" s="86">
+        <v>0.7</v>
       </c>
       <c r="H14" s="37">
         <v>1</v>
@@ -10493,13 +10698,13 @@
         <v>1</v>
       </c>
       <c r="O14" s="37">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="P14" s="37">
         <v>0</v>
       </c>
-      <c r="Q14" s="37">
-        <v>0.2</v>
+      <c r="Q14" s="86">
+        <v>0.5</v>
       </c>
       <c r="R14" s="37">
         <v>0</v>
@@ -10507,37 +10712,37 @@
       <c r="S14" s="37">
         <v>1</v>
       </c>
-      <c r="T14" s="37">
-        <v>0.8</v>
+      <c r="T14" s="86">
+        <v>0.5</v>
       </c>
       <c r="U14" s="37">
         <v>1</v>
       </c>
-      <c r="V14" s="64">
-        <v>0</v>
-      </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="68">
+      <c r="V14" s="61">
+        <v>0</v>
+      </c>
+      <c r="W14" s="59"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="65">
         <v>43919</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-    </row>
-    <row r="15" spans="1:29" s="43" customFormat="1">
-      <c r="A15" s="41" t="s">
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+    </row>
+    <row r="15" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>223</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="56">
-        <v>1</v>
-      </c>
-      <c r="D15" s="56">
-        <v>1.1000000000000001</v>
+      <c r="C15" s="53">
+        <v>1</v>
+      </c>
+      <c r="D15" s="86">
+        <v>1</v>
       </c>
       <c r="E15" s="37">
         <v>1</v>
@@ -10545,8 +10750,8 @@
       <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="39">
-        <v>0.86</v>
+      <c r="G15" s="86">
+        <v>0.9</v>
       </c>
       <c r="H15" s="37">
         <v>1</v>
@@ -10561,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M15" s="37">
         <v>1</v>
@@ -10569,14 +10774,14 @@
       <c r="N15" s="37">
         <v>1</v>
       </c>
-      <c r="O15" s="39">
-        <v>0.2</v>
+      <c r="O15" s="86">
+        <v>0.8</v>
       </c>
       <c r="P15" s="37">
         <v>1</v>
       </c>
-      <c r="Q15" s="37">
-        <v>0.8</v>
+      <c r="Q15" s="86">
+        <v>0.7</v>
       </c>
       <c r="R15" s="37">
         <v>0</v>
@@ -10590,29 +10795,29 @@
       <c r="U15" s="37">
         <v>1</v>
       </c>
-      <c r="V15" s="64">
-        <v>0</v>
-      </c>
-      <c r="W15" s="62"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-    </row>
-    <row r="16" spans="1:29" s="43" customFormat="1">
-      <c r="A16" s="41" t="s">
+      <c r="V15" s="61">
+        <v>0</v>
+      </c>
+      <c r="W15" s="59"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+    </row>
+    <row r="16" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>227</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="56">
-        <v>1</v>
-      </c>
-      <c r="D16" s="56">
-        <v>1.05</v>
+      <c r="C16" s="53">
+        <v>1</v>
+      </c>
+      <c r="D16" s="86">
+        <v>1</v>
       </c>
       <c r="E16" s="37">
         <v>1</v>
@@ -10620,32 +10825,32 @@
       <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="86">
+        <v>1</v>
+      </c>
+      <c r="H16" s="37">
+        <v>1</v>
+      </c>
+      <c r="I16" s="37">
+        <v>1</v>
+      </c>
+      <c r="J16" s="37">
+        <v>1</v>
+      </c>
+      <c r="K16" s="37">
+        <v>1</v>
+      </c>
+      <c r="L16" s="86">
         <v>0.95</v>
       </c>
-      <c r="H16" s="37">
-        <v>1</v>
-      </c>
-      <c r="I16" s="37">
-        <v>1</v>
-      </c>
-      <c r="J16" s="37">
-        <v>1</v>
-      </c>
-      <c r="K16" s="37">
-        <v>1</v>
-      </c>
-      <c r="L16" s="39">
-        <v>0.5</v>
-      </c>
       <c r="M16" s="37">
         <v>1</v>
       </c>
       <c r="N16" s="37">
         <v>1</v>
       </c>
-      <c r="O16" s="37">
-        <v>0.8</v>
+      <c r="O16" s="86">
+        <v>0.95</v>
       </c>
       <c r="P16" s="37">
         <v>1</v>
@@ -10665,33 +10870,33 @@
       <c r="U16" s="37">
         <v>1</v>
       </c>
-      <c r="V16" s="64">
-        <v>0</v>
-      </c>
-      <c r="W16" s="62"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="68">
+      <c r="V16" s="61">
+        <v>0</v>
+      </c>
+      <c r="W16" s="59"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="65">
         <v>43909</v>
       </c>
-      <c r="Z16" s="69">
+      <c r="Z16" s="66">
         <f>Y14</f>
         <v>43919</v>
       </c>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-    </row>
-    <row r="17" spans="1:29" s="43" customFormat="1">
-      <c r="A17" s="41" t="s">
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+    </row>
+    <row r="17" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
         <v>224</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="56">
-        <v>1</v>
-      </c>
-      <c r="D17" s="56">
+      <c r="C17" s="53">
+        <v>1</v>
+      </c>
+      <c r="D17" s="53">
         <v>1</v>
       </c>
       <c r="E17" s="37">
@@ -10706,7 +10911,7 @@
       <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="86">
         <v>0</v>
       </c>
       <c r="J17" s="37">
@@ -10745,30 +10950,30 @@
       <c r="U17" s="37">
         <v>1</v>
       </c>
-      <c r="V17" s="64">
-        <v>0</v>
-      </c>
-      <c r="W17" s="62"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="68">
+      <c r="V17" s="61">
+        <v>0</v>
+      </c>
+      <c r="W17" s="59"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="65">
         <v>43912</v>
       </c>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-    </row>
-    <row r="18" spans="1:29" s="43" customFormat="1">
-      <c r="A18" s="41" t="s">
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+    </row>
+    <row r="18" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="56">
-        <v>1</v>
-      </c>
-      <c r="D18" s="56">
+      <c r="C18" s="53">
+        <v>1</v>
+      </c>
+      <c r="D18" s="53">
         <v>1</v>
       </c>
       <c r="E18" s="37">
@@ -10777,8 +10982,8 @@
       <c r="F18" s="37">
         <v>1</v>
       </c>
-      <c r="G18" s="37">
-        <v>0.92</v>
+      <c r="G18" s="86">
+        <v>0.8</v>
       </c>
       <c r="H18" s="37">
         <v>1</v>
@@ -10786,7 +10991,7 @@
       <c r="I18" s="37">
         <v>1</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="86">
         <v>0</v>
       </c>
       <c r="K18" s="37">
@@ -10822,30 +11027,30 @@
       <c r="U18" s="37">
         <v>1</v>
       </c>
-      <c r="V18" s="64">
-        <v>0</v>
-      </c>
-      <c r="W18" s="62"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="68">
+      <c r="V18" s="61">
+        <v>0</v>
+      </c>
+      <c r="W18" s="59"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="65">
         <v>43912</v>
       </c>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-    </row>
-    <row r="19" spans="1:29" s="43" customFormat="1">
-      <c r="A19" s="41" t="s">
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+    </row>
+    <row r="19" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="56">
-        <v>1</v>
-      </c>
-      <c r="D19" s="56">
+      <c r="C19" s="53">
+        <v>1</v>
+      </c>
+      <c r="D19" s="53">
         <v>1</v>
       </c>
       <c r="E19" s="37">
@@ -10899,28 +11104,28 @@
       <c r="U19" s="37">
         <v>1</v>
       </c>
-      <c r="V19" s="64">
-        <v>0</v>
-      </c>
-      <c r="W19" s="62"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-    </row>
-    <row r="20" spans="1:29" s="43" customFormat="1">
-      <c r="A20" s="41" t="s">
+      <c r="V19" s="61">
+        <v>0</v>
+      </c>
+      <c r="W19" s="59"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+    </row>
+    <row r="20" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="56">
-        <v>1</v>
-      </c>
-      <c r="D20" s="56">
+      <c r="C20" s="53">
+        <v>1</v>
+      </c>
+      <c r="D20" s="53">
         <v>1</v>
       </c>
       <c r="E20" s="37">
@@ -10930,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="37">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H20" s="37">
         <v>1</v>
@@ -10974,35 +11179,35 @@
       <c r="U20" s="37">
         <v>1</v>
       </c>
-      <c r="V20" s="64">
-        <v>0</v>
-      </c>
-      <c r="W20" s="71" t="s">
+      <c r="V20" s="61">
+        <v>0</v>
+      </c>
+      <c r="W20" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="X20" s="73">
+      <c r="X20" s="70">
         <v>0.1</v>
       </c>
-      <c r="Y20" s="68">
+      <c r="Y20" s="65">
         <v>43915</v>
       </c>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-    </row>
-    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A21" s="44" t="s">
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+    </row>
+    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>228</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="56">
-        <v>1</v>
-      </c>
-      <c r="D21" s="56">
-        <v>1</v>
+      <c r="C21" s="53">
+        <v>1</v>
+      </c>
+      <c r="D21" s="53">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="37">
         <v>1</v>
@@ -11010,8 +11215,8 @@
       <c r="F21" s="37">
         <v>1</v>
       </c>
-      <c r="G21" s="37">
-        <v>0.73</v>
+      <c r="G21" s="86">
+        <v>0.9</v>
       </c>
       <c r="H21" s="37">
         <v>1</v>
@@ -11055,35 +11260,35 @@
       <c r="U21" s="37">
         <v>1</v>
       </c>
-      <c r="V21" s="64">
-        <v>0</v>
-      </c>
-      <c r="W21" s="71" t="s">
+      <c r="V21" s="61">
+        <v>0</v>
+      </c>
+      <c r="W21" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="X21" s="72">
+      <c r="X21" s="69">
         <v>0.95</v>
       </c>
-      <c r="Y21" s="68">
+      <c r="Y21" s="65">
         <v>43919</v>
       </c>
       <c r="Z21" s="36"/>
       <c r="AA21" s="36"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-    </row>
-    <row r="22" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+    </row>
+    <row r="22" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>218</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="56">
-        <v>1</v>
-      </c>
-      <c r="D22" s="56">
-        <v>1</v>
+      <c r="C22" s="53">
+        <v>1</v>
+      </c>
+      <c r="D22" s="53">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E22" s="37">
         <v>1</v>
@@ -11106,7 +11311,7 @@
       <c r="K22" s="37">
         <v>1</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="86">
         <v>0</v>
       </c>
       <c r="M22" s="37">
@@ -11136,31 +11341,31 @@
       <c r="U22" s="37">
         <v>1</v>
       </c>
-      <c r="V22" s="64">
-        <v>0</v>
-      </c>
-      <c r="W22" s="62"/>
+      <c r="V22" s="61">
+        <v>0</v>
+      </c>
+      <c r="W22" s="59"/>
       <c r="X22" s="32"/>
-      <c r="Y22" s="68">
+      <c r="Y22" s="65">
         <v>43909</v>
       </c>
       <c r="Z22" s="36"/>
       <c r="AA22" s="31"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-    </row>
-    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A23" s="44" t="s">
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+    </row>
+    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>262</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="56">
-        <v>1</v>
-      </c>
-      <c r="D23" s="56">
-        <v>1</v>
+      <c r="C23" s="53">
+        <v>1</v>
+      </c>
+      <c r="D23" s="53">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="37">
         <v>1</v>
@@ -11213,37 +11418,37 @@
       <c r="U23" s="37">
         <v>1</v>
       </c>
-      <c r="V23" s="64">
-        <v>0</v>
-      </c>
-      <c r="W23" s="62"/>
+      <c r="V23" s="61">
+        <v>0</v>
+      </c>
+      <c r="W23" s="59"/>
       <c r="X23" s="32"/>
-      <c r="Y23" s="68">
+      <c r="Y23" s="65">
         <v>43912</v>
       </c>
       <c r="Z23" s="36"/>
       <c r="AA23" s="31"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-    </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+    </row>
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>250</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="56">
-        <v>1</v>
-      </c>
-      <c r="D24" s="56">
-        <v>1</v>
+      <c r="C24" s="53">
+        <v>1</v>
+      </c>
+      <c r="D24" s="53">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E24" s="37">
         <v>1</v>
       </c>
       <c r="F24" s="37">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G24" s="37">
         <v>0.67</v>
@@ -11290,16 +11495,16 @@
       <c r="U24" s="37">
         <v>1</v>
       </c>
-      <c r="V24" s="64">
-        <v>0</v>
-      </c>
-      <c r="W24" s="71" t="s">
+      <c r="V24" s="61">
+        <v>0</v>
+      </c>
+      <c r="W24" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="X24" s="72">
+      <c r="X24" s="69">
         <v>0.5</v>
       </c>
-      <c r="Y24" s="68">
+      <c r="Y24" s="65">
         <v>43919</v>
       </c>
       <c r="Z24" s="36"/>
@@ -11307,17 +11512,17 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>239</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="56">
-        <v>1</v>
-      </c>
-      <c r="D25" s="56">
+      <c r="C25" s="53">
+        <v>1</v>
+      </c>
+      <c r="D25" s="53">
         <v>1</v>
       </c>
       <c r="E25" s="37">
@@ -11371,16 +11576,16 @@
       <c r="U25" s="37">
         <v>1</v>
       </c>
-      <c r="V25" s="64">
-        <v>0</v>
-      </c>
-      <c r="W25" s="71" t="s">
+      <c r="V25" s="61">
+        <v>0</v>
+      </c>
+      <c r="W25" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="X25" s="72">
+      <c r="X25" s="69">
         <v>0.95</v>
       </c>
-      <c r="Y25" s="68">
+      <c r="Y25" s="65">
         <v>43919</v>
       </c>
       <c r="Z25" s="36"/>
@@ -11388,17 +11593,17 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>251</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="56">
-        <v>1</v>
-      </c>
-      <c r="D26" s="56">
+      <c r="C26" s="53">
+        <v>1</v>
+      </c>
+      <c r="D26" s="53">
         <v>1</v>
       </c>
       <c r="E26" s="37">
@@ -11452,12 +11657,12 @@
       <c r="U26" s="37">
         <v>1</v>
       </c>
-      <c r="V26" s="64">
+      <c r="V26" s="61">
         <v>5</v>
       </c>
-      <c r="W26" s="62"/>
+      <c r="W26" s="59"/>
       <c r="X26" s="32"/>
-      <c r="Y26" s="68">
+      <c r="Y26" s="65">
         <v>43919</v>
       </c>
       <c r="Z26" s="36"/>
@@ -11465,17 +11670,17 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>266</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C27" s="56">
-        <v>1</v>
-      </c>
-      <c r="D27" s="56">
+      <c r="C27" s="53">
+        <v>1</v>
+      </c>
+      <c r="D27" s="53">
         <v>1</v>
       </c>
       <c r="E27" s="37">
@@ -11529,12 +11734,12 @@
       <c r="U27" s="37">
         <v>1</v>
       </c>
-      <c r="V27" s="64">
-        <v>0</v>
-      </c>
-      <c r="W27" s="61"/>
+      <c r="V27" s="61">
+        <v>0</v>
+      </c>
+      <c r="W27" s="58"/>
       <c r="X27" s="34"/>
-      <c r="Y27" s="75">
+      <c r="Y27" s="72">
         <v>43919</v>
       </c>
       <c r="Z27" s="31"/>
@@ -11542,17 +11747,17 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="C28" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="56">
+      <c r="C28" s="52">
+        <v>1</v>
+      </c>
+      <c r="D28" s="53">
         <v>1</v>
       </c>
       <c r="E28" s="37">
@@ -11606,28 +11811,28 @@
       <c r="U28" s="37">
         <v>1</v>
       </c>
-      <c r="V28" s="64">
-        <v>0</v>
-      </c>
-      <c r="W28" s="61"/>
+      <c r="V28" s="61">
+        <v>0</v>
+      </c>
+      <c r="W28" s="58"/>
       <c r="X28" s="34"/>
-      <c r="Y28" s="57"/>
+      <c r="Y28" s="54"/>
       <c r="Z28" s="31"/>
       <c r="AA28" s="31"/>
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>291</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="56">
-        <v>1</v>
-      </c>
-      <c r="D29" s="56">
+      <c r="C29" s="53">
+        <v>1</v>
+      </c>
+      <c r="D29" s="53">
         <v>1</v>
       </c>
       <c r="E29" s="37">
@@ -11681,12 +11886,12 @@
       <c r="U29" s="37">
         <v>0</v>
       </c>
-      <c r="V29" s="64">
-        <v>0</v>
-      </c>
-      <c r="W29" s="61"/>
+      <c r="V29" s="61">
+        <v>0</v>
+      </c>
+      <c r="W29" s="58"/>
       <c r="X29" s="34"/>
-      <c r="Y29" s="75">
+      <c r="Y29" s="72">
         <v>43919</v>
       </c>
       <c r="Z29" s="36"/>
@@ -11694,11 +11899,11 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="61"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -11716,20 +11921,20 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="61"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="58"/>
       <c r="X30" s="34"/>
-      <c r="Y30" s="57"/>
+      <c r="Y30" s="54"/>
       <c r="Z30" s="31"/>
       <c r="AA30" s="31"/>
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="62"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
@@ -11747,20 +11952,20 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
       <c r="X31" s="32"/>
-      <c r="Y31" s="67"/>
+      <c r="Y31" s="64"/>
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -11778,20 +11983,20 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="62"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="59"/>
       <c r="X32" s="32"/>
-      <c r="Y32" s="67"/>
+      <c r="Y32" s="64"/>
       <c r="Z32" s="36"/>
       <c r="AA32" s="31"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -11809,20 +12014,20 @@
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="62"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="59"/>
       <c r="X33" s="32"/>
-      <c r="Y33" s="67"/>
+      <c r="Y33" s="64"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="31"/>
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="60"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -11840,19 +12045,19 @@
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="61"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="58"/>
       <c r="X34" s="34"/>
-      <c r="Y34" s="57"/>
+      <c r="Y34" s="54"/>
       <c r="Z34" s="31"/>
       <c r="AA34" s="36"/>
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="60"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -11870,10 +12075,10 @@
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="62"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="59"/>
       <c r="X35" s="32"/>
-      <c r="Y35" s="67"/>
+      <c r="Y35" s="64"/>
       <c r="Z35" s="36"/>
       <c r="AA35" s="31"/>
       <c r="AB35" s="35"/>
@@ -11884,353 +12089,458 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="D1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:P11 C24:P24 C20:P22 C12:C13 C14:P18">
-    <cfRule type="cellIs" dxfId="69" priority="81" operator="equal">
+  <conditionalFormatting sqref="C24 C20:C22 C3:C18">
+    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:P11 C24:P26 C20:P22 C12:C13 C14:P18">
-    <cfRule type="cellIs" dxfId="68" priority="80" operator="notEqual">
+  <conditionalFormatting sqref="C24:C26 C20:C22 C3:C18">
+    <cfRule type="cellIs" dxfId="146" priority="158" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:P26">
-    <cfRule type="cellIs" dxfId="67" priority="78" operator="equal">
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="cellIs" dxfId="145" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:K23 M23:P23">
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:K23 M23:P23">
-    <cfRule type="cellIs" dxfId="65" priority="76" operator="notEqual">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="143" priority="154" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="133" priority="144" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="132" priority="143" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="127" priority="138" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="126" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="cellIs" dxfId="99" priority="100" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:P11 D14:P18 D20:P22 D23 D24:P24">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:P11 D14:P18 D20:P22 D23 D24:P26">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:P26">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:P23 E23:K23">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:P23 E23:K23">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="65" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
-    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
+  <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q14:Q18">
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="notEqual">
+  <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:S26">
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+  <conditionalFormatting sqref="D19:P19">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="54" priority="65" operator="notEqual">
+  <conditionalFormatting sqref="D19:P19">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="52" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="49" priority="60" operator="notEqual">
+  <conditionalFormatting sqref="D27:P27">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+  <conditionalFormatting sqref="D27:P27">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="47" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6 T25:T26">
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:T26">
-    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
-    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
+  <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T11 T20:T24 T14:T18">
-    <cfRule type="cellIs" dxfId="41" priority="52" operator="notEqual">
+  <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="38" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:P13">
-    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
+  <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:P13">
-    <cfRule type="cellIs" dxfId="35" priority="46" operator="notEqual">
+  <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:P28">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:P28">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:S28">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:S28">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U6">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U6 U25:U26">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25:U26">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="notEqual">
+  <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+  <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="notEqual">
+  <conditionalFormatting sqref="U19">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+  <conditionalFormatting sqref="U19">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="U27">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="U27">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="notEqual">
+  <conditionalFormatting sqref="U12:U13">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U6">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+  <conditionalFormatting sqref="U12:U13">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U6 U25:U26">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="notEqual">
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25:U26">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+  <conditionalFormatting sqref="D29:P29">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="notEqual">
+  <conditionalFormatting sqref="D29:P29">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="Q29:S29">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="notEqual">
+  <conditionalFormatting sqref="Q29:S29">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
+  <conditionalFormatting sqref="T29">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
+  <conditionalFormatting sqref="T29">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="U29">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="notEqual">
+  <conditionalFormatting sqref="U29">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
+  <conditionalFormatting sqref="N13">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
+  <conditionalFormatting sqref="N13">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="T14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="T14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12244,17 +12554,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1">
+    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
@@ -12265,7 +12575,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1">
+    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>195</v>
       </c>
@@ -12276,18 +12586,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1">
+    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1">
+    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>199</v>
       </c>
@@ -12295,7 +12605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -12306,7 +12616,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -12318,7 +12628,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -12326,7 +12636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -12337,7 +12647,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -12345,7 +12655,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12356,7 +12666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -12364,7 +12674,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12375,7 +12685,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -12386,18 +12696,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>293</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -12408,7 +12718,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -12419,7 +12729,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -12443,9 +12753,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -12459,8 +12769,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B2">
@@ -12469,13 +12779,13 @@
       <c r="C2">
         <v>82289</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="76">
         <f>B2/C2</f>
         <v>0.22103804882791139</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -12484,13 +12794,13 @@
       <c r="C3">
         <v>395365</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="76">
         <f t="shared" ref="D3:D7" si="0">B3/C3</f>
         <v>0.56577086995561066</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B4">
@@ -12499,13 +12809,13 @@
       <c r="C4">
         <v>363542</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="76">
         <f t="shared" si="0"/>
         <v>0.67502241831755339</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -12514,13 +12824,13 @@
       <c r="C5">
         <v>374094</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="76">
         <f t="shared" si="0"/>
         <v>0.32347484856747233</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
         <v>17</v>
       </c>
       <c r="B6">
@@ -12529,13 +12839,13 @@
       <c r="C6">
         <v>466003</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="76">
         <f t="shared" si="0"/>
         <v>0.15124580743042426</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="75" t="s">
         <v>18</v>
       </c>
       <c r="B7">
@@ -12544,16 +12854,16 @@
       <c r="C7">
         <v>500215</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="76">
         <f t="shared" si="0"/>
         <v>0.10410123646831862</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="80" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="78">
         <f>SUM(B2:B7)/SUM(C2:C7)</f>
         <v>0.33501504463884618</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079071E-35D4-414E-8277-173789D974A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9A9851-254B-454E-8965-A674511416CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3000,6 +3000,9 @@
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3008,9 +3011,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3062,7 +3062,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
@@ -3624,62 +3624,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -3720,349 +3664,6 @@
         <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -8958,7 +8559,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9057,7 +8658,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="28">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="79">
         <v>5</v>
@@ -9373,7 +8974,8 @@
         <v>24</v>
       </c>
       <c r="E12" s="44">
-        <v>1.4400000000000001E-2</v>
+        <f>E11</f>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="F12" s="28">
         <v>18</v>
@@ -9507,10 +9109,10 @@
         <v>265</v>
       </c>
       <c r="C16" s="28">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D16" s="81">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="E16" s="71">
         <v>2.0400000000000001E-2</v>
@@ -9654,12 +9256,12 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" style="30" customWidth="1"/>
     <col min="2" max="2" width="50.69921875" style="29" customWidth="1"/>
     <col min="3" max="3" width="4.09765625" style="50" customWidth="1"/>
     <col min="4" max="4" width="4.09765625" style="55" customWidth="1"/>
@@ -9675,31 +9277,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="84"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="85"/>
       <c r="V1" s="60"/>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="84"/>
+      <c r="X1" s="85"/>
     </row>
     <row r="2" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -9987,7 +9589,7 @@
       <c r="J5" s="37">
         <v>1</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="83">
         <v>0.1</v>
       </c>
       <c r="L5" s="37">
@@ -10062,7 +9664,7 @@
       <c r="J6" s="37">
         <v>1</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="83">
         <v>0.5</v>
       </c>
       <c r="L6" s="37">
@@ -10282,7 +9884,7 @@
       <c r="G9" s="37">
         <v>1</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="83">
         <v>0.8</v>
       </c>
       <c r="I9" s="37">
@@ -10454,7 +10056,7 @@
       <c r="L11" s="37">
         <v>1</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="83">
         <v>0.3</v>
       </c>
       <c r="N11" s="37">
@@ -10507,7 +10109,7 @@
       <c r="C12" s="53">
         <v>1</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="83">
         <v>1.1000000000000001</v>
       </c>
       <c r="E12" s="37">
@@ -10614,7 +10216,7 @@
       <c r="M13" s="37">
         <v>1</v>
       </c>
-      <c r="N13" s="86">
+      <c r="N13" s="83">
         <v>0.8</v>
       </c>
       <c r="O13" s="37">
@@ -10664,7 +10266,7 @@
       <c r="C14" s="53">
         <v>1</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="83">
         <v>1</v>
       </c>
       <c r="E14" s="37">
@@ -10673,7 +10275,7 @@
       <c r="F14" s="37">
         <v>1</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="83">
         <v>0.7</v>
       </c>
       <c r="H14" s="37">
@@ -10703,7 +10305,7 @@
       <c r="P14" s="37">
         <v>0</v>
       </c>
-      <c r="Q14" s="86">
+      <c r="Q14" s="83">
         <v>0.5</v>
       </c>
       <c r="R14" s="37">
@@ -10712,7 +10314,7 @@
       <c r="S14" s="37">
         <v>1</v>
       </c>
-      <c r="T14" s="86">
+      <c r="T14" s="83">
         <v>0.5</v>
       </c>
       <c r="U14" s="37">
@@ -10741,7 +10343,7 @@
       <c r="C15" s="53">
         <v>1</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="83">
         <v>1</v>
       </c>
       <c r="E15" s="37">
@@ -10750,7 +10352,7 @@
       <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="83">
         <v>0.9</v>
       </c>
       <c r="H15" s="37">
@@ -10774,13 +10376,13 @@
       <c r="N15" s="37">
         <v>1</v>
       </c>
-      <c r="O15" s="86">
+      <c r="O15" s="83">
         <v>0.8</v>
       </c>
       <c r="P15" s="37">
         <v>1</v>
       </c>
-      <c r="Q15" s="86">
+      <c r="Q15" s="83">
         <v>0.7</v>
       </c>
       <c r="R15" s="37">
@@ -10816,7 +10418,7 @@
       <c r="C16" s="53">
         <v>1</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="83">
         <v>1</v>
       </c>
       <c r="E16" s="37">
@@ -10825,7 +10427,7 @@
       <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="83">
         <v>1</v>
       </c>
       <c r="H16" s="37">
@@ -10840,7 +10442,7 @@
       <c r="K16" s="37">
         <v>1</v>
       </c>
-      <c r="L16" s="86">
+      <c r="L16" s="83">
         <v>0.95</v>
       </c>
       <c r="M16" s="37">
@@ -10849,7 +10451,7 @@
       <c r="N16" s="37">
         <v>1</v>
       </c>
-      <c r="O16" s="86">
+      <c r="O16" s="83">
         <v>0.95</v>
       </c>
       <c r="P16" s="37">
@@ -10911,7 +10513,7 @@
       <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="83">
         <v>0</v>
       </c>
       <c r="J17" s="37">
@@ -10982,7 +10584,7 @@
       <c r="F18" s="37">
         <v>1</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="83">
         <v>0.8</v>
       </c>
       <c r="H18" s="37">
@@ -10991,7 +10593,7 @@
       <c r="I18" s="37">
         <v>1</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="83">
         <v>0</v>
       </c>
       <c r="K18" s="37">
@@ -11215,7 +10817,7 @@
       <c r="F21" s="37">
         <v>1</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="83">
         <v>0.9</v>
       </c>
       <c r="H21" s="37">
@@ -11311,7 +10913,7 @@
       <c r="K22" s="37">
         <v>1</v>
       </c>
-      <c r="L22" s="86">
+      <c r="L22" s="83">
         <v>0</v>
       </c>
       <c r="M22" s="37">
@@ -12090,67 +11692,67 @@
     <mergeCell ref="D1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="C24 C20:C22 C3:C18">
-    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="159" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C26 C20:C22 C3:C18">
-    <cfRule type="cellIs" dxfId="146" priority="158" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="158" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="cellIs" dxfId="145" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="143" priority="154" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="154" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="133" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="132" priority="143" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="143" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="127" priority="138" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="138" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="126" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="99" priority="100" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="100" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="notEqual">
+    <cfRule type="cellIs" dxfId="79" priority="86" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12555,7 +12157,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12591,7 +12193,7 @@
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
@@ -12723,7 +12325,7 @@
         <v>295</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
         <v>299</v>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9A9851-254B-454E-8965-A674511416CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83512C2-73CF-48CD-870C-6CB76941BA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12157,7 +12157,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12193,7 +12193,7 @@
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
@@ -12273,7 +12273,7 @@
         <v>200</v>
       </c>
       <c r="B11">
-        <v>0.125</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83512C2-73CF-48CD-870C-6CB76941BA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA3BFA-02B0-41D4-A653-8B41F97942B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -12193,7 +12193,7 @@
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
@@ -12303,7 +12303,7 @@
         <v>293</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>297</v>
@@ -12325,7 +12325,7 @@
         <v>295</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>299</v>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA3BFA-02B0-41D4-A653-8B41F97942B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481BA40-8249-46F0-840D-320E0FC30688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="-12585" windowWidth="10230" windowHeight="11925" tabRatio="762" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -8559,7 +8559,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8936,10 +8936,10 @@
         <v>0.25</v>
       </c>
       <c r="D11" s="81">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" s="44">
-        <v>1.8200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F11" s="28">
         <v>18</v>
@@ -8971,11 +8971,10 @@
         <v>0.25</v>
       </c>
       <c r="D12" s="81">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="44">
-        <f>E11</f>
-        <v>1.8200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F12" s="28">
         <v>18</v>
@@ -9112,10 +9111,10 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="81">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E16" s="71">
-        <v>2.0400000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -9127,7 +9126,7 @@
         <v>183</v>
       </c>
       <c r="I16" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="28">
         <v>0.1</v>
@@ -9256,7 +9255,7 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9953,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="53">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -10110,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="83">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E12" s="37">
         <v>1</v>
@@ -10967,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="53">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E23" s="37">
         <v>1</v>
@@ -12157,7 +12156,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12204,7 +12203,7 @@
         <v>199</v>
       </c>
       <c r="B4" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481BA40-8249-46F0-840D-320E0FC30688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9FF83-25FC-4DE8-8F63-0999A06843C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="-12585" windowWidth="10230" windowHeight="11925" tabRatio="762" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -4012,14 +4012,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="21"/>
+    <col min="1" max="1" width="14.59765625" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="6" customWidth="1"/>
@@ -6680,7 +6680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E2103-DFD2-7B48-8379-F801506B92ED}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
@@ -8463,9 +8463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C5AC7F-90FB-E841-BB03-7BC8B9563566}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8556,10 +8556,10 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8658,7 +8658,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="28">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="79">
         <v>5</v>
@@ -9114,7 +9114,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="71">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -9254,8 +9254,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12192,7 +12192,7 @@
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
@@ -12203,7 +12203,7 @@
         <v>199</v>
       </c>
       <c r="B4" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9FF83-25FC-4DE8-8F63-0999A06843C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F5C1A-D6BD-4B9F-A087-597A13D3C249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{03E79333-8F96-4AE8-A500-D0514A243FC8}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{A7119511-C018-4D22-A59F-2C86A581B536}">
       <text>
         <r>
           <rPr>
@@ -978,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{69E7ED8A-402F-4238-ACC4-340D35E2ED85}">
+    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{A4377AB5-AB3E-42F1-918D-32D6247DC1D3}">
       <text>
         <r>
           <rPr>
@@ -1043,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="2" shapeId="0" xr:uid="{3F673B69-86E7-4115-82B4-E8D7FD9F00FD}">
+    <comment ref="F24" authorId="2" shapeId="0" xr:uid="{F297C902-0A0B-402E-8967-100DBF863062}">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{7D0F4839-BF80-4D00-BD3A-9960493BC764}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{5753C922-AD73-419B-B8CB-AA97AA99EC3F}">
       <text>
         <r>
           <rPr>
@@ -2097,7 +2097,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3062,7 +3062,567 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="171">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4017,7 +4577,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
@@ -4034,7 +4594,7 @@
     <col min="13" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4072,7 +4632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="20">
         <v>43891</v>
       </c>
@@ -4095,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="20">
         <v>43892</v>
       </c>
@@ -4118,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="20">
         <v>43893</v>
       </c>
@@ -4141,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="20">
         <v>43894</v>
       </c>
@@ -4164,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="20">
         <v>43895</v>
       </c>
@@ -4187,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="20">
         <v>43896</v>
       </c>
@@ -4210,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="20">
         <v>43897</v>
       </c>
@@ -4233,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="20">
         <v>43898</v>
       </c>
@@ -4256,7 +4816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="20">
         <v>43899</v>
       </c>
@@ -4279,7 +4839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="20">
         <v>43900</v>
       </c>
@@ -4302,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="20">
         <v>43901</v>
       </c>
@@ -4325,7 +4885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="20">
         <v>43902</v>
       </c>
@@ -4348,7 +4908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="20">
         <v>43903</v>
       </c>
@@ -4371,7 +4931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="20">
         <v>43904</v>
       </c>
@@ -4394,7 +4954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="20">
         <v>43905</v>
       </c>
@@ -4417,7 +4977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="20">
         <v>43906</v>
       </c>
@@ -4446,7 +5006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="20">
         <v>43907</v>
       </c>
@@ -4475,7 +5035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="20">
         <v>43908</v>
       </c>
@@ -4504,7 +5064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="20">
         <v>43909</v>
       </c>
@@ -4533,7 +5093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="20">
         <v>43910</v>
       </c>
@@ -4562,7 +5122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="20">
         <v>43911</v>
       </c>
@@ -4591,7 +5151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="20">
         <v>43912</v>
       </c>
@@ -4620,7 +5180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="20">
         <v>43913</v>
       </c>
@@ -4655,7 +5215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="20">
         <v>43914</v>
       </c>
@@ -4687,7 +5247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="20">
         <v>43915</v>
       </c>
@@ -4719,7 +5279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="20">
         <v>43916</v>
       </c>
@@ -4751,7 +5311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="20">
         <v>43917</v>
       </c>
@@ -4783,7 +5343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="20">
         <v>43918</v>
       </c>
@@ -4815,7 +5375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="20">
         <v>43919</v>
       </c>
@@ -4853,7 +5413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="20">
         <v>43920</v>
       </c>
@@ -4888,7 +5448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="20">
         <v>43921</v>
       </c>
@@ -4926,7 +5486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="20">
         <v>43922</v>
       </c>
@@ -4964,7 +5524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="20">
         <v>43923</v>
       </c>
@@ -5002,7 +5562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="20">
         <v>43924</v>
       </c>
@@ -5040,7 +5600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="20">
         <v>43925</v>
       </c>
@@ -5078,7 +5638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="20">
         <v>43926</v>
       </c>
@@ -5116,7 +5676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="20">
         <v>43927</v>
       </c>
@@ -5154,7 +5714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="20">
         <v>43928</v>
       </c>
@@ -5192,7 +5752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="20">
         <v>43929</v>
       </c>
@@ -5230,7 +5790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="20">
         <v>43930</v>
       </c>
@@ -5268,7 +5828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="20">
         <v>43931</v>
       </c>
@@ -5306,7 +5866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="20">
         <v>43932</v>
       </c>
@@ -5344,7 +5904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="20">
         <v>43933</v>
       </c>
@@ -5382,7 +5942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="20">
         <v>43934</v>
       </c>
@@ -5420,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="20">
         <v>43935</v>
       </c>
@@ -5458,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="20">
         <v>43936</v>
       </c>
@@ -5496,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="20">
         <v>43937</v>
       </c>
@@ -5534,7 +6094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="20">
         <v>43938</v>
       </c>
@@ -5572,7 +6132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="20">
         <v>43939</v>
       </c>
@@ -5610,7 +6170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="20">
         <v>43940</v>
       </c>
@@ -5648,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="20">
         <v>43941</v>
       </c>
@@ -5686,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="20">
         <v>43942</v>
       </c>
@@ -5737,13 +6297,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="17" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5799,7 +6359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5855,7 +6415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5908,7 +6468,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5961,7 +6521,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -6014,7 +6574,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -6067,7 +6627,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6120,7 +6680,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6173,7 +6733,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6226,7 +6786,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6279,7 +6839,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6332,7 +6892,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6385,7 +6945,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6438,7 +6998,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6491,7 +7051,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6544,7 +7104,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6597,7 +7157,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6685,13 +7245,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="5.8984375" style="7" customWidth="1"/>
     <col min="2" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="16" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
@@ -6708,7 +7268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -6726,7 +7286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -6744,7 +7304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -6759,7 +7319,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -6774,7 +7334,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -6789,7 +7349,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -6804,7 +7364,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -6819,7 +7379,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -6834,7 +7394,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -6849,7 +7409,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -6864,7 +7424,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -6879,7 +7439,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -6894,7 +7454,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -6909,7 +7469,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -6924,7 +7484,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -6939,7 +7499,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -6954,7 +7514,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -6969,7 +7529,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -6984,7 +7544,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -6999,7 +7559,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -7014,7 +7574,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -7029,7 +7589,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -7044,7 +7604,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -7059,7 +7619,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -7074,7 +7634,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -7089,7 +7649,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
@@ -7104,7 +7664,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -7119,7 +7679,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -7134,7 +7694,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
@@ -7149,7 +7709,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
@@ -7164,7 +7724,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -7179,7 +7739,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7194,7 +7754,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7209,7 +7769,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
@@ -7224,7 +7784,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
@@ -7239,7 +7799,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -7254,7 +7814,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -7269,7 +7829,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
@@ -7284,7 +7844,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
@@ -7299,7 +7859,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -7314,7 +7874,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>76</v>
       </c>
@@ -7329,7 +7889,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
         <v>77</v>
       </c>
@@ -7344,7 +7904,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -7359,7 +7919,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
         <v>79</v>
       </c>
@@ -7374,7 +7934,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
@@ -7389,7 +7949,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>81</v>
       </c>
@@ -7404,7 +7964,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>82</v>
       </c>
@@ -7419,7 +7979,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>83</v>
       </c>
@@ -7434,7 +7994,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
@@ -7449,7 +8009,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -7464,7 +8024,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -7479,7 +8039,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
@@ -7494,7 +8054,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>88</v>
       </c>
@@ -7509,7 +8069,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>89</v>
       </c>
@@ -7524,7 +8084,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
@@ -7539,7 +8099,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>91</v>
       </c>
@@ -7554,7 +8114,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>92</v>
       </c>
@@ -7569,7 +8129,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
@@ -7584,7 +8144,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -7599,7 +8159,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
@@ -7614,7 +8174,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
@@ -7629,7 +8189,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
         <v>97</v>
       </c>
@@ -7644,7 +8204,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
@@ -7659,7 +8219,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>99</v>
       </c>
@@ -7674,7 +8234,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
         <v>100</v>
       </c>
@@ -7689,7 +8249,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>101</v>
       </c>
@@ -7704,7 +8264,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
@@ -7719,7 +8279,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
@@ -7734,7 +8294,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -7749,7 +8309,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -7764,7 +8324,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
@@ -7779,7 +8339,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>107</v>
       </c>
@@ -7794,7 +8354,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>108</v>
       </c>
@@ -7809,7 +8369,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>109</v>
       </c>
@@ -7824,7 +8384,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>110</v>
       </c>
@@ -7839,7 +8399,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
         <v>111</v>
       </c>
@@ -7854,7 +8414,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>112</v>
       </c>
@@ -7869,7 +8429,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>113</v>
       </c>
@@ -7884,7 +8444,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="8" t="s">
         <v>114</v>
       </c>
@@ -7899,7 +8459,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
@@ -7914,7 +8474,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -7929,7 +8489,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>117</v>
       </c>
@@ -7944,7 +8504,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -7959,7 +8519,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -7974,7 +8534,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -7989,7 +8549,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -8004,7 +8564,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -8019,7 +8579,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -8034,7 +8594,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -8049,7 +8609,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -8064,7 +8624,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -8079,7 +8639,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -8094,7 +8654,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -8109,7 +8669,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -8124,7 +8684,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -8139,7 +8699,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -8154,7 +8714,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="8" t="s">
         <v>132</v>
       </c>
@@ -8169,7 +8729,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="8" t="s">
         <v>133</v>
       </c>
@@ -8184,7 +8744,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="8" t="s">
         <v>134</v>
       </c>
@@ -8199,7 +8759,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="8" t="s">
         <v>135</v>
       </c>
@@ -8214,7 +8774,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="8" t="s">
         <v>136</v>
       </c>
@@ -8229,7 +8789,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="8" t="s">
         <v>137</v>
       </c>
@@ -8244,7 +8804,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="8" t="s">
         <v>138</v>
       </c>
@@ -8259,7 +8819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="8" t="s">
         <v>139</v>
       </c>
@@ -8274,7 +8834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" s="8" t="s">
         <v>140</v>
       </c>
@@ -8289,7 +8849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="8" t="s">
         <v>141</v>
       </c>
@@ -8304,7 +8864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="8" t="s">
         <v>142</v>
       </c>
@@ -8319,7 +8879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" s="8" t="s">
         <v>143</v>
       </c>
@@ -8334,7 +8894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="8" t="s">
         <v>144</v>
       </c>
@@ -8349,7 +8909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="8" t="s">
         <v>145</v>
       </c>
@@ -8364,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="8" t="s">
         <v>146</v>
       </c>
@@ -8379,7 +8939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="8" t="s">
         <v>147</v>
       </c>
@@ -8394,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="8" t="s">
         <v>148</v>
       </c>
@@ -8409,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="8" t="s">
         <v>149</v>
       </c>
@@ -8424,7 +8984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="8" t="s">
         <v>150</v>
       </c>
@@ -8439,7 +8999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="8" t="s">
         <v>151</v>
       </c>
@@ -8468,13 +9028,13 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="19" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -8485,7 +9045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
@@ -8496,7 +9056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
@@ -8505,7 +9065,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
         <v>159</v>
       </c>
@@ -8514,7 +9074,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>160</v>
       </c>
@@ -8523,7 +9083,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
@@ -8532,7 +9092,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>162</v>
       </c>
@@ -8557,12 +9117,12 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -8574,7 +9134,7 @@
     <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="18" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
@@ -8609,7 +9169,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="28" t="s">
         <v>172</v>
       </c>
@@ -8644,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -8658,7 +9218,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="28">
-        <v>0.01</v>
+        <v>0.23574999999999999</v>
       </c>
       <c r="F3" s="79">
         <v>5</v>
@@ -8679,7 +9239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="28" t="s">
         <v>176</v>
       </c>
@@ -8693,7 +9253,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="28">
-        <v>0.5</v>
+        <v>0.2137</v>
       </c>
       <c r="F4" s="79">
         <v>18</v>
@@ -8714,7 +9274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="28" t="s">
         <v>181</v>
       </c>
@@ -8725,11 +9285,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="81">
-        <f>MAX(1,5-SUMPRODUCT((C7:C15)*(D7:D15)*(E7:E15))/E5)</f>
         <v>1</v>
       </c>
       <c r="E5" s="28">
-        <v>0.1</v>
+        <v>8.6550000000000002E-2</v>
       </c>
       <c r="F5" s="28">
         <v>0</v>
@@ -8750,7 +9309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
@@ -8761,10 +9320,10 @@
         <v>0.11</v>
       </c>
       <c r="D6" s="81">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="28">
-        <v>1.155E-2</v>
+        <v>0.1778875</v>
       </c>
       <c r="F6" s="28">
         <v>0</v>
@@ -8785,7 +9344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="28" t="s">
         <v>179</v>
       </c>
@@ -8796,10 +9355,10 @@
         <v>0.01</v>
       </c>
       <c r="D7" s="81">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" s="28">
-        <v>7.3599999999999999E-2</v>
+        <v>0.33090000000000003</v>
       </c>
       <c r="F7" s="28">
         <v>18</v>
@@ -8820,7 +9379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="28" t="s">
         <v>215</v>
       </c>
@@ -8834,7 +9393,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="44">
-        <v>8.0000000000000002E-3</v>
+        <v>0.2145</v>
       </c>
       <c r="F8" s="28">
         <v>4</v>
@@ -8855,7 +9414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="28" t="s">
         <v>209</v>
       </c>
@@ -8863,16 +9422,16 @@
         <v>204</v>
       </c>
       <c r="C9" s="81">
-        <v>0.1</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D9" s="81">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E9" s="44">
-        <v>1.2800000000000001E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="F9" s="28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G9" s="28">
         <v>110</v>
@@ -8881,16 +9440,16 @@
         <v>183</v>
       </c>
       <c r="I9" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="28" t="s">
         <v>218</v>
       </c>
@@ -8898,16 +9457,16 @@
         <v>217</v>
       </c>
       <c r="C10" s="81">
-        <v>0.1</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D10" s="81">
         <v>17</v>
       </c>
       <c r="E10" s="44">
-        <v>1.2E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F10" s="28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" s="28">
         <v>110</v>
@@ -8916,16 +9475,16 @@
         <v>183</v>
       </c>
       <c r="I10" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="28" t="s">
         <v>271</v>
       </c>
@@ -8933,13 +9492,13 @@
         <v>270</v>
       </c>
       <c r="C11" s="81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="81">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="44">
-        <v>0.01</v>
+        <v>0.17954999999999999</v>
       </c>
       <c r="F11" s="28">
         <v>18</v>
@@ -8960,7 +9519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="28" t="s">
         <v>272</v>
       </c>
@@ -8968,13 +9527,13 @@
         <v>273</v>
       </c>
       <c r="C12" s="28">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="D12" s="81">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="44">
-        <v>0.01</v>
+        <v>0.2286</v>
       </c>
       <c r="F12" s="28">
         <v>18</v>
@@ -8995,7 +9554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="28" t="s">
         <v>208</v>
       </c>
@@ -9006,10 +9565,10 @@
         <v>0.114</v>
       </c>
       <c r="D13" s="81">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="E13" s="28">
-        <v>1.9599999999999999E-2</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="F13" s="28">
         <v>15</v>
@@ -9030,7 +9589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="28" t="s">
         <v>210</v>
       </c>
@@ -9041,10 +9600,10 @@
         <v>5.5E-2</v>
       </c>
       <c r="D14" s="81">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E14" s="44">
-        <v>1.2400000000000001E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="F14" s="28">
         <v>0</v>
@@ -9065,7 +9624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="28" t="s">
         <v>212</v>
       </c>
@@ -9073,13 +9632,13 @@
         <v>235</v>
       </c>
       <c r="C15" s="28">
-        <v>0.4</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D15" s="81">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E15" s="28">
-        <v>1.2400000000000001E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="F15" s="28">
         <v>0</v>
@@ -9100,7 +9659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="28" t="s">
         <v>262</v>
       </c>
@@ -9108,13 +9667,13 @@
         <v>265</v>
       </c>
       <c r="C16" s="28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D16" s="81">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E16" s="71">
-        <v>0.01</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -9135,7 +9694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="28" t="s">
         <v>263</v>
       </c>
@@ -9146,10 +9705,10 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="D17" s="81">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" s="28">
-        <v>0.21339999999999998</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
@@ -9170,7 +9729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="28" t="s">
         <v>266</v>
       </c>
@@ -9178,13 +9737,13 @@
         <v>268</v>
       </c>
       <c r="C18" s="28">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D18" s="81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="44">
-        <v>2.24E-2</v>
+        <v>0.2306</v>
       </c>
       <c r="F18" s="28">
         <v>15</v>
@@ -9205,7 +9764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="28" t="s">
         <v>289</v>
       </c>
@@ -9213,13 +9772,13 @@
         <v>290</v>
       </c>
       <c r="C19" s="28">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D19" s="81">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E19" s="44">
-        <v>0.94049999999999989</v>
+        <v>0.79762500000000003</v>
       </c>
       <c r="F19" s="28">
         <v>80</v>
@@ -9255,10 +9814,10 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15.09765625" style="30" customWidth="1"/>
     <col min="2" max="2" width="50.69921875" style="29" customWidth="1"/>
@@ -9275,7 +9834,7 @@
     <col min="28" max="29" width="8.796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="D1" s="84" t="s">
         <v>258</v>
       </c>
@@ -9302,7 +9861,7 @@
       </c>
       <c r="X1" s="85"/>
     </row>
-    <row r="2" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="49" customFormat="1">
       <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
@@ -9403,7 +9962,7 @@
       <c r="AB2" s="45"/>
       <c r="AC2" s="45"/>
     </row>
-    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="40" customFormat="1">
       <c r="A3" s="38" t="s">
         <v>255</v>
       </c>
@@ -9480,7 +10039,7 @@
       <c r="AB3" s="38"/>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="40" customFormat="1">
       <c r="A4" s="38" t="s">
         <v>231</v>
       </c>
@@ -9557,7 +10116,7 @@
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
     </row>
-    <row r="5" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="40" customFormat="1">
       <c r="A5" s="38" t="s">
         <v>220</v>
       </c>
@@ -9632,7 +10191,7 @@
       <c r="AB5" s="38"/>
       <c r="AC5" s="38"/>
     </row>
-    <row r="6" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="40" customFormat="1">
       <c r="A6" s="38" t="s">
         <v>221</v>
       </c>
@@ -9707,7 +10266,7 @@
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
     </row>
-    <row r="7" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="40" customFormat="1">
       <c r="A7" s="38" t="s">
         <v>230</v>
       </c>
@@ -9784,7 +10343,7 @@
       <c r="AB7" s="38"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="40" customFormat="1">
       <c r="A8" s="38" t="s">
         <v>233</v>
       </c>
@@ -9861,7 +10420,7 @@
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="40" customFormat="1">
       <c r="A9" s="38" t="s">
         <v>222</v>
       </c>
@@ -9941,7 +10500,7 @@
       <c r="AB9" s="38"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="40" customFormat="1">
       <c r="A10" s="38" t="s">
         <v>274</v>
       </c>
@@ -9952,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="53">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -10018,7 +10577,7 @@
       <c r="AB10" s="38"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="40" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>275</v>
       </c>
@@ -10098,7 +10657,7 @@
       <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="40" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>276</v>
       </c>
@@ -10109,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="83">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E12" s="37">
         <v>1</v>
@@ -10175,7 +10734,7 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="40" customFormat="1">
       <c r="A13" s="38" t="s">
         <v>278</v>
       </c>
@@ -10216,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="83">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O13" s="37">
         <v>1</v>
@@ -10255,7 +10814,7 @@
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="40" customFormat="1">
       <c r="A14" s="38" t="s">
         <v>252</v>
       </c>
@@ -10332,7 +10891,7 @@
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="40" customFormat="1">
       <c r="A15" s="38" t="s">
         <v>223</v>
       </c>
@@ -10407,7 +10966,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="40" customFormat="1">
       <c r="A16" s="38" t="s">
         <v>227</v>
       </c>
@@ -10487,7 +11046,7 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="40" customFormat="1">
       <c r="A17" s="38" t="s">
         <v>224</v>
       </c>
@@ -10564,7 +11123,7 @@
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="40" customFormat="1">
       <c r="A18" s="38" t="s">
         <v>225</v>
       </c>
@@ -10641,7 +11200,7 @@
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="40" customFormat="1">
       <c r="A19" s="38" t="s">
         <v>263</v>
       </c>
@@ -10716,7 +11275,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="40" customFormat="1">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -10730,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="37">
         <v>1</v>
@@ -10797,7 +11356,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A21" s="41" t="s">
         <v>228</v>
       </c>
@@ -10878,7 +11437,7 @@
       <c r="AB21" s="41"/>
       <c r="AC21" s="41"/>
     </row>
-    <row r="22" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A22" s="41" t="s">
         <v>218</v>
       </c>
@@ -10955,7 +11514,7 @@
       <c r="AB22" s="41"/>
       <c r="AC22" s="41"/>
     </row>
-    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="41" t="s">
         <v>262</v>
       </c>
@@ -10966,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="53">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="37">
         <v>1</v>
@@ -11032,7 +11591,7 @@
       <c r="AB23" s="41"/>
       <c r="AC23" s="41"/>
     </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="35" t="s">
         <v>250</v>
       </c>
@@ -11049,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="37">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="37">
         <v>0.67</v>
@@ -11113,7 +11672,7 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A25" s="35" t="s">
         <v>239</v>
       </c>
@@ -11194,7 +11753,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A26" s="35" t="s">
         <v>251</v>
       </c>
@@ -11271,7 +11830,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A27" s="35" t="s">
         <v>266</v>
       </c>
@@ -11348,7 +11907,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A28" s="35" t="s">
         <v>283</v>
       </c>
@@ -11356,7 +11915,7 @@
         <v>301</v>
       </c>
       <c r="C28" s="52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D28" s="53">
         <v>1</v>
@@ -11423,7 +11982,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A29" s="35" t="s">
         <v>291</v>
       </c>
@@ -11500,7 +12059,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A30" s="35"/>
       <c r="B30" s="31"/>
       <c r="C30" s="54"/>
@@ -11531,7 +12090,7 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="54"/>
@@ -11562,7 +12121,7 @@
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A32" s="35"/>
       <c r="B32" s="31"/>
       <c r="C32" s="54"/>
@@ -11593,7 +12152,7 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="55"/>
@@ -11624,7 +12183,7 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A34" s="35"/>
       <c r="B34" s="31"/>
       <c r="C34" s="54"/>
@@ -11655,7 +12214,7 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A35" s="35"/>
       <c r="C35" s="54"/>
       <c r="D35" s="57"/>
@@ -11690,302 +12249,247 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="D1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C24 C20:C22 C3:C18">
-    <cfRule type="cellIs" dxfId="90" priority="159" operator="equal">
+  <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P24">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C26 C20:C22 C3:C18">
-    <cfRule type="cellIs" dxfId="89" priority="158" operator="notEqual">
+  <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P26">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="cellIs" dxfId="88" priority="156" operator="equal">
+  <conditionalFormatting sqref="C25:P26">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="87" priority="155" operator="equal">
+  <conditionalFormatting sqref="C23 M23:P23 E23:K23">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="86" priority="154" operator="notEqual">
+  <conditionalFormatting sqref="C23 M23:P23 E23:K23">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="85" priority="144" operator="equal">
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="84" priority="143" operator="notEqual">
+  <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="83" priority="138" operator="notEqual">
+  <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="82" priority="137" operator="equal">
+  <conditionalFormatting sqref="Q25:S26">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:P19">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:P19">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:S19">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:S19">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:P27">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:P27">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:S27">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:S27">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T6">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T6 T25:T26">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T26">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q13">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q13">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S13">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S13">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T13">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T13">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:P28">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:P28">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:S28">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:S28">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="81" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="80" priority="100" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="79" priority="86" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:P11 D14:P18 D20:P22 D23 D24:P24">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:P11 D14:P18 D20:P22 D23 D24:P26">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:P26">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="72" priority="65" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:S26">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="67" priority="69" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:P19">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:P19">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:P27">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:P27">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T6">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T6 T25:T26">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T26">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="notEqual">
       <formula>1</formula>
     </cfRule>
@@ -12055,12 +12559,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:P29">
+  <conditionalFormatting sqref="C29:P29">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:P29">
+  <conditionalFormatting sqref="C29:P29">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -12156,16 +12660,16 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
@@ -12176,7 +12680,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>195</v>
       </c>
@@ -12187,26 +12691,26 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="22" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>199</v>
       </c>
       <c r="B4" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -12217,7 +12721,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -12229,7 +12733,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -12237,7 +12741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -12248,7 +12752,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -12256,7 +12760,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12267,7 +12771,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -12275,7 +12779,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12286,18 +12790,18 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>302</v>
       </c>
       <c r="B13">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="C13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -12308,18 +12812,18 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>294</v>
       </c>
       <c r="B15">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -12330,7 +12834,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -12354,9 +12858,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -12370,7 +12874,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="75" t="s">
         <v>13</v>
       </c>
@@ -12385,7 +12889,7 @@
         <v>0.22103804882791139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="75" t="s">
         <v>14</v>
       </c>
@@ -12400,7 +12904,7 @@
         <v>0.56577086995561066</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="75" t="s">
         <v>15</v>
       </c>
@@ -12415,7 +12919,7 @@
         <v>0.67502241831755339</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="75" t="s">
         <v>16</v>
       </c>
@@ -12430,7 +12934,7 @@
         <v>0.32347484856747233</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="75" t="s">
         <v>17</v>
       </c>
@@ -12445,7 +12949,7 @@
         <v>0.15124580743042426</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="75" t="s">
         <v>18</v>
       </c>
@@ -12460,7 +12964,7 @@
         <v>0.10410123646831862</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="C8" s="77" t="s">
         <v>287</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F5C1A-D6BD-4B9F-A087-597A13D3C249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5E994A-410B-4633-BC10-93B7A3771654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -2092,10 +2092,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2826,7 +2825,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2982,7 +2981,6 @@
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3062,7 +3060,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="171">
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
@@ -3623,643 +3621,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4924,7 +4285,7 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="73">
+      <c r="K14" s="72">
         <v>500</v>
       </c>
       <c r="L14" s="6">
@@ -4947,7 +4308,7 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="72">
         <v>500</v>
       </c>
       <c r="L15" s="6">
@@ -4970,7 +4331,7 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="72">
         <v>500</v>
       </c>
       <c r="L16" s="6">
@@ -4999,7 +4360,7 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="72">
         <v>500</v>
       </c>
       <c r="L17" s="6">
@@ -5028,7 +4389,7 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="73">
+      <c r="K18" s="72">
         <v>1000</v>
       </c>
       <c r="L18" s="6">
@@ -6363,52 +5724,52 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="81">
         <v>0.65986800000000001</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="81">
         <v>0.503965</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="81">
         <v>0.21477299999999999</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="81">
         <v>9.4509999999999997E-2</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="81">
         <v>0.15807499999999999</v>
       </c>
-      <c r="G2" s="82">
+      <c r="G2" s="81">
         <v>0.33119399999999999</v>
       </c>
-      <c r="H2" s="82">
+      <c r="H2" s="81">
         <v>0.61729000000000001</v>
       </c>
-      <c r="I2" s="82">
+      <c r="I2" s="81">
         <v>0.62299000000000004</v>
       </c>
-      <c r="J2" s="82">
+      <c r="J2" s="81">
         <v>0.22986699999999999</v>
       </c>
-      <c r="K2" s="82">
+      <c r="K2" s="81">
         <v>7.7709E-2</v>
       </c>
-      <c r="L2" s="82">
+      <c r="L2" s="81">
         <v>7.2123999999999994E-2</v>
       </c>
-      <c r="M2" s="82">
+      <c r="M2" s="81">
         <v>3.5873000000000002E-2</v>
       </c>
-      <c r="N2" s="82">
+      <c r="N2" s="81">
         <v>2.9784999999999999E-2</v>
       </c>
-      <c r="O2" s="82">
+      <c r="O2" s="81">
         <v>9.92E-3</v>
       </c>
-      <c r="P2" s="82">
+      <c r="P2" s="81">
         <v>4.2420000000000001E-3</v>
       </c>
-      <c r="Q2" s="82">
+      <c r="Q2" s="81">
         <v>6.1619999999999999E-3</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -6419,52 +5780,52 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="81">
         <v>0.31477699999999997</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="81">
         <v>0.89546000000000003</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="81">
         <v>0.412466</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="81">
         <v>0.12892600000000001</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="81">
         <v>3.9333E-2</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="81">
         <v>0.149588</v>
       </c>
-      <c r="H3" s="82">
+      <c r="H3" s="81">
         <v>0.431338</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="81">
         <v>0.62494499999999997</v>
       </c>
-      <c r="J3" s="82">
+      <c r="J3" s="81">
         <v>0.47687299999999999</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="81">
         <v>0.162493</v>
       </c>
-      <c r="L3" s="82">
+      <c r="L3" s="81">
         <v>4.9998000000000001E-2</v>
       </c>
-      <c r="M3" s="82">
+      <c r="M3" s="81">
         <v>2.9618999999999999E-2</v>
       </c>
-      <c r="N3" s="82">
+      <c r="N3" s="81">
         <v>1.6726000000000001E-2</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="81">
         <v>9.5239999999999995E-3</v>
       </c>
-      <c r="P3" s="82">
+      <c r="P3" s="81">
         <v>4.1780000000000003E-3</v>
       </c>
-      <c r="Q3" s="82">
+      <c r="Q3" s="81">
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
@@ -6472,52 +5833,52 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="81">
         <v>0.13282099999999999</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="81">
         <v>0.40507300000000002</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="81">
         <v>1.433889</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="81">
         <v>0.39880599999999999</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="81">
         <v>5.5355000000000001E-2</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="81">
         <v>3.4249000000000002E-2</v>
       </c>
-      <c r="H4" s="82">
+      <c r="H4" s="81">
         <v>0.119908</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="81">
         <v>0.375305</v>
       </c>
-      <c r="J4" s="82">
+      <c r="J4" s="81">
         <v>0.56235800000000002</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="81">
         <v>0.27133200000000002</v>
       </c>
-      <c r="L4" s="82">
+      <c r="L4" s="81">
         <v>7.5578999999999993E-2</v>
       </c>
-      <c r="M4" s="82">
+      <c r="M4" s="81">
         <v>1.8716E-2</v>
       </c>
-      <c r="N4" s="82">
+      <c r="N4" s="81">
         <v>1.4074E-2</v>
       </c>
-      <c r="O4" s="82">
+      <c r="O4" s="81">
         <v>1.0442E-2</v>
       </c>
-      <c r="P4" s="82">
+      <c r="P4" s="81">
         <v>7.698E-3</v>
       </c>
-      <c r="Q4" s="82">
+      <c r="Q4" s="81">
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
@@ -6525,52 +5886,52 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="81">
         <v>6.1564000000000001E-2</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="81">
         <v>0.116366</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="81">
         <v>0.45097300000000001</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="81">
         <v>1.1951130000000001</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="81">
         <v>0.18948100000000001</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="81">
         <v>4.1827000000000003E-2</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="81">
         <v>2.5562999999999999E-2</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="81">
         <v>0.15873200000000001</v>
       </c>
-      <c r="J5" s="82">
+      <c r="J5" s="81">
         <v>0.359678</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="81">
         <v>0.46463599999999999</v>
       </c>
-      <c r="L5" s="82">
+      <c r="L5" s="81">
         <v>0.211951</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="81">
         <v>4.7126000000000001E-2</v>
       </c>
-      <c r="N5" s="82">
+      <c r="N5" s="81">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="O5" s="82">
+      <c r="O5" s="81">
         <v>1.1908E-2</v>
       </c>
-      <c r="P5" s="82">
+      <c r="P5" s="81">
         <v>4.9189999999999998E-3</v>
       </c>
-      <c r="Q5" s="82">
+      <c r="Q5" s="81">
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
@@ -6578,52 +5939,52 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="81">
         <v>0.14102200000000001</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="81">
         <v>6.4642000000000005E-2</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <v>8.3546999999999996E-2</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="81">
         <v>0.40224300000000002</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="81">
         <v>1.1921930000000001</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="81">
         <v>0.248001</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="81">
         <v>4.6676000000000002E-2</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="81">
         <v>2.2216E-2</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="81">
         <v>0.139739</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="81">
         <v>0.43590299999999998</v>
       </c>
-      <c r="L6" s="82">
+      <c r="L6" s="81">
         <v>0.28106300000000001</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="81">
         <v>0.103923</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="81">
         <v>2.0109999999999999E-2</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="81">
         <v>4.0249999999999999E-3</v>
       </c>
-      <c r="P6" s="82">
+      <c r="P6" s="81">
         <v>5.359E-3</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="81">
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
@@ -6631,52 +5992,52 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="81">
         <v>0.42515599999999998</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="81">
         <v>0.13725799999999999</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="81">
         <v>4.3091999999999998E-2</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="81">
         <v>8.3335999999999993E-2</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="81">
         <v>0.27788800000000002</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="81">
         <v>1.089831</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="81">
         <v>0.22731799999999999</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="81">
         <v>4.1119000000000003E-2</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="81">
         <v>2.086E-2</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="81">
         <v>7.6337000000000002E-2</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="81">
         <v>0.20813300000000001</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="81">
         <v>0.106445</v>
       </c>
-      <c r="N7" s="82">
+      <c r="N7" s="81">
         <v>4.3403999999999998E-2</v>
       </c>
-      <c r="O7" s="82">
+      <c r="O7" s="81">
         <v>1.0788000000000001E-2</v>
       </c>
-      <c r="P7" s="82">
+      <c r="P7" s="81">
         <v>1.526E-3</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="Q7" s="81">
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
@@ -6684,52 +6045,52 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <v>0.63256400000000002</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="81">
         <v>0.52978800000000004</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="81">
         <v>0.221806</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="81">
         <v>4.1730000000000003E-2</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="81">
         <v>6.4195000000000002E-2</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="81">
         <v>0.22583800000000001</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="81">
         <v>0.93633699999999997</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="81">
         <v>0.236536</v>
       </c>
-      <c r="J8" s="82">
+      <c r="J8" s="81">
         <v>7.1504999999999999E-2</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="81">
         <v>2.2377000000000001E-2</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L8" s="81">
         <v>4.0784000000000001E-2</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="81">
         <v>6.2238000000000002E-2</v>
       </c>
-      <c r="N8" s="82">
+      <c r="N8" s="81">
         <v>5.9047000000000002E-2</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="81">
         <v>1.0583E-2</v>
       </c>
-      <c r="P8" s="82">
+      <c r="P8" s="81">
         <v>5.4229999999999999E-3</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="81">
         <v>3.594E-3</v>
       </c>
     </row>
@@ -6737,52 +6098,52 @@
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="81">
         <v>0.53381800000000001</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="81">
         <v>0.76395199999999996</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="81">
         <v>0.56459199999999998</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="81">
         <v>0.20846700000000001</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="81">
         <v>3.1192000000000001E-2</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="81">
         <v>4.0858999999999999E-2</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="81">
         <v>0.16445899999999999</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="81">
         <v>0.94722799999999996</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="81">
         <v>0.174175</v>
       </c>
-      <c r="K9" s="82">
+      <c r="K9" s="81">
         <v>4.2037999999999999E-2</v>
       </c>
-      <c r="L9" s="82">
+      <c r="L9" s="81">
         <v>2.5260000000000001E-2</v>
       </c>
-      <c r="M9" s="82">
+      <c r="M9" s="81">
         <v>1.8571000000000001E-2</v>
       </c>
-      <c r="N9" s="82">
+      <c r="N9" s="81">
         <v>3.2816999999999999E-2</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O9" s="81">
         <v>1.9281E-2</v>
       </c>
-      <c r="P9" s="82">
+      <c r="P9" s="81">
         <v>9.4479999999999998E-3</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="81">
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
@@ -6790,52 +6151,52 @@
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <v>0.24148500000000001</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="81">
         <v>0.53524700000000003</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="81">
         <v>0.726603</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="81">
         <v>0.44772899999999999</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="81">
         <v>0.109945</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="81">
         <v>3.4540000000000001E-2</v>
       </c>
-      <c r="H10" s="82">
+      <c r="H10" s="81">
         <v>7.7090000000000006E-2</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="81">
         <v>0.18113699999999999</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="81">
         <v>0.77208200000000005</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="81">
         <v>0.16217000000000001</v>
       </c>
-      <c r="L10" s="82">
+      <c r="L10" s="81">
         <v>3.7186999999999998E-2</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="81">
         <v>7.443E-3</v>
       </c>
-      <c r="N10" s="82">
+      <c r="N10" s="81">
         <v>2.1396999999999999E-2</v>
       </c>
-      <c r="O10" s="82">
+      <c r="O10" s="81">
         <v>2.512E-2</v>
       </c>
-      <c r="P10" s="82">
+      <c r="P10" s="81">
         <v>9.8720000000000006E-3</v>
       </c>
-      <c r="Q10" s="82">
+      <c r="Q10" s="81">
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
@@ -6843,52 +6204,52 @@
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="81">
         <v>0.122279</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="81">
         <v>0.276169</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="81">
         <v>0.46051500000000001</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="81">
         <v>0.61675800000000003</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="81">
         <v>0.32389400000000002</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="81">
         <v>7.7887999999999999E-2</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="81">
         <v>3.0709E-2</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="81">
         <v>8.0238000000000004E-2</v>
       </c>
-      <c r="J11" s="82">
+      <c r="J11" s="81">
         <v>0.164073</v>
       </c>
-      <c r="K11" s="82">
+      <c r="K11" s="81">
         <v>0.67377399999999998</v>
       </c>
-      <c r="L11" s="82">
+      <c r="L11" s="81">
         <v>0.140821</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="81">
         <v>2.7285E-2</v>
       </c>
-      <c r="N11" s="82">
+      <c r="N11" s="81">
         <v>1.1768000000000001E-2</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="81">
         <v>9.0639999999999991E-3</v>
       </c>
-      <c r="P11" s="82">
+      <c r="P11" s="81">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="81">
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
@@ -6896,52 +6257,52 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="81">
         <v>0.202735</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="81">
         <v>0.16897499999999999</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="81">
         <v>0.30529200000000001</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="81">
         <v>0.41128100000000001</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="81">
         <v>0.39054499999999998</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="81">
         <v>0.23483599999999999</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="81">
         <v>9.1048000000000004E-2</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="81">
         <v>4.861E-2</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="81">
         <v>7.9533999999999994E-2</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="81">
         <v>0.187475</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="81">
         <v>0.66868700000000003</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="81">
         <v>0.13591600000000001</v>
       </c>
-      <c r="N12" s="82">
+      <c r="N12" s="81">
         <v>2.6984999999999999E-2</v>
       </c>
-      <c r="O12" s="82">
+      <c r="O12" s="81">
         <v>8.7309999999999992E-3</v>
       </c>
-      <c r="P12" s="82">
+      <c r="P12" s="81">
         <v>9.3959999999999998E-3</v>
       </c>
-      <c r="Q12" s="82">
+      <c r="Q12" s="81">
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
@@ -6949,52 +6310,52 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="81">
         <v>0.32726300000000003</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="81">
         <v>0.32473099999999999</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <v>0.21896099999999999</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="81">
         <v>0.30264000000000002</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="81">
         <v>0.28360600000000002</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="81">
         <v>0.32831300000000002</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="81">
         <v>0.25703799999999999</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="81">
         <v>8.4280999999999995E-2</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="81">
         <v>4.2615E-2</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="81">
         <v>0.12336</v>
       </c>
-      <c r="L13" s="82">
+      <c r="L13" s="81">
         <v>0.21965000000000001</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="81">
         <v>0.70332499999999998</v>
       </c>
-      <c r="N13" s="82">
+      <c r="N13" s="81">
         <v>0.14740900000000001</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="81">
         <v>4.3435000000000001E-2</v>
       </c>
-      <c r="P13" s="82">
+      <c r="P13" s="81">
         <v>7.1599999999999997E-3</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="81">
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
@@ -7002,52 +6363,52 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="81">
         <v>0.39001200000000003</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="81">
         <v>0.34861300000000001</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="81">
         <v>0.24646000000000001</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="81">
         <v>0.221558</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="81">
         <v>0.154866</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="81">
         <v>0.21662200000000001</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="81">
         <v>0.292574</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="81">
         <v>0.21071000000000001</v>
       </c>
-      <c r="J14" s="82">
+      <c r="J14" s="81">
         <v>9.5468999999999998E-2</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="81">
         <v>5.0065999999999999E-2</v>
       </c>
-      <c r="L14" s="82">
+      <c r="L14" s="81">
         <v>9.9140000000000006E-2</v>
       </c>
-      <c r="M14" s="82">
+      <c r="M14" s="81">
         <v>0.20558000000000001</v>
       </c>
-      <c r="N14" s="82">
+      <c r="N14" s="81">
         <v>0.67306100000000002</v>
       </c>
-      <c r="O14" s="82">
+      <c r="O14" s="81">
         <v>0.117825</v>
       </c>
-      <c r="P14" s="82">
+      <c r="P14" s="81">
         <v>2.2641000000000001E-2</v>
       </c>
-      <c r="Q14" s="82">
+      <c r="Q14" s="81">
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
@@ -7055,52 +6416,52 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="81">
         <v>0.27691300000000002</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="81">
         <v>0.40850700000000001</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="81">
         <v>0.36937399999999998</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="81">
         <v>0.194775</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="81">
         <v>0.13383900000000001</v>
       </c>
-      <c r="G15" s="82">
+      <c r="G15" s="81">
         <v>0.15487699999999999</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="81">
         <v>0.26593499999999998</v>
       </c>
-      <c r="I15" s="82">
+      <c r="I15" s="81">
         <v>0.315639</v>
       </c>
-      <c r="J15" s="82">
+      <c r="J15" s="81">
         <v>0.26062400000000002</v>
       </c>
-      <c r="K15" s="82">
+      <c r="K15" s="81">
         <v>8.1602999999999995E-2</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="81">
         <v>7.9352000000000006E-2</v>
       </c>
-      <c r="M15" s="82">
+      <c r="M15" s="81">
         <v>0.11375300000000001</v>
       </c>
-      <c r="N15" s="82">
+      <c r="N15" s="81">
         <v>0.165434</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15" s="81">
         <v>0.67988899999999997</v>
       </c>
-      <c r="P15" s="82">
+      <c r="P15" s="81">
         <v>0.102949</v>
       </c>
-      <c r="Q15" s="82">
+      <c r="Q15" s="81">
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
@@ -7108,52 +6469,52 @@
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="81">
         <v>0.124528</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="81">
         <v>0.37307600000000002</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="81">
         <v>0.33174900000000002</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="81">
         <v>0.26471499999999998</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="81">
         <v>5.3835000000000001E-2</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="81">
         <v>0.113358</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="81">
         <v>0.102258</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="81">
         <v>0.24501899999999999</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="81">
         <v>0.23438200000000001</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="81">
         <v>0.18404599999999999</v>
       </c>
-      <c r="L16" s="82">
+      <c r="L16" s="81">
         <v>0.10995099999999999</v>
       </c>
-      <c r="M16" s="82">
+      <c r="M16" s="81">
         <v>5.3179999999999998E-2</v>
       </c>
-      <c r="N16" s="82">
+      <c r="N16" s="81">
         <v>0.104953</v>
       </c>
-      <c r="O16" s="82">
+      <c r="O16" s="81">
         <v>0.15714600000000001</v>
       </c>
-      <c r="P16" s="82">
+      <c r="P16" s="81">
         <v>0.434751</v>
       </c>
-      <c r="Q16" s="82">
+      <c r="Q16" s="81">
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
@@ -7161,52 +6522,52 @@
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="81">
         <v>0.223936</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="81">
         <v>0.29398800000000003</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="81">
         <v>0.46812700000000002</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="81">
         <v>0.36628500000000003</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="81">
         <v>9.4772999999999996E-2</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="81">
         <v>8.3843000000000001E-2</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="81">
         <v>0.104393</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="81">
         <v>0.23522100000000001</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="81">
         <v>0.28778300000000001</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="81">
         <v>0.26388600000000001</v>
       </c>
-      <c r="L17" s="82">
+      <c r="L17" s="81">
         <v>0.29662300000000003</v>
       </c>
-      <c r="M17" s="82">
+      <c r="M17" s="81">
         <v>0.126778</v>
       </c>
-      <c r="N17" s="82">
+      <c r="N17" s="81">
         <v>4.9124000000000001E-2</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17" s="81">
         <v>9.4159999999999994E-2</v>
       </c>
-      <c r="P17" s="82">
+      <c r="P17" s="81">
         <v>0.10020999999999999</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="81">
         <v>0.304143</v>
       </c>
     </row>
@@ -9117,9 +8478,9 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9176,22 +8537,22 @@
       <c r="B2" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="79">
-        <v>1</v>
-      </c>
-      <c r="D2" s="79">
+      <c r="C2" s="78">
+        <v>1</v>
+      </c>
+      <c r="D2" s="78">
         <v>4</v>
       </c>
-      <c r="E2" s="79">
-        <v>1</v>
-      </c>
-      <c r="F2" s="79">
-        <v>0</v>
-      </c>
-      <c r="G2" s="79">
+      <c r="E2" s="78">
+        <v>1</v>
+      </c>
+      <c r="F2" s="78">
+        <v>0</v>
+      </c>
+      <c r="G2" s="78">
         <v>110</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="78" t="s">
         <v>260</v>
       </c>
       <c r="I2" s="28">
@@ -9211,22 +8572,22 @@
       <c r="B3" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="79">
-        <v>1</v>
-      </c>
-      <c r="D3" s="79">
+      <c r="C3" s="78">
+        <v>1</v>
+      </c>
+      <c r="D3" s="78">
         <v>21</v>
       </c>
-      <c r="E3" s="28">
-        <v>0.23574999999999999</v>
-      </c>
-      <c r="F3" s="79">
+      <c r="E3" s="44">
+        <v>0.13389041095890411</v>
+      </c>
+      <c r="F3" s="78">
         <v>5</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="78">
         <v>18</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="78" t="s">
         <v>260</v>
       </c>
       <c r="I3" s="28">
@@ -9246,22 +8607,22 @@
       <c r="B4" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="79">
-        <v>1</v>
-      </c>
-      <c r="D4" s="80">
+      <c r="C4" s="78">
+        <v>1</v>
+      </c>
+      <c r="D4" s="79">
         <v>5</v>
       </c>
-      <c r="E4" s="28">
-        <v>0.2137</v>
-      </c>
-      <c r="F4" s="79">
+      <c r="E4" s="44">
+        <v>0.15656</v>
+      </c>
+      <c r="F4" s="78">
         <v>18</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="78">
         <v>65</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="78" t="s">
         <v>260</v>
       </c>
       <c r="I4" s="28">
@@ -9281,14 +8642,14 @@
       <c r="B5" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="81">
-        <v>1</v>
-      </c>
-      <c r="D5" s="81">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28">
-        <v>8.6550000000000002E-2</v>
+      <c r="C5" s="80">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80">
+        <v>1</v>
+      </c>
+      <c r="E5" s="44">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F5" s="28">
         <v>0</v>
@@ -9296,7 +8657,7 @@
       <c r="G5" s="28">
         <v>110</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="28">
@@ -9316,14 +8677,14 @@
       <c r="B6" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <v>0.11</v>
       </c>
-      <c r="D6" s="81">
-        <v>13</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0.1778875</v>
+      <c r="D6" s="80">
+        <v>10</v>
+      </c>
+      <c r="E6" s="44">
+        <v>2.8493150684931509E-2</v>
       </c>
       <c r="F6" s="28">
         <v>0</v>
@@ -9331,7 +8692,7 @@
       <c r="G6" s="28">
         <v>110</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="78" t="s">
         <v>260</v>
       </c>
       <c r="I6" s="28">
@@ -9351,14 +8712,14 @@
       <c r="B7" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="81">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="81">
-        <v>17</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0.33090000000000003</v>
+      <c r="C7" s="80">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D7" s="80">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>7.1232876712328766E-2</v>
       </c>
       <c r="F7" s="28">
         <v>18</v>
@@ -9366,7 +8727,7 @@
       <c r="G7" s="28">
         <v>40</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="78" t="s">
         <v>182</v>
       </c>
       <c r="I7" s="28">
@@ -9386,14 +8747,14 @@
       <c r="B8" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="80">
         <v>0.34</v>
       </c>
-      <c r="D8" s="81">
-        <v>23</v>
+      <c r="D8" s="80">
+        <v>20</v>
       </c>
       <c r="E8" s="44">
-        <v>0.2145</v>
+        <v>4.2739726027397257E-2</v>
       </c>
       <c r="F8" s="28">
         <v>4</v>
@@ -9401,7 +8762,7 @@
       <c r="G8" s="28">
         <v>30</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="78" t="s">
         <v>260</v>
       </c>
       <c r="I8" s="28">
@@ -9421,14 +8782,14 @@
       <c r="B9" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="81">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D9" s="81">
+      <c r="C9" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="80">
         <v>7</v>
       </c>
       <c r="E9" s="44">
-        <v>4.07E-2</v>
+        <v>3.2876712328767121E-3</v>
       </c>
       <c r="F9" s="28">
         <v>18</v>
@@ -9436,7 +8797,7 @@
       <c r="G9" s="28">
         <v>110</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I9" s="28">
@@ -9456,14 +8817,14 @@
       <c r="B10" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="81">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D10" s="81">
+      <c r="C10" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="80">
         <v>17</v>
       </c>
       <c r="E10" s="44">
-        <v>0.17799999999999999</v>
+        <v>1.7534246575342468E-2</v>
       </c>
       <c r="F10" s="28">
         <v>18</v>
@@ -9471,7 +8832,7 @@
       <c r="G10" s="28">
         <v>110</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I10" s="28">
@@ -9491,14 +8852,14 @@
       <c r="B11" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="81">
-        <v>13</v>
+      <c r="C11" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="80">
+        <v>12</v>
       </c>
       <c r="E11" s="44">
-        <v>0.17954999999999999</v>
+        <v>4.2739726027397264E-2</v>
       </c>
       <c r="F11" s="28">
         <v>18</v>
@@ -9506,7 +8867,7 @@
       <c r="G11" s="28">
         <v>110</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I11" s="28">
@@ -9527,13 +8888,13 @@
         <v>273</v>
       </c>
       <c r="C12" s="28">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="81">
-        <v>19</v>
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="80">
+        <v>15</v>
       </c>
       <c r="E12" s="44">
-        <v>0.2286</v>
+        <v>4.2739726027397257E-2</v>
       </c>
       <c r="F12" s="28">
         <v>18</v>
@@ -9541,7 +8902,7 @@
       <c r="G12" s="28">
         <v>110</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I12" s="28">
@@ -9564,11 +8925,11 @@
       <c r="C13" s="28">
         <v>0.114</v>
       </c>
-      <c r="D13" s="81">
-        <v>62</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0.21740000000000001</v>
+      <c r="D13" s="80">
+        <v>10</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.17808219178082191</v>
       </c>
       <c r="F13" s="28">
         <v>15</v>
@@ -9576,7 +8937,7 @@
       <c r="G13" s="28">
         <v>110</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I13" s="28">
@@ -9599,11 +8960,11 @@
       <c r="C14" s="28">
         <v>5.5E-2</v>
       </c>
-      <c r="D14" s="81">
-        <v>7</v>
+      <c r="D14" s="80">
+        <v>1</v>
       </c>
       <c r="E14" s="44">
-        <v>4.0599999999999997E-2</v>
+        <v>1.2328767123287671E-3</v>
       </c>
       <c r="F14" s="28">
         <v>0</v>
@@ -9611,7 +8972,7 @@
       <c r="G14" s="28">
         <v>110</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I14" s="28">
@@ -9632,13 +8993,13 @@
         <v>235</v>
       </c>
       <c r="C15" s="28">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D15" s="81">
-        <v>7</v>
-      </c>
-      <c r="E15" s="28">
-        <v>4.0599999999999997E-2</v>
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="80">
+        <v>6</v>
+      </c>
+      <c r="E15" s="44">
+        <v>1.0684931506849316E-2</v>
       </c>
       <c r="F15" s="28">
         <v>0</v>
@@ -9646,7 +9007,7 @@
       <c r="G15" s="28">
         <v>110</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I15" s="28">
@@ -9669,11 +9030,11 @@
       <c r="C16" s="28">
         <v>0.2</v>
       </c>
-      <c r="D16" s="81">
-        <v>29</v>
-      </c>
-      <c r="E16" s="71">
-        <v>0.18010000000000001</v>
+      <c r="D16" s="80">
+        <v>20</v>
+      </c>
+      <c r="E16" s="44">
+        <v>5.1369863013698627E-3</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -9681,7 +9042,7 @@
       <c r="G16" s="28">
         <v>110</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I16" s="28">
@@ -9704,11 +9065,11 @@
       <c r="C17" s="28">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D17" s="81">
-        <v>15</v>
-      </c>
-      <c r="E17" s="28">
-        <v>0.18779999999999999</v>
+      <c r="D17" s="80">
+        <v>18</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.17808219178082191</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
@@ -9716,7 +9077,7 @@
       <c r="G17" s="28">
         <v>6</v>
       </c>
-      <c r="H17" s="79" t="s">
+      <c r="H17" s="78" t="s">
         <v>260</v>
       </c>
       <c r="I17" s="28">
@@ -9737,13 +9098,13 @@
         <v>268</v>
       </c>
       <c r="C18" s="28">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D18" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="80">
         <v>5</v>
       </c>
       <c r="E18" s="44">
-        <v>0.2306</v>
+        <v>4.9863013698630131E-2</v>
       </c>
       <c r="F18" s="28">
         <v>15</v>
@@ -9751,7 +9112,7 @@
       <c r="G18" s="28">
         <v>110</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="78" t="s">
         <v>183</v>
       </c>
       <c r="I18" s="28">
@@ -9774,11 +9135,11 @@
       <c r="C19" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D19" s="81">
-        <v>15</v>
+      <c r="D19" s="80">
+        <v>14</v>
       </c>
       <c r="E19" s="44">
-        <v>0.79762500000000003</v>
+        <v>0.97024999999999995</v>
       </c>
       <c r="F19" s="28">
         <v>80</v>
@@ -9786,7 +9147,7 @@
       <c r="G19" s="28">
         <v>110</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="78" t="s">
         <v>260</v>
       </c>
       <c r="I19" s="28">
@@ -9813,8 +9174,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -9835,31 +9196,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="84"/>
       <c r="V1" s="60"/>
-      <c r="W1" s="84" t="s">
+      <c r="W1" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="85"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:29" s="49" customFormat="1">
       <c r="A2" s="45" t="s">
@@ -10147,7 +9508,7 @@
       <c r="J5" s="37">
         <v>1</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="82">
         <v>0.1</v>
       </c>
       <c r="L5" s="37">
@@ -10222,8 +9583,8 @@
       <c r="J6" s="37">
         <v>1</v>
       </c>
-      <c r="K6" s="83">
-        <v>0.5</v>
+      <c r="K6" s="82">
+        <v>0.55000000000000004</v>
       </c>
       <c r="L6" s="37">
         <v>1</v>
@@ -10442,8 +9803,8 @@
       <c r="G9" s="37">
         <v>1</v>
       </c>
-      <c r="H9" s="83">
-        <v>0.8</v>
+      <c r="H9" s="82">
+        <v>0.55000000000000004</v>
       </c>
       <c r="I9" s="37">
         <v>1</v>
@@ -10614,8 +9975,8 @@
       <c r="L11" s="37">
         <v>1</v>
       </c>
-      <c r="M11" s="83">
-        <v>0.3</v>
+      <c r="M11" s="82">
+        <v>0.27500000000000002</v>
       </c>
       <c r="N11" s="37">
         <v>1</v>
@@ -10667,8 +10028,8 @@
       <c r="C12" s="53">
         <v>1</v>
       </c>
-      <c r="D12" s="83">
-        <v>1.1000000000000001</v>
+      <c r="D12" s="82">
+        <v>1.0607142857142859</v>
       </c>
       <c r="E12" s="37">
         <v>1</v>
@@ -10774,8 +10135,8 @@
       <c r="M13" s="37">
         <v>1</v>
       </c>
-      <c r="N13" s="83">
-        <v>0.5</v>
+      <c r="N13" s="82">
+        <v>0.4</v>
       </c>
       <c r="O13" s="37">
         <v>1</v>
@@ -10824,8 +10185,8 @@
       <c r="C14" s="53">
         <v>1</v>
       </c>
-      <c r="D14" s="83">
-        <v>1</v>
+      <c r="D14" s="82">
+        <v>1.2</v>
       </c>
       <c r="E14" s="37">
         <v>1</v>
@@ -10833,8 +10194,8 @@
       <c r="F14" s="37">
         <v>1</v>
       </c>
-      <c r="G14" s="83">
-        <v>0.7</v>
+      <c r="G14" s="82">
+        <v>0.1</v>
       </c>
       <c r="H14" s="37">
         <v>1</v>
@@ -10858,13 +10219,13 @@
         <v>1</v>
       </c>
       <c r="O14" s="37">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P14" s="37">
         <v>0</v>
       </c>
-      <c r="Q14" s="83">
-        <v>0.5</v>
+      <c r="Q14" s="82">
+        <v>0.2</v>
       </c>
       <c r="R14" s="37">
         <v>0</v>
@@ -10872,8 +10233,8 @@
       <c r="S14" s="37">
         <v>1</v>
       </c>
-      <c r="T14" s="83">
-        <v>0.5</v>
+      <c r="T14" s="82">
+        <v>0.3</v>
       </c>
       <c r="U14" s="37">
         <v>1</v>
@@ -10901,8 +10262,8 @@
       <c r="C15" s="53">
         <v>1</v>
       </c>
-      <c r="D15" s="83">
-        <v>1</v>
+      <c r="D15" s="82">
+        <v>1.05</v>
       </c>
       <c r="E15" s="37">
         <v>1</v>
@@ -10910,8 +10271,8 @@
       <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="83">
-        <v>0.9</v>
+      <c r="G15" s="82">
+        <v>0.5</v>
       </c>
       <c r="H15" s="37">
         <v>1</v>
@@ -10926,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="37">
         <v>1</v>
@@ -10934,14 +10295,14 @@
       <c r="N15" s="37">
         <v>1</v>
       </c>
-      <c r="O15" s="83">
-        <v>0.8</v>
+      <c r="O15" s="82">
+        <v>0.7</v>
       </c>
       <c r="P15" s="37">
         <v>1</v>
       </c>
-      <c r="Q15" s="83">
-        <v>0.7</v>
+      <c r="Q15" s="82">
+        <v>0.75</v>
       </c>
       <c r="R15" s="37">
         <v>0</v>
@@ -10976,8 +10337,8 @@
       <c r="C16" s="53">
         <v>1</v>
       </c>
-      <c r="D16" s="83">
-        <v>1</v>
+      <c r="D16" s="82">
+        <v>1.0249999999999999</v>
       </c>
       <c r="E16" s="37">
         <v>1</v>
@@ -10985,8 +10346,8 @@
       <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="83">
-        <v>1</v>
+      <c r="G16" s="82">
+        <v>0.98</v>
       </c>
       <c r="H16" s="37">
         <v>1</v>
@@ -11000,8 +10361,8 @@
       <c r="K16" s="37">
         <v>1</v>
       </c>
-      <c r="L16" s="83">
-        <v>0.95</v>
+      <c r="L16" s="82">
+        <v>0.5</v>
       </c>
       <c r="M16" s="37">
         <v>1</v>
@@ -11009,7 +10370,7 @@
       <c r="N16" s="37">
         <v>1</v>
       </c>
-      <c r="O16" s="83">
+      <c r="O16" s="82">
         <v>0.95</v>
       </c>
       <c r="P16" s="37">
@@ -11071,7 +10432,7 @@
       <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="82">
         <v>0</v>
       </c>
       <c r="J17" s="37">
@@ -11142,7 +10503,7 @@
       <c r="F18" s="37">
         <v>1</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="82">
         <v>0.8</v>
       </c>
       <c r="H18" s="37">
@@ -11151,7 +10512,7 @@
       <c r="I18" s="37">
         <v>1</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="82">
         <v>0</v>
       </c>
       <c r="K18" s="37">
@@ -11295,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="37">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H20" s="37">
         <v>1</v>
@@ -11367,7 +10728,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="53">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E21" s="37">
         <v>1</v>
@@ -11375,8 +10736,8 @@
       <c r="F21" s="37">
         <v>1</v>
       </c>
-      <c r="G21" s="83">
-        <v>0.9</v>
+      <c r="G21" s="82">
+        <v>0.4</v>
       </c>
       <c r="H21" s="37">
         <v>1</v>
@@ -11448,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="53">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E22" s="37">
         <v>1</v>
@@ -11471,7 +10832,7 @@
       <c r="K22" s="37">
         <v>1</v>
       </c>
-      <c r="L22" s="83">
+      <c r="L22" s="82">
         <v>0</v>
       </c>
       <c r="M22" s="37">
@@ -11525,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="53">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E23" s="37">
         <v>1</v>
@@ -11602,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="53">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E24" s="37">
         <v>1</v>
@@ -11899,7 +11260,7 @@
       </c>
       <c r="W27" s="58"/>
       <c r="X27" s="34"/>
-      <c r="Y27" s="72">
+      <c r="Y27" s="71">
         <v>43919</v>
       </c>
       <c r="Z27" s="31"/>
@@ -11911,7 +11272,7 @@
       <c r="A28" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="73" t="s">
         <v>301</v>
       </c>
       <c r="C28" s="52">
@@ -12051,7 +11412,7 @@
       </c>
       <c r="W29" s="58"/>
       <c r="X29" s="34"/>
-      <c r="Y29" s="72">
+      <c r="Y29" s="71">
         <v>43919</v>
       </c>
       <c r="Z29" s="36"/>
@@ -12660,7 +12021,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12696,7 +12057,7 @@
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
@@ -12875,7 +12236,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>13</v>
       </c>
       <c r="B2">
@@ -12884,13 +12245,13 @@
       <c r="C2">
         <v>82289</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="75">
         <f>B2/C2</f>
         <v>0.22103804882791139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -12899,13 +12260,13 @@
       <c r="C3">
         <v>395365</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="75">
         <f t="shared" ref="D3:D7" si="0">B3/C3</f>
         <v>0.56577086995561066</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="B4">
@@ -12914,13 +12275,13 @@
       <c r="C4">
         <v>363542</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="75">
         <f t="shared" si="0"/>
         <v>0.67502241831755339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -12929,13 +12290,13 @@
       <c r="C5">
         <v>374094</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="75">
         <f t="shared" si="0"/>
         <v>0.32347484856747233</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>17</v>
       </c>
       <c r="B6">
@@ -12944,13 +12305,13 @@
       <c r="C6">
         <v>466003</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="75">
         <f t="shared" si="0"/>
         <v>0.15124580743042426</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
       <c r="B7">
@@ -12959,16 +12320,16 @@
       <c r="C7">
         <v>500215</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="75">
         <f t="shared" si="0"/>
         <v>0.10410123646831862</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="77">
         <f>SUM(B2:B7)/SUM(C2:C7)</f>
         <v>0.33501504463884618</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5E994A-410B-4633-BC10-93B7A3771654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27705E50-C54F-4A3C-9F00-3DE68B5BDB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{5753C922-AD73-419B-B8CB-AA97AA99EC3F}">
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{2AB7CCB9-C9FF-4779-97E8-CAF2B5239534}">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2096,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3938,7 +3938,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
@@ -3955,7 +3955,7 @@
     <col min="13" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>43891</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>43892</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>43893</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>43894</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>43895</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>43896</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>43897</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>43898</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>43899</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>43900</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>43901</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>43902</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>43903</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>43904</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>43905</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>43906</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>43907</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>43908</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>43909</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>43910</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>43911</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>43912</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>43913</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>43914</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>43915</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>43916</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>43917</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>43918</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>43919</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>43920</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>43921</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>43922</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>43923</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>43924</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>43925</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>43926</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>43927</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>43928</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>43929</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>43930</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>43931</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>43932</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>43933</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>43934</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>43935</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>43936</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>43937</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>43938</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>43939</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>43940</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>43941</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>43942</v>
       </c>
@@ -5658,13 +5658,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="17" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6606,13 +6606,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.8984375" style="7" customWidth="1"/>
     <col min="2" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>76</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>77</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>79</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>81</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>82</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>83</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>88</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>89</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>91</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>92</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>97</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>99</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>100</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>101</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>107</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>108</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>109</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>110</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>111</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>112</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>113</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>114</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>117</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>132</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>133</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>134</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>135</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>136</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>137</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>138</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>139</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>140</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>141</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>142</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>143</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>144</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>145</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>146</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>147</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>148</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>149</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>150</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>151</v>
       </c>
@@ -8389,13 +8389,13 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>159</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>160</v>
       </c>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>162</v>
       </c>
@@ -8478,12 +8478,12 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -8495,7 +8495,7 @@
     <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>172</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>176</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>181</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>179</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>215</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>209</v>
       </c>
@@ -8792,10 +8792,10 @@
         <v>3.2876712328767121E-3</v>
       </c>
       <c r="F9" s="28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G9" s="28">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>183</v>
@@ -8810,7 +8810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>218</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>271</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>272</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>0.4</v>
       </c>
       <c r="D12" s="80">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12" s="44">
         <v>4.2739726027397257E-2</v>
@@ -8915,7 +8915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>208</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>210</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>212</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>262</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>263</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>266</v>
       </c>
@@ -9098,13 +9098,14 @@
         <v>268</v>
       </c>
       <c r="C18" s="28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="80">
         <v>5</v>
       </c>
       <c r="E18" s="44">
-        <v>4.9863013698630131E-2</v>
+        <f>0.5/7</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="F18" s="28">
         <v>15</v>
@@ -9125,7 +9126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>289</v>
       </c>
@@ -9174,11 +9175,11 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:U29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.09765625" style="30" customWidth="1"/>
     <col min="2" max="2" width="50.69921875" style="29" customWidth="1"/>
@@ -9195,7 +9196,7 @@
     <col min="28" max="29" width="8.796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D1" s="83" t="s">
         <v>258</v>
       </c>
@@ -9222,7 +9223,7 @@
       </c>
       <c r="X1" s="84"/>
     </row>
-    <row r="2" spans="1:29" s="49" customFormat="1">
+    <row r="2" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
@@ -9323,7 +9324,7 @@
       <c r="AB2" s="45"/>
       <c r="AC2" s="45"/>
     </row>
-    <row r="3" spans="1:29" s="40" customFormat="1">
+    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>255</v>
       </c>
@@ -9400,7 +9401,7 @@
       <c r="AB3" s="38"/>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="1:29" s="40" customFormat="1">
+    <row r="4" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>231</v>
       </c>
@@ -9477,7 +9478,7 @@
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
     </row>
-    <row r="5" spans="1:29" s="40" customFormat="1">
+    <row r="5" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>220</v>
       </c>
@@ -9552,7 +9553,7 @@
       <c r="AB5" s="38"/>
       <c r="AC5" s="38"/>
     </row>
-    <row r="6" spans="1:29" s="40" customFormat="1">
+    <row r="6" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>221</v>
       </c>
@@ -9627,7 +9628,7 @@
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
     </row>
-    <row r="7" spans="1:29" s="40" customFormat="1">
+    <row r="7" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>230</v>
       </c>
@@ -9704,7 +9705,7 @@
       <c r="AB7" s="38"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" s="40" customFormat="1">
+    <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>233</v>
       </c>
@@ -9781,7 +9782,7 @@
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" s="40" customFormat="1">
+    <row r="9" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>222</v>
       </c>
@@ -9861,7 +9862,7 @@
       <c r="AB9" s="38"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" s="40" customFormat="1">
+    <row r="10" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>274</v>
       </c>
@@ -9938,7 +9939,7 @@
       <c r="AB10" s="38"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" s="40" customFormat="1">
+    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>275</v>
       </c>
@@ -10018,7 +10019,7 @@
       <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" s="40" customFormat="1">
+    <row r="12" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>276</v>
       </c>
@@ -10095,7 +10096,7 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" s="40" customFormat="1">
+    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>278</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="82">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O13" s="37">
         <v>1</v>
@@ -10175,7 +10176,7 @@
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" s="40" customFormat="1">
+    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>252</v>
       </c>
@@ -10252,7 +10253,7 @@
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" s="40" customFormat="1">
+    <row r="15" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>223</v>
       </c>
@@ -10327,7 +10328,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" s="40" customFormat="1">
+    <row r="16" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>227</v>
       </c>
@@ -10407,7 +10408,7 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" s="40" customFormat="1">
+    <row r="17" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>224</v>
       </c>
@@ -10484,7 +10485,7 @@
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" s="40" customFormat="1">
+    <row r="18" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>225</v>
       </c>
@@ -10561,7 +10562,7 @@
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" s="40" customFormat="1">
+    <row r="19" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>263</v>
       </c>
@@ -10636,7 +10637,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" s="40" customFormat="1">
+    <row r="20" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -10717,7 +10718,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>228</v>
       </c>
@@ -10798,7 +10799,7 @@
       <c r="AB21" s="41"/>
       <c r="AC21" s="41"/>
     </row>
-    <row r="22" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="22" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>218</v>
       </c>
@@ -10875,7 +10876,7 @@
       <c r="AB22" s="41"/>
       <c r="AC22" s="41"/>
     </row>
-    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>262</v>
       </c>
@@ -10952,7 +10953,7 @@
       <c r="AB23" s="41"/>
       <c r="AC23" s="41"/>
     </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>250</v>
       </c>
@@ -10972,31 +10973,31 @@
         <v>0</v>
       </c>
       <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1</v>
+      </c>
+      <c r="I24" s="37">
+        <v>1</v>
+      </c>
+      <c r="J24" s="37">
+        <v>1</v>
+      </c>
+      <c r="K24" s="37">
+        <v>1</v>
+      </c>
+      <c r="L24" s="37">
+        <v>1</v>
+      </c>
+      <c r="M24" s="37">
+        <v>1</v>
+      </c>
+      <c r="N24" s="37">
+        <v>1</v>
+      </c>
+      <c r="O24" s="37">
         <v>0.67</v>
-      </c>
-      <c r="H24" s="37">
-        <v>1</v>
-      </c>
-      <c r="I24" s="37">
-        <v>1</v>
-      </c>
-      <c r="J24" s="37">
-        <v>1</v>
-      </c>
-      <c r="K24" s="37">
-        <v>1</v>
-      </c>
-      <c r="L24" s="37">
-        <v>1</v>
-      </c>
-      <c r="M24" s="37">
-        <v>1</v>
-      </c>
-      <c r="N24" s="37">
-        <v>1</v>
-      </c>
-      <c r="O24" s="37">
-        <v>1</v>
       </c>
       <c r="P24" s="37">
         <v>1</v>
@@ -11033,7 +11034,7 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>239</v>
       </c>
@@ -11114,7 +11115,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>251</v>
       </c>
@@ -11191,7 +11192,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>266</v>
       </c>
@@ -11268,7 +11269,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>283</v>
       </c>
@@ -11343,7 +11344,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>291</v>
       </c>
@@ -11420,7 +11421,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="31"/>
       <c r="C30" s="54"/>
@@ -11451,7 +11452,7 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="54"/>
@@ -11482,7 +11483,7 @@
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="31"/>
       <c r="C32" s="54"/>
@@ -11513,7 +11514,7 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="55"/>
@@ -11544,7 +11545,7 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="31"/>
       <c r="C34" s="54"/>
@@ -11575,7 +11576,7 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="C35" s="54"/>
       <c r="D35" s="57"/>
@@ -12020,17 +12021,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1">
+    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1">
+    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>195</v>
       </c>
@@ -12052,7 +12053,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1">
+    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>196</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1">
+    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>199</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -12102,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -12121,7 +12122,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -12184,7 +12185,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -12219,9 +12220,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -12235,7 +12236,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>13</v>
       </c>
@@ -12250,7 +12251,7 @@
         <v>0.22103804882791139</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
@@ -12265,7 +12266,7 @@
         <v>0.56577086995561066</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>15</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>0.67502241831755339</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>16</v>
       </c>
@@ -12295,7 +12296,7 @@
         <v>0.32347484856747233</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>17</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>0.15124580743042426</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>0.10410123646831862</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="76" t="s">
         <v>287</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27705E50-C54F-4A3C-9F00-3DE68B5BDB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20737B23-4628-4616-90B1-D2327B8D4E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -329,6 +329,30 @@
           </rPr>
           <t xml:space="preserve">
 Assume we can perfectly track other people in shared households within one day of a household member receiving a positive test result</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{729D3A21-63DE-40ED-AE4D-252D58D81C6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Assume quarantine does not impact within-household transmission</t>
         </r>
       </text>
     </comment>
@@ -1171,7 +1195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="306">
   <si>
     <t>date</t>
   </si>
@@ -2086,6 +2110,9 @@
   </si>
   <si>
     <t>Proportion who are asymptomatic</t>
+  </si>
+  <si>
+    <t>iso_factor</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2123,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3132,6 +3159,20 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -3607,20 +3648,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3938,7 +3965,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
@@ -3955,7 +3982,7 @@
     <col min="13" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +4020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="20">
         <v>43891</v>
       </c>
@@ -4016,7 +4043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="20">
         <v>43892</v>
       </c>
@@ -4039,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="20">
         <v>43893</v>
       </c>
@@ -4062,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="20">
         <v>43894</v>
       </c>
@@ -4085,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="20">
         <v>43895</v>
       </c>
@@ -4108,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="20">
         <v>43896</v>
       </c>
@@ -4131,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="20">
         <v>43897</v>
       </c>
@@ -4154,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="20">
         <v>43898</v>
       </c>
@@ -4177,7 +4204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="20">
         <v>43899</v>
       </c>
@@ -4200,7 +4227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="20">
         <v>43900</v>
       </c>
@@ -4223,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="20">
         <v>43901</v>
       </c>
@@ -4246,7 +4273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="20">
         <v>43902</v>
       </c>
@@ -4269,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="20">
         <v>43903</v>
       </c>
@@ -4292,7 +4319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="20">
         <v>43904</v>
       </c>
@@ -4315,7 +4342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="20">
         <v>43905</v>
       </c>
@@ -4338,7 +4365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="20">
         <v>43906</v>
       </c>
@@ -4367,7 +4394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="20">
         <v>43907</v>
       </c>
@@ -4396,7 +4423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="20">
         <v>43908</v>
       </c>
@@ -4425,7 +4452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="20">
         <v>43909</v>
       </c>
@@ -4454,7 +4481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="20">
         <v>43910</v>
       </c>
@@ -4483,7 +4510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="20">
         <v>43911</v>
       </c>
@@ -4512,7 +4539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="20">
         <v>43912</v>
       </c>
@@ -4541,7 +4568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="20">
         <v>43913</v>
       </c>
@@ -4576,7 +4603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="20">
         <v>43914</v>
       </c>
@@ -4608,7 +4635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="20">
         <v>43915</v>
       </c>
@@ -4640,7 +4667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="20">
         <v>43916</v>
       </c>
@@ -4672,7 +4699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="20">
         <v>43917</v>
       </c>
@@ -4704,7 +4731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="20">
         <v>43918</v>
       </c>
@@ -4736,7 +4763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="20">
         <v>43919</v>
       </c>
@@ -4774,7 +4801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="20">
         <v>43920</v>
       </c>
@@ -4809,7 +4836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="20">
         <v>43921</v>
       </c>
@@ -4847,7 +4874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="20">
         <v>43922</v>
       </c>
@@ -4885,7 +4912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="20">
         <v>43923</v>
       </c>
@@ -4923,7 +4950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="20">
         <v>43924</v>
       </c>
@@ -4961,7 +4988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="20">
         <v>43925</v>
       </c>
@@ -4999,7 +5026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="20">
         <v>43926</v>
       </c>
@@ -5037,7 +5064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="20">
         <v>43927</v>
       </c>
@@ -5075,7 +5102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="20">
         <v>43928</v>
       </c>
@@ -5113,7 +5140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="20">
         <v>43929</v>
       </c>
@@ -5151,7 +5178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="20">
         <v>43930</v>
       </c>
@@ -5189,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="20">
         <v>43931</v>
       </c>
@@ -5227,7 +5254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="20">
         <v>43932</v>
       </c>
@@ -5265,7 +5292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="20">
         <v>43933</v>
       </c>
@@ -5303,7 +5330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="20">
         <v>43934</v>
       </c>
@@ -5341,7 +5368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="20">
         <v>43935</v>
       </c>
@@ -5379,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="20">
         <v>43936</v>
       </c>
@@ -5417,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="20">
         <v>43937</v>
       </c>
@@ -5455,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="20">
         <v>43938</v>
       </c>
@@ -5493,7 +5520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="20">
         <v>43939</v>
       </c>
@@ -5531,7 +5558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="20">
         <v>43940</v>
       </c>
@@ -5569,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="20">
         <v>43941</v>
       </c>
@@ -5607,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="20">
         <v>43942</v>
       </c>
@@ -5658,13 +5685,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="17" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5720,7 +5747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5776,7 +5803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5829,7 +5856,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5882,7 +5909,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5935,7 +5962,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5988,7 +6015,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6041,7 +6068,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6094,7 +6121,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6147,7 +6174,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6200,7 +6227,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6253,7 +6280,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6306,7 +6333,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6359,7 +6386,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6412,7 +6439,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6465,7 +6492,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6518,7 +6545,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6606,13 +6633,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="5.8984375" style="7" customWidth="1"/>
     <col min="2" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="16" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
@@ -6629,7 +6656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -6647,7 +6674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -6665,7 +6692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -6680,7 +6707,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -6695,7 +6722,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -6710,7 +6737,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -6725,7 +6752,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -6740,7 +6767,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -6755,7 +6782,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -6770,7 +6797,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -6785,7 +6812,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -6800,7 +6827,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -6815,7 +6842,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -6830,7 +6857,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -6845,7 +6872,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -6860,7 +6887,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -6875,7 +6902,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -6890,7 +6917,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -6905,7 +6932,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -6920,7 +6947,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6935,7 +6962,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -6950,7 +6977,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -6965,7 +6992,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -6980,7 +7007,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -6995,7 +7022,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -7010,7 +7037,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
@@ -7025,7 +7052,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -7040,7 +7067,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -7055,7 +7082,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
@@ -7070,7 +7097,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
@@ -7085,7 +7112,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7127,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7115,7 +7142,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7130,7 +7157,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
@@ -7145,7 +7172,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
@@ -7160,7 +7187,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -7175,7 +7202,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -7190,7 +7217,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
@@ -7205,7 +7232,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
@@ -7220,7 +7247,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -7235,7 +7262,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>76</v>
       </c>
@@ -7250,7 +7277,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
         <v>77</v>
       </c>
@@ -7265,7 +7292,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -7280,7 +7307,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
         <v>79</v>
       </c>
@@ -7295,7 +7322,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
@@ -7310,7 +7337,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>81</v>
       </c>
@@ -7325,7 +7352,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>82</v>
       </c>
@@ -7340,7 +7367,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>83</v>
       </c>
@@ -7355,7 +7382,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
@@ -7370,7 +7397,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -7385,7 +7412,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -7400,7 +7427,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
@@ -7415,7 +7442,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>88</v>
       </c>
@@ -7430,7 +7457,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>89</v>
       </c>
@@ -7445,7 +7472,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
@@ -7460,7 +7487,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>91</v>
       </c>
@@ -7475,7 +7502,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>92</v>
       </c>
@@ -7490,7 +7517,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
@@ -7505,7 +7532,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -7520,7 +7547,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
@@ -7535,7 +7562,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
@@ -7550,7 +7577,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
         <v>97</v>
       </c>
@@ -7565,7 +7592,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
@@ -7580,7 +7607,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>99</v>
       </c>
@@ -7595,7 +7622,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
         <v>100</v>
       </c>
@@ -7610,7 +7637,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>101</v>
       </c>
@@ -7625,7 +7652,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
@@ -7640,7 +7667,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
@@ -7655,7 +7682,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -7670,7 +7697,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -7685,7 +7712,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
@@ -7700,7 +7727,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>107</v>
       </c>
@@ -7715,7 +7742,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>108</v>
       </c>
@@ -7730,7 +7757,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>109</v>
       </c>
@@ -7745,7 +7772,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>110</v>
       </c>
@@ -7760,7 +7787,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
         <v>111</v>
       </c>
@@ -7775,7 +7802,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>112</v>
       </c>
@@ -7790,7 +7817,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>113</v>
       </c>
@@ -7805,7 +7832,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="8" t="s">
         <v>114</v>
       </c>
@@ -7820,7 +7847,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
@@ -7835,7 +7862,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -7850,7 +7877,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>117</v>
       </c>
@@ -7865,7 +7892,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -7880,7 +7907,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -7895,7 +7922,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -7910,7 +7937,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -7925,7 +7952,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -7940,7 +7967,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -7955,7 +7982,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -7970,7 +7997,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -7985,7 +8012,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -8000,7 +8027,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -8015,7 +8042,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -8030,7 +8057,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -8045,7 +8072,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -8060,7 +8087,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -8075,7 +8102,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="8" t="s">
         <v>132</v>
       </c>
@@ -8090,7 +8117,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="8" t="s">
         <v>133</v>
       </c>
@@ -8105,7 +8132,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="8" t="s">
         <v>134</v>
       </c>
@@ -8120,7 +8147,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="8" t="s">
         <v>135</v>
       </c>
@@ -8135,7 +8162,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="8" t="s">
         <v>136</v>
       </c>
@@ -8150,7 +8177,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="8" t="s">
         <v>137</v>
       </c>
@@ -8165,7 +8192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="8" t="s">
         <v>138</v>
       </c>
@@ -8180,7 +8207,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="8" t="s">
         <v>139</v>
       </c>
@@ -8195,7 +8222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" s="8" t="s">
         <v>140</v>
       </c>
@@ -8210,7 +8237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="8" t="s">
         <v>141</v>
       </c>
@@ -8225,7 +8252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="8" t="s">
         <v>142</v>
       </c>
@@ -8240,7 +8267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" s="8" t="s">
         <v>143</v>
       </c>
@@ -8255,7 +8282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="8" t="s">
         <v>144</v>
       </c>
@@ -8270,7 +8297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="8" t="s">
         <v>145</v>
       </c>
@@ -8285,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="8" t="s">
         <v>146</v>
       </c>
@@ -8300,7 +8327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="8" t="s">
         <v>147</v>
       </c>
@@ -8315,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="8" t="s">
         <v>148</v>
       </c>
@@ -8330,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="8" t="s">
         <v>149</v>
       </c>
@@ -8345,7 +8372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="8" t="s">
         <v>150</v>
       </c>
@@ -8360,7 +8387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="8" t="s">
         <v>151</v>
       </c>
@@ -8389,13 +8416,13 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="19" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -8406,7 +8433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
@@ -8417,7 +8444,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
@@ -8426,7 +8453,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
         <v>159</v>
       </c>
@@ -8435,7 +8462,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>160</v>
       </c>
@@ -8444,7 +8471,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
@@ -8453,7 +8480,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>162</v>
       </c>
@@ -8475,15 +8502,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
@@ -8495,7 +8522,7 @@
     <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
@@ -8529,8 +8556,11 @@
       <c r="K1" s="27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="28" t="s">
         <v>172</v>
       </c>
@@ -8564,8 +8594,11 @@
       <c r="K2" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -8599,8 +8632,11 @@
       <c r="K3" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="28" t="s">
         <v>176</v>
       </c>
@@ -8634,8 +8670,11 @@
       <c r="K4" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="28" t="s">
         <v>181</v>
       </c>
@@ -8669,8 +8708,11 @@
       <c r="K5" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
@@ -8696,7 +8738,7 @@
         <v>260</v>
       </c>
       <c r="I6" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="28">
         <v>0.5</v>
@@ -8704,8 +8746,11 @@
       <c r="K6" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="28" t="s">
         <v>179</v>
       </c>
@@ -8739,8 +8784,11 @@
       <c r="K7" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="28" t="s">
         <v>215</v>
       </c>
@@ -8766,7 +8814,7 @@
         <v>260</v>
       </c>
       <c r="I8" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="28">
         <v>0.5</v>
@@ -8774,8 +8822,11 @@
       <c r="K8" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="28" t="s">
         <v>209</v>
       </c>
@@ -8809,8 +8860,11 @@
       <c r="K9" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="28" t="s">
         <v>218</v>
       </c>
@@ -8844,8 +8898,11 @@
       <c r="K10" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="28" t="s">
         <v>271</v>
       </c>
@@ -8879,8 +8936,11 @@
       <c r="K11" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="28" t="s">
         <v>272</v>
       </c>
@@ -8914,8 +8974,11 @@
       <c r="K12" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="28" t="s">
         <v>208</v>
       </c>
@@ -8949,8 +9012,11 @@
       <c r="K13" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="28" t="s">
         <v>210</v>
       </c>
@@ -8976,7 +9042,7 @@
         <v>183</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J14" s="28">
         <v>0.1</v>
@@ -8984,8 +9050,11 @@
       <c r="K14" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="28" t="s">
         <v>212</v>
       </c>
@@ -9011,7 +9080,7 @@
         <v>183</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="28">
         <v>0.1</v>
@@ -9019,8 +9088,11 @@
       <c r="K15" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="28" t="s">
         <v>262</v>
       </c>
@@ -9031,10 +9103,11 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="80">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E16" s="44">
-        <v>5.1369863013698627E-3</v>
+        <f>E10</f>
+        <v>1.7534246575342468E-2</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -9054,8 +9127,11 @@
       <c r="K16" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="28" t="s">
         <v>263</v>
       </c>
@@ -9089,8 +9165,11 @@
       <c r="K17" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="28" t="s">
         <v>266</v>
       </c>
@@ -9104,8 +9183,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="44">
-        <f>0.5/7</f>
-        <v>7.1428571428571425E-2</v>
+        <v>7.1232876712328766E-2</v>
       </c>
       <c r="F18" s="28">
         <v>15</v>
@@ -9125,8 +9203,11 @@
       <c r="K18" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="28" t="s">
         <v>289</v>
       </c>
@@ -9159,6 +9240,9 @@
       </c>
       <c r="K19" s="28">
         <v>2</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9175,11 +9259,11 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15.09765625" style="30" customWidth="1"/>
     <col min="2" max="2" width="50.69921875" style="29" customWidth="1"/>
@@ -9196,7 +9280,7 @@
     <col min="28" max="29" width="8.796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="D1" s="83" t="s">
         <v>258</v>
       </c>
@@ -9223,7 +9307,7 @@
       </c>
       <c r="X1" s="84"/>
     </row>
-    <row r="2" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="49" customFormat="1">
       <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
@@ -9324,7 +9408,7 @@
       <c r="AB2" s="45"/>
       <c r="AC2" s="45"/>
     </row>
-    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="40" customFormat="1">
       <c r="A3" s="38" t="s">
         <v>255</v>
       </c>
@@ -9401,7 +9485,7 @@
       <c r="AB3" s="38"/>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="40" customFormat="1">
       <c r="A4" s="38" t="s">
         <v>231</v>
       </c>
@@ -9478,7 +9562,7 @@
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
     </row>
-    <row r="5" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="40" customFormat="1">
       <c r="A5" s="38" t="s">
         <v>220</v>
       </c>
@@ -9553,7 +9637,7 @@
       <c r="AB5" s="38"/>
       <c r="AC5" s="38"/>
     </row>
-    <row r="6" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="40" customFormat="1">
       <c r="A6" s="38" t="s">
         <v>221</v>
       </c>
@@ -9628,7 +9712,7 @@
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
     </row>
-    <row r="7" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="40" customFormat="1">
       <c r="A7" s="38" t="s">
         <v>230</v>
       </c>
@@ -9705,7 +9789,7 @@
       <c r="AB7" s="38"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="40" customFormat="1">
       <c r="A8" s="38" t="s">
         <v>233</v>
       </c>
@@ -9782,7 +9866,7 @@
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="40" customFormat="1">
       <c r="A9" s="38" t="s">
         <v>222</v>
       </c>
@@ -9862,7 +9946,7 @@
       <c r="AB9" s="38"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="40" customFormat="1">
       <c r="A10" s="38" t="s">
         <v>274</v>
       </c>
@@ -9939,7 +10023,7 @@
       <c r="AB10" s="38"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="40" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>275</v>
       </c>
@@ -10019,7 +10103,7 @@
       <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="40" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>276</v>
       </c>
@@ -10096,7 +10180,7 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="40" customFormat="1">
       <c r="A13" s="38" t="s">
         <v>278</v>
       </c>
@@ -10176,7 +10260,7 @@
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="40" customFormat="1">
       <c r="A14" s="38" t="s">
         <v>252</v>
       </c>
@@ -10253,7 +10337,7 @@
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="40" customFormat="1">
       <c r="A15" s="38" t="s">
         <v>223</v>
       </c>
@@ -10328,7 +10412,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="40" customFormat="1">
       <c r="A16" s="38" t="s">
         <v>227</v>
       </c>
@@ -10408,7 +10492,7 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="40" customFormat="1">
       <c r="A17" s="38" t="s">
         <v>224</v>
       </c>
@@ -10485,7 +10569,7 @@
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="40" customFormat="1">
       <c r="A18" s="38" t="s">
         <v>225</v>
       </c>
@@ -10505,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H18" s="37">
         <v>1</v>
@@ -10562,7 +10646,7 @@
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="40" customFormat="1">
       <c r="A19" s="38" t="s">
         <v>263</v>
       </c>
@@ -10637,7 +10721,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="40" customFormat="1">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -10718,7 +10802,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A21" s="41" t="s">
         <v>228</v>
       </c>
@@ -10738,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="82">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="37">
         <v>1</v>
@@ -10799,7 +10883,7 @@
       <c r="AB21" s="41"/>
       <c r="AC21" s="41"/>
     </row>
-    <row r="22" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="26" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="41" t="s">
         <v>218</v>
       </c>
@@ -10876,7 +10960,7 @@
       <c r="AB22" s="41"/>
       <c r="AC22" s="41"/>
     </row>
-    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="41" t="s">
         <v>262</v>
       </c>
@@ -10953,7 +11037,7 @@
       <c r="AB23" s="41"/>
       <c r="AC23" s="41"/>
     </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="35" t="s">
         <v>250</v>
       </c>
@@ -10970,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="37">
         <v>1</v>
@@ -11024,7 +11108,7 @@
         <v>176</v>
       </c>
       <c r="X24" s="69">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y24" s="65">
         <v>43919</v>
@@ -11034,7 +11118,7 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A25" s="35" t="s">
         <v>239</v>
       </c>
@@ -11115,7 +11199,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A26" s="35" t="s">
         <v>251</v>
       </c>
@@ -11192,7 +11276,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A27" s="35" t="s">
         <v>266</v>
       </c>
@@ -11269,7 +11353,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A28" s="35" t="s">
         <v>283</v>
       </c>
@@ -11344,7 +11428,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A29" s="35" t="s">
         <v>291</v>
       </c>
@@ -11421,7 +11505,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A30" s="35"/>
       <c r="B30" s="31"/>
       <c r="C30" s="54"/>
@@ -11452,7 +11536,7 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="54"/>
@@ -11483,7 +11567,7 @@
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A32" s="35"/>
       <c r="B32" s="31"/>
       <c r="C32" s="54"/>
@@ -11514,7 +11598,7 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="55"/>
@@ -11545,7 +11629,7 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A34" s="35"/>
       <c r="B34" s="31"/>
       <c r="C34" s="54"/>
@@ -11576,7 +11660,7 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A35" s="35"/>
       <c r="C35" s="54"/>
       <c r="D35" s="57"/>
@@ -11612,402 +11696,402 @@
     <mergeCell ref="D1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P24">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P26">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:P26">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:S26">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="67" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="65" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="63" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="notEqual">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6 T25:T26">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:T26">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6 U25:U26">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25:U26">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12022,16 +12106,16 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
@@ -12042,7 +12126,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>195</v>
       </c>
@@ -12053,7 +12137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
         <v>196</v>
       </c>
@@ -12064,15 +12148,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="22" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>199</v>
       </c>
       <c r="B4" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -12083,7 +12167,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -12095,7 +12179,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -12103,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -12114,7 +12198,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -12122,7 +12206,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12133,7 +12217,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -12141,7 +12225,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12152,29 +12236,29 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>302</v>
       </c>
       <c r="B13">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>293</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -12185,7 +12269,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -12196,12 +12280,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C17" t="s">
         <v>300</v>
@@ -12220,9 +12304,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -12236,7 +12320,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="74" t="s">
         <v>13</v>
       </c>
@@ -12251,7 +12335,7 @@
         <v>0.22103804882791139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
@@ -12266,7 +12350,7 @@
         <v>0.56577086995561066</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="74" t="s">
         <v>15</v>
       </c>
@@ -12281,7 +12365,7 @@
         <v>0.67502241831755339</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="74" t="s">
         <v>16</v>
       </c>
@@ -12296,7 +12380,7 @@
         <v>0.32347484856747233</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="74" t="s">
         <v>17</v>
       </c>
@@ -12311,7 +12395,7 @@
         <v>0.15124580743042426</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -12326,7 +12410,7 @@
         <v>0.10410123646831862</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="C8" s="76" t="s">
         <v>287</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\covid\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20737B23-4628-4616-90B1-D2327B8D4E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7AC8F3-91DC-43A2-B17B-45B50555BE56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="1005" windowWidth="19170" windowHeight="19080" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="other_par" sheetId="6" r:id="rId7"/>
     <sheet name="data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -829,8 +829,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
-    <author>tc={81B57D00-6E35-4E21-A267-5494FC19ABC7}</author>
-    <author>tc={34762953-4FFA-49EB-B2E6-E21B3FC50EC7}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DBC75FE4-35A6-460A-9904-321F2B604C0D}">
@@ -1002,23 +1000,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{A4377AB5-AB3E-42F1-918D-32D6247DC1D3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    effect overlaps with community transmission</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="X20" authorId="0" shapeId="0" xr:uid="{07D5BAC1-2FF9-4941-B4B5-CDB663778A63}">
       <text>
         <r>
@@ -1064,23 +1045,6 @@
           </rPr>
           <t xml:space="preserve">
 I.e. 5% of workers are in retail</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="2" shapeId="0" xr:uid="{F297C902-0A0B-402E-8967-100DBF863062}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Depends if worker is essential or non-essential</t>
         </r>
       </text>
     </comment>
@@ -2123,7 +2087,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3159,20 +3123,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -3648,6 +3598,20 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3965,24 +3929,24 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="6" customWidth="1"/>
     <col min="9" max="9" width="16" style="6" customWidth="1"/>
     <col min="10" max="10" width="14" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.69921875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="6" customWidth="1"/>
     <col min="12" max="12" width="20" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="6"/>
+    <col min="13" max="16384" width="10.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4020,7 +3984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>43891</v>
       </c>
@@ -4043,7 +4007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>43892</v>
       </c>
@@ -4066,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>43893</v>
       </c>
@@ -4089,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>43894</v>
       </c>
@@ -4112,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>43895</v>
       </c>
@@ -4135,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>43896</v>
       </c>
@@ -4158,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>43897</v>
       </c>
@@ -4181,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>43898</v>
       </c>
@@ -4204,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>43899</v>
       </c>
@@ -4227,7 +4191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>43900</v>
       </c>
@@ -4250,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>43901</v>
       </c>
@@ -4273,7 +4237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>43902</v>
       </c>
@@ -4296,7 +4260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>43903</v>
       </c>
@@ -4319,7 +4283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>43904</v>
       </c>
@@ -4342,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>43905</v>
       </c>
@@ -4365,7 +4329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>43906</v>
       </c>
@@ -4394,7 +4358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>43907</v>
       </c>
@@ -4423,7 +4387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>43908</v>
       </c>
@@ -4452,7 +4416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>43909</v>
       </c>
@@ -4481,7 +4445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>43910</v>
       </c>
@@ -4510,7 +4474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>43911</v>
       </c>
@@ -4539,7 +4503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>43912</v>
       </c>
@@ -4568,7 +4532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>43913</v>
       </c>
@@ -4603,7 +4567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>43914</v>
       </c>
@@ -4635,7 +4599,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>43915</v>
       </c>
@@ -4667,7 +4631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>43916</v>
       </c>
@@ -4699,7 +4663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>43917</v>
       </c>
@@ -4731,7 +4695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>43918</v>
       </c>
@@ -4763,7 +4727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>43919</v>
       </c>
@@ -4801,7 +4765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>43920</v>
       </c>
@@ -4836,7 +4800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>43921</v>
       </c>
@@ -4874,7 +4838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>43922</v>
       </c>
@@ -4912,7 +4876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>43923</v>
       </c>
@@ -4950,7 +4914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>43924</v>
       </c>
@@ -4988,7 +4952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>43925</v>
       </c>
@@ -5026,7 +4990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>43926</v>
       </c>
@@ -5064,7 +5028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>43927</v>
       </c>
@@ -5102,7 +5066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>43928</v>
       </c>
@@ -5140,7 +5104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>43929</v>
       </c>
@@ -5178,7 +5142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>43930</v>
       </c>
@@ -5216,7 +5180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>43931</v>
       </c>
@@ -5254,7 +5218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>43932</v>
       </c>
@@ -5292,7 +5256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43933</v>
       </c>
@@ -5330,7 +5294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>43934</v>
       </c>
@@ -5368,7 +5332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>43935</v>
       </c>
@@ -5406,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>43936</v>
       </c>
@@ -5444,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>43937</v>
       </c>
@@ -5482,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>43938</v>
       </c>
@@ -5520,7 +5484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>43939</v>
       </c>
@@ -5558,7 +5522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>43940</v>
       </c>
@@ -5596,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>43941</v>
       </c>
@@ -5634,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>43942</v>
       </c>
@@ -5685,13 +5649,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="17" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="17" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5747,7 +5711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5803,7 +5767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5856,7 +5820,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5909,7 +5873,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5962,7 +5926,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -6015,7 +5979,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6068,7 +6032,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6121,7 +6085,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6174,7 +6138,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6227,7 +6191,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6280,7 +6244,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6333,7 +6297,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6386,7 +6350,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6439,7 +6403,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6492,7 +6456,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6545,7 +6509,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6633,13 +6597,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="10.796875" style="7"/>
+    <col min="1" max="1" width="5.875" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
@@ -6656,7 +6620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -6674,7 +6638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -6692,7 +6656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -6707,7 +6671,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -6722,7 +6686,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -6737,7 +6701,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -6752,7 +6716,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -6767,7 +6731,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -6782,7 +6746,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -6797,7 +6761,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -6812,7 +6776,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -6827,7 +6791,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -6842,7 +6806,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -6857,7 +6821,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -6872,7 +6836,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -6887,7 +6851,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -6902,7 +6866,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -6917,7 +6881,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -6932,7 +6896,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -6947,7 +6911,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6962,7 +6926,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -6977,7 +6941,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -6992,7 +6956,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -7007,7 +6971,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -7022,7 +6986,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -7037,7 +7001,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
@@ -7052,7 +7016,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -7067,7 +7031,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -7082,7 +7046,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
@@ -7097,7 +7061,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
@@ -7112,7 +7076,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -7127,7 +7091,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7142,7 +7106,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7157,7 +7121,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
@@ -7172,7 +7136,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
@@ -7187,7 +7151,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -7202,7 +7166,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -7217,7 +7181,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
@@ -7232,7 +7196,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
@@ -7247,7 +7211,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -7262,7 +7226,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>76</v>
       </c>
@@ -7277,7 +7241,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>77</v>
       </c>
@@ -7292,7 +7256,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -7307,7 +7271,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>79</v>
       </c>
@@ -7322,7 +7286,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
@@ -7337,7 +7301,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>81</v>
       </c>
@@ -7352,7 +7316,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>82</v>
       </c>
@@ -7367,7 +7331,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>83</v>
       </c>
@@ -7382,7 +7346,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
@@ -7397,7 +7361,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -7412,7 +7376,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -7427,7 +7391,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
@@ -7442,7 +7406,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>88</v>
       </c>
@@ -7457,7 +7421,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>89</v>
       </c>
@@ -7472,7 +7436,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
@@ -7487,7 +7451,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>91</v>
       </c>
@@ -7502,7 +7466,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>92</v>
       </c>
@@ -7517,7 +7481,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
@@ -7532,7 +7496,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -7547,7 +7511,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
@@ -7562,7 +7526,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
@@ -7577,7 +7541,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>97</v>
       </c>
@@ -7592,7 +7556,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
@@ -7607,7 +7571,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>99</v>
       </c>
@@ -7622,7 +7586,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>100</v>
       </c>
@@ -7637,7 +7601,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>101</v>
       </c>
@@ -7652,7 +7616,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
@@ -7667,7 +7631,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
@@ -7682,7 +7646,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -7697,7 +7661,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -7712,7 +7676,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
@@ -7727,7 +7691,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>107</v>
       </c>
@@ -7742,7 +7706,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>108</v>
       </c>
@@ -7757,7 +7721,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>109</v>
       </c>
@@ -7772,7 +7736,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>110</v>
       </c>
@@ -7787,7 +7751,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>111</v>
       </c>
@@ -7802,7 +7766,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>112</v>
       </c>
@@ -7817,7 +7781,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>113</v>
       </c>
@@ -7832,7 +7796,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>114</v>
       </c>
@@ -7847,7 +7811,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
@@ -7862,7 +7826,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -7877,7 +7841,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>117</v>
       </c>
@@ -7892,7 +7856,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -7907,7 +7871,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -7922,7 +7886,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -7937,7 +7901,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -7952,7 +7916,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -7967,7 +7931,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -7982,7 +7946,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -7997,7 +7961,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -8012,7 +7976,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -8027,7 +7991,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -8042,7 +8006,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -8057,7 +8021,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -8072,7 +8036,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -8087,7 +8051,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -8102,7 +8066,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>132</v>
       </c>
@@ -8117,7 +8081,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>133</v>
       </c>
@@ -8132,7 +8096,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>134</v>
       </c>
@@ -8147,7 +8111,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>135</v>
       </c>
@@ -8162,7 +8126,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>136</v>
       </c>
@@ -8177,7 +8141,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>137</v>
       </c>
@@ -8192,7 +8156,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>138</v>
       </c>
@@ -8207,7 +8171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>139</v>
       </c>
@@ -8222,7 +8186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>140</v>
       </c>
@@ -8237,7 +8201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>141</v>
       </c>
@@ -8252,7 +8216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>142</v>
       </c>
@@ -8267,7 +8231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>143</v>
       </c>
@@ -8282,7 +8246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>144</v>
       </c>
@@ -8297,7 +8261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>145</v>
       </c>
@@ -8312,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>146</v>
       </c>
@@ -8327,7 +8291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>147</v>
       </c>
@@ -8342,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>148</v>
       </c>
@@ -8357,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>149</v>
       </c>
@@ -8372,7 +8336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>150</v>
       </c>
@@ -8387,7 +8351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>151</v>
       </c>
@@ -8416,13 +8380,13 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -8433,7 +8397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
@@ -8444,7 +8408,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
@@ -8453,7 +8417,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>159</v>
       </c>
@@ -8462,7 +8426,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>160</v>
       </c>
@@ -8471,7 +8435,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
@@ -8480,7 +8444,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>162</v>
       </c>
@@ -8504,25 +8468,25 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" customWidth="1"/>
-    <col min="6" max="7" width="7.19921875" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" customWidth="1"/>
-    <col min="9" max="11" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="11" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
@@ -8560,7 +8524,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>172</v>
       </c>
@@ -8598,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -8636,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>176</v>
       </c>
@@ -8674,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>181</v>
       </c>
@@ -8712,7 +8676,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
@@ -8750,7 +8714,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>179</v>
       </c>
@@ -8788,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>215</v>
       </c>
@@ -8826,7 +8790,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>209</v>
       </c>
@@ -8864,7 +8828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>218</v>
       </c>
@@ -8902,7 +8866,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>271</v>
       </c>
@@ -8940,7 +8904,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>272</v>
       </c>
@@ -8978,7 +8942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>208</v>
       </c>
@@ -9016,7 +8980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>210</v>
       </c>
@@ -9054,7 +9018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>212</v>
       </c>
@@ -9092,7 +9056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>262</v>
       </c>
@@ -9131,7 +9095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>263</v>
       </c>
@@ -9169,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>266</v>
       </c>
@@ -9207,7 +9171,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>289</v>
       </c>
@@ -9263,24 +9227,24 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="4.09765625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="4.09765625" style="55" customWidth="1"/>
-    <col min="5" max="7" width="4.09765625" style="30" customWidth="1"/>
-    <col min="8" max="21" width="7.3984375" style="30" customWidth="1"/>
-    <col min="22" max="22" width="7.796875" style="55" customWidth="1"/>
-    <col min="23" max="23" width="11.69921875" style="63" customWidth="1"/>
-    <col min="24" max="24" width="10.3984375" style="42" customWidth="1"/>
-    <col min="25" max="25" width="18.3984375" style="50" customWidth="1"/>
-    <col min="26" max="26" width="18.3984375" style="29" customWidth="1"/>
-    <col min="27" max="27" width="56.09765625" style="29" customWidth="1"/>
-    <col min="28" max="29" width="8.796875" style="30"/>
+    <col min="1" max="1" width="15.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="50.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="55" customWidth="1"/>
+    <col min="5" max="7" width="4.125" style="30" customWidth="1"/>
+    <col min="8" max="21" width="7.375" style="30" customWidth="1"/>
+    <col min="22" max="22" width="7.75" style="55" customWidth="1"/>
+    <col min="23" max="23" width="11.75" style="63" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="42" customWidth="1"/>
+    <col min="25" max="25" width="18.375" style="50" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="29" customWidth="1"/>
+    <col min="27" max="27" width="56.125" style="29" customWidth="1"/>
+    <col min="28" max="29" width="8.75" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D1" s="83" t="s">
         <v>258</v>
       </c>
@@ -9307,7 +9271,7 @@
       </c>
       <c r="X1" s="84"/>
     </row>
-    <row r="2" spans="1:29" s="49" customFormat="1">
+    <row r="2" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
@@ -9408,7 +9372,7 @@
       <c r="AB2" s="45"/>
       <c r="AC2" s="45"/>
     </row>
-    <row r="3" spans="1:29" s="40" customFormat="1">
+    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>255</v>
       </c>
@@ -9485,7 +9449,7 @@
       <c r="AB3" s="38"/>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="1:29" s="40" customFormat="1">
+    <row r="4" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>231</v>
       </c>
@@ -9562,7 +9526,7 @@
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
     </row>
-    <row r="5" spans="1:29" s="40" customFormat="1">
+    <row r="5" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>220</v>
       </c>
@@ -9637,7 +9601,7 @@
       <c r="AB5" s="38"/>
       <c r="AC5" s="38"/>
     </row>
-    <row r="6" spans="1:29" s="40" customFormat="1">
+    <row r="6" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>221</v>
       </c>
@@ -9712,7 +9676,7 @@
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
     </row>
-    <row r="7" spans="1:29" s="40" customFormat="1">
+    <row r="7" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>230</v>
       </c>
@@ -9789,7 +9753,7 @@
       <c r="AB7" s="38"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" s="40" customFormat="1">
+    <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>233</v>
       </c>
@@ -9866,7 +9830,7 @@
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" s="40" customFormat="1">
+    <row r="9" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>222</v>
       </c>
@@ -9946,7 +9910,7 @@
       <c r="AB9" s="38"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" s="40" customFormat="1">
+    <row r="10" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>274</v>
       </c>
@@ -10023,7 +9987,7 @@
       <c r="AB10" s="38"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" s="40" customFormat="1">
+    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>275</v>
       </c>
@@ -10103,7 +10067,7 @@
       <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" s="40" customFormat="1">
+    <row r="12" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>276</v>
       </c>
@@ -10180,7 +10144,7 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" s="40" customFormat="1">
+    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>278</v>
       </c>
@@ -10260,7 +10224,7 @@
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" s="40" customFormat="1">
+    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>252</v>
       </c>
@@ -10337,7 +10301,7 @@
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" s="40" customFormat="1">
+    <row r="15" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>223</v>
       </c>
@@ -10412,7 +10376,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" s="40" customFormat="1">
+    <row r="16" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>227</v>
       </c>
@@ -10492,7 +10456,7 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" s="40" customFormat="1">
+    <row r="17" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>224</v>
       </c>
@@ -10569,7 +10533,7 @@
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" s="40" customFormat="1">
+    <row r="18" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>225</v>
       </c>
@@ -10646,7 +10610,7 @@
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" s="40" customFormat="1">
+    <row r="19" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>263</v>
       </c>
@@ -10721,7 +10685,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" s="40" customFormat="1">
+    <row r="20" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -10802,7 +10766,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>228</v>
       </c>
@@ -10883,7 +10847,7 @@
       <c r="AB21" s="41"/>
       <c r="AC21" s="41"/>
     </row>
-    <row r="22" spans="1:29" s="26" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:29" s="26" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>218</v>
       </c>
@@ -10960,7 +10924,7 @@
       <c r="AB22" s="41"/>
       <c r="AC22" s="41"/>
     </row>
-    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
+    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>262</v>
       </c>
@@ -11037,7 +11001,7 @@
       <c r="AB23" s="41"/>
       <c r="AC23" s="41"/>
     </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>250</v>
       </c>
@@ -11118,7 +11082,7 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>239</v>
       </c>
@@ -11199,7 +11163,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>251</v>
       </c>
@@ -11276,7 +11240,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>266</v>
       </c>
@@ -11353,7 +11317,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>283</v>
       </c>
@@ -11428,7 +11392,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>291</v>
       </c>
@@ -11505,7 +11469,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="31"/>
       <c r="C30" s="54"/>
@@ -11536,7 +11500,7 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="54"/>
@@ -11567,7 +11531,7 @@
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="31"/>
       <c r="C32" s="54"/>
@@ -11598,7 +11562,7 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="55"/>
@@ -11629,7 +11593,7 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="31"/>
       <c r="C34" s="54"/>
@@ -11660,7 +11624,7 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="C35" s="54"/>
       <c r="D35" s="57"/>
@@ -11696,402 +11660,402 @@
     <mergeCell ref="D1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P24">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P26">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:P26">
-    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:S26">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="67" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="66" priority="65" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="64" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6 T25:T26">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:T26">
-    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6 U25:U26">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25:U26">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12105,17 +12069,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="51.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1">
+    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
@@ -12126,7 +12090,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1">
+    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>195</v>
       </c>
@@ -12137,26 +12101,27 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1">
+    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <v>44075</v>
+        <f>B2+90</f>
+        <v>43981</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1">
+    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>199</v>
       </c>
       <c r="B4" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -12167,57 +12132,56 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>186</v>
       </c>
       <c r="B6">
-        <f>6200000/B5</f>
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>187</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>188</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>194</v>
       </c>
       <c r="B9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>189</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -12225,7 +12189,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12236,7 +12200,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -12247,29 +12211,29 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>293</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>294</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -12280,7 +12244,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -12304,9 +12268,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -12320,7 +12284,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>13</v>
       </c>
@@ -12335,7 +12299,7 @@
         <v>0.22103804882791139</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
@@ -12350,7 +12314,7 @@
         <v>0.56577086995561066</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>15</v>
       </c>
@@ -12365,7 +12329,7 @@
         <v>0.67502241831755339</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>16</v>
       </c>
@@ -12380,7 +12344,7 @@
         <v>0.32347484856747233</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>17</v>
       </c>
@@ -12395,7 +12359,7 @@
         <v>0.15124580743042426</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -12410,7 +12374,7 @@
         <v>0.10410123646831862</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="76" t="s">
         <v>287</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\covid\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7AC8F3-91DC-43A2-B17B-45B50555BE56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20737B23-4628-4616-90B1-D2327B8D4E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="1005" windowWidth="19170" windowHeight="19080" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epi_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="other_par" sheetId="6" r:id="rId7"/>
     <sheet name="data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -829,6 +829,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
+    <author>tc={81B57D00-6E35-4E21-A267-5494FC19ABC7}</author>
+    <author>tc={34762953-4FFA-49EB-B2E6-E21B3FC50EC7}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DBC75FE4-35A6-460A-9904-321F2B604C0D}">
@@ -1000,6 +1002,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{A4377AB5-AB3E-42F1-918D-32D6247DC1D3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    effect overlaps with community transmission</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="X20" authorId="0" shapeId="0" xr:uid="{07D5BAC1-2FF9-4941-B4B5-CDB663778A63}">
       <text>
         <r>
@@ -1045,6 +1064,23 @@
           </rPr>
           <t xml:space="preserve">
 I.e. 5% of workers are in retail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="2" shapeId="0" xr:uid="{F297C902-0A0B-402E-8967-100DBF863062}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Depends if worker is essential or non-essential</t>
         </r>
       </text>
     </comment>
@@ -2087,7 +2123,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3123,6 +3159,20 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -3598,20 +3648,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3929,24 +3965,24 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="6" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="6" customWidth="1"/>
     <col min="9" max="9" width="16" style="6" customWidth="1"/>
     <col min="10" max="10" width="14" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="6" customWidth="1"/>
     <col min="12" max="12" width="20" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="6"/>
+    <col min="13" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +4020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="20">
         <v>43891</v>
       </c>
@@ -4007,7 +4043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="20">
         <v>43892</v>
       </c>
@@ -4030,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="20">
         <v>43893</v>
       </c>
@@ -4053,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="20">
         <v>43894</v>
       </c>
@@ -4076,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="20">
         <v>43895</v>
       </c>
@@ -4099,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="20">
         <v>43896</v>
       </c>
@@ -4122,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="20">
         <v>43897</v>
       </c>
@@ -4145,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="20">
         <v>43898</v>
       </c>
@@ -4168,7 +4204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="20">
         <v>43899</v>
       </c>
@@ -4191,7 +4227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="20">
         <v>43900</v>
       </c>
@@ -4214,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="20">
         <v>43901</v>
       </c>
@@ -4237,7 +4273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="20">
         <v>43902</v>
       </c>
@@ -4260,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="20">
         <v>43903</v>
       </c>
@@ -4283,7 +4319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="20">
         <v>43904</v>
       </c>
@@ -4306,7 +4342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="20">
         <v>43905</v>
       </c>
@@ -4329,7 +4365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="20">
         <v>43906</v>
       </c>
@@ -4358,7 +4394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="20">
         <v>43907</v>
       </c>
@@ -4387,7 +4423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="20">
         <v>43908</v>
       </c>
@@ -4416,7 +4452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="20">
         <v>43909</v>
       </c>
@@ -4445,7 +4481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="20">
         <v>43910</v>
       </c>
@@ -4474,7 +4510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="20">
         <v>43911</v>
       </c>
@@ -4503,7 +4539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="20">
         <v>43912</v>
       </c>
@@ -4532,7 +4568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="20">
         <v>43913</v>
       </c>
@@ -4567,7 +4603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="20">
         <v>43914</v>
       </c>
@@ -4599,7 +4635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="20">
         <v>43915</v>
       </c>
@@ -4631,7 +4667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="20">
         <v>43916</v>
       </c>
@@ -4663,7 +4699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="20">
         <v>43917</v>
       </c>
@@ -4695,7 +4731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="20">
         <v>43918</v>
       </c>
@@ -4727,7 +4763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="20">
         <v>43919</v>
       </c>
@@ -4765,7 +4801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="20">
         <v>43920</v>
       </c>
@@ -4800,7 +4836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="20">
         <v>43921</v>
       </c>
@@ -4838,7 +4874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="20">
         <v>43922</v>
       </c>
@@ -4876,7 +4912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="20">
         <v>43923</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="20">
         <v>43924</v>
       </c>
@@ -4952,7 +4988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="20">
         <v>43925</v>
       </c>
@@ -4990,7 +5026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="20">
         <v>43926</v>
       </c>
@@ -5028,7 +5064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="20">
         <v>43927</v>
       </c>
@@ -5066,7 +5102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="20">
         <v>43928</v>
       </c>
@@ -5104,7 +5140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="20">
         <v>43929</v>
       </c>
@@ -5142,7 +5178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="20">
         <v>43930</v>
       </c>
@@ -5180,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="20">
         <v>43931</v>
       </c>
@@ -5218,7 +5254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="20">
         <v>43932</v>
       </c>
@@ -5256,7 +5292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="20">
         <v>43933</v>
       </c>
@@ -5294,7 +5330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="20">
         <v>43934</v>
       </c>
@@ -5332,7 +5368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="20">
         <v>43935</v>
       </c>
@@ -5370,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="20">
         <v>43936</v>
       </c>
@@ -5408,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="20">
         <v>43937</v>
       </c>
@@ -5446,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="20">
         <v>43938</v>
       </c>
@@ -5484,7 +5520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="20">
         <v>43939</v>
       </c>
@@ -5522,7 +5558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="20">
         <v>43940</v>
       </c>
@@ -5560,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="20">
         <v>43941</v>
       </c>
@@ -5598,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="20">
         <v>43942</v>
       </c>
@@ -5649,13 +5685,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="17" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="17" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5711,7 +5747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5767,7 +5803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5820,7 +5856,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5873,7 +5909,7 @@
         <v>4.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5926,7 +5962,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5979,7 +6015,7 @@
         <v>3.6970000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6032,7 +6068,7 @@
         <v>6.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6085,7 +6121,7 @@
         <v>3.594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6138,7 +6174,7 @@
         <v>2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6191,7 +6227,7 @@
         <v>6.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6244,7 +6280,7 @@
         <v>1.2394000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6297,7 +6333,7 @@
         <v>2.0105999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6350,7 +6386,7 @@
         <v>2.0524000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6403,7 +6439,7 @@
         <v>5.2319999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6456,7 +6492,7 @@
         <v>1.4578000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6509,7 +6545,7 @@
         <v>9.6379000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6597,13 +6633,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="10.75" style="7"/>
+    <col min="1" max="1" width="5.8984375" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="10.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="16" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
@@ -6620,7 +6656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -6638,7 +6674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -6656,7 +6692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -6671,7 +6707,7 @@
         <v>53807</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -6686,7 +6722,7 @@
         <v>54603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -6701,7 +6737,7 @@
         <v>53380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -6716,7 +6752,7 @@
         <v>52236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -6731,7 +6767,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -6746,7 +6782,7 @@
         <v>51199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -6761,7 +6797,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -6776,7 +6812,7 @@
         <v>50836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -6791,7 +6827,7 @@
         <v>49144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -6806,7 +6842,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -6821,7 +6857,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -6836,7 +6872,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -6851,7 +6887,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -6866,7 +6902,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -6881,7 +6917,7 @@
         <v>47505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -6896,7 +6932,7 @@
         <v>47748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -6911,7 +6947,7 @@
         <v>51641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6926,7 +6962,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -6941,7 +6977,7 @@
         <v>60111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -6956,7 +6992,7 @@
         <v>62268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -6971,7 +7007,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -6986,7 +7022,7 @@
         <v>65013</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -7001,7 +7037,7 @@
         <v>65746</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
@@ -7016,7 +7052,7 @@
         <v>67618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -7031,7 +7067,7 @@
         <v>69532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -7046,7 +7082,7 @@
         <v>68855</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
@@ -7061,7 +7097,7 @@
         <v>70345</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
@@ -7076,7 +7112,7 @@
         <v>69062</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -7091,7 +7127,7 @@
         <v>70909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7106,7 +7142,7 @@
         <v>70590</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7121,7 +7157,7 @@
         <v>70286</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
@@ -7136,7 +7172,7 @@
         <v>70326</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
@@ -7151,7 +7187,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -7166,7 +7202,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -7181,7 +7217,7 @@
         <v>63654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
@@ -7196,7 +7232,7 @@
         <v>61073</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
@@ -7211,7 +7247,7 @@
         <v>58823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -7226,7 +7262,7 @@
         <v>57759</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>76</v>
       </c>
@@ -7241,7 +7277,7 @@
         <v>57893</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
         <v>77</v>
       </c>
@@ -7256,7 +7292,7 @@
         <v>57469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -7271,7 +7307,7 @@
         <v>58949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
         <v>79</v>
       </c>
@@ -7286,7 +7322,7 @@
         <v>58767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
@@ -7301,7 +7337,7 @@
         <v>60562</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>81</v>
       </c>
@@ -7316,7 +7352,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>82</v>
       </c>
@@ -7331,7 +7367,7 @@
         <v>58515</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>83</v>
       </c>
@@ -7346,7 +7382,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
@@ -7361,7 +7397,7 @@
         <v>55722</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -7376,7 +7412,7 @@
         <v>52756</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -7391,7 +7427,7 @@
         <v>52691</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
@@ -7406,7 +7442,7 @@
         <v>51198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>88</v>
       </c>
@@ -7421,7 +7457,7 @@
         <v>52386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>89</v>
       </c>
@@ -7436,7 +7472,7 @@
         <v>52234</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
         <v>90</v>
       </c>
@@ -7451,7 +7487,7 @@
         <v>50731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>91</v>
       </c>
@@ -7466,7 +7502,7 @@
         <v>50406</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>92</v>
       </c>
@@ -7481,7 +7517,7 @@
         <v>48630</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
@@ -7496,7 +7532,7 @@
         <v>46802</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -7511,7 +7547,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
@@ -7526,7 +7562,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
@@ -7541,7 +7577,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
         <v>97</v>
       </c>
@@ -7556,7 +7592,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
@@ -7571,7 +7607,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>99</v>
       </c>
@@ -7586,7 +7622,7 @@
         <v>39348</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
         <v>100</v>
       </c>
@@ -7601,7 +7637,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>101</v>
       </c>
@@ -7616,7 +7652,7 @@
         <v>37555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
@@ -7631,7 +7667,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
@@ -7646,7 +7682,7 @@
         <v>35049</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -7661,7 +7697,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -7676,7 +7712,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
@@ -7691,7 +7727,7 @@
         <v>30984</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>107</v>
       </c>
@@ -7706,7 +7742,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>108</v>
       </c>
@@ -7721,7 +7757,7 @@
         <v>27858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>109</v>
       </c>
@@ -7736,7 +7772,7 @@
         <v>24567</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>110</v>
       </c>
@@ -7751,7 +7787,7 @@
         <v>24510</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
         <v>111</v>
       </c>
@@ -7766,7 +7802,7 @@
         <v>22998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>112</v>
       </c>
@@ -7781,7 +7817,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>113</v>
       </c>
@@ -7796,7 +7832,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="8" t="s">
         <v>114</v>
       </c>
@@ -7811,7 +7847,7 @@
         <v>20306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
@@ -7826,7 +7862,7 @@
         <v>19188</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -7841,7 +7877,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>117</v>
       </c>
@@ -7856,7 +7892,7 @@
         <v>16636</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -7871,7 +7907,7 @@
         <v>15857</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -7886,7 +7922,7 @@
         <v>14574</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -7901,7 +7937,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -7916,7 +7952,7 @@
         <v>13090</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -7931,7 +7967,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -7946,7 +7982,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -7961,7 +7997,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -7976,7 +8012,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -7991,7 +8027,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -8006,7 +8042,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -8021,7 +8057,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -8036,7 +8072,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -8051,7 +8087,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -8066,7 +8102,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="8" t="s">
         <v>132</v>
       </c>
@@ -8081,7 +8117,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="8" t="s">
         <v>133</v>
       </c>
@@ -8096,7 +8132,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="8" t="s">
         <v>134</v>
       </c>
@@ -8111,7 +8147,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="8" t="s">
         <v>135</v>
       </c>
@@ -8126,7 +8162,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="8" t="s">
         <v>136</v>
       </c>
@@ -8141,7 +8177,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="8" t="s">
         <v>137</v>
       </c>
@@ -8156,7 +8192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="8" t="s">
         <v>138</v>
       </c>
@@ -8171,7 +8207,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="8" t="s">
         <v>139</v>
       </c>
@@ -8186,7 +8222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="8" t="s">
         <v>140</v>
       </c>
@@ -8201,7 +8237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="8" t="s">
         <v>141</v>
       </c>
@@ -8216,7 +8252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="8" t="s">
         <v>142</v>
       </c>
@@ -8231,7 +8267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="8" t="s">
         <v>143</v>
       </c>
@@ -8246,7 +8282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="8" t="s">
         <v>144</v>
       </c>
@@ -8261,7 +8297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="8" t="s">
         <v>145</v>
       </c>
@@ -8276,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="8" t="s">
         <v>146</v>
       </c>
@@ -8291,7 +8327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="8" t="s">
         <v>147</v>
       </c>
@@ -8306,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="8" t="s">
         <v>148</v>
       </c>
@@ -8321,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="8" t="s">
         <v>149</v>
       </c>
@@ -8336,7 +8372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="8" t="s">
         <v>150</v>
       </c>
@@ -8351,7 +8387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="8" t="s">
         <v>151</v>
       </c>
@@ -8380,13 +8416,13 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="19" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -8397,7 +8433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
@@ -8408,7 +8444,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
@@ -8417,7 +8453,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
         <v>159</v>
       </c>
@@ -8426,7 +8462,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>160</v>
       </c>
@@ -8435,7 +8471,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
@@ -8444,7 +8480,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>162</v>
       </c>
@@ -8468,25 +8504,25 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="11" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="7" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" customWidth="1"/>
+    <col min="9" max="11" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
@@ -8524,7 +8560,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="28" t="s">
         <v>172</v>
       </c>
@@ -8562,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="28" t="s">
         <v>174</v>
       </c>
@@ -8600,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="28" t="s">
         <v>176</v>
       </c>
@@ -8638,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="28" t="s">
         <v>181</v>
       </c>
@@ -8676,7 +8712,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
@@ -8714,7 +8750,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="28" t="s">
         <v>179</v>
       </c>
@@ -8752,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="28" t="s">
         <v>215</v>
       </c>
@@ -8790,7 +8826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="28" t="s">
         <v>209</v>
       </c>
@@ -8828,7 +8864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="28" t="s">
         <v>218</v>
       </c>
@@ -8866,7 +8902,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="28" t="s">
         <v>271</v>
       </c>
@@ -8904,7 +8940,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="28" t="s">
         <v>272</v>
       </c>
@@ -8942,7 +8978,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="28" t="s">
         <v>208</v>
       </c>
@@ -8980,7 +9016,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="28" t="s">
         <v>210</v>
       </c>
@@ -9018,7 +9054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="28" t="s">
         <v>212</v>
       </c>
@@ -9056,7 +9092,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="28" t="s">
         <v>262</v>
       </c>
@@ -9095,7 +9131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="28" t="s">
         <v>263</v>
       </c>
@@ -9133,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="28" t="s">
         <v>266</v>
       </c>
@@ -9171,7 +9207,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="28" t="s">
         <v>289</v>
       </c>
@@ -9227,24 +9263,24 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="50.75" style="29" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="55" customWidth="1"/>
-    <col min="5" max="7" width="4.125" style="30" customWidth="1"/>
-    <col min="8" max="21" width="7.375" style="30" customWidth="1"/>
-    <col min="22" max="22" width="7.75" style="55" customWidth="1"/>
-    <col min="23" max="23" width="11.75" style="63" customWidth="1"/>
-    <col min="24" max="24" width="10.375" style="42" customWidth="1"/>
-    <col min="25" max="25" width="18.375" style="50" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="29" customWidth="1"/>
-    <col min="27" max="27" width="56.125" style="29" customWidth="1"/>
-    <col min="28" max="29" width="8.75" style="30"/>
+    <col min="1" max="1" width="15.09765625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="50.69921875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="4.09765625" style="55" customWidth="1"/>
+    <col min="5" max="7" width="4.09765625" style="30" customWidth="1"/>
+    <col min="8" max="21" width="7.3984375" style="30" customWidth="1"/>
+    <col min="22" max="22" width="7.796875" style="55" customWidth="1"/>
+    <col min="23" max="23" width="11.69921875" style="63" customWidth="1"/>
+    <col min="24" max="24" width="10.3984375" style="42" customWidth="1"/>
+    <col min="25" max="25" width="18.3984375" style="50" customWidth="1"/>
+    <col min="26" max="26" width="18.3984375" style="29" customWidth="1"/>
+    <col min="27" max="27" width="56.09765625" style="29" customWidth="1"/>
+    <col min="28" max="29" width="8.796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="D1" s="83" t="s">
         <v>258</v>
       </c>
@@ -9271,7 +9307,7 @@
       </c>
       <c r="X1" s="84"/>
     </row>
-    <row r="2" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="49" customFormat="1">
       <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
@@ -9372,7 +9408,7 @@
       <c r="AB2" s="45"/>
       <c r="AC2" s="45"/>
     </row>
-    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="40" customFormat="1">
       <c r="A3" s="38" t="s">
         <v>255</v>
       </c>
@@ -9449,7 +9485,7 @@
       <c r="AB3" s="38"/>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="40" customFormat="1">
       <c r="A4" s="38" t="s">
         <v>231</v>
       </c>
@@ -9526,7 +9562,7 @@
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
     </row>
-    <row r="5" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="40" customFormat="1">
       <c r="A5" s="38" t="s">
         <v>220</v>
       </c>
@@ -9601,7 +9637,7 @@
       <c r="AB5" s="38"/>
       <c r="AC5" s="38"/>
     </row>
-    <row r="6" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="40" customFormat="1">
       <c r="A6" s="38" t="s">
         <v>221</v>
       </c>
@@ -9676,7 +9712,7 @@
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
     </row>
-    <row r="7" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="40" customFormat="1">
       <c r="A7" s="38" t="s">
         <v>230</v>
       </c>
@@ -9753,7 +9789,7 @@
       <c r="AB7" s="38"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="40" customFormat="1">
       <c r="A8" s="38" t="s">
         <v>233</v>
       </c>
@@ -9830,7 +9866,7 @@
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="40" customFormat="1">
       <c r="A9" s="38" t="s">
         <v>222</v>
       </c>
@@ -9910,7 +9946,7 @@
       <c r="AB9" s="38"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="40" customFormat="1">
       <c r="A10" s="38" t="s">
         <v>274</v>
       </c>
@@ -9987,7 +10023,7 @@
       <c r="AB10" s="38"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="40" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>275</v>
       </c>
@@ -10067,7 +10103,7 @@
       <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="40" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>276</v>
       </c>
@@ -10144,7 +10180,7 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="40" customFormat="1">
       <c r="A13" s="38" t="s">
         <v>278</v>
       </c>
@@ -10224,7 +10260,7 @@
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="40" customFormat="1">
       <c r="A14" s="38" t="s">
         <v>252</v>
       </c>
@@ -10301,7 +10337,7 @@
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="40" customFormat="1">
       <c r="A15" s="38" t="s">
         <v>223</v>
       </c>
@@ -10376,7 +10412,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="40" customFormat="1">
       <c r="A16" s="38" t="s">
         <v>227</v>
       </c>
@@ -10456,7 +10492,7 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="40" customFormat="1">
       <c r="A17" s="38" t="s">
         <v>224</v>
       </c>
@@ -10533,7 +10569,7 @@
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="40" customFormat="1">
       <c r="A18" s="38" t="s">
         <v>225</v>
       </c>
@@ -10610,7 +10646,7 @@
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="40" customFormat="1">
       <c r="A19" s="38" t="s">
         <v>263</v>
       </c>
@@ -10685,7 +10721,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="40" customFormat="1">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -10766,7 +10802,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A21" s="41" t="s">
         <v>228</v>
       </c>
@@ -10847,7 +10883,7 @@
       <c r="AB21" s="41"/>
       <c r="AC21" s="41"/>
     </row>
-    <row r="22" spans="1:29" s="26" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="26" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="41" t="s">
         <v>218</v>
       </c>
@@ -10924,7 +10960,7 @@
       <c r="AB22" s="41"/>
       <c r="AC22" s="41"/>
     </row>
-    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" s="26" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="41" t="s">
         <v>262</v>
       </c>
@@ -11001,7 +11037,7 @@
       <c r="AB23" s="41"/>
       <c r="AC23" s="41"/>
     </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="35" t="s">
         <v>250</v>
       </c>
@@ -11082,7 +11118,7 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A25" s="35" t="s">
         <v>239</v>
       </c>
@@ -11163,7 +11199,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A26" s="35" t="s">
         <v>251</v>
       </c>
@@ -11240,7 +11276,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A27" s="35" t="s">
         <v>266</v>
       </c>
@@ -11317,7 +11353,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A28" s="35" t="s">
         <v>283</v>
       </c>
@@ -11392,7 +11428,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A29" s="35" t="s">
         <v>291</v>
       </c>
@@ -11469,7 +11505,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A30" s="35"/>
       <c r="B30" s="31"/>
       <c r="C30" s="54"/>
@@ -11500,7 +11536,7 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="54"/>
@@ -11531,7 +11567,7 @@
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A32" s="35"/>
       <c r="B32" s="31"/>
       <c r="C32" s="54"/>
@@ -11562,7 +11598,7 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="55"/>
@@ -11593,7 +11629,7 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A34" s="35"/>
       <c r="B34" s="31"/>
       <c r="C34" s="54"/>
@@ -11624,7 +11660,7 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="19.2" customHeight="1">
       <c r="A35" s="35"/>
       <c r="C35" s="54"/>
       <c r="D35" s="57"/>
@@ -11660,402 +11696,402 @@
     <mergeCell ref="D1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P24">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P26">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:P26">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 M23:P23 E23:K23">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S6 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S6 Q25:S26 Q24 Q7:Q11 Q20:Q22 Q16:Q18">
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:S26">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:S11 R20:S24 R14:S18">
-    <cfRule type="cellIs" dxfId="67" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:P19">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="65" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="63" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:S19">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="notEqual">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:P27">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:S27">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6 T25:T26">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:T26">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T11 T20:T24 T15:T18">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:P12 D13:M13 O13:P13">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:P28">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:S28">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6 U25:U26">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25:U26">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U11 U20:U24 U14:U18">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U13">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:P29">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:S29">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12069,17 +12105,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
@@ -12090,7 +12126,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>195</v>
       </c>
@@ -12101,27 +12137,26 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="23">
-        <f>B2+90</f>
-        <v>43981</v>
+        <v>44075</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="22" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>199</v>
       </c>
       <c r="B4" s="24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -12132,56 +12167,57 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>186</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <f>6200000/B5</f>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -12189,7 +12225,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12200,7 +12236,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -12211,29 +12247,29 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>293</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>294</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -12244,7 +12280,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -12268,9 +12304,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -12284,7 +12320,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="74" t="s">
         <v>13</v>
       </c>
@@ -12299,7 +12335,7 @@
         <v>0.22103804882791139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
@@ -12314,7 +12350,7 @@
         <v>0.56577086995561066</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="74" t="s">
         <v>15</v>
       </c>
@@ -12329,7 +12365,7 @@
         <v>0.67502241831755339</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="74" t="s">
         <v>16</v>
       </c>
@@ -12344,7 +12380,7 @@
         <v>0.32347484856747233</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="74" t="s">
         <v>17</v>
       </c>
@@ -12359,7 +12395,7 @@
         <v>0.15124580743042426</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -12374,7 +12410,7 @@
         <v>0.10410123646831862</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="C8" s="76" t="s">
         <v>287</v>
       </c>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwork/Documents/GitHub/covasim-australia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A66B23-4698-0747-9842-4A58F5E61398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001AFDD4-C31F-FC49-BFF1-99096789486D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact matrices-home" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="households" sheetId="4" r:id="rId3"/>
     <sheet name="layers" sheetId="5" r:id="rId4"/>
     <sheet name="policies" sheetId="7" r:id="rId5"/>
-    <sheet name="other_par" sheetId="6" r:id="rId6"/>
-    <sheet name="data" sheetId="8" r:id="rId7"/>
+    <sheet name="policies-lockdown" sheetId="10" r:id="rId6"/>
+    <sheet name="other_par" sheetId="6" r:id="rId7"/>
+    <sheet name="data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -838,7 +839,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -847,12 +848,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
         </r>
       </text>
     </comment>
@@ -862,7 +872,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -871,12 +881,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Any overall change in transmission risk per contact (e.g. reduction from generall better hand washing)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any overall change in transmission risk per contact (e.g. reduction from generall better hand washing)</t>
         </r>
       </text>
     </comment>
@@ -910,7 +929,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -919,12 +938,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assumed daily number of infections imported per day, from other states or internationally</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed daily number of infections imported per day, from other states or internationally</t>
         </r>
       </text>
     </comment>
@@ -934,7 +962,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -943,12 +971,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-remove this percentage of contacts from the network layer</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>remove this percentage of contacts from the network layer</t>
         </r>
       </text>
     </comment>
@@ -958,7 +995,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -967,12 +1004,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Proportion of people unaffected - the remainder are removed from the network layer</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Proportion of people unaffected - the remainder are removed from the network layer</t>
         </r>
       </text>
     </comment>
@@ -982,7 +1028,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -991,13 +1037,41 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-From flutracker, 0.2% fever and cough prevalence compared to ~1.4% the same time last yer --&gt; 86% reduction 
-https://info.flutracking.net/reports-2/australia-reports/</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">From flutracker, 0.2% fever and cough prevalence compared to ~1.4% the same time last yer --&gt; 86% reduction 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://info.flutracking.net/reports-2/australia-reports/</t>
         </r>
       </text>
     </comment>
@@ -1007,7 +1081,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1016,12 +1090,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-E.g. 0.1 here means that 90% of children are removed from the school netowrk layer</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E.g. 0.1 here means that 90% of children are removed from the school netowrk layer</t>
         </r>
       </text>
     </comment>
@@ -1131,6 +1214,205 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3C870F46-9F50-5C4A-9E46-40642E805023}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{19273178-DC1F-9742-AC05-0E232D76FA02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any overall change in transmission risk per contact (e.g. reduction from generall better hand washing)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{6B4AC3B5-CA50-AC4B-90E6-F104AE39D6CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each row is the change in the risk of transmission on the associated network, relative to pre-COVID. 0 means that there is no risk, 1 means that the risk is the same as pre-any intervention.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{3CA18A6A-8ACE-D845-B9E6-D16E193EE499}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed daily number of infections imported per day, from other states or internationally</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{43CA845B-84F7-D141-A4C2-40CB783920BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>remove this percentage of contacts from the network layer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{0BFBE1CD-EA75-8C40-9504-584095318FA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Proportion of people unaffected - the remainder are removed from the network layer</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nick Scott</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{31C3822A-7583-49A7-A327-50B1E0C442BF}">
       <text>
         <r>
@@ -1160,7 +1442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="299">
   <si>
     <t>age</t>
   </si>
@@ -2042,6 +2324,21 @@
   </si>
   <si>
     <t>iso_factor</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>Broad term for firm state-wide shutdown</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2349,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2303,6 +2600,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -2521,7 +2831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2711,6 +3021,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2769,7 +3103,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2947,6 +3281,30 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3561,6 +3919,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC63500"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3570,6 +3933,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3871,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71292FC5-4B23-A74E-B513-C8525EFF9EE0}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7445,12 +7812,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFC63500"/>
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="D1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9885,12 +10252,12 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="D1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P24">
+  <conditionalFormatting sqref="C14:P18 C20:P22 D23 C24:P24 C3:P11 C12:C13">
     <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:P11 C12:C13 C14:P18 C20:P22 D23 C24:P26">
+  <conditionalFormatting sqref="C14:P18 C20:P22 D23 C24:P26 C3:P11 C12:C13">
     <cfRule type="cellIs" dxfId="78" priority="79" operator="notEqual">
       <formula>1</formula>
     </cfRule>
@@ -10292,6 +10659,238 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288C3D6A-28F1-7940-82D1-054C6895C15C}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="84"/>
+    <col min="21" max="21" width="10.83203125" style="80"/>
+    <col min="22" max="22" width="10.83203125" style="84"/>
+    <col min="24" max="24" width="10.83203125" style="80"/>
+    <col min="26" max="26" width="10.83203125" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+    </row>
+    <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="42" t="str">
+        <f ca="1">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <v>H</v>
+      </c>
+      <c r="E2" s="42" t="str">
+        <f t="shared" ref="E2:U2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <v>S</v>
+      </c>
+      <c r="F2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="G2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="H2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Church</v>
+      </c>
+      <c r="I2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>pSport</v>
+      </c>
+      <c r="J2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cSport</v>
+      </c>
+      <c r="K2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>beach</v>
+      </c>
+      <c r="L2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>entertainment</v>
+      </c>
+      <c r="M2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cafe_restaurant</v>
+      </c>
+      <c r="N2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>pub_bar</v>
+      </c>
+      <c r="O2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>transport</v>
+      </c>
+      <c r="P2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>national_parks</v>
+      </c>
+      <c r="Q2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>public_parks</v>
+      </c>
+      <c r="R2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>large_events</v>
+      </c>
+      <c r="S2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>child_care</v>
+      </c>
+      <c r="T2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>social</v>
+      </c>
+      <c r="U2" s="81" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>aged_care</v>
+      </c>
+      <c r="V2" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="X2" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y2" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z2" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="84">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="84">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="W1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -10486,7 +11085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3870F7-A576-4BD3-9D23-1C9E10583711}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwork/Documents/GitHub/covasim-australia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001AFDD4-C31F-FC49-BFF1-99096789486D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83EF8E0-5766-3D41-A473-D172BDC28CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact matrices-home" sheetId="2" r:id="rId1"/>
     <sheet name="age_sex" sheetId="3" r:id="rId2"/>
     <sheet name="households" sheetId="4" r:id="rId3"/>
     <sheet name="layers" sheetId="5" r:id="rId4"/>
-    <sheet name="policies" sheetId="7" r:id="rId5"/>
-    <sheet name="policies-lockdown" sheetId="10" r:id="rId6"/>
-    <sheet name="other_par" sheetId="6" r:id="rId7"/>
-    <sheet name="data" sheetId="8" r:id="rId8"/>
+    <sheet name="policies-lockdown" sheetId="10" r:id="rId5"/>
+    <sheet name="other_par" sheetId="6" r:id="rId6"/>
+    <sheet name="epi_data" sheetId="11" r:id="rId7"/>
+    <sheet name="policies" sheetId="7" r:id="rId8"/>
+    <sheet name="data" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +98,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -106,12 +107,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Relative risk of infection compared to a household contatct (note: this is not the absolute risk per contact)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Relative risk of infection compared to a household contatct (note: this is not the absolute risk per contact)</t>
         </r>
       </text>
     </comment>
@@ -534,7 +544,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -543,12 +553,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assuming a sport contact is equal to a house contact, but only occurs once per week so divide by 7</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assuming a sport contact is equal to a house contact, but only occurs once per week so divide by 7</t>
         </r>
       </text>
     </comment>
@@ -828,6 +847,205 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nick Scott</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3C870F46-9F50-5C4A-9E46-40642E805023}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{19273178-DC1F-9742-AC05-0E232D76FA02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any overall change in transmission risk per contact (e.g. reduction from generall better hand washing)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{6B4AC3B5-CA50-AC4B-90E6-F104AE39D6CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each row is the change in the risk of transmission on the associated network, relative to pre-COVID. 0 means that there is no risk, 1 means that the risk is the same as pre-any intervention.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{3CA18A6A-8ACE-D845-B9E6-D16E193EE499}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed daily number of infections imported per day, from other states or internationally</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{43CA845B-84F7-D141-A4C2-40CB783920BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>remove this percentage of contacts from the network layer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{0BFBE1CD-EA75-8C40-9504-584095318FA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Proportion of people unaffected - the remainder are removed from the network layer</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
@@ -1208,205 +1426,6 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Nick Scott</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3C870F46-9F50-5C4A-9E46-40642E805023}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{19273178-DC1F-9742-AC05-0E232D76FA02}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Any overall change in transmission risk per contact (e.g. reduction from generall better hand washing)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{6B4AC3B5-CA50-AC4B-90E6-F104AE39D6CA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Each row is the change in the risk of transmission on the associated network, relative to pre-COVID. 0 means that there is no risk, 1 means that the risk is the same as pre-any intervention.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{3CA18A6A-8ACE-D845-B9E6-D16E193EE499}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed daily number of infections imported per day, from other states or internationally</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{43CA845B-84F7-D141-A4C2-40CB783920BF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>remove this percentage of contacts from the network layer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{0BFBE1CD-EA75-8C40-9504-584095318FA7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Proportion of people unaffected - the remainder are removed from the network layer</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -1442,7 +1461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="311">
   <si>
     <t>age</t>
   </si>
@@ -2339,6 +2358,42 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>cum_infections</t>
+  </si>
+  <si>
+    <t>cum_deaths</t>
+  </si>
+  <si>
+    <t>cum_test</t>
+  </si>
+  <si>
+    <t>cum_neg</t>
+  </si>
+  <si>
+    <t>n_severe</t>
+  </si>
+  <si>
+    <t>n_critical</t>
+  </si>
+  <si>
+    <t>cum_recovered</t>
+  </si>
+  <si>
+    <t>new_diagnoses</t>
+  </si>
+  <si>
+    <t>new_deaths</t>
+  </si>
+  <si>
+    <t>new_tests</t>
+  </si>
+  <si>
+    <t>daily_imported_cases</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2404,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2613,8 +2668,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2828,6 +2898,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3103,7 +3185,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3273,15 +3355,6 @@
     <xf numFmtId="2" fontId="31" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3306,6 +3379,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3935,10 +4021,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7810,14 +7892,2257 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288C3D6A-28F1-7940-82D1-054C6895C15C}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="81"/>
+    <col min="21" max="21" width="10.83203125" style="77"/>
+    <col min="22" max="22" width="10.83203125" style="81"/>
+    <col min="24" max="24" width="10.83203125" style="77"/>
+    <col min="26" max="26" width="10.83203125" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+    </row>
+    <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="42" t="str">
+        <f ca="1">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <v>H</v>
+      </c>
+      <c r="E2" s="42" t="str">
+        <f t="shared" ref="E2:U2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
+        <v>S</v>
+      </c>
+      <c r="F2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="G2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="H2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Church</v>
+      </c>
+      <c r="I2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>pSport</v>
+      </c>
+      <c r="J2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cSport</v>
+      </c>
+      <c r="K2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>beach</v>
+      </c>
+      <c r="L2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>entertainment</v>
+      </c>
+      <c r="M2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cafe_restaurant</v>
+      </c>
+      <c r="N2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>pub_bar</v>
+      </c>
+      <c r="O2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>transport</v>
+      </c>
+      <c r="P2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>national_parks</v>
+      </c>
+      <c r="Q2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>public_parks</v>
+      </c>
+      <c r="R2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>large_events</v>
+      </c>
+      <c r="S2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>child_care</v>
+      </c>
+      <c r="T2" s="42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>social</v>
+      </c>
+      <c r="U2" s="78" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>aged_care</v>
+      </c>
+      <c r="V2" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="X2" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y2" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z2" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="81">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="81">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="W1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43891</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="18">
+        <v>44075</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5">
+        <v>20000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <f>6200000/B5</f>
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3091FBE5-3E95-934F-B436-B236BC518E77}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="90" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="90" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="91">
+        <v>43891</v>
+      </c>
+      <c r="B2" s="92">
+        <v>9</v>
+      </c>
+      <c r="C2" s="92">
+        <v>0</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92">
+        <v>2</v>
+      </c>
+      <c r="J2" s="92">
+        <v>0</v>
+      </c>
+      <c r="K2" s="92">
+        <v>0</v>
+      </c>
+      <c r="L2" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="91">
+        <v>43892</v>
+      </c>
+      <c r="B3" s="92">
+        <v>9</v>
+      </c>
+      <c r="C3" s="92">
+        <v>0</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92">
+        <v>0</v>
+      </c>
+      <c r="J3" s="92">
+        <v>0</v>
+      </c>
+      <c r="K3" s="92">
+        <v>0</v>
+      </c>
+      <c r="L3" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="91">
+        <v>43893</v>
+      </c>
+      <c r="B4" s="92">
+        <v>9</v>
+      </c>
+      <c r="C4" s="92">
+        <v>0</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92">
+        <v>0</v>
+      </c>
+      <c r="J4" s="92">
+        <v>0</v>
+      </c>
+      <c r="K4" s="92">
+        <v>0</v>
+      </c>
+      <c r="L4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="91">
+        <v>43894</v>
+      </c>
+      <c r="B5" s="92">
+        <v>10</v>
+      </c>
+      <c r="C5" s="92">
+        <v>0</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92">
+        <v>1</v>
+      </c>
+      <c r="J5" s="92">
+        <v>0</v>
+      </c>
+      <c r="K5" s="92">
+        <v>0</v>
+      </c>
+      <c r="L5" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="91">
+        <v>43895</v>
+      </c>
+      <c r="B6" s="92">
+        <v>10</v>
+      </c>
+      <c r="C6" s="92">
+        <v>0</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92">
+        <v>0</v>
+      </c>
+      <c r="J6" s="92">
+        <v>0</v>
+      </c>
+      <c r="K6" s="92">
+        <v>0</v>
+      </c>
+      <c r="L6" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="91">
+        <v>43896</v>
+      </c>
+      <c r="B7" s="92">
+        <v>10</v>
+      </c>
+      <c r="C7" s="92">
+        <v>0</v>
+      </c>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92">
+        <v>0</v>
+      </c>
+      <c r="J7" s="92">
+        <v>0</v>
+      </c>
+      <c r="K7" s="92">
+        <v>0</v>
+      </c>
+      <c r="L7" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="91">
+        <v>43897</v>
+      </c>
+      <c r="B8" s="92">
+        <v>11</v>
+      </c>
+      <c r="C8" s="92">
+        <v>0</v>
+      </c>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92">
+        <v>1</v>
+      </c>
+      <c r="J8" s="92">
+        <v>0</v>
+      </c>
+      <c r="K8" s="92">
+        <v>0</v>
+      </c>
+      <c r="L8" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="91">
+        <v>43898</v>
+      </c>
+      <c r="B9" s="92">
+        <v>12</v>
+      </c>
+      <c r="C9" s="92">
+        <v>0</v>
+      </c>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92">
+        <v>1</v>
+      </c>
+      <c r="J9" s="92">
+        <v>0</v>
+      </c>
+      <c r="K9" s="92">
+        <v>0</v>
+      </c>
+      <c r="L9" s="92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="91">
+        <v>43899</v>
+      </c>
+      <c r="B10" s="92">
+        <v>15</v>
+      </c>
+      <c r="C10" s="92">
+        <v>0</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92">
+        <v>3</v>
+      </c>
+      <c r="J10" s="92">
+        <v>0</v>
+      </c>
+      <c r="K10" s="92">
+        <v>0</v>
+      </c>
+      <c r="L10" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="91">
+        <v>43900</v>
+      </c>
+      <c r="B11" s="92">
+        <v>18</v>
+      </c>
+      <c r="C11" s="92">
+        <v>0</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92">
+        <v>3</v>
+      </c>
+      <c r="J11" s="92">
+        <v>0</v>
+      </c>
+      <c r="K11" s="92">
+        <v>0</v>
+      </c>
+      <c r="L11" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="91">
+        <v>43901</v>
+      </c>
+      <c r="B12" s="92">
+        <v>21</v>
+      </c>
+      <c r="C12" s="92">
+        <v>0</v>
+      </c>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92">
+        <v>3</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0</v>
+      </c>
+      <c r="K12" s="92">
+        <v>0</v>
+      </c>
+      <c r="L12" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="91">
+        <v>43902</v>
+      </c>
+      <c r="B13" s="92">
+        <v>27</v>
+      </c>
+      <c r="C13" s="92">
+        <v>0</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92">
+        <v>6</v>
+      </c>
+      <c r="J13" s="92">
+        <v>0</v>
+      </c>
+      <c r="K13" s="92">
+        <v>0</v>
+      </c>
+      <c r="L13" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="91">
+        <v>43903</v>
+      </c>
+      <c r="B14" s="92">
+        <v>36</v>
+      </c>
+      <c r="C14" s="92">
+        <v>0</v>
+      </c>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92">
+        <v>9</v>
+      </c>
+      <c r="J14" s="92">
+        <v>0</v>
+      </c>
+      <c r="K14" s="93">
+        <v>500</v>
+      </c>
+      <c r="L14" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="91">
+        <v>43904</v>
+      </c>
+      <c r="B15" s="92">
+        <v>49</v>
+      </c>
+      <c r="C15" s="92">
+        <v>0</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92">
+        <v>13</v>
+      </c>
+      <c r="J15" s="92">
+        <v>0</v>
+      </c>
+      <c r="K15" s="93">
+        <v>500</v>
+      </c>
+      <c r="L15" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="91">
+        <v>43905</v>
+      </c>
+      <c r="B16" s="92">
+        <v>57</v>
+      </c>
+      <c r="C16" s="92">
+        <v>0</v>
+      </c>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92">
+        <v>8</v>
+      </c>
+      <c r="J16" s="92">
+        <v>0</v>
+      </c>
+      <c r="K16" s="93">
+        <v>500</v>
+      </c>
+      <c r="L16" s="92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="91">
+        <v>43906</v>
+      </c>
+      <c r="B17" s="92">
+        <v>71</v>
+      </c>
+      <c r="C17" s="92">
+        <v>0</v>
+      </c>
+      <c r="D17" s="92">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="92">
+        <v>11629</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92">
+        <v>14</v>
+      </c>
+      <c r="J17" s="92">
+        <v>0</v>
+      </c>
+      <c r="K17" s="93">
+        <v>500</v>
+      </c>
+      <c r="L17" s="92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="91">
+        <v>43907</v>
+      </c>
+      <c r="B18" s="92">
+        <v>94</v>
+      </c>
+      <c r="C18" s="92">
+        <v>0</v>
+      </c>
+      <c r="D18" s="92">
+        <v>14200</v>
+      </c>
+      <c r="E18" s="92">
+        <v>14106</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92">
+        <v>23</v>
+      </c>
+      <c r="J18" s="92">
+        <v>0</v>
+      </c>
+      <c r="K18" s="93">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="92">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="91">
+        <v>43908</v>
+      </c>
+      <c r="B19" s="92">
+        <v>121</v>
+      </c>
+      <c r="C19" s="92">
+        <v>0</v>
+      </c>
+      <c r="D19" s="92">
+        <v>15200</v>
+      </c>
+      <c r="E19" s="92">
+        <v>15079</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92">
+        <v>27</v>
+      </c>
+      <c r="J19" s="92">
+        <v>0</v>
+      </c>
+      <c r="K19" s="92">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="92">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="91">
+        <v>43909</v>
+      </c>
+      <c r="B20" s="92">
+        <v>150</v>
+      </c>
+      <c r="C20" s="92">
+        <v>0</v>
+      </c>
+      <c r="D20" s="92">
+        <v>17180</v>
+      </c>
+      <c r="E20" s="92">
+        <v>17030</v>
+      </c>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92">
+        <v>29</v>
+      </c>
+      <c r="J20" s="92">
+        <v>0</v>
+      </c>
+      <c r="K20" s="92">
+        <v>1980</v>
+      </c>
+      <c r="L20" s="92">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="91">
+        <v>43910</v>
+      </c>
+      <c r="B21" s="92">
+        <v>178</v>
+      </c>
+      <c r="C21" s="92">
+        <v>0</v>
+      </c>
+      <c r="D21" s="92">
+        <v>19337</v>
+      </c>
+      <c r="E21" s="92">
+        <v>19159</v>
+      </c>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92">
+        <v>28</v>
+      </c>
+      <c r="J21" s="92">
+        <v>0</v>
+      </c>
+      <c r="K21" s="92">
+        <v>2157</v>
+      </c>
+      <c r="L21" s="92">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="91">
+        <v>43911</v>
+      </c>
+      <c r="B22" s="92">
+        <v>229</v>
+      </c>
+      <c r="C22" s="92">
+        <v>0</v>
+      </c>
+      <c r="D22" s="92">
+        <v>20500</v>
+      </c>
+      <c r="E22" s="92">
+        <v>20271</v>
+      </c>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92">
+        <v>51</v>
+      </c>
+      <c r="J22" s="92">
+        <v>0</v>
+      </c>
+      <c r="K22" s="92">
+        <v>1163</v>
+      </c>
+      <c r="L22" s="92">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="91">
+        <v>43912</v>
+      </c>
+      <c r="B23" s="92">
+        <v>296</v>
+      </c>
+      <c r="C23" s="92">
+        <v>0</v>
+      </c>
+      <c r="D23" s="92">
+        <v>22900</v>
+      </c>
+      <c r="E23" s="92">
+        <v>22604</v>
+      </c>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92">
+        <v>67</v>
+      </c>
+      <c r="J23" s="92">
+        <v>0</v>
+      </c>
+      <c r="K23" s="92">
+        <v>2400</v>
+      </c>
+      <c r="L23" s="92">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="91">
+        <v>43913</v>
+      </c>
+      <c r="B24" s="92">
+        <v>355</v>
+      </c>
+      <c r="C24" s="92">
+        <v>0</v>
+      </c>
+      <c r="D24" s="92">
+        <v>23700</v>
+      </c>
+      <c r="E24" s="92">
+        <v>23345</v>
+      </c>
+      <c r="F24" s="92">
+        <v>6</v>
+      </c>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92">
+        <v>96</v>
+      </c>
+      <c r="I24" s="92">
+        <v>59</v>
+      </c>
+      <c r="J24" s="92">
+        <v>0</v>
+      </c>
+      <c r="K24" s="92">
+        <v>800</v>
+      </c>
+      <c r="L24" s="92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="91">
+        <v>43914</v>
+      </c>
+      <c r="B25" s="92">
+        <v>411</v>
+      </c>
+      <c r="C25" s="92">
+        <v>0</v>
+      </c>
+      <c r="D25" s="92">
+        <v>25000</v>
+      </c>
+      <c r="E25" s="92">
+        <v>24589</v>
+      </c>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92">
+        <v>113</v>
+      </c>
+      <c r="I25" s="92">
+        <v>56</v>
+      </c>
+      <c r="J25" s="92">
+        <v>0</v>
+      </c>
+      <c r="K25" s="92">
+        <v>1300</v>
+      </c>
+      <c r="L25" s="92">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="91">
+        <v>43915</v>
+      </c>
+      <c r="B26" s="92">
+        <v>466</v>
+      </c>
+      <c r="C26" s="92">
+        <v>0</v>
+      </c>
+      <c r="D26" s="92">
+        <v>25500</v>
+      </c>
+      <c r="E26" s="92">
+        <v>25034</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92">
+        <v>128</v>
+      </c>
+      <c r="I26" s="92">
+        <v>55</v>
+      </c>
+      <c r="J26" s="92">
+        <v>0</v>
+      </c>
+      <c r="K26" s="92">
+        <v>500</v>
+      </c>
+      <c r="L26" s="92">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="91">
+        <v>43916</v>
+      </c>
+      <c r="B27" s="92">
+        <v>520</v>
+      </c>
+      <c r="C27" s="92">
+        <v>2</v>
+      </c>
+      <c r="D27" s="92">
+        <v>26900</v>
+      </c>
+      <c r="E27" s="92">
+        <v>26380</v>
+      </c>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92">
+        <v>149</v>
+      </c>
+      <c r="I27" s="92">
+        <v>54</v>
+      </c>
+      <c r="J27" s="92">
+        <v>2</v>
+      </c>
+      <c r="K27" s="92">
+        <v>1400</v>
+      </c>
+      <c r="L27" s="92">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="91">
+        <v>43917</v>
+      </c>
+      <c r="B28" s="92">
+        <v>574</v>
+      </c>
+      <c r="C28" s="92">
+        <v>3</v>
+      </c>
+      <c r="D28" s="92">
+        <v>27800</v>
+      </c>
+      <c r="E28" s="92">
+        <v>27226</v>
+      </c>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92">
+        <v>172</v>
+      </c>
+      <c r="I28" s="92">
+        <v>54</v>
+      </c>
+      <c r="J28" s="92">
+        <v>1</v>
+      </c>
+      <c r="K28" s="92">
+        <v>900</v>
+      </c>
+      <c r="L28" s="92">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="91">
+        <v>43918</v>
+      </c>
+      <c r="B29" s="92">
+        <v>685</v>
+      </c>
+      <c r="C29" s="92">
+        <v>4</v>
+      </c>
+      <c r="D29" s="92">
+        <v>35000</v>
+      </c>
+      <c r="E29" s="92">
+        <v>34315</v>
+      </c>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92">
+        <v>191</v>
+      </c>
+      <c r="I29" s="92">
+        <v>111</v>
+      </c>
+      <c r="J29" s="92">
+        <v>1</v>
+      </c>
+      <c r="K29" s="92">
+        <v>7200</v>
+      </c>
+      <c r="L29" s="92">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="91">
+        <v>43919</v>
+      </c>
+      <c r="B30" s="92">
+        <v>769</v>
+      </c>
+      <c r="C30" s="92">
+        <v>4</v>
+      </c>
+      <c r="D30" s="92">
+        <v>39000</v>
+      </c>
+      <c r="E30" s="92">
+        <v>38231</v>
+      </c>
+      <c r="F30" s="92">
+        <v>26</v>
+      </c>
+      <c r="G30" s="92">
+        <v>4</v>
+      </c>
+      <c r="H30" s="92">
+        <v>193</v>
+      </c>
+      <c r="I30" s="92">
+        <v>84</v>
+      </c>
+      <c r="J30" s="92">
+        <v>0</v>
+      </c>
+      <c r="K30" s="92">
+        <v>4000</v>
+      </c>
+      <c r="L30" s="92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="91">
+        <v>43920</v>
+      </c>
+      <c r="B31" s="92">
+        <v>821</v>
+      </c>
+      <c r="C31" s="92">
+        <v>4</v>
+      </c>
+      <c r="D31" s="92">
+        <v>42000</v>
+      </c>
+      <c r="E31" s="92">
+        <v>41179</v>
+      </c>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92">
+        <v>4</v>
+      </c>
+      <c r="H31" s="92">
+        <v>248</v>
+      </c>
+      <c r="I31" s="92">
+        <v>52</v>
+      </c>
+      <c r="J31" s="92">
+        <v>0</v>
+      </c>
+      <c r="K31" s="92">
+        <v>3000</v>
+      </c>
+      <c r="L31" s="92">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="91">
+        <v>43921</v>
+      </c>
+      <c r="B32" s="92">
+        <v>917</v>
+      </c>
+      <c r="C32" s="92">
+        <v>4</v>
+      </c>
+      <c r="D32" s="92">
+        <v>45000</v>
+      </c>
+      <c r="E32" s="92">
+        <v>44083</v>
+      </c>
+      <c r="F32" s="92">
+        <v>29</v>
+      </c>
+      <c r="G32" s="92">
+        <v>4</v>
+      </c>
+      <c r="H32" s="92">
+        <v>291</v>
+      </c>
+      <c r="I32" s="92">
+        <v>96</v>
+      </c>
+      <c r="J32" s="92">
+        <v>0</v>
+      </c>
+      <c r="K32" s="92">
+        <v>3000</v>
+      </c>
+      <c r="L32" s="92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="91">
+        <v>43922</v>
+      </c>
+      <c r="B33" s="92">
+        <v>968</v>
+      </c>
+      <c r="C33" s="92">
+        <v>5</v>
+      </c>
+      <c r="D33" s="92">
+        <v>47000</v>
+      </c>
+      <c r="E33" s="92">
+        <v>46032</v>
+      </c>
+      <c r="F33" s="92">
+        <v>32</v>
+      </c>
+      <c r="G33" s="92">
+        <v>6</v>
+      </c>
+      <c r="H33" s="92">
+        <v>343</v>
+      </c>
+      <c r="I33" s="92">
+        <v>51</v>
+      </c>
+      <c r="J33" s="92">
+        <v>1</v>
+      </c>
+      <c r="K33" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L33" s="92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="91">
+        <v>43923</v>
+      </c>
+      <c r="B34" s="92">
+        <v>1036</v>
+      </c>
+      <c r="C34" s="92">
+        <v>6</v>
+      </c>
+      <c r="D34" s="92">
+        <v>49000</v>
+      </c>
+      <c r="E34" s="92">
+        <v>47964</v>
+      </c>
+      <c r="F34" s="92">
+        <v>34</v>
+      </c>
+      <c r="G34" s="92">
+        <v>6</v>
+      </c>
+      <c r="H34" s="92">
+        <v>422</v>
+      </c>
+      <c r="I34" s="92">
+        <v>68</v>
+      </c>
+      <c r="J34" s="92">
+        <v>1</v>
+      </c>
+      <c r="K34" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L34" s="92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="91">
+        <v>43924</v>
+      </c>
+      <c r="B35" s="92">
+        <v>1085</v>
+      </c>
+      <c r="C35" s="92">
+        <v>7</v>
+      </c>
+      <c r="D35" s="92">
+        <v>51000</v>
+      </c>
+      <c r="E35" s="92">
+        <v>49915</v>
+      </c>
+      <c r="F35" s="92">
+        <v>37</v>
+      </c>
+      <c r="G35" s="92">
+        <v>7</v>
+      </c>
+      <c r="H35" s="92">
+        <v>476</v>
+      </c>
+      <c r="I35" s="92">
+        <v>49</v>
+      </c>
+      <c r="J35" s="92">
+        <v>1</v>
+      </c>
+      <c r="K35" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L35" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="91">
+        <v>43925</v>
+      </c>
+      <c r="B36" s="92">
+        <v>1115</v>
+      </c>
+      <c r="C36" s="92">
+        <v>8</v>
+      </c>
+      <c r="D36" s="92">
+        <v>54000</v>
+      </c>
+      <c r="E36" s="92">
+        <v>52885</v>
+      </c>
+      <c r="F36" s="92">
+        <v>42</v>
+      </c>
+      <c r="G36" s="92">
+        <v>10</v>
+      </c>
+      <c r="H36" s="92">
+        <v>527</v>
+      </c>
+      <c r="I36" s="92">
+        <v>30</v>
+      </c>
+      <c r="J36" s="92">
+        <v>1</v>
+      </c>
+      <c r="K36" s="92">
+        <v>3000</v>
+      </c>
+      <c r="L36" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="91">
+        <v>43926</v>
+      </c>
+      <c r="B37" s="92">
+        <v>1135</v>
+      </c>
+      <c r="C37" s="92">
+        <v>8</v>
+      </c>
+      <c r="D37" s="92">
+        <v>56000</v>
+      </c>
+      <c r="E37" s="92">
+        <v>54865</v>
+      </c>
+      <c r="F37" s="92">
+        <v>47</v>
+      </c>
+      <c r="G37" s="92">
+        <v>11</v>
+      </c>
+      <c r="H37" s="92">
+        <v>573</v>
+      </c>
+      <c r="I37" s="92">
+        <v>20</v>
+      </c>
+      <c r="J37" s="92">
+        <v>0</v>
+      </c>
+      <c r="K37" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L37" s="92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="91">
+        <v>43927</v>
+      </c>
+      <c r="B38" s="92">
+        <v>1158</v>
+      </c>
+      <c r="C38" s="92">
+        <v>10</v>
+      </c>
+      <c r="D38" s="92">
+        <v>57000</v>
+      </c>
+      <c r="E38" s="92">
+        <v>55842</v>
+      </c>
+      <c r="F38" s="92">
+        <v>45</v>
+      </c>
+      <c r="G38" s="92">
+        <v>11</v>
+      </c>
+      <c r="H38" s="92">
+        <v>620</v>
+      </c>
+      <c r="I38" s="92">
+        <v>23</v>
+      </c>
+      <c r="J38" s="92">
+        <v>2</v>
+      </c>
+      <c r="K38" s="92">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="91">
+        <v>43928</v>
+      </c>
+      <c r="B39" s="92">
+        <v>1191</v>
+      </c>
+      <c r="C39" s="92">
+        <v>11</v>
+      </c>
+      <c r="D39" s="92">
+        <v>58000</v>
+      </c>
+      <c r="E39" s="92">
+        <v>56809</v>
+      </c>
+      <c r="F39" s="92">
+        <v>47</v>
+      </c>
+      <c r="G39" s="92">
+        <v>13</v>
+      </c>
+      <c r="H39" s="92">
+        <v>686</v>
+      </c>
+      <c r="I39" s="92">
+        <v>33</v>
+      </c>
+      <c r="J39" s="92">
+        <v>1</v>
+      </c>
+      <c r="K39" s="92">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="91">
+        <v>43929</v>
+      </c>
+      <c r="B40" s="92">
+        <v>1212</v>
+      </c>
+      <c r="C40" s="92">
+        <v>12</v>
+      </c>
+      <c r="D40" s="92">
+        <v>60000</v>
+      </c>
+      <c r="E40" s="92">
+        <v>58788</v>
+      </c>
+      <c r="F40" s="92">
+        <v>45</v>
+      </c>
+      <c r="G40" s="92">
+        <v>12</v>
+      </c>
+      <c r="H40" s="92">
+        <v>736</v>
+      </c>
+      <c r="I40" s="92">
+        <v>21</v>
+      </c>
+      <c r="J40" s="92">
+        <v>1</v>
+      </c>
+      <c r="K40" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L40" s="92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="91">
+        <v>43930</v>
+      </c>
+      <c r="B41" s="92">
+        <v>1228</v>
+      </c>
+      <c r="C41" s="92">
+        <v>12</v>
+      </c>
+      <c r="D41" s="92">
+        <v>62000</v>
+      </c>
+      <c r="E41" s="92">
+        <v>60772</v>
+      </c>
+      <c r="F41" s="92">
+        <v>50</v>
+      </c>
+      <c r="G41" s="92">
+        <v>13</v>
+      </c>
+      <c r="H41" s="92">
+        <v>806</v>
+      </c>
+      <c r="I41" s="92">
+        <v>16</v>
+      </c>
+      <c r="J41" s="92">
+        <v>0</v>
+      </c>
+      <c r="K41" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L41" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="91">
+        <v>43931</v>
+      </c>
+      <c r="B42" s="92">
+        <v>1241</v>
+      </c>
+      <c r="C42" s="92">
+        <v>13</v>
+      </c>
+      <c r="D42" s="92">
+        <v>65000</v>
+      </c>
+      <c r="E42" s="92">
+        <v>63759</v>
+      </c>
+      <c r="F42" s="92">
+        <v>43</v>
+      </c>
+      <c r="G42" s="92">
+        <v>13</v>
+      </c>
+      <c r="H42" s="92">
+        <v>926</v>
+      </c>
+      <c r="I42" s="92">
+        <v>13</v>
+      </c>
+      <c r="J42" s="92">
+        <v>1</v>
+      </c>
+      <c r="K42" s="92">
+        <v>3000</v>
+      </c>
+      <c r="L42" s="92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="91">
+        <v>43932</v>
+      </c>
+      <c r="B43" s="92">
+        <v>1265</v>
+      </c>
+      <c r="C43" s="92">
+        <v>14</v>
+      </c>
+      <c r="D43" s="92">
+        <v>67000</v>
+      </c>
+      <c r="E43" s="92">
+        <v>65735</v>
+      </c>
+      <c r="F43" s="92">
+        <v>44</v>
+      </c>
+      <c r="G43" s="92">
+        <v>15</v>
+      </c>
+      <c r="H43" s="92">
+        <v>986</v>
+      </c>
+      <c r="I43" s="92">
+        <v>24</v>
+      </c>
+      <c r="J43" s="92">
+        <v>1</v>
+      </c>
+      <c r="K43" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L43" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="91">
+        <v>43933</v>
+      </c>
+      <c r="B44" s="92">
+        <v>1268</v>
+      </c>
+      <c r="C44" s="92">
+        <v>14</v>
+      </c>
+      <c r="D44" s="92">
+        <v>69000</v>
+      </c>
+      <c r="E44" s="92">
+        <v>67732</v>
+      </c>
+      <c r="F44" s="92">
+        <v>44</v>
+      </c>
+      <c r="G44" s="92">
+        <v>16</v>
+      </c>
+      <c r="H44" s="92">
+        <v>1015</v>
+      </c>
+      <c r="I44" s="92">
+        <v>3</v>
+      </c>
+      <c r="J44" s="92">
+        <v>0</v>
+      </c>
+      <c r="K44" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L44" s="92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="91">
+        <v>43934</v>
+      </c>
+      <c r="B45" s="92">
+        <v>1281</v>
+      </c>
+      <c r="C45" s="92">
+        <v>14</v>
+      </c>
+      <c r="D45" s="92">
+        <v>70000</v>
+      </c>
+      <c r="E45" s="92">
+        <v>68719</v>
+      </c>
+      <c r="F45" s="92">
+        <v>40</v>
+      </c>
+      <c r="G45" s="92">
+        <v>14</v>
+      </c>
+      <c r="H45" s="92">
+        <v>1075</v>
+      </c>
+      <c r="I45" s="92">
+        <v>13</v>
+      </c>
+      <c r="J45" s="92">
+        <v>0</v>
+      </c>
+      <c r="K45" s="92">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="91">
+        <v>43935</v>
+      </c>
+      <c r="B46" s="92">
+        <v>1291</v>
+      </c>
+      <c r="C46" s="92">
+        <v>14</v>
+      </c>
+      <c r="D46" s="92">
+        <v>71000</v>
+      </c>
+      <c r="E46" s="92">
+        <v>69709</v>
+      </c>
+      <c r="F46" s="92">
+        <v>40</v>
+      </c>
+      <c r="G46" s="92">
+        <v>15</v>
+      </c>
+      <c r="H46" s="92">
+        <v>1118</v>
+      </c>
+      <c r="I46" s="92">
+        <v>10</v>
+      </c>
+      <c r="J46" s="92">
+        <v>0</v>
+      </c>
+      <c r="K46" s="92">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="91">
+        <v>43936</v>
+      </c>
+      <c r="B47" s="92">
+        <v>1299</v>
+      </c>
+      <c r="C47" s="92">
+        <v>14</v>
+      </c>
+      <c r="D47" s="92">
+        <v>72000</v>
+      </c>
+      <c r="E47" s="92">
+        <v>70701</v>
+      </c>
+      <c r="F47" s="92">
+        <v>39</v>
+      </c>
+      <c r="G47" s="92">
+        <v>18</v>
+      </c>
+      <c r="H47" s="92">
+        <v>1137</v>
+      </c>
+      <c r="I47" s="92">
+        <v>8</v>
+      </c>
+      <c r="J47" s="92">
+        <v>0</v>
+      </c>
+      <c r="K47" s="92">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="91">
+        <v>43937</v>
+      </c>
+      <c r="B48" s="92">
+        <v>1301</v>
+      </c>
+      <c r="C48" s="92">
+        <v>14</v>
+      </c>
+      <c r="D48" s="92">
+        <v>73000</v>
+      </c>
+      <c r="E48" s="92">
+        <v>71699</v>
+      </c>
+      <c r="F48" s="92">
+        <v>39</v>
+      </c>
+      <c r="G48" s="92">
+        <v>18</v>
+      </c>
+      <c r="H48" s="92">
+        <v>1153</v>
+      </c>
+      <c r="I48" s="92">
+        <v>2</v>
+      </c>
+      <c r="J48" s="92">
+        <v>0</v>
+      </c>
+      <c r="K48" s="92">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="91">
+        <v>43938</v>
+      </c>
+      <c r="B49" s="92">
+        <v>1302</v>
+      </c>
+      <c r="C49" s="92">
+        <v>14</v>
+      </c>
+      <c r="D49" s="92">
+        <v>75000</v>
+      </c>
+      <c r="E49" s="92">
+        <v>73698</v>
+      </c>
+      <c r="F49" s="92">
+        <v>32</v>
+      </c>
+      <c r="G49" s="92">
+        <v>13</v>
+      </c>
+      <c r="H49" s="92">
+        <v>1159</v>
+      </c>
+      <c r="I49" s="92">
+        <v>1</v>
+      </c>
+      <c r="J49" s="92">
+        <v>0</v>
+      </c>
+      <c r="K49" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L49" s="92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="91">
+        <v>43939</v>
+      </c>
+      <c r="B50" s="92">
+        <v>1319</v>
+      </c>
+      <c r="C50" s="92">
+        <v>14</v>
+      </c>
+      <c r="D50" s="92">
+        <v>79000</v>
+      </c>
+      <c r="E50" s="92">
+        <v>77681</v>
+      </c>
+      <c r="F50" s="92">
+        <v>30</v>
+      </c>
+      <c r="G50" s="92">
+        <v>12</v>
+      </c>
+      <c r="H50" s="92">
+        <v>1172</v>
+      </c>
+      <c r="I50" s="92">
+        <v>17</v>
+      </c>
+      <c r="J50" s="92">
+        <v>0</v>
+      </c>
+      <c r="K50" s="92">
+        <v>4000</v>
+      </c>
+      <c r="L50" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="91">
+        <v>43940</v>
+      </c>
+      <c r="B51" s="92">
+        <v>1328</v>
+      </c>
+      <c r="C51" s="92">
+        <v>15</v>
+      </c>
+      <c r="D51" s="92">
+        <v>82000</v>
+      </c>
+      <c r="E51" s="92">
+        <v>80672</v>
+      </c>
+      <c r="F51" s="92">
+        <v>29</v>
+      </c>
+      <c r="G51" s="92">
+        <v>10</v>
+      </c>
+      <c r="H51" s="92">
+        <v>1188</v>
+      </c>
+      <c r="I51" s="92">
+        <v>9</v>
+      </c>
+      <c r="J51" s="92">
+        <v>1</v>
+      </c>
+      <c r="K51" s="92">
+        <v>3000</v>
+      </c>
+      <c r="L51" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="91">
+        <v>43941</v>
+      </c>
+      <c r="B52" s="92">
+        <v>1329</v>
+      </c>
+      <c r="C52" s="92">
+        <v>15</v>
+      </c>
+      <c r="D52" s="92">
+        <v>86000</v>
+      </c>
+      <c r="E52" s="92">
+        <v>84671</v>
+      </c>
+      <c r="F52" s="92">
+        <v>28</v>
+      </c>
+      <c r="G52" s="92">
+        <v>11</v>
+      </c>
+      <c r="H52" s="92">
+        <v>1196</v>
+      </c>
+      <c r="I52" s="92">
+        <v>1</v>
+      </c>
+      <c r="J52" s="92">
+        <v>0</v>
+      </c>
+      <c r="K52" s="92">
+        <v>4000</v>
+      </c>
+      <c r="L52" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="91">
+        <v>43942</v>
+      </c>
+      <c r="B53" s="92">
+        <v>1336</v>
+      </c>
+      <c r="C53" s="92">
+        <v>15</v>
+      </c>
+      <c r="D53" s="92">
+        <v>88000</v>
+      </c>
+      <c r="E53" s="92">
+        <v>86664</v>
+      </c>
+      <c r="F53" s="92">
+        <v>28</v>
+      </c>
+      <c r="G53" s="92">
+        <v>12</v>
+      </c>
+      <c r="H53" s="92">
+        <v>1202</v>
+      </c>
+      <c r="I53" s="92">
+        <v>7</v>
+      </c>
+      <c r="J53" s="92">
+        <v>0</v>
+      </c>
+      <c r="K53" s="92">
+        <v>2000</v>
+      </c>
+      <c r="L53" s="92">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <sheetPr>
     <tabColor rgb="FFC63500"/>
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7838,31 +10163,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="78"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="88"/>
       <c r="V1" s="55"/>
-      <c r="W1" s="77" t="s">
+      <c r="W1" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="X1" s="78"/>
+      <c r="X1" s="88"/>
     </row>
     <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -10658,434 +12983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288C3D6A-28F1-7940-82D1-054C6895C15C}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="84"/>
-    <col min="21" max="21" width="10.83203125" style="80"/>
-    <col min="22" max="22" width="10.83203125" style="84"/>
-    <col min="24" max="24" width="10.83203125" style="80"/>
-    <col min="26" max="26" width="10.83203125" style="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-    </row>
-    <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="42" t="str">
-        <f ca="1">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
-        <v>H</v>
-      </c>
-      <c r="E2" s="42" t="str">
-        <f t="shared" ref="E2:U2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
-        <v>S</v>
-      </c>
-      <c r="F2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>W</v>
-      </c>
-      <c r="G2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="H2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Church</v>
-      </c>
-      <c r="I2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>pSport</v>
-      </c>
-      <c r="J2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cSport</v>
-      </c>
-      <c r="K2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>beach</v>
-      </c>
-      <c r="L2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>entertainment</v>
-      </c>
-      <c r="M2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cafe_restaurant</v>
-      </c>
-      <c r="N2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>pub_bar</v>
-      </c>
-      <c r="O2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>transport</v>
-      </c>
-      <c r="P2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>national_parks</v>
-      </c>
-      <c r="Q2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>public_parks</v>
-      </c>
-      <c r="R2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>large_events</v>
-      </c>
-      <c r="S2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>child_care</v>
-      </c>
-      <c r="T2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>social</v>
-      </c>
-      <c r="U2" s="81" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>aged_care</v>
-      </c>
-      <c r="V2" s="83" t="s">
-        <v>229</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="X2" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y2" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z2" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="84">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="84">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="W1:X1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="18">
-        <v>43891</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="18">
-        <v>44075</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5">
-        <v>20000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6">
-        <f>6200000/B5</f>
-        <v>310</v>
-      </c>
-      <c r="C6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12">
-        <v>0.6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3870F7-A576-4BD3-9D23-1C9E10583711}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwork/Documents/GitHub/covasim-australia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83EF8E0-5766-3D41-A473-D172BDC28CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC3342-B29A-C540-9CEB-1A1993E6E585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="762" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact matrices-home" sheetId="2" r:id="rId1"/>
     <sheet name="age_sex" sheetId="3" r:id="rId2"/>
     <sheet name="households" sheetId="4" r:id="rId3"/>
     <sheet name="layers" sheetId="5" r:id="rId4"/>
-    <sheet name="policies-lockdown" sheetId="10" r:id="rId5"/>
+    <sheet name="policies" sheetId="7" r:id="rId5"/>
     <sheet name="other_par" sheetId="6" r:id="rId6"/>
     <sheet name="epi_data" sheetId="11" r:id="rId7"/>
-    <sheet name="policies" sheetId="7" r:id="rId8"/>
-    <sheet name="data" sheetId="8" r:id="rId9"/>
+    <sheet name="data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -852,205 +851,6 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3C870F46-9F50-5C4A-9E46-40642E805023}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>These are relative changes, so 0.8 means 20% reduction due to the policy change</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{19273178-DC1F-9742-AC05-0E232D76FA02}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Any overall change in transmission risk per contact (e.g. reduction from generall better hand washing)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{6B4AC3B5-CA50-AC4B-90E6-F104AE39D6CA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Each row is the change in the risk of transmission on the associated network, relative to pre-COVID. 0 means that there is no risk, 1 means that the risk is the same as pre-any intervention.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{3CA18A6A-8ACE-D845-B9E6-D16E193EE499}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed daily number of infections imported per day, from other states or internationally</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{43CA845B-84F7-D141-A4C2-40CB783920BF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>remove this percentage of contacts from the network layer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{0BFBE1CD-EA75-8C40-9504-584095318FA7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Proportion of people unaffected - the remainder are removed from the network layer</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Nick Scott</author>
-  </authors>
-  <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DBC75FE4-35A6-460A-9904-321F2B604C0D}">
       <text>
         <r>
@@ -1426,7 +1226,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
@@ -1461,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="306">
   <si>
     <t>age</t>
   </si>
@@ -2343,21 +2143,6 @@
   </si>
   <si>
     <t>iso_factor</t>
-  </si>
-  <si>
-    <t>lockdown</t>
-  </si>
-  <si>
-    <t>Broad term for firm state-wide shutdown</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
   </si>
   <si>
     <t>date</t>
@@ -2913,7 +2698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3103,30 +2888,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3185,7 +2946,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3355,43 +3116,19 @@
     <xf numFmtId="2" fontId="31" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7146,7 +6883,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="3" sqref="A19:XFD19 A17:XFD17 A8:XFD8 A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7892,2257 +7629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288C3D6A-28F1-7940-82D1-054C6895C15C}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="81"/>
-    <col min="21" max="21" width="10.83203125" style="77"/>
-    <col min="22" max="22" width="10.83203125" style="81"/>
-    <col min="24" max="24" width="10.83203125" style="77"/>
-    <col min="26" max="26" width="10.83203125" style="77"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-    </row>
-    <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="42" t="str">
-        <f ca="1">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
-        <v>H</v>
-      </c>
-      <c r="E2" s="42" t="str">
-        <f t="shared" ref="E2:U2" ca="1" si="0">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
-        <v>S</v>
-      </c>
-      <c r="F2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>W</v>
-      </c>
-      <c r="G2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="H2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Church</v>
-      </c>
-      <c r="I2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>pSport</v>
-      </c>
-      <c r="J2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cSport</v>
-      </c>
-      <c r="K2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>beach</v>
-      </c>
-      <c r="L2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>entertainment</v>
-      </c>
-      <c r="M2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cafe_restaurant</v>
-      </c>
-      <c r="N2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>pub_bar</v>
-      </c>
-      <c r="O2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>transport</v>
-      </c>
-      <c r="P2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>national_parks</v>
-      </c>
-      <c r="Q2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>public_parks</v>
-      </c>
-      <c r="R2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>large_events</v>
-      </c>
-      <c r="S2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>child_care</v>
-      </c>
-      <c r="T2" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>social</v>
-      </c>
-      <c r="U2" s="78" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>aged_care</v>
-      </c>
-      <c r="V2" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="X2" s="83" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y2" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z2" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="81">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="81">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="W1:X1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="18">
-        <v>43891</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="18">
-        <v>44075</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5">
-        <v>20000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6">
-        <f>6200000/B5</f>
-        <v>310</v>
-      </c>
-      <c r="C6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12">
-        <v>0.6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3091FBE5-3E95-934F-B436-B236BC518E77}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:L53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="90" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>305</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>309</v>
-      </c>
-      <c r="L1" s="90" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="91">
-        <v>43891</v>
-      </c>
-      <c r="B2" s="92">
-        <v>9</v>
-      </c>
-      <c r="C2" s="92">
-        <v>0</v>
-      </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92">
-        <v>2</v>
-      </c>
-      <c r="J2" s="92">
-        <v>0</v>
-      </c>
-      <c r="K2" s="92">
-        <v>0</v>
-      </c>
-      <c r="L2" s="92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="91">
-        <v>43892</v>
-      </c>
-      <c r="B3" s="92">
-        <v>9</v>
-      </c>
-      <c r="C3" s="92">
-        <v>0</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92">
-        <v>0</v>
-      </c>
-      <c r="J3" s="92">
-        <v>0</v>
-      </c>
-      <c r="K3" s="92">
-        <v>0</v>
-      </c>
-      <c r="L3" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="91">
-        <v>43893</v>
-      </c>
-      <c r="B4" s="92">
-        <v>9</v>
-      </c>
-      <c r="C4" s="92">
-        <v>0</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92">
-        <v>0</v>
-      </c>
-      <c r="J4" s="92">
-        <v>0</v>
-      </c>
-      <c r="K4" s="92">
-        <v>0</v>
-      </c>
-      <c r="L4" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="91">
-        <v>43894</v>
-      </c>
-      <c r="B5" s="92">
-        <v>10</v>
-      </c>
-      <c r="C5" s="92">
-        <v>0</v>
-      </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92">
-        <v>1</v>
-      </c>
-      <c r="J5" s="92">
-        <v>0</v>
-      </c>
-      <c r="K5" s="92">
-        <v>0</v>
-      </c>
-      <c r="L5" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="91">
-        <v>43895</v>
-      </c>
-      <c r="B6" s="92">
-        <v>10</v>
-      </c>
-      <c r="C6" s="92">
-        <v>0</v>
-      </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92">
-        <v>0</v>
-      </c>
-      <c r="J6" s="92">
-        <v>0</v>
-      </c>
-      <c r="K6" s="92">
-        <v>0</v>
-      </c>
-      <c r="L6" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="91">
-        <v>43896</v>
-      </c>
-      <c r="B7" s="92">
-        <v>10</v>
-      </c>
-      <c r="C7" s="92">
-        <v>0</v>
-      </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92">
-        <v>0</v>
-      </c>
-      <c r="J7" s="92">
-        <v>0</v>
-      </c>
-      <c r="K7" s="92">
-        <v>0</v>
-      </c>
-      <c r="L7" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="91">
-        <v>43897</v>
-      </c>
-      <c r="B8" s="92">
-        <v>11</v>
-      </c>
-      <c r="C8" s="92">
-        <v>0</v>
-      </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92">
-        <v>1</v>
-      </c>
-      <c r="J8" s="92">
-        <v>0</v>
-      </c>
-      <c r="K8" s="92">
-        <v>0</v>
-      </c>
-      <c r="L8" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="91">
-        <v>43898</v>
-      </c>
-      <c r="B9" s="92">
-        <v>12</v>
-      </c>
-      <c r="C9" s="92">
-        <v>0</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92">
-        <v>1</v>
-      </c>
-      <c r="J9" s="92">
-        <v>0</v>
-      </c>
-      <c r="K9" s="92">
-        <v>0</v>
-      </c>
-      <c r="L9" s="92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="91">
-        <v>43899</v>
-      </c>
-      <c r="B10" s="92">
-        <v>15</v>
-      </c>
-      <c r="C10" s="92">
-        <v>0</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92">
-        <v>3</v>
-      </c>
-      <c r="J10" s="92">
-        <v>0</v>
-      </c>
-      <c r="K10" s="92">
-        <v>0</v>
-      </c>
-      <c r="L10" s="92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="91">
-        <v>43900</v>
-      </c>
-      <c r="B11" s="92">
-        <v>18</v>
-      </c>
-      <c r="C11" s="92">
-        <v>0</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92">
-        <v>3</v>
-      </c>
-      <c r="J11" s="92">
-        <v>0</v>
-      </c>
-      <c r="K11" s="92">
-        <v>0</v>
-      </c>
-      <c r="L11" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="91">
-        <v>43901</v>
-      </c>
-      <c r="B12" s="92">
-        <v>21</v>
-      </c>
-      <c r="C12" s="92">
-        <v>0</v>
-      </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92">
-        <v>3</v>
-      </c>
-      <c r="J12" s="92">
-        <v>0</v>
-      </c>
-      <c r="K12" s="92">
-        <v>0</v>
-      </c>
-      <c r="L12" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="91">
-        <v>43902</v>
-      </c>
-      <c r="B13" s="92">
-        <v>27</v>
-      </c>
-      <c r="C13" s="92">
-        <v>0</v>
-      </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92">
-        <v>6</v>
-      </c>
-      <c r="J13" s="92">
-        <v>0</v>
-      </c>
-      <c r="K13" s="92">
-        <v>0</v>
-      </c>
-      <c r="L13" s="92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="91">
-        <v>43903</v>
-      </c>
-      <c r="B14" s="92">
-        <v>36</v>
-      </c>
-      <c r="C14" s="92">
-        <v>0</v>
-      </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92">
-        <v>9</v>
-      </c>
-      <c r="J14" s="92">
-        <v>0</v>
-      </c>
-      <c r="K14" s="93">
-        <v>500</v>
-      </c>
-      <c r="L14" s="92">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="91">
-        <v>43904</v>
-      </c>
-      <c r="B15" s="92">
-        <v>49</v>
-      </c>
-      <c r="C15" s="92">
-        <v>0</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92">
-        <v>13</v>
-      </c>
-      <c r="J15" s="92">
-        <v>0</v>
-      </c>
-      <c r="K15" s="93">
-        <v>500</v>
-      </c>
-      <c r="L15" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="91">
-        <v>43905</v>
-      </c>
-      <c r="B16" s="92">
-        <v>57</v>
-      </c>
-      <c r="C16" s="92">
-        <v>0</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92">
-        <v>8</v>
-      </c>
-      <c r="J16" s="92">
-        <v>0</v>
-      </c>
-      <c r="K16" s="93">
-        <v>500</v>
-      </c>
-      <c r="L16" s="92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="91">
-        <v>43906</v>
-      </c>
-      <c r="B17" s="92">
-        <v>71</v>
-      </c>
-      <c r="C17" s="92">
-        <v>0</v>
-      </c>
-      <c r="D17" s="92">
-        <v>11700</v>
-      </c>
-      <c r="E17" s="92">
-        <v>11629</v>
-      </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92">
-        <v>14</v>
-      </c>
-      <c r="J17" s="92">
-        <v>0</v>
-      </c>
-      <c r="K17" s="93">
-        <v>500</v>
-      </c>
-      <c r="L17" s="92">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="91">
-        <v>43907</v>
-      </c>
-      <c r="B18" s="92">
-        <v>94</v>
-      </c>
-      <c r="C18" s="92">
-        <v>0</v>
-      </c>
-      <c r="D18" s="92">
-        <v>14200</v>
-      </c>
-      <c r="E18" s="92">
-        <v>14106</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92">
-        <v>23</v>
-      </c>
-      <c r="J18" s="92">
-        <v>0</v>
-      </c>
-      <c r="K18" s="93">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="92">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="91">
-        <v>43908</v>
-      </c>
-      <c r="B19" s="92">
-        <v>121</v>
-      </c>
-      <c r="C19" s="92">
-        <v>0</v>
-      </c>
-      <c r="D19" s="92">
-        <v>15200</v>
-      </c>
-      <c r="E19" s="92">
-        <v>15079</v>
-      </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92">
-        <v>27</v>
-      </c>
-      <c r="J19" s="92">
-        <v>0</v>
-      </c>
-      <c r="K19" s="92">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="92">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="91">
-        <v>43909</v>
-      </c>
-      <c r="B20" s="92">
-        <v>150</v>
-      </c>
-      <c r="C20" s="92">
-        <v>0</v>
-      </c>
-      <c r="D20" s="92">
-        <v>17180</v>
-      </c>
-      <c r="E20" s="92">
-        <v>17030</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92">
-        <v>29</v>
-      </c>
-      <c r="J20" s="92">
-        <v>0</v>
-      </c>
-      <c r="K20" s="92">
-        <v>1980</v>
-      </c>
-      <c r="L20" s="92">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="91">
-        <v>43910</v>
-      </c>
-      <c r="B21" s="92">
-        <v>178</v>
-      </c>
-      <c r="C21" s="92">
-        <v>0</v>
-      </c>
-      <c r="D21" s="92">
-        <v>19337</v>
-      </c>
-      <c r="E21" s="92">
-        <v>19159</v>
-      </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92">
-        <v>28</v>
-      </c>
-      <c r="J21" s="92">
-        <v>0</v>
-      </c>
-      <c r="K21" s="92">
-        <v>2157</v>
-      </c>
-      <c r="L21" s="92">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="91">
-        <v>43911</v>
-      </c>
-      <c r="B22" s="92">
-        <v>229</v>
-      </c>
-      <c r="C22" s="92">
-        <v>0</v>
-      </c>
-      <c r="D22" s="92">
-        <v>20500</v>
-      </c>
-      <c r="E22" s="92">
-        <v>20271</v>
-      </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92">
-        <v>51</v>
-      </c>
-      <c r="J22" s="92">
-        <v>0</v>
-      </c>
-      <c r="K22" s="92">
-        <v>1163</v>
-      </c>
-      <c r="L22" s="92">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="91">
-        <v>43912</v>
-      </c>
-      <c r="B23" s="92">
-        <v>296</v>
-      </c>
-      <c r="C23" s="92">
-        <v>0</v>
-      </c>
-      <c r="D23" s="92">
-        <v>22900</v>
-      </c>
-      <c r="E23" s="92">
-        <v>22604</v>
-      </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92">
-        <v>67</v>
-      </c>
-      <c r="J23" s="92">
-        <v>0</v>
-      </c>
-      <c r="K23" s="92">
-        <v>2400</v>
-      </c>
-      <c r="L23" s="92">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="91">
-        <v>43913</v>
-      </c>
-      <c r="B24" s="92">
-        <v>355</v>
-      </c>
-      <c r="C24" s="92">
-        <v>0</v>
-      </c>
-      <c r="D24" s="92">
-        <v>23700</v>
-      </c>
-      <c r="E24" s="92">
-        <v>23345</v>
-      </c>
-      <c r="F24" s="92">
-        <v>6</v>
-      </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92">
-        <v>96</v>
-      </c>
-      <c r="I24" s="92">
-        <v>59</v>
-      </c>
-      <c r="J24" s="92">
-        <v>0</v>
-      </c>
-      <c r="K24" s="92">
-        <v>800</v>
-      </c>
-      <c r="L24" s="92">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="91">
-        <v>43914</v>
-      </c>
-      <c r="B25" s="92">
-        <v>411</v>
-      </c>
-      <c r="C25" s="92">
-        <v>0</v>
-      </c>
-      <c r="D25" s="92">
-        <v>25000</v>
-      </c>
-      <c r="E25" s="92">
-        <v>24589</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92">
-        <v>113</v>
-      </c>
-      <c r="I25" s="92">
-        <v>56</v>
-      </c>
-      <c r="J25" s="92">
-        <v>0</v>
-      </c>
-      <c r="K25" s="92">
-        <v>1300</v>
-      </c>
-      <c r="L25" s="92">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="91">
-        <v>43915</v>
-      </c>
-      <c r="B26" s="92">
-        <v>466</v>
-      </c>
-      <c r="C26" s="92">
-        <v>0</v>
-      </c>
-      <c r="D26" s="92">
-        <v>25500</v>
-      </c>
-      <c r="E26" s="92">
-        <v>25034</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92">
-        <v>128</v>
-      </c>
-      <c r="I26" s="92">
-        <v>55</v>
-      </c>
-      <c r="J26" s="92">
-        <v>0</v>
-      </c>
-      <c r="K26" s="92">
-        <v>500</v>
-      </c>
-      <c r="L26" s="92">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="91">
-        <v>43916</v>
-      </c>
-      <c r="B27" s="92">
-        <v>520</v>
-      </c>
-      <c r="C27" s="92">
-        <v>2</v>
-      </c>
-      <c r="D27" s="92">
-        <v>26900</v>
-      </c>
-      <c r="E27" s="92">
-        <v>26380</v>
-      </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92">
-        <v>149</v>
-      </c>
-      <c r="I27" s="92">
-        <v>54</v>
-      </c>
-      <c r="J27" s="92">
-        <v>2</v>
-      </c>
-      <c r="K27" s="92">
-        <v>1400</v>
-      </c>
-      <c r="L27" s="92">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="91">
-        <v>43917</v>
-      </c>
-      <c r="B28" s="92">
-        <v>574</v>
-      </c>
-      <c r="C28" s="92">
-        <v>3</v>
-      </c>
-      <c r="D28" s="92">
-        <v>27800</v>
-      </c>
-      <c r="E28" s="92">
-        <v>27226</v>
-      </c>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92">
-        <v>172</v>
-      </c>
-      <c r="I28" s="92">
-        <v>54</v>
-      </c>
-      <c r="J28" s="92">
-        <v>1</v>
-      </c>
-      <c r="K28" s="92">
-        <v>900</v>
-      </c>
-      <c r="L28" s="92">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="91">
-        <v>43918</v>
-      </c>
-      <c r="B29" s="92">
-        <v>685</v>
-      </c>
-      <c r="C29" s="92">
-        <v>4</v>
-      </c>
-      <c r="D29" s="92">
-        <v>35000</v>
-      </c>
-      <c r="E29" s="92">
-        <v>34315</v>
-      </c>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92">
-        <v>191</v>
-      </c>
-      <c r="I29" s="92">
-        <v>111</v>
-      </c>
-      <c r="J29" s="92">
-        <v>1</v>
-      </c>
-      <c r="K29" s="92">
-        <v>7200</v>
-      </c>
-      <c r="L29" s="92">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="91">
-        <v>43919</v>
-      </c>
-      <c r="B30" s="92">
-        <v>769</v>
-      </c>
-      <c r="C30" s="92">
-        <v>4</v>
-      </c>
-      <c r="D30" s="92">
-        <v>39000</v>
-      </c>
-      <c r="E30" s="92">
-        <v>38231</v>
-      </c>
-      <c r="F30" s="92">
-        <v>26</v>
-      </c>
-      <c r="G30" s="92">
-        <v>4</v>
-      </c>
-      <c r="H30" s="92">
-        <v>193</v>
-      </c>
-      <c r="I30" s="92">
-        <v>84</v>
-      </c>
-      <c r="J30" s="92">
-        <v>0</v>
-      </c>
-      <c r="K30" s="92">
-        <v>4000</v>
-      </c>
-      <c r="L30" s="92">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="91">
-        <v>43920</v>
-      </c>
-      <c r="B31" s="92">
-        <v>821</v>
-      </c>
-      <c r="C31" s="92">
-        <v>4</v>
-      </c>
-      <c r="D31" s="92">
-        <v>42000</v>
-      </c>
-      <c r="E31" s="92">
-        <v>41179</v>
-      </c>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92">
-        <v>4</v>
-      </c>
-      <c r="H31" s="92">
-        <v>248</v>
-      </c>
-      <c r="I31" s="92">
-        <v>52</v>
-      </c>
-      <c r="J31" s="92">
-        <v>0</v>
-      </c>
-      <c r="K31" s="92">
-        <v>3000</v>
-      </c>
-      <c r="L31" s="92">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="91">
-        <v>43921</v>
-      </c>
-      <c r="B32" s="92">
-        <v>917</v>
-      </c>
-      <c r="C32" s="92">
-        <v>4</v>
-      </c>
-      <c r="D32" s="92">
-        <v>45000</v>
-      </c>
-      <c r="E32" s="92">
-        <v>44083</v>
-      </c>
-      <c r="F32" s="92">
-        <v>29</v>
-      </c>
-      <c r="G32" s="92">
-        <v>4</v>
-      </c>
-      <c r="H32" s="92">
-        <v>291</v>
-      </c>
-      <c r="I32" s="92">
-        <v>96</v>
-      </c>
-      <c r="J32" s="92">
-        <v>0</v>
-      </c>
-      <c r="K32" s="92">
-        <v>3000</v>
-      </c>
-      <c r="L32" s="92">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="91">
-        <v>43922</v>
-      </c>
-      <c r="B33" s="92">
-        <v>968</v>
-      </c>
-      <c r="C33" s="92">
-        <v>5</v>
-      </c>
-      <c r="D33" s="92">
-        <v>47000</v>
-      </c>
-      <c r="E33" s="92">
-        <v>46032</v>
-      </c>
-      <c r="F33" s="92">
-        <v>32</v>
-      </c>
-      <c r="G33" s="92">
-        <v>6</v>
-      </c>
-      <c r="H33" s="92">
-        <v>343</v>
-      </c>
-      <c r="I33" s="92">
-        <v>51</v>
-      </c>
-      <c r="J33" s="92">
-        <v>1</v>
-      </c>
-      <c r="K33" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L33" s="92">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="91">
-        <v>43923</v>
-      </c>
-      <c r="B34" s="92">
-        <v>1036</v>
-      </c>
-      <c r="C34" s="92">
-        <v>6</v>
-      </c>
-      <c r="D34" s="92">
-        <v>49000</v>
-      </c>
-      <c r="E34" s="92">
-        <v>47964</v>
-      </c>
-      <c r="F34" s="92">
-        <v>34</v>
-      </c>
-      <c r="G34" s="92">
-        <v>6</v>
-      </c>
-      <c r="H34" s="92">
-        <v>422</v>
-      </c>
-      <c r="I34" s="92">
-        <v>68</v>
-      </c>
-      <c r="J34" s="92">
-        <v>1</v>
-      </c>
-      <c r="K34" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L34" s="92">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="91">
-        <v>43924</v>
-      </c>
-      <c r="B35" s="92">
-        <v>1085</v>
-      </c>
-      <c r="C35" s="92">
-        <v>7</v>
-      </c>
-      <c r="D35" s="92">
-        <v>51000</v>
-      </c>
-      <c r="E35" s="92">
-        <v>49915</v>
-      </c>
-      <c r="F35" s="92">
-        <v>37</v>
-      </c>
-      <c r="G35" s="92">
-        <v>7</v>
-      </c>
-      <c r="H35" s="92">
-        <v>476</v>
-      </c>
-      <c r="I35" s="92">
-        <v>49</v>
-      </c>
-      <c r="J35" s="92">
-        <v>1</v>
-      </c>
-      <c r="K35" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L35" s="92">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="91">
-        <v>43925</v>
-      </c>
-      <c r="B36" s="92">
-        <v>1115</v>
-      </c>
-      <c r="C36" s="92">
-        <v>8</v>
-      </c>
-      <c r="D36" s="92">
-        <v>54000</v>
-      </c>
-      <c r="E36" s="92">
-        <v>52885</v>
-      </c>
-      <c r="F36" s="92">
-        <v>42</v>
-      </c>
-      <c r="G36" s="92">
-        <v>10</v>
-      </c>
-      <c r="H36" s="92">
-        <v>527</v>
-      </c>
-      <c r="I36" s="92">
-        <v>30</v>
-      </c>
-      <c r="J36" s="92">
-        <v>1</v>
-      </c>
-      <c r="K36" s="92">
-        <v>3000</v>
-      </c>
-      <c r="L36" s="92">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="91">
-        <v>43926</v>
-      </c>
-      <c r="B37" s="92">
-        <v>1135</v>
-      </c>
-      <c r="C37" s="92">
-        <v>8</v>
-      </c>
-      <c r="D37" s="92">
-        <v>56000</v>
-      </c>
-      <c r="E37" s="92">
-        <v>54865</v>
-      </c>
-      <c r="F37" s="92">
-        <v>47</v>
-      </c>
-      <c r="G37" s="92">
-        <v>11</v>
-      </c>
-      <c r="H37" s="92">
-        <v>573</v>
-      </c>
-      <c r="I37" s="92">
-        <v>20</v>
-      </c>
-      <c r="J37" s="92">
-        <v>0</v>
-      </c>
-      <c r="K37" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L37" s="92">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="91">
-        <v>43927</v>
-      </c>
-      <c r="B38" s="92">
-        <v>1158</v>
-      </c>
-      <c r="C38" s="92">
-        <v>10</v>
-      </c>
-      <c r="D38" s="92">
-        <v>57000</v>
-      </c>
-      <c r="E38" s="92">
-        <v>55842</v>
-      </c>
-      <c r="F38" s="92">
-        <v>45</v>
-      </c>
-      <c r="G38" s="92">
-        <v>11</v>
-      </c>
-      <c r="H38" s="92">
-        <v>620</v>
-      </c>
-      <c r="I38" s="92">
-        <v>23</v>
-      </c>
-      <c r="J38" s="92">
-        <v>2</v>
-      </c>
-      <c r="K38" s="92">
-        <v>1000</v>
-      </c>
-      <c r="L38" s="92">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="91">
-        <v>43928</v>
-      </c>
-      <c r="B39" s="92">
-        <v>1191</v>
-      </c>
-      <c r="C39" s="92">
-        <v>11</v>
-      </c>
-      <c r="D39" s="92">
-        <v>58000</v>
-      </c>
-      <c r="E39" s="92">
-        <v>56809</v>
-      </c>
-      <c r="F39" s="92">
-        <v>47</v>
-      </c>
-      <c r="G39" s="92">
-        <v>13</v>
-      </c>
-      <c r="H39" s="92">
-        <v>686</v>
-      </c>
-      <c r="I39" s="92">
-        <v>33</v>
-      </c>
-      <c r="J39" s="92">
-        <v>1</v>
-      </c>
-      <c r="K39" s="92">
-        <v>1000</v>
-      </c>
-      <c r="L39" s="92">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="91">
-        <v>43929</v>
-      </c>
-      <c r="B40" s="92">
-        <v>1212</v>
-      </c>
-      <c r="C40" s="92">
-        <v>12</v>
-      </c>
-      <c r="D40" s="92">
-        <v>60000</v>
-      </c>
-      <c r="E40" s="92">
-        <v>58788</v>
-      </c>
-      <c r="F40" s="92">
-        <v>45</v>
-      </c>
-      <c r="G40" s="92">
-        <v>12</v>
-      </c>
-      <c r="H40" s="92">
-        <v>736</v>
-      </c>
-      <c r="I40" s="92">
-        <v>21</v>
-      </c>
-      <c r="J40" s="92">
-        <v>1</v>
-      </c>
-      <c r="K40" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L40" s="92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="91">
-        <v>43930</v>
-      </c>
-      <c r="B41" s="92">
-        <v>1228</v>
-      </c>
-      <c r="C41" s="92">
-        <v>12</v>
-      </c>
-      <c r="D41" s="92">
-        <v>62000</v>
-      </c>
-      <c r="E41" s="92">
-        <v>60772</v>
-      </c>
-      <c r="F41" s="92">
-        <v>50</v>
-      </c>
-      <c r="G41" s="92">
-        <v>13</v>
-      </c>
-      <c r="H41" s="92">
-        <v>806</v>
-      </c>
-      <c r="I41" s="92">
-        <v>16</v>
-      </c>
-      <c r="J41" s="92">
-        <v>0</v>
-      </c>
-      <c r="K41" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L41" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="91">
-        <v>43931</v>
-      </c>
-      <c r="B42" s="92">
-        <v>1241</v>
-      </c>
-      <c r="C42" s="92">
-        <v>13</v>
-      </c>
-      <c r="D42" s="92">
-        <v>65000</v>
-      </c>
-      <c r="E42" s="92">
-        <v>63759</v>
-      </c>
-      <c r="F42" s="92">
-        <v>43</v>
-      </c>
-      <c r="G42" s="92">
-        <v>13</v>
-      </c>
-      <c r="H42" s="92">
-        <v>926</v>
-      </c>
-      <c r="I42" s="92">
-        <v>13</v>
-      </c>
-      <c r="J42" s="92">
-        <v>1</v>
-      </c>
-      <c r="K42" s="92">
-        <v>3000</v>
-      </c>
-      <c r="L42" s="92">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="91">
-        <v>43932</v>
-      </c>
-      <c r="B43" s="92">
-        <v>1265</v>
-      </c>
-      <c r="C43" s="92">
-        <v>14</v>
-      </c>
-      <c r="D43" s="92">
-        <v>67000</v>
-      </c>
-      <c r="E43" s="92">
-        <v>65735</v>
-      </c>
-      <c r="F43" s="92">
-        <v>44</v>
-      </c>
-      <c r="G43" s="92">
-        <v>15</v>
-      </c>
-      <c r="H43" s="92">
-        <v>986</v>
-      </c>
-      <c r="I43" s="92">
-        <v>24</v>
-      </c>
-      <c r="J43" s="92">
-        <v>1</v>
-      </c>
-      <c r="K43" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L43" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="91">
-        <v>43933</v>
-      </c>
-      <c r="B44" s="92">
-        <v>1268</v>
-      </c>
-      <c r="C44" s="92">
-        <v>14</v>
-      </c>
-      <c r="D44" s="92">
-        <v>69000</v>
-      </c>
-      <c r="E44" s="92">
-        <v>67732</v>
-      </c>
-      <c r="F44" s="92">
-        <v>44</v>
-      </c>
-      <c r="G44" s="92">
-        <v>16</v>
-      </c>
-      <c r="H44" s="92">
-        <v>1015</v>
-      </c>
-      <c r="I44" s="92">
-        <v>3</v>
-      </c>
-      <c r="J44" s="92">
-        <v>0</v>
-      </c>
-      <c r="K44" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L44" s="92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="91">
-        <v>43934</v>
-      </c>
-      <c r="B45" s="92">
-        <v>1281</v>
-      </c>
-      <c r="C45" s="92">
-        <v>14</v>
-      </c>
-      <c r="D45" s="92">
-        <v>70000</v>
-      </c>
-      <c r="E45" s="92">
-        <v>68719</v>
-      </c>
-      <c r="F45" s="92">
-        <v>40</v>
-      </c>
-      <c r="G45" s="92">
-        <v>14</v>
-      </c>
-      <c r="H45" s="92">
-        <v>1075</v>
-      </c>
-      <c r="I45" s="92">
-        <v>13</v>
-      </c>
-      <c r="J45" s="92">
-        <v>0</v>
-      </c>
-      <c r="K45" s="92">
-        <v>1000</v>
-      </c>
-      <c r="L45" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="91">
-        <v>43935</v>
-      </c>
-      <c r="B46" s="92">
-        <v>1291</v>
-      </c>
-      <c r="C46" s="92">
-        <v>14</v>
-      </c>
-      <c r="D46" s="92">
-        <v>71000</v>
-      </c>
-      <c r="E46" s="92">
-        <v>69709</v>
-      </c>
-      <c r="F46" s="92">
-        <v>40</v>
-      </c>
-      <c r="G46" s="92">
-        <v>15</v>
-      </c>
-      <c r="H46" s="92">
-        <v>1118</v>
-      </c>
-      <c r="I46" s="92">
-        <v>10</v>
-      </c>
-      <c r="J46" s="92">
-        <v>0</v>
-      </c>
-      <c r="K46" s="92">
-        <v>1000</v>
-      </c>
-      <c r="L46" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="91">
-        <v>43936</v>
-      </c>
-      <c r="B47" s="92">
-        <v>1299</v>
-      </c>
-      <c r="C47" s="92">
-        <v>14</v>
-      </c>
-      <c r="D47" s="92">
-        <v>72000</v>
-      </c>
-      <c r="E47" s="92">
-        <v>70701</v>
-      </c>
-      <c r="F47" s="92">
-        <v>39</v>
-      </c>
-      <c r="G47" s="92">
-        <v>18</v>
-      </c>
-      <c r="H47" s="92">
-        <v>1137</v>
-      </c>
-      <c r="I47" s="92">
-        <v>8</v>
-      </c>
-      <c r="J47" s="92">
-        <v>0</v>
-      </c>
-      <c r="K47" s="92">
-        <v>1000</v>
-      </c>
-      <c r="L47" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="91">
-        <v>43937</v>
-      </c>
-      <c r="B48" s="92">
-        <v>1301</v>
-      </c>
-      <c r="C48" s="92">
-        <v>14</v>
-      </c>
-      <c r="D48" s="92">
-        <v>73000</v>
-      </c>
-      <c r="E48" s="92">
-        <v>71699</v>
-      </c>
-      <c r="F48" s="92">
-        <v>39</v>
-      </c>
-      <c r="G48" s="92">
-        <v>18</v>
-      </c>
-      <c r="H48" s="92">
-        <v>1153</v>
-      </c>
-      <c r="I48" s="92">
-        <v>2</v>
-      </c>
-      <c r="J48" s="92">
-        <v>0</v>
-      </c>
-      <c r="K48" s="92">
-        <v>1000</v>
-      </c>
-      <c r="L48" s="92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="91">
-        <v>43938</v>
-      </c>
-      <c r="B49" s="92">
-        <v>1302</v>
-      </c>
-      <c r="C49" s="92">
-        <v>14</v>
-      </c>
-      <c r="D49" s="92">
-        <v>75000</v>
-      </c>
-      <c r="E49" s="92">
-        <v>73698</v>
-      </c>
-      <c r="F49" s="92">
-        <v>32</v>
-      </c>
-      <c r="G49" s="92">
-        <v>13</v>
-      </c>
-      <c r="H49" s="92">
-        <v>1159</v>
-      </c>
-      <c r="I49" s="92">
-        <v>1</v>
-      </c>
-      <c r="J49" s="92">
-        <v>0</v>
-      </c>
-      <c r="K49" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L49" s="92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="91">
-        <v>43939</v>
-      </c>
-      <c r="B50" s="92">
-        <v>1319</v>
-      </c>
-      <c r="C50" s="92">
-        <v>14</v>
-      </c>
-      <c r="D50" s="92">
-        <v>79000</v>
-      </c>
-      <c r="E50" s="92">
-        <v>77681</v>
-      </c>
-      <c r="F50" s="92">
-        <v>30</v>
-      </c>
-      <c r="G50" s="92">
-        <v>12</v>
-      </c>
-      <c r="H50" s="92">
-        <v>1172</v>
-      </c>
-      <c r="I50" s="92">
-        <v>17</v>
-      </c>
-      <c r="J50" s="92">
-        <v>0</v>
-      </c>
-      <c r="K50" s="92">
-        <v>4000</v>
-      </c>
-      <c r="L50" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="91">
-        <v>43940</v>
-      </c>
-      <c r="B51" s="92">
-        <v>1328</v>
-      </c>
-      <c r="C51" s="92">
-        <v>15</v>
-      </c>
-      <c r="D51" s="92">
-        <v>82000</v>
-      </c>
-      <c r="E51" s="92">
-        <v>80672</v>
-      </c>
-      <c r="F51" s="92">
-        <v>29</v>
-      </c>
-      <c r="G51" s="92">
-        <v>10</v>
-      </c>
-      <c r="H51" s="92">
-        <v>1188</v>
-      </c>
-      <c r="I51" s="92">
-        <v>9</v>
-      </c>
-      <c r="J51" s="92">
-        <v>1</v>
-      </c>
-      <c r="K51" s="92">
-        <v>3000</v>
-      </c>
-      <c r="L51" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="91">
-        <v>43941</v>
-      </c>
-      <c r="B52" s="92">
-        <v>1329</v>
-      </c>
-      <c r="C52" s="92">
-        <v>15</v>
-      </c>
-      <c r="D52" s="92">
-        <v>86000</v>
-      </c>
-      <c r="E52" s="92">
-        <v>84671</v>
-      </c>
-      <c r="F52" s="92">
-        <v>28</v>
-      </c>
-      <c r="G52" s="92">
-        <v>11</v>
-      </c>
-      <c r="H52" s="92">
-        <v>1196</v>
-      </c>
-      <c r="I52" s="92">
-        <v>1</v>
-      </c>
-      <c r="J52" s="92">
-        <v>0</v>
-      </c>
-      <c r="K52" s="92">
-        <v>4000</v>
-      </c>
-      <c r="L52" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="91">
-        <v>43942</v>
-      </c>
-      <c r="B53" s="92">
-        <v>1336</v>
-      </c>
-      <c r="C53" s="92">
-        <v>15</v>
-      </c>
-      <c r="D53" s="92">
-        <v>88000</v>
-      </c>
-      <c r="E53" s="92">
-        <v>86664</v>
-      </c>
-      <c r="F53" s="92">
-        <v>28</v>
-      </c>
-      <c r="G53" s="92">
-        <v>12</v>
-      </c>
-      <c r="H53" s="92">
-        <v>1202</v>
-      </c>
-      <c r="I53" s="92">
-        <v>7</v>
-      </c>
-      <c r="J53" s="92">
-        <v>0</v>
-      </c>
-      <c r="K53" s="92">
-        <v>2000</v>
-      </c>
-      <c r="L53" s="92">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84637A79-E027-48E7-B7DE-002E7C836FC2}">
   <sheetPr>
-    <tabColor rgb="FFC63500"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10163,31 +7657,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="88"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83"/>
       <c r="V1" s="55"/>
-      <c r="W1" s="87" t="s">
+      <c r="W1" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="X1" s="88"/>
+      <c r="X1" s="83"/>
     </row>
     <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -12983,7 +10477,2018 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43891</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="18">
+        <v>44075</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5">
+        <v>20000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <f>6200000/B5</f>
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3091FBE5-3E95-934F-B436-B236BC518E77}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="78">
+        <v>43891</v>
+      </c>
+      <c r="B2" s="79">
+        <v>9</v>
+      </c>
+      <c r="C2" s="79">
+        <v>0</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79">
+        <v>2</v>
+      </c>
+      <c r="J2" s="79">
+        <v>0</v>
+      </c>
+      <c r="K2" s="79">
+        <v>0</v>
+      </c>
+      <c r="L2" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="78">
+        <v>43892</v>
+      </c>
+      <c r="B3" s="79">
+        <v>9</v>
+      </c>
+      <c r="C3" s="79">
+        <v>0</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79">
+        <v>0</v>
+      </c>
+      <c r="J3" s="79">
+        <v>0</v>
+      </c>
+      <c r="K3" s="79">
+        <v>0</v>
+      </c>
+      <c r="L3" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="78">
+        <v>43893</v>
+      </c>
+      <c r="B4" s="79">
+        <v>9</v>
+      </c>
+      <c r="C4" s="79">
+        <v>0</v>
+      </c>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79">
+        <v>0</v>
+      </c>
+      <c r="J4" s="79">
+        <v>0</v>
+      </c>
+      <c r="K4" s="79">
+        <v>0</v>
+      </c>
+      <c r="L4" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="78">
+        <v>43894</v>
+      </c>
+      <c r="B5" s="79">
+        <v>10</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79">
+        <v>1</v>
+      </c>
+      <c r="J5" s="79">
+        <v>0</v>
+      </c>
+      <c r="K5" s="79">
+        <v>0</v>
+      </c>
+      <c r="L5" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="78">
+        <v>43895</v>
+      </c>
+      <c r="B6" s="79">
+        <v>10</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79">
+        <v>0</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0</v>
+      </c>
+      <c r="K6" s="79">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="78">
+        <v>43896</v>
+      </c>
+      <c r="B7" s="79">
+        <v>10</v>
+      </c>
+      <c r="C7" s="79">
+        <v>0</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79">
+        <v>0</v>
+      </c>
+      <c r="J7" s="79">
+        <v>0</v>
+      </c>
+      <c r="K7" s="79">
+        <v>0</v>
+      </c>
+      <c r="L7" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="78">
+        <v>43897</v>
+      </c>
+      <c r="B8" s="79">
+        <v>11</v>
+      </c>
+      <c r="C8" s="79">
+        <v>0</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79">
+        <v>1</v>
+      </c>
+      <c r="J8" s="79">
+        <v>0</v>
+      </c>
+      <c r="K8" s="79">
+        <v>0</v>
+      </c>
+      <c r="L8" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="78">
+        <v>43898</v>
+      </c>
+      <c r="B9" s="79">
+        <v>12</v>
+      </c>
+      <c r="C9" s="79">
+        <v>0</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79">
+        <v>1</v>
+      </c>
+      <c r="J9" s="79">
+        <v>0</v>
+      </c>
+      <c r="K9" s="79">
+        <v>0</v>
+      </c>
+      <c r="L9" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="78">
+        <v>43899</v>
+      </c>
+      <c r="B10" s="79">
+        <v>15</v>
+      </c>
+      <c r="C10" s="79">
+        <v>0</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79">
+        <v>3</v>
+      </c>
+      <c r="J10" s="79">
+        <v>0</v>
+      </c>
+      <c r="K10" s="79">
+        <v>0</v>
+      </c>
+      <c r="L10" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="78">
+        <v>43900</v>
+      </c>
+      <c r="B11" s="79">
+        <v>18</v>
+      </c>
+      <c r="C11" s="79">
+        <v>0</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79">
+        <v>3</v>
+      </c>
+      <c r="J11" s="79">
+        <v>0</v>
+      </c>
+      <c r="K11" s="79">
+        <v>0</v>
+      </c>
+      <c r="L11" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="78">
+        <v>43901</v>
+      </c>
+      <c r="B12" s="79">
+        <v>21</v>
+      </c>
+      <c r="C12" s="79">
+        <v>0</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79">
+        <v>3</v>
+      </c>
+      <c r="J12" s="79">
+        <v>0</v>
+      </c>
+      <c r="K12" s="79">
+        <v>0</v>
+      </c>
+      <c r="L12" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="78">
+        <v>43902</v>
+      </c>
+      <c r="B13" s="79">
+        <v>27</v>
+      </c>
+      <c r="C13" s="79">
+        <v>0</v>
+      </c>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79">
+        <v>6</v>
+      </c>
+      <c r="J13" s="79">
+        <v>0</v>
+      </c>
+      <c r="K13" s="79">
+        <v>0</v>
+      </c>
+      <c r="L13" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="78">
+        <v>43903</v>
+      </c>
+      <c r="B14" s="79">
+        <v>36</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79">
+        <v>9</v>
+      </c>
+      <c r="J14" s="79">
+        <v>0</v>
+      </c>
+      <c r="K14" s="80">
+        <v>500</v>
+      </c>
+      <c r="L14" s="79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="78">
+        <v>43904</v>
+      </c>
+      <c r="B15" s="79">
+        <v>49</v>
+      </c>
+      <c r="C15" s="79">
+        <v>0</v>
+      </c>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79">
+        <v>13</v>
+      </c>
+      <c r="J15" s="79">
+        <v>0</v>
+      </c>
+      <c r="K15" s="80">
+        <v>500</v>
+      </c>
+      <c r="L15" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="78">
+        <v>43905</v>
+      </c>
+      <c r="B16" s="79">
+        <v>57</v>
+      </c>
+      <c r="C16" s="79">
+        <v>0</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79">
+        <v>8</v>
+      </c>
+      <c r="J16" s="79">
+        <v>0</v>
+      </c>
+      <c r="K16" s="80">
+        <v>500</v>
+      </c>
+      <c r="L16" s="79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="78">
+        <v>43906</v>
+      </c>
+      <c r="B17" s="79">
+        <v>71</v>
+      </c>
+      <c r="C17" s="79">
+        <v>0</v>
+      </c>
+      <c r="D17" s="79">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="79">
+        <v>11629</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79">
+        <v>14</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
+      <c r="K17" s="80">
+        <v>500</v>
+      </c>
+      <c r="L17" s="79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="78">
+        <v>43907</v>
+      </c>
+      <c r="B18" s="79">
+        <v>94</v>
+      </c>
+      <c r="C18" s="79">
+        <v>0</v>
+      </c>
+      <c r="D18" s="79">
+        <v>14200</v>
+      </c>
+      <c r="E18" s="79">
+        <v>14106</v>
+      </c>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79">
+        <v>23</v>
+      </c>
+      <c r="J18" s="79">
+        <v>0</v>
+      </c>
+      <c r="K18" s="80">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="79">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="78">
+        <v>43908</v>
+      </c>
+      <c r="B19" s="79">
+        <v>121</v>
+      </c>
+      <c r="C19" s="79">
+        <v>0</v>
+      </c>
+      <c r="D19" s="79">
+        <v>15200</v>
+      </c>
+      <c r="E19" s="79">
+        <v>15079</v>
+      </c>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79">
+        <v>27</v>
+      </c>
+      <c r="J19" s="79">
+        <v>0</v>
+      </c>
+      <c r="K19" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="79">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="78">
+        <v>43909</v>
+      </c>
+      <c r="B20" s="79">
+        <v>150</v>
+      </c>
+      <c r="C20" s="79">
+        <v>0</v>
+      </c>
+      <c r="D20" s="79">
+        <v>17180</v>
+      </c>
+      <c r="E20" s="79">
+        <v>17030</v>
+      </c>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79">
+        <v>29</v>
+      </c>
+      <c r="J20" s="79">
+        <v>0</v>
+      </c>
+      <c r="K20" s="79">
+        <v>1980</v>
+      </c>
+      <c r="L20" s="79">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="78">
+        <v>43910</v>
+      </c>
+      <c r="B21" s="79">
+        <v>178</v>
+      </c>
+      <c r="C21" s="79">
+        <v>0</v>
+      </c>
+      <c r="D21" s="79">
+        <v>19337</v>
+      </c>
+      <c r="E21" s="79">
+        <v>19159</v>
+      </c>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79">
+        <v>28</v>
+      </c>
+      <c r="J21" s="79">
+        <v>0</v>
+      </c>
+      <c r="K21" s="79">
+        <v>2157</v>
+      </c>
+      <c r="L21" s="79">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="78">
+        <v>43911</v>
+      </c>
+      <c r="B22" s="79">
+        <v>229</v>
+      </c>
+      <c r="C22" s="79">
+        <v>0</v>
+      </c>
+      <c r="D22" s="79">
+        <v>20500</v>
+      </c>
+      <c r="E22" s="79">
+        <v>20271</v>
+      </c>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79">
+        <v>51</v>
+      </c>
+      <c r="J22" s="79">
+        <v>0</v>
+      </c>
+      <c r="K22" s="79">
+        <v>1163</v>
+      </c>
+      <c r="L22" s="79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="78">
+        <v>43912</v>
+      </c>
+      <c r="B23" s="79">
+        <v>296</v>
+      </c>
+      <c r="C23" s="79">
+        <v>0</v>
+      </c>
+      <c r="D23" s="79">
+        <v>22900</v>
+      </c>
+      <c r="E23" s="79">
+        <v>22604</v>
+      </c>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79">
+        <v>67</v>
+      </c>
+      <c r="J23" s="79">
+        <v>0</v>
+      </c>
+      <c r="K23" s="79">
+        <v>2400</v>
+      </c>
+      <c r="L23" s="79">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="78">
+        <v>43913</v>
+      </c>
+      <c r="B24" s="79">
+        <v>355</v>
+      </c>
+      <c r="C24" s="79">
+        <v>0</v>
+      </c>
+      <c r="D24" s="79">
+        <v>23700</v>
+      </c>
+      <c r="E24" s="79">
+        <v>23345</v>
+      </c>
+      <c r="F24" s="79">
+        <v>6</v>
+      </c>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79">
+        <v>96</v>
+      </c>
+      <c r="I24" s="79">
+        <v>59</v>
+      </c>
+      <c r="J24" s="79">
+        <v>0</v>
+      </c>
+      <c r="K24" s="79">
+        <v>800</v>
+      </c>
+      <c r="L24" s="79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="78">
+        <v>43914</v>
+      </c>
+      <c r="B25" s="79">
+        <v>411</v>
+      </c>
+      <c r="C25" s="79">
+        <v>0</v>
+      </c>
+      <c r="D25" s="79">
+        <v>25000</v>
+      </c>
+      <c r="E25" s="79">
+        <v>24589</v>
+      </c>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79">
+        <v>113</v>
+      </c>
+      <c r="I25" s="79">
+        <v>56</v>
+      </c>
+      <c r="J25" s="79">
+        <v>0</v>
+      </c>
+      <c r="K25" s="79">
+        <v>1300</v>
+      </c>
+      <c r="L25" s="79">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="78">
+        <v>43915</v>
+      </c>
+      <c r="B26" s="79">
+        <v>466</v>
+      </c>
+      <c r="C26" s="79">
+        <v>0</v>
+      </c>
+      <c r="D26" s="79">
+        <v>25500</v>
+      </c>
+      <c r="E26" s="79">
+        <v>25034</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79">
+        <v>128</v>
+      </c>
+      <c r="I26" s="79">
+        <v>55</v>
+      </c>
+      <c r="J26" s="79">
+        <v>0</v>
+      </c>
+      <c r="K26" s="79">
+        <v>500</v>
+      </c>
+      <c r="L26" s="79">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="78">
+        <v>43916</v>
+      </c>
+      <c r="B27" s="79">
+        <v>520</v>
+      </c>
+      <c r="C27" s="79">
+        <v>2</v>
+      </c>
+      <c r="D27" s="79">
+        <v>26900</v>
+      </c>
+      <c r="E27" s="79">
+        <v>26380</v>
+      </c>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79">
+        <v>149</v>
+      </c>
+      <c r="I27" s="79">
+        <v>54</v>
+      </c>
+      <c r="J27" s="79">
+        <v>2</v>
+      </c>
+      <c r="K27" s="79">
+        <v>1400</v>
+      </c>
+      <c r="L27" s="79">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="78">
+        <v>43917</v>
+      </c>
+      <c r="B28" s="79">
+        <v>574</v>
+      </c>
+      <c r="C28" s="79">
+        <v>3</v>
+      </c>
+      <c r="D28" s="79">
+        <v>27800</v>
+      </c>
+      <c r="E28" s="79">
+        <v>27226</v>
+      </c>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79">
+        <v>172</v>
+      </c>
+      <c r="I28" s="79">
+        <v>54</v>
+      </c>
+      <c r="J28" s="79">
+        <v>1</v>
+      </c>
+      <c r="K28" s="79">
+        <v>900</v>
+      </c>
+      <c r="L28" s="79">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="78">
+        <v>43918</v>
+      </c>
+      <c r="B29" s="79">
+        <v>685</v>
+      </c>
+      <c r="C29" s="79">
+        <v>4</v>
+      </c>
+      <c r="D29" s="79">
+        <v>35000</v>
+      </c>
+      <c r="E29" s="79">
+        <v>34315</v>
+      </c>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79">
+        <v>191</v>
+      </c>
+      <c r="I29" s="79">
+        <v>111</v>
+      </c>
+      <c r="J29" s="79">
+        <v>1</v>
+      </c>
+      <c r="K29" s="79">
+        <v>7200</v>
+      </c>
+      <c r="L29" s="79">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="78">
+        <v>43919</v>
+      </c>
+      <c r="B30" s="79">
+        <v>769</v>
+      </c>
+      <c r="C30" s="79">
+        <v>4</v>
+      </c>
+      <c r="D30" s="79">
+        <v>39000</v>
+      </c>
+      <c r="E30" s="79">
+        <v>38231</v>
+      </c>
+      <c r="F30" s="79">
+        <v>26</v>
+      </c>
+      <c r="G30" s="79">
+        <v>4</v>
+      </c>
+      <c r="H30" s="79">
+        <v>193</v>
+      </c>
+      <c r="I30" s="79">
+        <v>84</v>
+      </c>
+      <c r="J30" s="79">
+        <v>0</v>
+      </c>
+      <c r="K30" s="79">
+        <v>4000</v>
+      </c>
+      <c r="L30" s="79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="78">
+        <v>43920</v>
+      </c>
+      <c r="B31" s="79">
+        <v>821</v>
+      </c>
+      <c r="C31" s="79">
+        <v>4</v>
+      </c>
+      <c r="D31" s="79">
+        <v>42000</v>
+      </c>
+      <c r="E31" s="79">
+        <v>41179</v>
+      </c>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79">
+        <v>4</v>
+      </c>
+      <c r="H31" s="79">
+        <v>248</v>
+      </c>
+      <c r="I31" s="79">
+        <v>52</v>
+      </c>
+      <c r="J31" s="79">
+        <v>0</v>
+      </c>
+      <c r="K31" s="79">
+        <v>3000</v>
+      </c>
+      <c r="L31" s="79">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="78">
+        <v>43921</v>
+      </c>
+      <c r="B32" s="79">
+        <v>917</v>
+      </c>
+      <c r="C32" s="79">
+        <v>4</v>
+      </c>
+      <c r="D32" s="79">
+        <v>45000</v>
+      </c>
+      <c r="E32" s="79">
+        <v>44083</v>
+      </c>
+      <c r="F32" s="79">
+        <v>29</v>
+      </c>
+      <c r="G32" s="79">
+        <v>4</v>
+      </c>
+      <c r="H32" s="79">
+        <v>291</v>
+      </c>
+      <c r="I32" s="79">
+        <v>96</v>
+      </c>
+      <c r="J32" s="79">
+        <v>0</v>
+      </c>
+      <c r="K32" s="79">
+        <v>3000</v>
+      </c>
+      <c r="L32" s="79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="78">
+        <v>43922</v>
+      </c>
+      <c r="B33" s="79">
+        <v>968</v>
+      </c>
+      <c r="C33" s="79">
+        <v>5</v>
+      </c>
+      <c r="D33" s="79">
+        <v>47000</v>
+      </c>
+      <c r="E33" s="79">
+        <v>46032</v>
+      </c>
+      <c r="F33" s="79">
+        <v>32</v>
+      </c>
+      <c r="G33" s="79">
+        <v>6</v>
+      </c>
+      <c r="H33" s="79">
+        <v>343</v>
+      </c>
+      <c r="I33" s="79">
+        <v>51</v>
+      </c>
+      <c r="J33" s="79">
+        <v>1</v>
+      </c>
+      <c r="K33" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L33" s="79">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="78">
+        <v>43923</v>
+      </c>
+      <c r="B34" s="79">
+        <v>1036</v>
+      </c>
+      <c r="C34" s="79">
+        <v>6</v>
+      </c>
+      <c r="D34" s="79">
+        <v>49000</v>
+      </c>
+      <c r="E34" s="79">
+        <v>47964</v>
+      </c>
+      <c r="F34" s="79">
+        <v>34</v>
+      </c>
+      <c r="G34" s="79">
+        <v>6</v>
+      </c>
+      <c r="H34" s="79">
+        <v>422</v>
+      </c>
+      <c r="I34" s="79">
+        <v>68</v>
+      </c>
+      <c r="J34" s="79">
+        <v>1</v>
+      </c>
+      <c r="K34" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L34" s="79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="78">
+        <v>43924</v>
+      </c>
+      <c r="B35" s="79">
+        <v>1085</v>
+      </c>
+      <c r="C35" s="79">
+        <v>7</v>
+      </c>
+      <c r="D35" s="79">
+        <v>51000</v>
+      </c>
+      <c r="E35" s="79">
+        <v>49915</v>
+      </c>
+      <c r="F35" s="79">
+        <v>37</v>
+      </c>
+      <c r="G35" s="79">
+        <v>7</v>
+      </c>
+      <c r="H35" s="79">
+        <v>476</v>
+      </c>
+      <c r="I35" s="79">
+        <v>49</v>
+      </c>
+      <c r="J35" s="79">
+        <v>1</v>
+      </c>
+      <c r="K35" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L35" s="79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="78">
+        <v>43925</v>
+      </c>
+      <c r="B36" s="79">
+        <v>1115</v>
+      </c>
+      <c r="C36" s="79">
+        <v>8</v>
+      </c>
+      <c r="D36" s="79">
+        <v>54000</v>
+      </c>
+      <c r="E36" s="79">
+        <v>52885</v>
+      </c>
+      <c r="F36" s="79">
+        <v>42</v>
+      </c>
+      <c r="G36" s="79">
+        <v>10</v>
+      </c>
+      <c r="H36" s="79">
+        <v>527</v>
+      </c>
+      <c r="I36" s="79">
+        <v>30</v>
+      </c>
+      <c r="J36" s="79">
+        <v>1</v>
+      </c>
+      <c r="K36" s="79">
+        <v>3000</v>
+      </c>
+      <c r="L36" s="79">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="78">
+        <v>43926</v>
+      </c>
+      <c r="B37" s="79">
+        <v>1135</v>
+      </c>
+      <c r="C37" s="79">
+        <v>8</v>
+      </c>
+      <c r="D37" s="79">
+        <v>56000</v>
+      </c>
+      <c r="E37" s="79">
+        <v>54865</v>
+      </c>
+      <c r="F37" s="79">
+        <v>47</v>
+      </c>
+      <c r="G37" s="79">
+        <v>11</v>
+      </c>
+      <c r="H37" s="79">
+        <v>573</v>
+      </c>
+      <c r="I37" s="79">
+        <v>20</v>
+      </c>
+      <c r="J37" s="79">
+        <v>0</v>
+      </c>
+      <c r="K37" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L37" s="79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="78">
+        <v>43927</v>
+      </c>
+      <c r="B38" s="79">
+        <v>1158</v>
+      </c>
+      <c r="C38" s="79">
+        <v>10</v>
+      </c>
+      <c r="D38" s="79">
+        <v>57000</v>
+      </c>
+      <c r="E38" s="79">
+        <v>55842</v>
+      </c>
+      <c r="F38" s="79">
+        <v>45</v>
+      </c>
+      <c r="G38" s="79">
+        <v>11</v>
+      </c>
+      <c r="H38" s="79">
+        <v>620</v>
+      </c>
+      <c r="I38" s="79">
+        <v>23</v>
+      </c>
+      <c r="J38" s="79">
+        <v>2</v>
+      </c>
+      <c r="K38" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="79">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="78">
+        <v>43928</v>
+      </c>
+      <c r="B39" s="79">
+        <v>1191</v>
+      </c>
+      <c r="C39" s="79">
+        <v>11</v>
+      </c>
+      <c r="D39" s="79">
+        <v>58000</v>
+      </c>
+      <c r="E39" s="79">
+        <v>56809</v>
+      </c>
+      <c r="F39" s="79">
+        <v>47</v>
+      </c>
+      <c r="G39" s="79">
+        <v>13</v>
+      </c>
+      <c r="H39" s="79">
+        <v>686</v>
+      </c>
+      <c r="I39" s="79">
+        <v>33</v>
+      </c>
+      <c r="J39" s="79">
+        <v>1</v>
+      </c>
+      <c r="K39" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="78">
+        <v>43929</v>
+      </c>
+      <c r="B40" s="79">
+        <v>1212</v>
+      </c>
+      <c r="C40" s="79">
+        <v>12</v>
+      </c>
+      <c r="D40" s="79">
+        <v>60000</v>
+      </c>
+      <c r="E40" s="79">
+        <v>58788</v>
+      </c>
+      <c r="F40" s="79">
+        <v>45</v>
+      </c>
+      <c r="G40" s="79">
+        <v>12</v>
+      </c>
+      <c r="H40" s="79">
+        <v>736</v>
+      </c>
+      <c r="I40" s="79">
+        <v>21</v>
+      </c>
+      <c r="J40" s="79">
+        <v>1</v>
+      </c>
+      <c r="K40" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L40" s="79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="78">
+        <v>43930</v>
+      </c>
+      <c r="B41" s="79">
+        <v>1228</v>
+      </c>
+      <c r="C41" s="79">
+        <v>12</v>
+      </c>
+      <c r="D41" s="79">
+        <v>62000</v>
+      </c>
+      <c r="E41" s="79">
+        <v>60772</v>
+      </c>
+      <c r="F41" s="79">
+        <v>50</v>
+      </c>
+      <c r="G41" s="79">
+        <v>13</v>
+      </c>
+      <c r="H41" s="79">
+        <v>806</v>
+      </c>
+      <c r="I41" s="79">
+        <v>16</v>
+      </c>
+      <c r="J41" s="79">
+        <v>0</v>
+      </c>
+      <c r="K41" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L41" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="78">
+        <v>43931</v>
+      </c>
+      <c r="B42" s="79">
+        <v>1241</v>
+      </c>
+      <c r="C42" s="79">
+        <v>13</v>
+      </c>
+      <c r="D42" s="79">
+        <v>65000</v>
+      </c>
+      <c r="E42" s="79">
+        <v>63759</v>
+      </c>
+      <c r="F42" s="79">
+        <v>43</v>
+      </c>
+      <c r="G42" s="79">
+        <v>13</v>
+      </c>
+      <c r="H42" s="79">
+        <v>926</v>
+      </c>
+      <c r="I42" s="79">
+        <v>13</v>
+      </c>
+      <c r="J42" s="79">
+        <v>1</v>
+      </c>
+      <c r="K42" s="79">
+        <v>3000</v>
+      </c>
+      <c r="L42" s="79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="78">
+        <v>43932</v>
+      </c>
+      <c r="B43" s="79">
+        <v>1265</v>
+      </c>
+      <c r="C43" s="79">
+        <v>14</v>
+      </c>
+      <c r="D43" s="79">
+        <v>67000</v>
+      </c>
+      <c r="E43" s="79">
+        <v>65735</v>
+      </c>
+      <c r="F43" s="79">
+        <v>44</v>
+      </c>
+      <c r="G43" s="79">
+        <v>15</v>
+      </c>
+      <c r="H43" s="79">
+        <v>986</v>
+      </c>
+      <c r="I43" s="79">
+        <v>24</v>
+      </c>
+      <c r="J43" s="79">
+        <v>1</v>
+      </c>
+      <c r="K43" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L43" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="78">
+        <v>43933</v>
+      </c>
+      <c r="B44" s="79">
+        <v>1268</v>
+      </c>
+      <c r="C44" s="79">
+        <v>14</v>
+      </c>
+      <c r="D44" s="79">
+        <v>69000</v>
+      </c>
+      <c r="E44" s="79">
+        <v>67732</v>
+      </c>
+      <c r="F44" s="79">
+        <v>44</v>
+      </c>
+      <c r="G44" s="79">
+        <v>16</v>
+      </c>
+      <c r="H44" s="79">
+        <v>1015</v>
+      </c>
+      <c r="I44" s="79">
+        <v>3</v>
+      </c>
+      <c r="J44" s="79">
+        <v>0</v>
+      </c>
+      <c r="K44" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L44" s="79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="78">
+        <v>43934</v>
+      </c>
+      <c r="B45" s="79">
+        <v>1281</v>
+      </c>
+      <c r="C45" s="79">
+        <v>14</v>
+      </c>
+      <c r="D45" s="79">
+        <v>70000</v>
+      </c>
+      <c r="E45" s="79">
+        <v>68719</v>
+      </c>
+      <c r="F45" s="79">
+        <v>40</v>
+      </c>
+      <c r="G45" s="79">
+        <v>14</v>
+      </c>
+      <c r="H45" s="79">
+        <v>1075</v>
+      </c>
+      <c r="I45" s="79">
+        <v>13</v>
+      </c>
+      <c r="J45" s="79">
+        <v>0</v>
+      </c>
+      <c r="K45" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="78">
+        <v>43935</v>
+      </c>
+      <c r="B46" s="79">
+        <v>1291</v>
+      </c>
+      <c r="C46" s="79">
+        <v>14</v>
+      </c>
+      <c r="D46" s="79">
+        <v>71000</v>
+      </c>
+      <c r="E46" s="79">
+        <v>69709</v>
+      </c>
+      <c r="F46" s="79">
+        <v>40</v>
+      </c>
+      <c r="G46" s="79">
+        <v>15</v>
+      </c>
+      <c r="H46" s="79">
+        <v>1118</v>
+      </c>
+      <c r="I46" s="79">
+        <v>10</v>
+      </c>
+      <c r="J46" s="79">
+        <v>0</v>
+      </c>
+      <c r="K46" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="78">
+        <v>43936</v>
+      </c>
+      <c r="B47" s="79">
+        <v>1299</v>
+      </c>
+      <c r="C47" s="79">
+        <v>14</v>
+      </c>
+      <c r="D47" s="79">
+        <v>72000</v>
+      </c>
+      <c r="E47" s="79">
+        <v>70701</v>
+      </c>
+      <c r="F47" s="79">
+        <v>39</v>
+      </c>
+      <c r="G47" s="79">
+        <v>18</v>
+      </c>
+      <c r="H47" s="79">
+        <v>1137</v>
+      </c>
+      <c r="I47" s="79">
+        <v>8</v>
+      </c>
+      <c r="J47" s="79">
+        <v>0</v>
+      </c>
+      <c r="K47" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="78">
+        <v>43937</v>
+      </c>
+      <c r="B48" s="79">
+        <v>1301</v>
+      </c>
+      <c r="C48" s="79">
+        <v>14</v>
+      </c>
+      <c r="D48" s="79">
+        <v>73000</v>
+      </c>
+      <c r="E48" s="79">
+        <v>71699</v>
+      </c>
+      <c r="F48" s="79">
+        <v>39</v>
+      </c>
+      <c r="G48" s="79">
+        <v>18</v>
+      </c>
+      <c r="H48" s="79">
+        <v>1153</v>
+      </c>
+      <c r="I48" s="79">
+        <v>2</v>
+      </c>
+      <c r="J48" s="79">
+        <v>0</v>
+      </c>
+      <c r="K48" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="78">
+        <v>43938</v>
+      </c>
+      <c r="B49" s="79">
+        <v>1302</v>
+      </c>
+      <c r="C49" s="79">
+        <v>14</v>
+      </c>
+      <c r="D49" s="79">
+        <v>75000</v>
+      </c>
+      <c r="E49" s="79">
+        <v>73698</v>
+      </c>
+      <c r="F49" s="79">
+        <v>32</v>
+      </c>
+      <c r="G49" s="79">
+        <v>13</v>
+      </c>
+      <c r="H49" s="79">
+        <v>1159</v>
+      </c>
+      <c r="I49" s="79">
+        <v>1</v>
+      </c>
+      <c r="J49" s="79">
+        <v>0</v>
+      </c>
+      <c r="K49" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L49" s="79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="78">
+        <v>43939</v>
+      </c>
+      <c r="B50" s="79">
+        <v>1319</v>
+      </c>
+      <c r="C50" s="79">
+        <v>14</v>
+      </c>
+      <c r="D50" s="79">
+        <v>79000</v>
+      </c>
+      <c r="E50" s="79">
+        <v>77681</v>
+      </c>
+      <c r="F50" s="79">
+        <v>30</v>
+      </c>
+      <c r="G50" s="79">
+        <v>12</v>
+      </c>
+      <c r="H50" s="79">
+        <v>1172</v>
+      </c>
+      <c r="I50" s="79">
+        <v>17</v>
+      </c>
+      <c r="J50" s="79">
+        <v>0</v>
+      </c>
+      <c r="K50" s="79">
+        <v>4000</v>
+      </c>
+      <c r="L50" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="78">
+        <v>43940</v>
+      </c>
+      <c r="B51" s="79">
+        <v>1328</v>
+      </c>
+      <c r="C51" s="79">
+        <v>15</v>
+      </c>
+      <c r="D51" s="79">
+        <v>82000</v>
+      </c>
+      <c r="E51" s="79">
+        <v>80672</v>
+      </c>
+      <c r="F51" s="79">
+        <v>29</v>
+      </c>
+      <c r="G51" s="79">
+        <v>10</v>
+      </c>
+      <c r="H51" s="79">
+        <v>1188</v>
+      </c>
+      <c r="I51" s="79">
+        <v>9</v>
+      </c>
+      <c r="J51" s="79">
+        <v>1</v>
+      </c>
+      <c r="K51" s="79">
+        <v>3000</v>
+      </c>
+      <c r="L51" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="78">
+        <v>43941</v>
+      </c>
+      <c r="B52" s="79">
+        <v>1329</v>
+      </c>
+      <c r="C52" s="79">
+        <v>15</v>
+      </c>
+      <c r="D52" s="79">
+        <v>86000</v>
+      </c>
+      <c r="E52" s="79">
+        <v>84671</v>
+      </c>
+      <c r="F52" s="79">
+        <v>28</v>
+      </c>
+      <c r="G52" s="79">
+        <v>11</v>
+      </c>
+      <c r="H52" s="79">
+        <v>1196</v>
+      </c>
+      <c r="I52" s="79">
+        <v>1</v>
+      </c>
+      <c r="J52" s="79">
+        <v>0</v>
+      </c>
+      <c r="K52" s="79">
+        <v>4000</v>
+      </c>
+      <c r="L52" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="78">
+        <v>43942</v>
+      </c>
+      <c r="B53" s="79">
+        <v>1336</v>
+      </c>
+      <c r="C53" s="79">
+        <v>15</v>
+      </c>
+      <c r="D53" s="79">
+        <v>88000</v>
+      </c>
+      <c r="E53" s="79">
+        <v>86664</v>
+      </c>
+      <c r="F53" s="79">
+        <v>28</v>
+      </c>
+      <c r="G53" s="79">
+        <v>12</v>
+      </c>
+      <c r="H53" s="79">
+        <v>1202</v>
+      </c>
+      <c r="I53" s="79">
+        <v>7</v>
+      </c>
+      <c r="J53" s="79">
+        <v>0</v>
+      </c>
+      <c r="K53" s="79">
+        <v>2000</v>
+      </c>
+      <c r="L53" s="79">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3870F7-A576-4BD3-9D23-1C9E10583711}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwork/Documents/GitHub/covasim-australia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC3342-B29A-C540-9CEB-1A1993E6E585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE9E778-1435-FC42-8326-CC3C73972327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact matrices-home" sheetId="2" r:id="rId1"/>
@@ -156,7 +156,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -165,12 +165,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 means that someone in quarantine is still in the network (completely ineffective, e.g. household), 0 means that someone who is quarantined is completely removed from network (perfect quarantine).</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 means that someone in quarantine is still in the network (completely ineffective, e.g. household), 0 means that someone who is quarantined is completely removed from network (perfect quarantine).</t>
         </r>
       </text>
     </comment>
@@ -277,7 +286,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -286,12 +295,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assume quarantine does not impact within-household transmission</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume quarantine does not impact within-household transmission</t>
         </r>
       </text>
     </comment>
@@ -349,7 +367,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -358,12 +376,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assume quarantine does not impact within-household transmission</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume quarantine does not impact within-household transmission</t>
         </r>
       </text>
     </comment>
@@ -750,7 +777,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -759,12 +786,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-picnics, gatherings</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>picnics, gatherings</t>
         </r>
       </text>
     </comment>
@@ -1728,9 +1764,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>quar_eff</t>
-  </si>
-  <si>
     <t>proportion</t>
   </si>
   <si>
@@ -2179,6 +2212,9 @@
   </si>
   <si>
     <t>daily_imported_cases</t>
+  </si>
+  <si>
+    <t>quar_factor</t>
   </si>
 </sst>
 </file>
@@ -3123,10 +3159,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6880,10 +6916,10 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="3" sqref="A19:XFD19 A17:XFD17 A8:XFD8 A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6906,7 +6942,7 @@
         <v>151</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>152</v>
@@ -6915,33 +6951,33 @@
         <v>153</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="I1" s="22" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="J1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="L1" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>161</v>
       </c>
       <c r="C2" s="72">
         <v>1</v>
@@ -6959,7 +6995,7 @@
         <v>110</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I2" s="23">
         <v>1</v>
@@ -6976,10 +7012,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>162</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="C3" s="72">
         <v>1</v>
@@ -6997,7 +7033,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" s="23">
         <v>0</v>
@@ -7014,10 +7050,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="72">
         <v>1</v>
@@ -7035,7 +7071,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I4" s="23">
         <v>0</v>
@@ -7052,10 +7088,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="74">
         <v>1</v>
@@ -7073,7 +7109,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" s="23">
         <v>0.1</v>
@@ -7090,10 +7126,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>165</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>166</v>
       </c>
       <c r="C6" s="74">
         <v>0.11</v>
@@ -7111,7 +7147,7 @@
         <v>110</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I6" s="23">
         <v>0.1</v>
@@ -7128,10 +7164,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="C7" s="74">
         <v>5.9999999999999995E-4</v>
@@ -7149,7 +7185,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="23">
         <v>0</v>
@@ -7166,10 +7202,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="C8" s="74">
         <v>0.34</v>
@@ -7187,7 +7223,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I8" s="23">
         <v>0.1</v>
@@ -7204,10 +7240,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="74">
         <v>0.2</v>
@@ -7225,7 +7261,7 @@
         <v>80</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="23">
         <v>0.1</v>
@@ -7242,10 +7278,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="74">
         <v>0.3</v>
@@ -7263,7 +7299,7 @@
         <v>110</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="23">
         <v>0.1</v>
@@ -7280,10 +7316,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" s="74">
         <v>0.6</v>
@@ -7301,7 +7337,7 @@
         <v>110</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11" s="23">
         <v>0.1</v>
@@ -7318,10 +7354,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>260</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>261</v>
       </c>
       <c r="C12" s="23">
         <v>0.4</v>
@@ -7339,7 +7375,7 @@
         <v>110</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" s="23">
         <v>0.1</v>
@@ -7356,10 +7392,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="23">
         <v>0.114</v>
@@ -7377,7 +7413,7 @@
         <v>110</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="23">
         <v>0.1</v>
@@ -7394,10 +7430,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>198</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>199</v>
       </c>
       <c r="C14" s="23">
         <v>5.5E-2</v>
@@ -7415,7 +7451,7 @@
         <v>110</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I14" s="23">
         <v>0.1</v>
@@ -7432,10 +7468,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="23">
         <v>0.6</v>
@@ -7453,7 +7489,7 @@
         <v>110</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I15" s="23">
         <v>0.1</v>
@@ -7470,10 +7506,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="23">
         <v>0.2</v>
@@ -7492,7 +7528,7 @@
         <v>110</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I16" s="23">
         <v>0.1</v>
@@ -7509,10 +7545,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>252</v>
       </c>
       <c r="C17" s="23">
         <v>0.54500000000000004</v>
@@ -7530,7 +7566,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I17" s="23">
         <v>0</v>
@@ -7547,10 +7583,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
@@ -7568,7 +7604,7 @@
         <v>110</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I18" s="23">
         <v>0.1</v>
@@ -7585,10 +7621,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>277</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>278</v>
       </c>
       <c r="C19" s="23">
         <v>7.0000000000000007E-2</v>
@@ -7606,7 +7642,7 @@
         <v>110</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I19" s="23">
         <v>0</v>
@@ -7635,7 +7671,7 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -7658,40 +7694,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D1" s="81" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83"/>
+        <v>245</v>
+      </c>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="82"/>
       <c r="V1" s="55"/>
       <c r="W1" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="X1" s="83"/>
+        <v>227</v>
+      </c>
+      <c r="X1" s="82"/>
     </row>
     <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="51" t="str">
         <f ca="1">INDIRECT("layers!A"&amp;COLUMN() -2)</f>
@@ -7766,19 +7802,19 @@
         <v>aged_care</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W2" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X2" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y2" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z2" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA2" s="41"/>
       <c r="AB2" s="40"/>
@@ -7786,10 +7822,10 @@
     </row>
     <row r="3" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="47">
         <v>0.14000000000000001</v>
@@ -7863,10 +7899,10 @@
     </row>
     <row r="4" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="48">
         <v>1</v>
@@ -7940,10 +7976,10 @@
     </row>
     <row r="5" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="48">
         <v>1</v>
@@ -8015,10 +8051,10 @@
     </row>
     <row r="6" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="48">
         <v>1</v>
@@ -8090,10 +8126,10 @@
     </row>
     <row r="7" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="48">
         <v>1</v>
@@ -8167,10 +8203,10 @@
     </row>
     <row r="8" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="48">
         <v>1</v>
@@ -8244,10 +8280,10 @@
     </row>
     <row r="9" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="48">
         <v>1</v>
@@ -8324,10 +8360,10 @@
     </row>
     <row r="10" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="48">
         <v>1</v>
@@ -8401,10 +8437,10 @@
     </row>
     <row r="11" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="48">
         <v>1</v>
@@ -8481,10 +8517,10 @@
     </row>
     <row r="12" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>264</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>265</v>
       </c>
       <c r="C12" s="48">
         <v>1</v>
@@ -8558,10 +8594,10 @@
     </row>
     <row r="13" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>267</v>
       </c>
       <c r="C13" s="48">
         <v>1</v>
@@ -8638,10 +8674,10 @@
     </row>
     <row r="14" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="48">
         <v>1</v>
@@ -8715,10 +8751,10 @@
     </row>
     <row r="15" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="48">
         <v>1</v>
@@ -8790,10 +8826,10 @@
     </row>
     <row r="16" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="48">
         <v>1</v>
@@ -8870,10 +8906,10 @@
     </row>
     <row r="17" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="48">
         <v>1</v>
@@ -8947,10 +8983,10 @@
     </row>
     <row r="18" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="48">
         <v>1</v>
@@ -9024,10 +9060,10 @@
     </row>
     <row r="19" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="48">
         <v>1</v>
@@ -9099,10 +9135,10 @@
     </row>
     <row r="20" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C20" s="48">
         <v>1</v>
@@ -9165,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X20" s="65">
         <v>0.1</v>
@@ -9180,10 +9216,10 @@
     </row>
     <row r="21" spans="1:29" s="21" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="48">
         <v>1</v>
@@ -9246,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X21" s="64">
         <v>0.95</v>
@@ -9261,10 +9297,10 @@
     </row>
     <row r="22" spans="1:29" s="21" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="48">
         <v>1</v>
@@ -9338,10 +9374,10 @@
     </row>
     <row r="23" spans="1:29" s="21" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="48">
         <v>1</v>
@@ -9415,10 +9451,10 @@
     </row>
     <row r="24" spans="1:29" s="20" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="48">
         <v>1</v>
@@ -9481,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X24" s="64">
         <v>0.8</v>
@@ -9496,10 +9532,10 @@
     </row>
     <row r="25" spans="1:29" s="20" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="48">
         <v>1</v>
@@ -9562,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X25" s="64">
         <v>0.95</v>
@@ -9577,10 +9613,10 @@
     </row>
     <row r="26" spans="1:29" s="20" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="48">
         <v>1</v>
@@ -9654,10 +9690,10 @@
     </row>
     <row r="27" spans="1:29" s="20" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="48">
         <v>1</v>
@@ -9731,10 +9767,10 @@
     </row>
     <row r="28" spans="1:29" s="20" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="47">
         <v>0.8</v>
@@ -9806,10 +9842,10 @@
     </row>
     <row r="29" spans="1:29" s="20" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>279</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>280</v>
       </c>
       <c r="C29" s="48">
         <v>1</v>
@@ -10496,7 +10532,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>151</v>
@@ -10504,29 +10540,29 @@
     </row>
     <row r="2" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18">
         <v>43891</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="18">
         <v>44075</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="19">
         <v>10</v>
@@ -10534,30 +10570,30 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5">
         <v>20000</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <f>6200000/B5</f>
         <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -10565,18 +10601,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8">
         <v>0.2</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <v>1.2</v>
@@ -10584,18 +10620,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>0.17</v>
@@ -10603,68 +10639,68 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12">
         <v>0.6</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>290</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16">
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17">
         <v>2000</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -10687,40 +10723,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="L1" s="77" t="s">
         <v>304</v>
-      </c>
-      <c r="L1" s="77" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -12500,16 +12536,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
         <v>272</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>273</v>
-      </c>
-      <c r="D1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -12604,7 +12640,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="71">
         <f>SUM(B2:B7)/SUM(C2:C7)</f>

--- a/data/vic-data.xlsx
+++ b/data/vic-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwork/Documents/GitHub/covasim-australia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE9E778-1435-FC42-8326-CC3C73972327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335E8CD-A748-A248-A4FC-D3AF9069F813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact matrices-home" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="layers" sheetId="5" r:id="rId4"/>
     <sheet name="policies" sheetId="7" r:id="rId5"/>
     <sheet name="other_par" sheetId="6" r:id="rId6"/>
-    <sheet name="epi_data" sheetId="11" r:id="rId7"/>
-    <sheet name="data" sheetId="8" r:id="rId8"/>
+    <sheet name="data" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1297,7 +1296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="292">
   <si>
     <t>age</t>
   </si>
@@ -2166,52 +2165,10 @@
     <t>Physical distancing relaxed a bit (what do we go back to)</t>
   </si>
   <si>
-    <t>diag_factor</t>
-  </si>
-  <si>
-    <t>Proportion of cases that are asymptomatic (for estimate cumulative cases data)</t>
-  </si>
-  <si>
     <t>Proportion who are asymptomatic</t>
   </si>
   <si>
     <t>iso_factor</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>cum_infections</t>
-  </si>
-  <si>
-    <t>cum_deaths</t>
-  </si>
-  <si>
-    <t>cum_test</t>
-  </si>
-  <si>
-    <t>cum_neg</t>
-  </si>
-  <si>
-    <t>n_severe</t>
-  </si>
-  <si>
-    <t>n_critical</t>
-  </si>
-  <si>
-    <t>cum_recovered</t>
-  </si>
-  <si>
-    <t>new_diagnoses</t>
-  </si>
-  <si>
-    <t>new_deaths</t>
-  </si>
-  <si>
-    <t>new_tests</t>
-  </si>
-  <si>
-    <t>daily_imported_cases</t>
   </si>
   <si>
     <t>quar_factor</t>
@@ -2225,7 +2182,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2489,23 +2446,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2719,18 +2661,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2982,7 +2912,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3152,10 +3082,6 @@
     <xf numFmtId="2" fontId="31" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6916,7 +6842,7 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
@@ -6960,7 +6886,7 @@
         <v>158</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>188</v>
@@ -6969,7 +6895,7 @@
         <v>189</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7693,31 +7619,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="82"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="78"/>
       <c r="V1" s="55"/>
-      <c r="W1" s="81" t="s">
+      <c r="W1" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="X1" s="82"/>
+      <c r="X1" s="78"/>
     </row>
     <row r="2" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -10517,8 +10443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BC351A-C64B-994E-8CEF-B4F269832CFD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10645,18 +10571,15 @@
         <v>0.6</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B13">
         <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -10709,1822 +10632,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3091FBE5-3E95-934F-B436-B236BC518E77}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:L53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="77" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
-        <v>43891</v>
-      </c>
-      <c r="B2" s="79">
-        <v>9</v>
-      </c>
-      <c r="C2" s="79">
-        <v>0</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79">
-        <v>2</v>
-      </c>
-      <c r="J2" s="79">
-        <v>0</v>
-      </c>
-      <c r="K2" s="79">
-        <v>0</v>
-      </c>
-      <c r="L2" s="79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="78">
-        <v>43892</v>
-      </c>
-      <c r="B3" s="79">
-        <v>9</v>
-      </c>
-      <c r="C3" s="79">
-        <v>0</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79">
-        <v>0</v>
-      </c>
-      <c r="J3" s="79">
-        <v>0</v>
-      </c>
-      <c r="K3" s="79">
-        <v>0</v>
-      </c>
-      <c r="L3" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="78">
-        <v>43893</v>
-      </c>
-      <c r="B4" s="79">
-        <v>9</v>
-      </c>
-      <c r="C4" s="79">
-        <v>0</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79">
-        <v>0</v>
-      </c>
-      <c r="J4" s="79">
-        <v>0</v>
-      </c>
-      <c r="K4" s="79">
-        <v>0</v>
-      </c>
-      <c r="L4" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="78">
-        <v>43894</v>
-      </c>
-      <c r="B5" s="79">
-        <v>10</v>
-      </c>
-      <c r="C5" s="79">
-        <v>0</v>
-      </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79">
-        <v>1</v>
-      </c>
-      <c r="J5" s="79">
-        <v>0</v>
-      </c>
-      <c r="K5" s="79">
-        <v>0</v>
-      </c>
-      <c r="L5" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="78">
-        <v>43895</v>
-      </c>
-      <c r="B6" s="79">
-        <v>10</v>
-      </c>
-      <c r="C6" s="79">
-        <v>0</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79">
-        <v>0</v>
-      </c>
-      <c r="J6" s="79">
-        <v>0</v>
-      </c>
-      <c r="K6" s="79">
-        <v>0</v>
-      </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="78">
-        <v>43896</v>
-      </c>
-      <c r="B7" s="79">
-        <v>10</v>
-      </c>
-      <c r="C7" s="79">
-        <v>0</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79">
-        <v>0</v>
-      </c>
-      <c r="J7" s="79">
-        <v>0</v>
-      </c>
-      <c r="K7" s="79">
-        <v>0</v>
-      </c>
-      <c r="L7" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="78">
-        <v>43897</v>
-      </c>
-      <c r="B8" s="79">
-        <v>11</v>
-      </c>
-      <c r="C8" s="79">
-        <v>0</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79">
-        <v>1</v>
-      </c>
-      <c r="J8" s="79">
-        <v>0</v>
-      </c>
-      <c r="K8" s="79">
-        <v>0</v>
-      </c>
-      <c r="L8" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="78">
-        <v>43898</v>
-      </c>
-      <c r="B9" s="79">
-        <v>12</v>
-      </c>
-      <c r="C9" s="79">
-        <v>0</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79">
-        <v>1</v>
-      </c>
-      <c r="J9" s="79">
-        <v>0</v>
-      </c>
-      <c r="K9" s="79">
-        <v>0</v>
-      </c>
-      <c r="L9" s="79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="78">
-        <v>43899</v>
-      </c>
-      <c r="B10" s="79">
-        <v>15</v>
-      </c>
-      <c r="C10" s="79">
-        <v>0</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79">
-        <v>3</v>
-      </c>
-      <c r="J10" s="79">
-        <v>0</v>
-      </c>
-      <c r="K10" s="79">
-        <v>0</v>
-      </c>
-      <c r="L10" s="79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="78">
-        <v>43900</v>
-      </c>
-      <c r="B11" s="79">
-        <v>18</v>
-      </c>
-      <c r="C11" s="79">
-        <v>0</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79">
-        <v>3</v>
-      </c>
-      <c r="J11" s="79">
-        <v>0</v>
-      </c>
-      <c r="K11" s="79">
-        <v>0</v>
-      </c>
-      <c r="L11" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="78">
-        <v>43901</v>
-      </c>
-      <c r="B12" s="79">
-        <v>21</v>
-      </c>
-      <c r="C12" s="79">
-        <v>0</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79">
-        <v>3</v>
-      </c>
-      <c r="J12" s="79">
-        <v>0</v>
-      </c>
-      <c r="K12" s="79">
-        <v>0</v>
-      </c>
-      <c r="L12" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="78">
-        <v>43902</v>
-      </c>
-      <c r="B13" s="79">
-        <v>27</v>
-      </c>
-      <c r="C13" s="79">
-        <v>0</v>
-      </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79">
-        <v>6</v>
-      </c>
-      <c r="J13" s="79">
-        <v>0</v>
-      </c>
-      <c r="K13" s="79">
-        <v>0</v>
-      </c>
-      <c r="L13" s="79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="78">
-        <v>43903</v>
-      </c>
-      <c r="B14" s="79">
-        <v>36</v>
-      </c>
-      <c r="C14" s="79">
-        <v>0</v>
-      </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79">
-        <v>9</v>
-      </c>
-      <c r="J14" s="79">
-        <v>0</v>
-      </c>
-      <c r="K14" s="80">
-        <v>500</v>
-      </c>
-      <c r="L14" s="79">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="78">
-        <v>43904</v>
-      </c>
-      <c r="B15" s="79">
-        <v>49</v>
-      </c>
-      <c r="C15" s="79">
-        <v>0</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79">
-        <v>13</v>
-      </c>
-      <c r="J15" s="79">
-        <v>0</v>
-      </c>
-      <c r="K15" s="80">
-        <v>500</v>
-      </c>
-      <c r="L15" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="78">
-        <v>43905</v>
-      </c>
-      <c r="B16" s="79">
-        <v>57</v>
-      </c>
-      <c r="C16" s="79">
-        <v>0</v>
-      </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79">
-        <v>8</v>
-      </c>
-      <c r="J16" s="79">
-        <v>0</v>
-      </c>
-      <c r="K16" s="80">
-        <v>500</v>
-      </c>
-      <c r="L16" s="79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="78">
-        <v>43906</v>
-      </c>
-      <c r="B17" s="79">
-        <v>71</v>
-      </c>
-      <c r="C17" s="79">
-        <v>0</v>
-      </c>
-      <c r="D17" s="79">
-        <v>11700</v>
-      </c>
-      <c r="E17" s="79">
-        <v>11629</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79">
-        <v>14</v>
-      </c>
-      <c r="J17" s="79">
-        <v>0</v>
-      </c>
-      <c r="K17" s="80">
-        <v>500</v>
-      </c>
-      <c r="L17" s="79">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="78">
-        <v>43907</v>
-      </c>
-      <c r="B18" s="79">
-        <v>94</v>
-      </c>
-      <c r="C18" s="79">
-        <v>0</v>
-      </c>
-      <c r="D18" s="79">
-        <v>14200</v>
-      </c>
-      <c r="E18" s="79">
-        <v>14106</v>
-      </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79">
-        <v>23</v>
-      </c>
-      <c r="J18" s="79">
-        <v>0</v>
-      </c>
-      <c r="K18" s="80">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="79">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="78">
-        <v>43908</v>
-      </c>
-      <c r="B19" s="79">
-        <v>121</v>
-      </c>
-      <c r="C19" s="79">
-        <v>0</v>
-      </c>
-      <c r="D19" s="79">
-        <v>15200</v>
-      </c>
-      <c r="E19" s="79">
-        <v>15079</v>
-      </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79">
-        <v>27</v>
-      </c>
-      <c r="J19" s="79">
-        <v>0</v>
-      </c>
-      <c r="K19" s="79">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="79">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="78">
-        <v>43909</v>
-      </c>
-      <c r="B20" s="79">
-        <v>150</v>
-      </c>
-      <c r="C20" s="79">
-        <v>0</v>
-      </c>
-      <c r="D20" s="79">
-        <v>17180</v>
-      </c>
-      <c r="E20" s="79">
-        <v>17030</v>
-      </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79">
-        <v>29</v>
-      </c>
-      <c r="J20" s="79">
-        <v>0</v>
-      </c>
-      <c r="K20" s="79">
-        <v>1980</v>
-      </c>
-      <c r="L20" s="79">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="78">
-        <v>43910</v>
-      </c>
-      <c r="B21" s="79">
-        <v>178</v>
-      </c>
-      <c r="C21" s="79">
-        <v>0</v>
-      </c>
-      <c r="D21" s="79">
-        <v>19337</v>
-      </c>
-      <c r="E21" s="79">
-        <v>19159</v>
-      </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79">
-        <v>28</v>
-      </c>
-      <c r="J21" s="79">
-        <v>0</v>
-      </c>
-      <c r="K21" s="79">
-        <v>2157</v>
-      </c>
-      <c r="L21" s="79">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="78">
-        <v>43911</v>
-      </c>
-      <c r="B22" s="79">
-        <v>229</v>
-      </c>
-      <c r="C22" s="79">
-        <v>0</v>
-      </c>
-      <c r="D22" s="79">
-        <v>20500</v>
-      </c>
-      <c r="E22" s="79">
-        <v>20271</v>
-      </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79">
-        <v>51</v>
-      </c>
-      <c r="J22" s="79">
-        <v>0</v>
-      </c>
-      <c r="K22" s="79">
-        <v>1163</v>
-      </c>
-      <c r="L22" s="79">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="78">
-        <v>43912</v>
-      </c>
-      <c r="B23" s="79">
-        <v>296</v>
-      </c>
-      <c r="C23" s="79">
-        <v>0</v>
-      </c>
-      <c r="D23" s="79">
-        <v>22900</v>
-      </c>
-      <c r="E23" s="79">
-        <v>22604</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79">
-        <v>67</v>
-      </c>
-      <c r="J23" s="79">
-        <v>0</v>
-      </c>
-      <c r="K23" s="79">
-        <v>2400</v>
-      </c>
-      <c r="L23" s="79">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="78">
-        <v>43913</v>
-      </c>
-      <c r="B24" s="79">
-        <v>355</v>
-      </c>
-      <c r="C24" s="79">
-        <v>0</v>
-      </c>
-      <c r="D24" s="79">
-        <v>23700</v>
-      </c>
-      <c r="E24" s="79">
-        <v>23345</v>
-      </c>
-      <c r="F24" s="79">
-        <v>6</v>
-      </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79">
-        <v>96</v>
-      </c>
-      <c r="I24" s="79">
-        <v>59</v>
-      </c>
-      <c r="J24" s="79">
-        <v>0</v>
-      </c>
-      <c r="K24" s="79">
-        <v>800</v>
-      </c>
-      <c r="L24" s="79">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="78">
-        <v>43914</v>
-      </c>
-      <c r="B25" s="79">
-        <v>411</v>
-      </c>
-      <c r="C25" s="79">
-        <v>0</v>
-      </c>
-      <c r="D25" s="79">
-        <v>25000</v>
-      </c>
-      <c r="E25" s="79">
-        <v>24589</v>
-      </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79">
-        <v>113</v>
-      </c>
-      <c r="I25" s="79">
-        <v>56</v>
-      </c>
-      <c r="J25" s="79">
-        <v>0</v>
-      </c>
-      <c r="K25" s="79">
-        <v>1300</v>
-      </c>
-      <c r="L25" s="79">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="78">
-        <v>43915</v>
-      </c>
-      <c r="B26" s="79">
-        <v>466</v>
-      </c>
-      <c r="C26" s="79">
-        <v>0</v>
-      </c>
-      <c r="D26" s="79">
-        <v>25500</v>
-      </c>
-      <c r="E26" s="79">
-        <v>25034</v>
-      </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79">
-        <v>128</v>
-      </c>
-      <c r="I26" s="79">
-        <v>55</v>
-      </c>
-      <c r="J26" s="79">
-        <v>0</v>
-      </c>
-      <c r="K26" s="79">
-        <v>500</v>
-      </c>
-      <c r="L26" s="79">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="78">
-        <v>43916</v>
-      </c>
-      <c r="B27" s="79">
-        <v>520</v>
-      </c>
-      <c r="C27" s="79">
-        <v>2</v>
-      </c>
-      <c r="D27" s="79">
-        <v>26900</v>
-      </c>
-      <c r="E27" s="79">
-        <v>26380</v>
-      </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79">
-        <v>149</v>
-      </c>
-      <c r="I27" s="79">
-        <v>54</v>
-      </c>
-      <c r="J27" s="79">
-        <v>2</v>
-      </c>
-      <c r="K27" s="79">
-        <v>1400</v>
-      </c>
-      <c r="L27" s="79">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="78">
-        <v>43917</v>
-      </c>
-      <c r="B28" s="79">
-        <v>574</v>
-      </c>
-      <c r="C28" s="79">
-        <v>3</v>
-      </c>
-      <c r="D28" s="79">
-        <v>27800</v>
-      </c>
-      <c r="E28" s="79">
-        <v>27226</v>
-      </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79">
-        <v>172</v>
-      </c>
-      <c r="I28" s="79">
-        <v>54</v>
-      </c>
-      <c r="J28" s="79">
-        <v>1</v>
-      </c>
-      <c r="K28" s="79">
-        <v>900</v>
-      </c>
-      <c r="L28" s="79">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="78">
-        <v>43918</v>
-      </c>
-      <c r="B29" s="79">
-        <v>685</v>
-      </c>
-      <c r="C29" s="79">
-        <v>4</v>
-      </c>
-      <c r="D29" s="79">
-        <v>35000</v>
-      </c>
-      <c r="E29" s="79">
-        <v>34315</v>
-      </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79">
-        <v>191</v>
-      </c>
-      <c r="I29" s="79">
-        <v>111</v>
-      </c>
-      <c r="J29" s="79">
-        <v>1</v>
-      </c>
-      <c r="K29" s="79">
-        <v>7200</v>
-      </c>
-      <c r="L29" s="79">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="78">
-        <v>43919</v>
-      </c>
-      <c r="B30" s="79">
-        <v>769</v>
-      </c>
-      <c r="C30" s="79">
-        <v>4</v>
-      </c>
-      <c r="D30" s="79">
-        <v>39000</v>
-      </c>
-      <c r="E30" s="79">
-        <v>38231</v>
-      </c>
-      <c r="F30" s="79">
-        <v>26</v>
-      </c>
-      <c r="G30" s="79">
-        <v>4</v>
-      </c>
-      <c r="H30" s="79">
-        <v>193</v>
-      </c>
-      <c r="I30" s="79">
-        <v>84</v>
-      </c>
-      <c r="J30" s="79">
-        <v>0</v>
-      </c>
-      <c r="K30" s="79">
-        <v>4000</v>
-      </c>
-      <c r="L30" s="79">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="78">
-        <v>43920</v>
-      </c>
-      <c r="B31" s="79">
-        <v>821</v>
-      </c>
-      <c r="C31" s="79">
-        <v>4</v>
-      </c>
-      <c r="D31" s="79">
-        <v>42000</v>
-      </c>
-      <c r="E31" s="79">
-        <v>41179</v>
-      </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79">
-        <v>4</v>
-      </c>
-      <c r="H31" s="79">
-        <v>248</v>
-      </c>
-      <c r="I31" s="79">
-        <v>52</v>
-      </c>
-      <c r="J31" s="79">
-        <v>0</v>
-      </c>
-      <c r="K31" s="79">
-        <v>3000</v>
-      </c>
-      <c r="L31" s="79">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="78">
-        <v>43921</v>
-      </c>
-      <c r="B32" s="79">
-        <v>917</v>
-      </c>
-      <c r="C32" s="79">
-        <v>4</v>
-      </c>
-      <c r="D32" s="79">
-        <v>45000</v>
-      </c>
-      <c r="E32" s="79">
-        <v>44083</v>
-      </c>
-      <c r="F32" s="79">
-        <v>29</v>
-      </c>
-      <c r="G32" s="79">
-        <v>4</v>
-      </c>
-      <c r="H32" s="79">
-        <v>291</v>
-      </c>
-      <c r="I32" s="79">
-        <v>96</v>
-      </c>
-      <c r="J32" s="79">
-        <v>0</v>
-      </c>
-      <c r="K32" s="79">
-        <v>3000</v>
-      </c>
-      <c r="L32" s="79">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="78">
-        <v>43922</v>
-      </c>
-      <c r="B33" s="79">
-        <v>968</v>
-      </c>
-      <c r="C33" s="79">
-        <v>5</v>
-      </c>
-      <c r="D33" s="79">
-        <v>47000</v>
-      </c>
-      <c r="E33" s="79">
-        <v>46032</v>
-      </c>
-      <c r="F33" s="79">
-        <v>32</v>
-      </c>
-      <c r="G33" s="79">
-        <v>6</v>
-      </c>
-      <c r="H33" s="79">
-        <v>343</v>
-      </c>
-      <c r="I33" s="79">
-        <v>51</v>
-      </c>
-      <c r="J33" s="79">
-        <v>1</v>
-      </c>
-      <c r="K33" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L33" s="79">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="78">
-        <v>43923</v>
-      </c>
-      <c r="B34" s="79">
-        <v>1036</v>
-      </c>
-      <c r="C34" s="79">
-        <v>6</v>
-      </c>
-      <c r="D34" s="79">
-        <v>49000</v>
-      </c>
-      <c r="E34" s="79">
-        <v>47964</v>
-      </c>
-      <c r="F34" s="79">
-        <v>34</v>
-      </c>
-      <c r="G34" s="79">
-        <v>6</v>
-      </c>
-      <c r="H34" s="79">
-        <v>422</v>
-      </c>
-      <c r="I34" s="79">
-        <v>68</v>
-      </c>
-      <c r="J34" s="79">
-        <v>1</v>
-      </c>
-      <c r="K34" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L34" s="79">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="78">
-        <v>43924</v>
-      </c>
-      <c r="B35" s="79">
-        <v>1085</v>
-      </c>
-      <c r="C35" s="79">
-        <v>7</v>
-      </c>
-      <c r="D35" s="79">
-        <v>51000</v>
-      </c>
-      <c r="E35" s="79">
-        <v>49915</v>
-      </c>
-      <c r="F35" s="79">
-        <v>37</v>
-      </c>
-      <c r="G35" s="79">
-        <v>7</v>
-      </c>
-      <c r="H35" s="79">
-        <v>476</v>
-      </c>
-      <c r="I35" s="79">
-        <v>49</v>
-      </c>
-      <c r="J35" s="79">
-        <v>1</v>
-      </c>
-      <c r="K35" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L35" s="79">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="78">
-        <v>43925</v>
-      </c>
-      <c r="B36" s="79">
-        <v>1115</v>
-      </c>
-      <c r="C36" s="79">
-        <v>8</v>
-      </c>
-      <c r="D36" s="79">
-        <v>54000</v>
-      </c>
-      <c r="E36" s="79">
-        <v>52885</v>
-      </c>
-      <c r="F36" s="79">
-        <v>42</v>
-      </c>
-      <c r="G36" s="79">
-        <v>10</v>
-      </c>
-      <c r="H36" s="79">
-        <v>527</v>
-      </c>
-      <c r="I36" s="79">
-        <v>30</v>
-      </c>
-      <c r="J36" s="79">
-        <v>1</v>
-      </c>
-      <c r="K36" s="79">
-        <v>3000</v>
-      </c>
-      <c r="L36" s="79">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="78">
-        <v>43926</v>
-      </c>
-      <c r="B37" s="79">
-        <v>1135</v>
-      </c>
-      <c r="C37" s="79">
-        <v>8</v>
-      </c>
-      <c r="D37" s="79">
-        <v>56000</v>
-      </c>
-      <c r="E37" s="79">
-        <v>54865</v>
-      </c>
-      <c r="F37" s="79">
-        <v>47</v>
-      </c>
-      <c r="G37" s="79">
-        <v>11</v>
-      </c>
-      <c r="H37" s="79">
-        <v>573</v>
-      </c>
-      <c r="I37" s="79">
-        <v>20</v>
-      </c>
-      <c r="J37" s="79">
-        <v>0</v>
-      </c>
-      <c r="K37" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L37" s="79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="78">
-        <v>43927</v>
-      </c>
-      <c r="B38" s="79">
-        <v>1158</v>
-      </c>
-      <c r="C38" s="79">
-        <v>10</v>
-      </c>
-      <c r="D38" s="79">
-        <v>57000</v>
-      </c>
-      <c r="E38" s="79">
-        <v>55842</v>
-      </c>
-      <c r="F38" s="79">
-        <v>45</v>
-      </c>
-      <c r="G38" s="79">
-        <v>11</v>
-      </c>
-      <c r="H38" s="79">
-        <v>620</v>
-      </c>
-      <c r="I38" s="79">
-        <v>23</v>
-      </c>
-      <c r="J38" s="79">
-        <v>2</v>
-      </c>
-      <c r="K38" s="79">
-        <v>1000</v>
-      </c>
-      <c r="L38" s="79">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="78">
-        <v>43928</v>
-      </c>
-      <c r="B39" s="79">
-        <v>1191</v>
-      </c>
-      <c r="C39" s="79">
-        <v>11</v>
-      </c>
-      <c r="D39" s="79">
-        <v>58000</v>
-      </c>
-      <c r="E39" s="79">
-        <v>56809</v>
-      </c>
-      <c r="F39" s="79">
-        <v>47</v>
-      </c>
-      <c r="G39" s="79">
-        <v>13</v>
-      </c>
-      <c r="H39" s="79">
-        <v>686</v>
-      </c>
-      <c r="I39" s="79">
-        <v>33</v>
-      </c>
-      <c r="J39" s="79">
-        <v>1</v>
-      </c>
-      <c r="K39" s="79">
-        <v>1000</v>
-      </c>
-      <c r="L39" s="79">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="78">
-        <v>43929</v>
-      </c>
-      <c r="B40" s="79">
-        <v>1212</v>
-      </c>
-      <c r="C40" s="79">
-        <v>12</v>
-      </c>
-      <c r="D40" s="79">
-        <v>60000</v>
-      </c>
-      <c r="E40" s="79">
-        <v>58788</v>
-      </c>
-      <c r="F40" s="79">
-        <v>45</v>
-      </c>
-      <c r="G40" s="79">
-        <v>12</v>
-      </c>
-      <c r="H40" s="79">
-        <v>736</v>
-      </c>
-      <c r="I40" s="79">
-        <v>21</v>
-      </c>
-      <c r="J40" s="79">
-        <v>1</v>
-      </c>
-      <c r="K40" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L40" s="79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="78">
-        <v>43930</v>
-      </c>
-      <c r="B41" s="79">
-        <v>1228</v>
-      </c>
-      <c r="C41" s="79">
-        <v>12</v>
-      </c>
-      <c r="D41" s="79">
-        <v>62000</v>
-      </c>
-      <c r="E41" s="79">
-        <v>60772</v>
-      </c>
-      <c r="F41" s="79">
-        <v>50</v>
-      </c>
-      <c r="G41" s="79">
-        <v>13</v>
-      </c>
-      <c r="H41" s="79">
-        <v>806</v>
-      </c>
-      <c r="I41" s="79">
-        <v>16</v>
-      </c>
-      <c r="J41" s="79">
-        <v>0</v>
-      </c>
-      <c r="K41" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L41" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="78">
-        <v>43931</v>
-      </c>
-      <c r="B42" s="79">
-        <v>1241</v>
-      </c>
-      <c r="C42" s="79">
-        <v>13</v>
-      </c>
-      <c r="D42" s="79">
-        <v>65000</v>
-      </c>
-      <c r="E42" s="79">
-        <v>63759</v>
-      </c>
-      <c r="F42" s="79">
-        <v>43</v>
-      </c>
-      <c r="G42" s="79">
-        <v>13</v>
-      </c>
-      <c r="H42" s="79">
-        <v>926</v>
-      </c>
-      <c r="I42" s="79">
-        <v>13</v>
-      </c>
-      <c r="J42" s="79">
-        <v>1</v>
-      </c>
-      <c r="K42" s="79">
-        <v>3000</v>
-      </c>
-      <c r="L42" s="79">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="78">
-        <v>43932</v>
-      </c>
-      <c r="B43" s="79">
-        <v>1265</v>
-      </c>
-      <c r="C43" s="79">
-        <v>14</v>
-      </c>
-      <c r="D43" s="79">
-        <v>67000</v>
-      </c>
-      <c r="E43" s="79">
-        <v>65735</v>
-      </c>
-      <c r="F43" s="79">
-        <v>44</v>
-      </c>
-      <c r="G43" s="79">
-        <v>15</v>
-      </c>
-      <c r="H43" s="79">
-        <v>986</v>
-      </c>
-      <c r="I43" s="79">
-        <v>24</v>
-      </c>
-      <c r="J43" s="79">
-        <v>1</v>
-      </c>
-      <c r="K43" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L43" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="78">
-        <v>43933</v>
-      </c>
-      <c r="B44" s="79">
-        <v>1268</v>
-      </c>
-      <c r="C44" s="79">
-        <v>14</v>
-      </c>
-      <c r="D44" s="79">
-        <v>69000</v>
-      </c>
-      <c r="E44" s="79">
-        <v>67732</v>
-      </c>
-      <c r="F44" s="79">
-        <v>44</v>
-      </c>
-      <c r="G44" s="79">
-        <v>16</v>
-      </c>
-      <c r="H44" s="79">
-        <v>1015</v>
-      </c>
-      <c r="I44" s="79">
-        <v>3</v>
-      </c>
-      <c r="J44" s="79">
-        <v>0</v>
-      </c>
-      <c r="K44" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L44" s="79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="78">
-        <v>43934</v>
-      </c>
-      <c r="B45" s="79">
-        <v>1281</v>
-      </c>
-      <c r="C45" s="79">
-        <v>14</v>
-      </c>
-      <c r="D45" s="79">
-        <v>70000</v>
-      </c>
-      <c r="E45" s="79">
-        <v>68719</v>
-      </c>
-      <c r="F45" s="79">
-        <v>40</v>
-      </c>
-      <c r="G45" s="79">
-        <v>14</v>
-      </c>
-      <c r="H45" s="79">
-        <v>1075</v>
-      </c>
-      <c r="I45" s="79">
-        <v>13</v>
-      </c>
-      <c r="J45" s="79">
-        <v>0</v>
-      </c>
-      <c r="K45" s="79">
-        <v>1000</v>
-      </c>
-      <c r="L45" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="78">
-        <v>43935</v>
-      </c>
-      <c r="B46" s="79">
-        <v>1291</v>
-      </c>
-      <c r="C46" s="79">
-        <v>14</v>
-      </c>
-      <c r="D46" s="79">
-        <v>71000</v>
-      </c>
-      <c r="E46" s="79">
-        <v>69709</v>
-      </c>
-      <c r="F46" s="79">
-        <v>40</v>
-      </c>
-      <c r="G46" s="79">
-        <v>15</v>
-      </c>
-      <c r="H46" s="79">
-        <v>1118</v>
-      </c>
-      <c r="I46" s="79">
-        <v>10</v>
-      </c>
-      <c r="J46" s="79">
-        <v>0</v>
-      </c>
-      <c r="K46" s="79">
-        <v>1000</v>
-      </c>
-      <c r="L46" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="78">
-        <v>43936</v>
-      </c>
-      <c r="B47" s="79">
-        <v>1299</v>
-      </c>
-      <c r="C47" s="79">
-        <v>14</v>
-      </c>
-      <c r="D47" s="79">
-        <v>72000</v>
-      </c>
-      <c r="E47" s="79">
-        <v>70701</v>
-      </c>
-      <c r="F47" s="79">
-        <v>39</v>
-      </c>
-      <c r="G47" s="79">
-        <v>18</v>
-      </c>
-      <c r="H47" s="79">
-        <v>1137</v>
-      </c>
-      <c r="I47" s="79">
-        <v>8</v>
-      </c>
-      <c r="J47" s="79">
-        <v>0</v>
-      </c>
-      <c r="K47" s="79">
-        <v>1000</v>
-      </c>
-      <c r="L47" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="78">
-        <v>43937</v>
-      </c>
-      <c r="B48" s="79">
-        <v>1301</v>
-      </c>
-      <c r="C48" s="79">
-        <v>14</v>
-      </c>
-      <c r="D48" s="79">
-        <v>73000</v>
-      </c>
-      <c r="E48" s="79">
-        <v>71699</v>
-      </c>
-      <c r="F48" s="79">
-        <v>39</v>
-      </c>
-      <c r="G48" s="79">
-        <v>18</v>
-      </c>
-      <c r="H48" s="79">
-        <v>1153</v>
-      </c>
-      <c r="I48" s="79">
-        <v>2</v>
-      </c>
-      <c r="J48" s="79">
-        <v>0</v>
-      </c>
-      <c r="K48" s="79">
-        <v>1000</v>
-      </c>
-      <c r="L48" s="79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="78">
-        <v>43938</v>
-      </c>
-      <c r="B49" s="79">
-        <v>1302</v>
-      </c>
-      <c r="C49" s="79">
-        <v>14</v>
-      </c>
-      <c r="D49" s="79">
-        <v>75000</v>
-      </c>
-      <c r="E49" s="79">
-        <v>73698</v>
-      </c>
-      <c r="F49" s="79">
-        <v>32</v>
-      </c>
-      <c r="G49" s="79">
-        <v>13</v>
-      </c>
-      <c r="H49" s="79">
-        <v>1159</v>
-      </c>
-      <c r="I49" s="79">
-        <v>1</v>
-      </c>
-      <c r="J49" s="79">
-        <v>0</v>
-      </c>
-      <c r="K49" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L49" s="79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="78">
-        <v>43939</v>
-      </c>
-      <c r="B50" s="79">
-        <v>1319</v>
-      </c>
-      <c r="C50" s="79">
-        <v>14</v>
-      </c>
-      <c r="D50" s="79">
-        <v>79000</v>
-      </c>
-      <c r="E50" s="79">
-        <v>77681</v>
-      </c>
-      <c r="F50" s="79">
-        <v>30</v>
-      </c>
-      <c r="G50" s="79">
-        <v>12</v>
-      </c>
-      <c r="H50" s="79">
-        <v>1172</v>
-      </c>
-      <c r="I50" s="79">
-        <v>17</v>
-      </c>
-      <c r="J50" s="79">
-        <v>0</v>
-      </c>
-      <c r="K50" s="79">
-        <v>4000</v>
-      </c>
-      <c r="L50" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="78">
-        <v>43940</v>
-      </c>
-      <c r="B51" s="79">
-        <v>1328</v>
-      </c>
-      <c r="C51" s="79">
-        <v>15</v>
-      </c>
-      <c r="D51" s="79">
-        <v>82000</v>
-      </c>
-      <c r="E51" s="79">
-        <v>80672</v>
-      </c>
-      <c r="F51" s="79">
-        <v>29</v>
-      </c>
-      <c r="G51" s="79">
-        <v>10</v>
-      </c>
-      <c r="H51" s="79">
-        <v>1188</v>
-      </c>
-      <c r="I51" s="79">
-        <v>9</v>
-      </c>
-      <c r="J51" s="79">
-        <v>1</v>
-      </c>
-      <c r="K51" s="79">
-        <v>3000</v>
-      </c>
-      <c r="L51" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="78">
-        <v>43941</v>
-      </c>
-      <c r="B52" s="79">
-        <v>1329</v>
-      </c>
-      <c r="C52" s="79">
-        <v>15</v>
-      </c>
-      <c r="D52" s="79">
-        <v>86000</v>
-      </c>
-      <c r="E52" s="79">
-        <v>84671</v>
-      </c>
-      <c r="F52" s="79">
-        <v>28</v>
-      </c>
-      <c r="G52" s="79">
-        <v>11</v>
-      </c>
-      <c r="H52" s="79">
-        <v>1196</v>
-      </c>
-      <c r="I52" s="79">
-        <v>1</v>
-      </c>
-      <c r="J52" s="79">
-        <v>0</v>
-      </c>
-      <c r="K52" s="79">
-        <v>4000</v>
-      </c>
-      <c r="L52" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="78">
-        <v>43942</v>
-      </c>
-      <c r="B53" s="79">
-        <v>1336</v>
-      </c>
-      <c r="C53" s="79">
-        <v>15</v>
-      </c>
-      <c r="D53" s="79">
-        <v>88000</v>
-      </c>
-      <c r="E53" s="79">
-        <v>86664</v>
-      </c>
-      <c r="F53" s="79">
-        <v>28</v>
-      </c>
-      <c r="G53" s="79">
-        <v>12</v>
-      </c>
-      <c r="H53" s="79">
-        <v>1202</v>
-      </c>
-      <c r="I53" s="79">
-        <v>7</v>
-      </c>
-      <c r="J53" s="79">
-        <v>0</v>
-      </c>
-      <c r="K53" s="79">
-        <v>2000</v>
-      </c>
-      <c r="L53" s="79">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3870F7-A576-4BD3-9D23-1C9E10583711}">
   <dimension ref="A1:D8"/>
   <sheetViews>
